--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>66290600</v>
+        <v>80741300</v>
       </c>
       <c r="E8" s="3">
-        <v>51987400</v>
+        <v>64664300</v>
       </c>
       <c r="F8" s="3">
-        <v>37059400</v>
+        <v>50712000</v>
       </c>
       <c r="G8" s="3">
-        <v>25975900</v>
+        <v>36150300</v>
       </c>
       <c r="H8" s="3">
-        <v>16500500</v>
+        <v>25338700</v>
       </c>
       <c r="I8" s="3">
-        <v>9948900</v>
+        <v>16095700</v>
       </c>
       <c r="J8" s="3">
+        <v>9704800</v>
+      </c>
+      <c r="K8" s="3">
         <v>5937300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3072800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>56827600</v>
+        <v>68925700</v>
       </c>
       <c r="E9" s="3">
-        <v>44696400</v>
+        <v>55433400</v>
       </c>
       <c r="F9" s="3">
-        <v>63652500</v>
+        <v>43599900</v>
       </c>
       <c r="G9" s="3">
-        <v>45335200</v>
+        <v>62090900</v>
       </c>
       <c r="H9" s="3">
-        <v>14582100</v>
+        <v>44223000</v>
       </c>
       <c r="I9" s="3">
-        <v>8966900</v>
+        <v>14224300</v>
       </c>
       <c r="J9" s="3">
+        <v>8746900</v>
+      </c>
+      <c r="K9" s="3">
         <v>5437700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2905200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9463000</v>
+        <v>11815600</v>
       </c>
       <c r="E10" s="3">
-        <v>7290900</v>
+        <v>9230900</v>
       </c>
       <c r="F10" s="3">
-        <v>-26593100</v>
+        <v>7112100</v>
       </c>
       <c r="G10" s="3">
-        <v>-19359200</v>
+        <v>-25940700</v>
       </c>
       <c r="H10" s="3">
-        <v>1918500</v>
+        <v>-18884300</v>
       </c>
       <c r="I10" s="3">
-        <v>982000</v>
+        <v>1871400</v>
       </c>
       <c r="J10" s="3">
+        <v>957900</v>
+      </c>
+      <c r="K10" s="3">
         <v>499600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>167600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,38 +826,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1728400</v>
+        <v>2032200</v>
       </c>
       <c r="E12" s="3">
-        <v>942400</v>
+        <v>1686000</v>
       </c>
       <c r="F12" s="3">
-        <v>632300</v>
+        <v>919300</v>
       </c>
       <c r="G12" s="3">
-        <v>412900</v>
+        <v>616800</v>
       </c>
       <c r="H12" s="3">
-        <v>263400</v>
+        <v>402800</v>
       </c>
       <c r="I12" s="3">
-        <v>138300</v>
+        <v>257000</v>
       </c>
       <c r="J12" s="3">
+        <v>134900</v>
+      </c>
+      <c r="K12" s="3">
         <v>91300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34900</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,26 +889,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-101100</v>
+        <v>-438100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-98600</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>394600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>384900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -903,26 +922,29 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>259100</v>
+        <v>169200</v>
       </c>
       <c r="E15" s="3">
-        <v>255100</v>
+        <v>252800</v>
       </c>
       <c r="F15" s="3">
-        <v>230900</v>
+        <v>248800</v>
       </c>
       <c r="G15" s="3">
-        <v>206500</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
+        <v>225200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>201400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -933,9 +955,12 @@
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>66562100</v>
+        <v>79588000</v>
       </c>
       <c r="E17" s="3">
-        <v>52107200</v>
+        <v>64929100</v>
       </c>
       <c r="F17" s="3">
-        <v>37239000</v>
+        <v>50828900</v>
       </c>
       <c r="G17" s="3">
-        <v>26744700</v>
+        <v>36325400</v>
       </c>
       <c r="H17" s="3">
-        <v>17333100</v>
+        <v>26088600</v>
       </c>
       <c r="I17" s="3">
-        <v>10031900</v>
+        <v>16907800</v>
       </c>
       <c r="J17" s="3">
+        <v>9785800</v>
+      </c>
+      <c r="K17" s="3">
         <v>6217200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3277000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-271500</v>
+        <v>1153300</v>
       </c>
       <c r="E18" s="3">
-        <v>-119900</v>
+        <v>-264800</v>
       </c>
       <c r="F18" s="3">
-        <v>-179600</v>
+        <v>-116900</v>
       </c>
       <c r="G18" s="3">
-        <v>-768800</v>
+        <v>-175200</v>
       </c>
       <c r="H18" s="3">
-        <v>-832500</v>
+        <v>-749900</v>
       </c>
       <c r="I18" s="3">
-        <v>-83100</v>
+        <v>-812100</v>
       </c>
       <c r="J18" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-279900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-204200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>53500</v>
+        <v>864600</v>
       </c>
       <c r="E20" s="3">
-        <v>275500</v>
+        <v>52200</v>
       </c>
       <c r="F20" s="3">
-        <v>-1700</v>
+        <v>268700</v>
       </c>
       <c r="G20" s="3">
-        <v>-333700</v>
+        <v>-1600</v>
       </c>
       <c r="H20" s="3">
-        <v>122600</v>
+        <v>-325500</v>
       </c>
       <c r="I20" s="3">
-        <v>77100</v>
+        <v>119600</v>
       </c>
       <c r="J20" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K20" s="3">
         <v>33900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>579500</v>
+        <v>2831000</v>
       </c>
       <c r="E21" s="3">
-        <v>757000</v>
+        <v>563100</v>
       </c>
       <c r="F21" s="3">
-        <v>309300</v>
+        <v>736700</v>
       </c>
       <c r="G21" s="3">
-        <v>-742800</v>
+        <v>300300</v>
       </c>
       <c r="H21" s="3">
-        <v>-473200</v>
+        <v>-725600</v>
       </c>
       <c r="I21" s="3">
-        <v>36100</v>
+        <v>-462300</v>
       </c>
       <c r="J21" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-219400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-175900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>122600</v>
+        <v>101500</v>
       </c>
       <c r="E22" s="3">
-        <v>138300</v>
+        <v>119600</v>
       </c>
       <c r="F22" s="3">
-        <v>88800</v>
+        <v>134900</v>
       </c>
       <c r="G22" s="3">
-        <v>10400</v>
+        <v>86600</v>
       </c>
       <c r="H22" s="3">
-        <v>4100</v>
+        <v>10200</v>
       </c>
       <c r="I22" s="3">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="J22" s="3">
         <v>1200</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-340600</v>
+        <v>1916400</v>
       </c>
       <c r="E23" s="3">
-        <v>17400</v>
+        <v>-332200</v>
       </c>
       <c r="F23" s="3">
-        <v>-270000</v>
+        <v>16900</v>
       </c>
       <c r="G23" s="3">
-        <v>-1112800</v>
+        <v>-263400</v>
       </c>
       <c r="H23" s="3">
-        <v>-714100</v>
+        <v>-1085500</v>
       </c>
       <c r="I23" s="3">
-        <v>-7200</v>
+        <v>-696600</v>
       </c>
       <c r="J23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-247300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-186700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61200</v>
+        <v>252300</v>
       </c>
       <c r="E24" s="3">
-        <v>20000</v>
+        <v>59700</v>
       </c>
       <c r="F24" s="3">
-        <v>23900</v>
+        <v>19500</v>
       </c>
       <c r="G24" s="3">
-        <v>-2100</v>
+        <v>23300</v>
       </c>
       <c r="H24" s="3">
-        <v>2800</v>
+        <v>-2000</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-401800</v>
+        <v>1664100</v>
       </c>
       <c r="E26" s="3">
-        <v>-2700</v>
+        <v>-392000</v>
       </c>
       <c r="F26" s="3">
-        <v>-293900</v>
+        <v>-2600</v>
       </c>
       <c r="G26" s="3">
-        <v>-1110700</v>
+        <v>-286700</v>
       </c>
       <c r="H26" s="3">
-        <v>-716900</v>
+        <v>-1083500</v>
       </c>
       <c r="I26" s="3">
-        <v>-7200</v>
+        <v>-699300</v>
       </c>
       <c r="J26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-248100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-186700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-357500</v>
+        <v>1705300</v>
       </c>
       <c r="E27" s="3">
-        <v>16800</v>
+        <v>-348700</v>
       </c>
       <c r="F27" s="3">
-        <v>-287000</v>
+        <v>16300</v>
       </c>
       <c r="G27" s="3">
-        <v>-1109400</v>
+        <v>-280000</v>
       </c>
       <c r="H27" s="3">
-        <v>-1858600</v>
+        <v>-1082100</v>
       </c>
       <c r="I27" s="3">
-        <v>-356600</v>
+        <v>-1813000</v>
       </c>
       <c r="J27" s="3">
+        <v>-347800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-475900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-428200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,16 +1358,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-38600</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-259200</v>
+        <v>-37700</v>
       </c>
       <c r="G29" s="3">
-        <v>-197500</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
+        <v>-252800</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-192600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-53500</v>
+        <v>-864600</v>
       </c>
       <c r="E32" s="3">
-        <v>-275500</v>
+        <v>-52200</v>
       </c>
       <c r="F32" s="3">
-        <v>1700</v>
+        <v>-268700</v>
       </c>
       <c r="G32" s="3">
-        <v>333700</v>
+        <v>1600</v>
       </c>
       <c r="H32" s="3">
-        <v>-122600</v>
+        <v>325500</v>
       </c>
       <c r="I32" s="3">
-        <v>-77100</v>
+        <v>-119600</v>
       </c>
       <c r="J32" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-33900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-357500</v>
+        <v>1705300</v>
       </c>
       <c r="E33" s="3">
-        <v>-21800</v>
+        <v>-348700</v>
       </c>
       <c r="F33" s="3">
-        <v>-546200</v>
+        <v>-21300</v>
       </c>
       <c r="G33" s="3">
-        <v>-1306800</v>
+        <v>-532800</v>
       </c>
       <c r="H33" s="3">
-        <v>-1858600</v>
+        <v>-1274700</v>
       </c>
       <c r="I33" s="3">
-        <v>-356600</v>
+        <v>-1813000</v>
       </c>
       <c r="J33" s="3">
+        <v>-347800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-475900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-428200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-357500</v>
+        <v>1705300</v>
       </c>
       <c r="E35" s="3">
-        <v>-21800</v>
+        <v>-348700</v>
       </c>
       <c r="F35" s="3">
-        <v>-546200</v>
+        <v>-21300</v>
       </c>
       <c r="G35" s="3">
-        <v>-1306800</v>
+        <v>-532800</v>
       </c>
       <c r="H35" s="3">
-        <v>-1858600</v>
+        <v>-1274700</v>
       </c>
       <c r="I35" s="3">
-        <v>-356600</v>
+        <v>-1813000</v>
       </c>
       <c r="J35" s="3">
+        <v>-347800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-475900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-428200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,278 +1647,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4916000</v>
+        <v>5181900</v>
       </c>
       <c r="E41" s="3">
-        <v>3685800</v>
+        <v>4802200</v>
       </c>
       <c r="F41" s="3">
-        <v>2233600</v>
+        <v>3600500</v>
       </c>
       <c r="G41" s="3">
-        <v>2563100</v>
+        <v>2181900</v>
       </c>
       <c r="H41" s="3">
-        <v>2426900</v>
+        <v>2503800</v>
       </c>
       <c r="I41" s="3">
-        <v>1551400</v>
+        <v>2370800</v>
       </c>
       <c r="J41" s="3">
+        <v>1515500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1029800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>914600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>292100</v>
+        <v>3448300</v>
       </c>
       <c r="E42" s="3">
-        <v>1232200</v>
+        <v>285300</v>
       </c>
       <c r="F42" s="3">
-        <v>2588100</v>
+        <v>1203700</v>
       </c>
       <c r="G42" s="3">
-        <v>418300</v>
+        <v>2528300</v>
       </c>
       <c r="H42" s="3">
-        <v>1768900</v>
+        <v>408700</v>
       </c>
       <c r="I42" s="3">
-        <v>276000</v>
+        <v>1728000</v>
       </c>
       <c r="J42" s="3">
+        <v>269600</v>
+      </c>
+      <c r="K42" s="3">
         <v>157100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2433800</v>
+        <v>1678600</v>
       </c>
       <c r="E43" s="3">
-        <v>4632700</v>
+        <v>2377500</v>
       </c>
       <c r="F43" s="3">
-        <v>6510100</v>
+        <v>4525500</v>
       </c>
       <c r="G43" s="3">
-        <v>1831200</v>
+        <v>6359400</v>
       </c>
       <c r="H43" s="3">
-        <v>445900</v>
+        <v>1788900</v>
       </c>
       <c r="I43" s="3">
-        <v>76200</v>
+        <v>435500</v>
       </c>
       <c r="J43" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K43" s="3">
         <v>77100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>69900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6317400</v>
+        <v>8119800</v>
       </c>
       <c r="E44" s="3">
-        <v>5983200</v>
+        <v>6171300</v>
       </c>
       <c r="F44" s="3">
-        <v>8295800</v>
+        <v>5844700</v>
       </c>
       <c r="G44" s="3">
-        <v>2947000</v>
+        <v>8103900</v>
       </c>
       <c r="H44" s="3">
-        <v>1749100</v>
+        <v>2878800</v>
       </c>
       <c r="I44" s="3">
-        <v>916300</v>
+        <v>1708700</v>
       </c>
       <c r="J44" s="3">
+        <v>895100</v>
+      </c>
+      <c r="K44" s="3">
         <v>682100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>401900</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1085400</v>
+        <v>1066900</v>
       </c>
       <c r="E45" s="3">
-        <v>970500</v>
+        <v>1060300</v>
       </c>
       <c r="F45" s="3">
-        <v>3827500</v>
+        <v>948000</v>
       </c>
       <c r="G45" s="3">
-        <v>842600</v>
+        <v>3738900</v>
       </c>
       <c r="H45" s="3">
-        <v>774800</v>
+        <v>823100</v>
       </c>
       <c r="I45" s="3">
-        <v>405600</v>
+        <v>756900</v>
       </c>
       <c r="J45" s="3">
+        <v>396300</v>
+      </c>
+      <c r="K45" s="3">
         <v>303600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>49900</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15044700</v>
+        <v>19495500</v>
       </c>
       <c r="E46" s="3">
-        <v>16504300</v>
+        <v>14696600</v>
       </c>
       <c r="F46" s="3">
-        <v>15342600</v>
+        <v>16122400</v>
       </c>
       <c r="G46" s="3">
-        <v>8389000</v>
+        <v>14987600</v>
       </c>
       <c r="H46" s="3">
-        <v>7165600</v>
+        <v>8194900</v>
       </c>
       <c r="I46" s="3">
-        <v>3225400</v>
+        <v>6999800</v>
       </c>
       <c r="J46" s="3">
+        <v>3150800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2249700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1437200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6780600</v>
+        <v>7988100</v>
       </c>
       <c r="E47" s="3">
-        <v>4100500</v>
+        <v>6623700</v>
       </c>
       <c r="F47" s="3">
-        <v>5353900</v>
+        <v>4005700</v>
       </c>
       <c r="G47" s="3">
-        <v>1394500</v>
+        <v>5230000</v>
       </c>
       <c r="H47" s="3">
-        <v>146500</v>
+        <v>1362200</v>
       </c>
       <c r="I47" s="3">
-        <v>5200</v>
+        <v>143100</v>
       </c>
       <c r="J47" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3965300</v>
+        <v>4920200</v>
       </c>
       <c r="E48" s="3">
-        <v>2262800</v>
+        <v>3873500</v>
       </c>
       <c r="F48" s="3">
-        <v>2301300</v>
+        <v>2210400</v>
       </c>
       <c r="G48" s="3">
-        <v>1076100</v>
+        <v>2248000</v>
       </c>
       <c r="H48" s="3">
-        <v>622300</v>
+        <v>1051200</v>
       </c>
       <c r="I48" s="3">
-        <v>324600</v>
+        <v>607900</v>
       </c>
       <c r="J48" s="3">
+        <v>317100</v>
+      </c>
+      <c r="K48" s="3">
         <v>143700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3175400</v>
+        <v>3033800</v>
       </c>
       <c r="E49" s="3">
-        <v>2926100</v>
+        <v>3101900</v>
       </c>
       <c r="F49" s="3">
-        <v>4054800</v>
+        <v>2858400</v>
       </c>
       <c r="G49" s="3">
-        <v>1013600</v>
+        <v>3961000</v>
       </c>
       <c r="H49" s="3">
-        <v>1516200</v>
+        <v>990200</v>
       </c>
       <c r="I49" s="3">
-        <v>119000</v>
+        <v>1481200</v>
       </c>
       <c r="J49" s="3">
+        <v>116200</v>
+      </c>
+      <c r="K49" s="3">
         <v>110800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1045000</v>
+        <v>965300</v>
       </c>
       <c r="E52" s="3">
-        <v>614400</v>
+        <v>1020800</v>
       </c>
       <c r="F52" s="3">
-        <v>1643200</v>
+        <v>600200</v>
       </c>
       <c r="G52" s="3">
-        <v>302300</v>
+        <v>1605200</v>
       </c>
       <c r="H52" s="3">
-        <v>89700</v>
+        <v>295300</v>
       </c>
       <c r="I52" s="3">
-        <v>57700</v>
+        <v>87700</v>
       </c>
       <c r="J52" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K52" s="3">
         <v>61700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>40200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30011000</v>
+        <v>36402900</v>
       </c>
       <c r="E54" s="3">
-        <v>26408200</v>
+        <v>29316500</v>
       </c>
       <c r="F54" s="3">
-        <v>23010400</v>
+        <v>25797100</v>
       </c>
       <c r="G54" s="3">
-        <v>12198000</v>
+        <v>22478000</v>
       </c>
       <c r="H54" s="3">
-        <v>9540400</v>
+        <v>11915700</v>
       </c>
       <c r="I54" s="3">
-        <v>3731900</v>
+        <v>9319700</v>
       </c>
       <c r="J54" s="3">
+        <v>3645500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2566300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1538500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,145 +2139,158 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11507200</v>
+        <v>12719000</v>
       </c>
       <c r="E57" s="3">
-        <v>10673800</v>
+        <v>11240900</v>
       </c>
       <c r="F57" s="3">
-        <v>6627500</v>
+        <v>10426800</v>
       </c>
       <c r="G57" s="3">
-        <v>4293500</v>
+        <v>6474100</v>
       </c>
       <c r="H57" s="3">
-        <v>2394500</v>
+        <v>4194200</v>
       </c>
       <c r="I57" s="3">
-        <v>1581000</v>
+        <v>2339100</v>
       </c>
       <c r="J57" s="3">
+        <v>1544400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1162400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>528800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>652100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>1848700</v>
+        <v>637000</v>
       </c>
       <c r="F58" s="3">
-        <v>1594000</v>
+        <v>1805900</v>
       </c>
       <c r="G58" s="3">
-        <v>519400</v>
+        <v>1557100</v>
       </c>
       <c r="H58" s="3">
-        <v>271300</v>
+        <v>507400</v>
       </c>
       <c r="I58" s="3">
-        <v>133800</v>
+        <v>265000</v>
       </c>
       <c r="J58" s="3">
+        <v>130700</v>
+      </c>
+      <c r="K58" s="3">
         <v>124500</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5182000</v>
+        <v>6905800</v>
       </c>
       <c r="E59" s="3">
-        <v>4444100</v>
+        <v>5062100</v>
       </c>
       <c r="F59" s="3">
-        <v>11029500</v>
+        <v>4341300</v>
       </c>
       <c r="G59" s="3">
-        <v>2215300</v>
+        <v>10774300</v>
       </c>
       <c r="H59" s="3">
-        <v>1494400</v>
+        <v>2164100</v>
       </c>
       <c r="I59" s="3">
-        <v>691300</v>
+        <v>1459800</v>
       </c>
       <c r="J59" s="3">
+        <v>675300</v>
+      </c>
+      <c r="K59" s="3">
         <v>360800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>146700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17341300</v>
+        <v>19624800</v>
       </c>
       <c r="E60" s="3">
-        <v>16966600</v>
+        <v>16940000</v>
       </c>
       <c r="F60" s="3">
-        <v>15028100</v>
+        <v>16574000</v>
       </c>
       <c r="G60" s="3">
-        <v>7028100</v>
+        <v>14680400</v>
       </c>
       <c r="H60" s="3">
-        <v>4160200</v>
+        <v>6865500</v>
       </c>
       <c r="I60" s="3">
-        <v>2406200</v>
+        <v>4064000</v>
       </c>
       <c r="J60" s="3">
+        <v>2350500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1647700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>675500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1416800</v>
+        <v>1408900</v>
       </c>
       <c r="E61" s="3">
-        <v>1567200</v>
+        <v>1384000</v>
       </c>
       <c r="F61" s="3">
-        <v>1312800</v>
+        <v>1530900</v>
       </c>
       <c r="G61" s="3">
-        <v>395100</v>
+        <v>1282400</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>386000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2159,26 +2301,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>229600</v>
+        <v>1265700</v>
       </c>
       <c r="E62" s="3">
-        <v>357700</v>
+        <v>224300</v>
       </c>
       <c r="F62" s="3">
-        <v>495400</v>
+        <v>349400</v>
       </c>
       <c r="G62" s="3">
-        <v>367000</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
+        <v>483900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>358500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
@@ -2189,9 +2334,12 @@
       <c r="K62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21435000</v>
+        <v>24929900</v>
       </c>
       <c r="E66" s="3">
-        <v>18941400</v>
+        <v>20939000</v>
       </c>
       <c r="F66" s="3">
-        <v>18147400</v>
+        <v>18503100</v>
       </c>
       <c r="G66" s="3">
-        <v>7809900</v>
+        <v>17727500</v>
       </c>
       <c r="H66" s="3">
-        <v>4160200</v>
+        <v>7629200</v>
       </c>
       <c r="I66" s="3">
-        <v>2406200</v>
+        <v>4064000</v>
       </c>
       <c r="J66" s="3">
+        <v>2350500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1647700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>675500</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2405,17 +2572,20 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1078600</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>1053600</v>
+      </c>
+      <c r="K70" s="3">
         <v>734600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>513800</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3248100</v>
+        <v>-1465200</v>
       </c>
       <c r="E72" s="3">
-        <v>-3099000</v>
+        <v>-3172900</v>
       </c>
       <c r="F72" s="3">
-        <v>-3117400</v>
+        <v>-3027300</v>
       </c>
       <c r="G72" s="3">
-        <v>-2635000</v>
+        <v>-3045300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1328200</v>
+        <v>-2574100</v>
       </c>
       <c r="I72" s="3">
-        <v>-611400</v>
+        <v>-1297500</v>
       </c>
       <c r="J72" s="3">
+        <v>-597200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-604200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-360900</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8575900</v>
+        <v>11472900</v>
       </c>
       <c r="E76" s="3">
-        <v>7466800</v>
+        <v>8377500</v>
       </c>
       <c r="F76" s="3">
-        <v>4863000</v>
+        <v>7294000</v>
       </c>
       <c r="G76" s="3">
-        <v>4388100</v>
+        <v>4750400</v>
       </c>
       <c r="H76" s="3">
-        <v>5380200</v>
+        <v>4286500</v>
       </c>
       <c r="I76" s="3">
-        <v>247100</v>
+        <v>5255700</v>
       </c>
       <c r="J76" s="3">
+        <v>241500</v>
+      </c>
+      <c r="K76" s="3">
         <v>184000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>349200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-357500</v>
+        <v>1705300</v>
       </c>
       <c r="E81" s="3">
-        <v>-21800</v>
+        <v>-348700</v>
       </c>
       <c r="F81" s="3">
-        <v>-546200</v>
+        <v>-21300</v>
       </c>
       <c r="G81" s="3">
-        <v>-1306800</v>
+        <v>-532800</v>
       </c>
       <c r="H81" s="3">
-        <v>-1858600</v>
+        <v>-1274700</v>
       </c>
       <c r="I81" s="3">
-        <v>-356600</v>
+        <v>-1813000</v>
       </c>
       <c r="J81" s="3">
+        <v>-347800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-475900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-428200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>797800</v>
+        <v>815700</v>
       </c>
       <c r="E83" s="3">
-        <v>601600</v>
+        <v>778200</v>
       </c>
       <c r="F83" s="3">
-        <v>490700</v>
+        <v>586800</v>
       </c>
       <c r="G83" s="3">
-        <v>359800</v>
+        <v>478700</v>
       </c>
       <c r="H83" s="3">
-        <v>236800</v>
+        <v>350900</v>
       </c>
       <c r="I83" s="3">
-        <v>42100</v>
+        <v>231000</v>
       </c>
       <c r="J83" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K83" s="3">
         <v>26600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2996100</v>
+        <v>3468400</v>
       </c>
       <c r="E89" s="3">
-        <v>3853400</v>
+        <v>2922600</v>
       </c>
       <c r="F89" s="3">
-        <v>1182300</v>
+        <v>3758900</v>
       </c>
       <c r="G89" s="3">
-        <v>243400</v>
+        <v>1153300</v>
       </c>
       <c r="H89" s="3">
-        <v>185100</v>
+        <v>237400</v>
       </c>
       <c r="I89" s="3">
-        <v>512200</v>
+        <v>180500</v>
       </c>
       <c r="J89" s="3">
+        <v>499600</v>
+      </c>
+      <c r="K89" s="3">
         <v>201400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1398000</v>
+        <v>-363500</v>
       </c>
       <c r="E91" s="3">
-        <v>-472700</v>
+        <v>-1363700</v>
       </c>
       <c r="F91" s="3">
-        <v>-307200</v>
+        <v>-461100</v>
       </c>
       <c r="G91" s="3">
-        <v>-366000</v>
+        <v>-299600</v>
       </c>
       <c r="H91" s="3">
-        <v>-204400</v>
+        <v>-357000</v>
       </c>
       <c r="I91" s="3">
-        <v>-63100</v>
+        <v>-199400</v>
       </c>
       <c r="J91" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-85700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-90700</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3741800</v>
+        <v>-3547900</v>
       </c>
       <c r="E94" s="3">
-        <v>-5712700</v>
+        <v>-3650000</v>
       </c>
       <c r="F94" s="3">
-        <v>-6525700</v>
+        <v>-5572500</v>
       </c>
       <c r="G94" s="3">
-        <v>-830800</v>
+        <v>-6365600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1933800</v>
+        <v>-810400</v>
       </c>
       <c r="I94" s="3">
-        <v>-383200</v>
+        <v>-1886400</v>
       </c>
       <c r="J94" s="3">
+        <v>-373800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-483400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-90800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1609800</v>
+        <v>360000</v>
       </c>
       <c r="E100" s="3">
-        <v>2759800</v>
+        <v>1570300</v>
       </c>
       <c r="F100" s="3">
-        <v>5839600</v>
+        <v>2692100</v>
       </c>
       <c r="G100" s="3">
-        <v>674400</v>
+        <v>5696300</v>
       </c>
       <c r="H100" s="3">
-        <v>2638900</v>
+        <v>657900</v>
       </c>
       <c r="I100" s="3">
-        <v>401100</v>
+        <v>2574100</v>
       </c>
       <c r="J100" s="3">
+        <v>391200</v>
+      </c>
+      <c r="K100" s="3">
         <v>409400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>907000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>241200</v>
+        <v>56800</v>
       </c>
       <c r="E101" s="3">
-        <v>-92000</v>
+        <v>235300</v>
       </c>
       <c r="F101" s="3">
-        <v>104200</v>
+        <v>-89800</v>
       </c>
       <c r="G101" s="3">
-        <v>49200</v>
+        <v>101700</v>
       </c>
       <c r="H101" s="3">
-        <v>-14600</v>
+        <v>48000</v>
       </c>
       <c r="I101" s="3">
-        <v>-8500</v>
+        <v>-14200</v>
       </c>
       <c r="J101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1105300</v>
+        <v>337300</v>
       </c>
       <c r="E102" s="3">
-        <v>808500</v>
+        <v>1078200</v>
       </c>
       <c r="F102" s="3">
-        <v>600400</v>
+        <v>788700</v>
       </c>
       <c r="G102" s="3">
-        <v>136200</v>
+        <v>585700</v>
       </c>
       <c r="H102" s="3">
-        <v>875600</v>
+        <v>132900</v>
       </c>
       <c r="I102" s="3">
-        <v>521600</v>
+        <v>854100</v>
       </c>
       <c r="J102" s="3">
+        <v>508800</v>
+      </c>
+      <c r="K102" s="3">
         <v>127500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>788100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>80741300</v>
+        <v>83781500</v>
       </c>
       <c r="E8" s="3">
-        <v>64664300</v>
+        <v>67099100</v>
       </c>
       <c r="F8" s="3">
-        <v>50712000</v>
+        <v>52621400</v>
       </c>
       <c r="G8" s="3">
-        <v>36150300</v>
+        <v>37511400</v>
       </c>
       <c r="H8" s="3">
-        <v>25338700</v>
+        <v>26292800</v>
       </c>
       <c r="I8" s="3">
-        <v>16095700</v>
+        <v>16701800</v>
       </c>
       <c r="J8" s="3">
-        <v>9704800</v>
+        <v>10070200</v>
       </c>
       <c r="K8" s="3">
         <v>5937300</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>68925700</v>
+        <v>71521000</v>
       </c>
       <c r="E9" s="3">
-        <v>55433400</v>
+        <v>57520700</v>
       </c>
       <c r="F9" s="3">
-        <v>43599900</v>
+        <v>45241600</v>
       </c>
       <c r="G9" s="3">
-        <v>62090900</v>
+        <v>64428900</v>
       </c>
       <c r="H9" s="3">
-        <v>44223000</v>
+        <v>45888100</v>
       </c>
       <c r="I9" s="3">
-        <v>14224300</v>
+        <v>14759900</v>
       </c>
       <c r="J9" s="3">
-        <v>8746900</v>
+        <v>9076200</v>
       </c>
       <c r="K9" s="3">
         <v>5437700</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11815600</v>
+        <v>12260500</v>
       </c>
       <c r="E10" s="3">
-        <v>9230900</v>
+        <v>9578400</v>
       </c>
       <c r="F10" s="3">
-        <v>7112100</v>
+        <v>7379900</v>
       </c>
       <c r="G10" s="3">
-        <v>-25940700</v>
+        <v>-26917400</v>
       </c>
       <c r="H10" s="3">
-        <v>-18884300</v>
+        <v>-19595400</v>
       </c>
       <c r="I10" s="3">
-        <v>1871400</v>
+        <v>1941900</v>
       </c>
       <c r="J10" s="3">
-        <v>957900</v>
+        <v>994000</v>
       </c>
       <c r="K10" s="3">
         <v>499600</v>
@@ -833,25 +833,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2032200</v>
+        <v>2108700</v>
       </c>
       <c r="E12" s="3">
-        <v>1686000</v>
+        <v>1749500</v>
       </c>
       <c r="F12" s="3">
-        <v>919300</v>
+        <v>953900</v>
       </c>
       <c r="G12" s="3">
-        <v>616800</v>
+        <v>640000</v>
       </c>
       <c r="H12" s="3">
-        <v>402800</v>
+        <v>418000</v>
       </c>
       <c r="I12" s="3">
-        <v>257000</v>
+        <v>266600</v>
       </c>
       <c r="J12" s="3">
-        <v>134900</v>
+        <v>140000</v>
       </c>
       <c r="K12" s="3">
         <v>91300</v>
@@ -899,10 +899,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-438100</v>
+        <v>-454600</v>
       </c>
       <c r="E14" s="3">
-        <v>-98600</v>
+        <v>-102400</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>384900</v>
+        <v>399400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -932,19 +932,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>169200</v>
+        <v>175600</v>
       </c>
       <c r="E15" s="3">
-        <v>252800</v>
+        <v>262300</v>
       </c>
       <c r="F15" s="3">
-        <v>248800</v>
+        <v>258200</v>
       </c>
       <c r="G15" s="3">
-        <v>225200</v>
+        <v>233700</v>
       </c>
       <c r="H15" s="3">
-        <v>201400</v>
+        <v>209000</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>79588000</v>
+        <v>82584800</v>
       </c>
       <c r="E17" s="3">
-        <v>64929100</v>
+        <v>67373900</v>
       </c>
       <c r="F17" s="3">
-        <v>50828900</v>
+        <v>52742800</v>
       </c>
       <c r="G17" s="3">
-        <v>36325400</v>
+        <v>37693200</v>
       </c>
       <c r="H17" s="3">
-        <v>26088600</v>
+        <v>27070900</v>
       </c>
       <c r="I17" s="3">
-        <v>16907800</v>
+        <v>17544500</v>
       </c>
       <c r="J17" s="3">
-        <v>9785800</v>
+        <v>10154300</v>
       </c>
       <c r="K17" s="3">
         <v>6217200</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1153300</v>
+        <v>1196700</v>
       </c>
       <c r="E18" s="3">
-        <v>-264800</v>
+        <v>-274800</v>
       </c>
       <c r="F18" s="3">
-        <v>-116900</v>
+        <v>-121300</v>
       </c>
       <c r="G18" s="3">
-        <v>-175200</v>
+        <v>-181800</v>
       </c>
       <c r="H18" s="3">
-        <v>-749900</v>
+        <v>-778100</v>
       </c>
       <c r="I18" s="3">
-        <v>-812100</v>
+        <v>-842700</v>
       </c>
       <c r="J18" s="3">
-        <v>-81000</v>
+        <v>-84100</v>
       </c>
       <c r="K18" s="3">
         <v>-279900</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>864600</v>
+        <v>897100</v>
       </c>
       <c r="E20" s="3">
-        <v>52200</v>
+        <v>54200</v>
       </c>
       <c r="F20" s="3">
-        <v>268700</v>
+        <v>278900</v>
       </c>
       <c r="G20" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H20" s="3">
-        <v>-325500</v>
+        <v>-337700</v>
       </c>
       <c r="I20" s="3">
-        <v>119600</v>
+        <v>124100</v>
       </c>
       <c r="J20" s="3">
-        <v>75200</v>
+        <v>78000</v>
       </c>
       <c r="K20" s="3">
         <v>33900</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2831000</v>
+        <v>2937100</v>
       </c>
       <c r="E21" s="3">
-        <v>563100</v>
+        <v>583800</v>
       </c>
       <c r="F21" s="3">
-        <v>736700</v>
+        <v>764100</v>
       </c>
       <c r="G21" s="3">
-        <v>300300</v>
+        <v>311400</v>
       </c>
       <c r="H21" s="3">
-        <v>-725600</v>
+        <v>-753100</v>
       </c>
       <c r="I21" s="3">
-        <v>-462300</v>
+        <v>-479800</v>
       </c>
       <c r="J21" s="3">
-        <v>35100</v>
+        <v>36400</v>
       </c>
       <c r="K21" s="3">
         <v>-219400</v>
@@ -1124,22 +1124,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>101500</v>
+        <v>105300</v>
       </c>
       <c r="E22" s="3">
-        <v>119600</v>
+        <v>124100</v>
       </c>
       <c r="F22" s="3">
-        <v>134900</v>
+        <v>140000</v>
       </c>
       <c r="G22" s="3">
-        <v>86600</v>
+        <v>89800</v>
       </c>
       <c r="H22" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="I22" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="J22" s="3">
         <v>1200</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1916400</v>
+        <v>1988600</v>
       </c>
       <c r="E23" s="3">
-        <v>-332200</v>
+        <v>-344700</v>
       </c>
       <c r="F23" s="3">
-        <v>16900</v>
+        <v>17600</v>
       </c>
       <c r="G23" s="3">
-        <v>-263400</v>
+        <v>-273300</v>
       </c>
       <c r="H23" s="3">
-        <v>-1085500</v>
+        <v>-1126400</v>
       </c>
       <c r="I23" s="3">
-        <v>-696600</v>
+        <v>-722800</v>
       </c>
       <c r="J23" s="3">
-        <v>-7000</v>
+        <v>-7300</v>
       </c>
       <c r="K23" s="3">
         <v>-247300</v>
@@ -1190,22 +1190,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>252300</v>
+        <v>261800</v>
       </c>
       <c r="E24" s="3">
-        <v>59700</v>
+        <v>62000</v>
       </c>
       <c r="F24" s="3">
-        <v>19500</v>
+        <v>20300</v>
       </c>
       <c r="G24" s="3">
-        <v>23300</v>
+        <v>24200</v>
       </c>
       <c r="H24" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I24" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1664100</v>
+        <v>1726800</v>
       </c>
       <c r="E26" s="3">
-        <v>-392000</v>
+        <v>-406700</v>
       </c>
       <c r="F26" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G26" s="3">
-        <v>-286700</v>
+        <v>-297500</v>
       </c>
       <c r="H26" s="3">
-        <v>-1083500</v>
+        <v>-1124300</v>
       </c>
       <c r="I26" s="3">
-        <v>-699300</v>
+        <v>-725600</v>
       </c>
       <c r="J26" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="K26" s="3">
         <v>-248100</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1705300</v>
+        <v>1769500</v>
       </c>
       <c r="E27" s="3">
-        <v>-348700</v>
+        <v>-361900</v>
       </c>
       <c r="F27" s="3">
-        <v>16300</v>
+        <v>17000</v>
       </c>
       <c r="G27" s="3">
-        <v>-280000</v>
+        <v>-290500</v>
       </c>
       <c r="H27" s="3">
-        <v>-1082100</v>
+        <v>-1122900</v>
       </c>
       <c r="I27" s="3">
-        <v>-1813000</v>
+        <v>-1881300</v>
       </c>
       <c r="J27" s="3">
-        <v>-347800</v>
+        <v>-360900</v>
       </c>
       <c r="K27" s="3">
         <v>-475900</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-37700</v>
+        <v>-39100</v>
       </c>
       <c r="G29" s="3">
-        <v>-252800</v>
+        <v>-262300</v>
       </c>
       <c r="H29" s="3">
-        <v>-192600</v>
+        <v>-199900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-864600</v>
+        <v>-897100</v>
       </c>
       <c r="E32" s="3">
-        <v>-52200</v>
+        <v>-54200</v>
       </c>
       <c r="F32" s="3">
-        <v>-268700</v>
+        <v>-278900</v>
       </c>
       <c r="G32" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H32" s="3">
-        <v>325500</v>
+        <v>337700</v>
       </c>
       <c r="I32" s="3">
-        <v>-119600</v>
+        <v>-124100</v>
       </c>
       <c r="J32" s="3">
-        <v>-75200</v>
+        <v>-78000</v>
       </c>
       <c r="K32" s="3">
         <v>-33900</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1705300</v>
+        <v>1769500</v>
       </c>
       <c r="E33" s="3">
-        <v>-348700</v>
+        <v>-361900</v>
       </c>
       <c r="F33" s="3">
-        <v>-21300</v>
+        <v>-22100</v>
       </c>
       <c r="G33" s="3">
-        <v>-532800</v>
+        <v>-552900</v>
       </c>
       <c r="H33" s="3">
-        <v>-1274700</v>
+        <v>-1322700</v>
       </c>
       <c r="I33" s="3">
-        <v>-1813000</v>
+        <v>-1881300</v>
       </c>
       <c r="J33" s="3">
-        <v>-347800</v>
+        <v>-360900</v>
       </c>
       <c r="K33" s="3">
         <v>-475900</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1705300</v>
+        <v>1769500</v>
       </c>
       <c r="E35" s="3">
-        <v>-348700</v>
+        <v>-361900</v>
       </c>
       <c r="F35" s="3">
-        <v>-21300</v>
+        <v>-22100</v>
       </c>
       <c r="G35" s="3">
-        <v>-532800</v>
+        <v>-552900</v>
       </c>
       <c r="H35" s="3">
-        <v>-1274700</v>
+        <v>-1322700</v>
       </c>
       <c r="I35" s="3">
-        <v>-1813000</v>
+        <v>-1881300</v>
       </c>
       <c r="J35" s="3">
-        <v>-347800</v>
+        <v>-360900</v>
       </c>
       <c r="K35" s="3">
         <v>-475900</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5181900</v>
+        <v>5369400</v>
       </c>
       <c r="E41" s="3">
-        <v>4802200</v>
+        <v>4975900</v>
       </c>
       <c r="F41" s="3">
-        <v>3600500</v>
+        <v>3730700</v>
       </c>
       <c r="G41" s="3">
-        <v>2181900</v>
+        <v>2260800</v>
       </c>
       <c r="H41" s="3">
-        <v>2503800</v>
+        <v>2594400</v>
       </c>
       <c r="I41" s="3">
-        <v>2370800</v>
+        <v>2456500</v>
       </c>
       <c r="J41" s="3">
-        <v>1515500</v>
+        <v>1570300</v>
       </c>
       <c r="K41" s="3">
         <v>1029800</v>
@@ -1687,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3448300</v>
+        <v>3573100</v>
       </c>
       <c r="E42" s="3">
-        <v>285300</v>
+        <v>295600</v>
       </c>
       <c r="F42" s="3">
-        <v>1203700</v>
+        <v>1247200</v>
       </c>
       <c r="G42" s="3">
-        <v>2528300</v>
+        <v>2619700</v>
       </c>
       <c r="H42" s="3">
-        <v>408700</v>
+        <v>423400</v>
       </c>
       <c r="I42" s="3">
-        <v>1728000</v>
+        <v>1790500</v>
       </c>
       <c r="J42" s="3">
-        <v>269600</v>
+        <v>279400</v>
       </c>
       <c r="K42" s="3">
         <v>157100</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1678600</v>
+        <v>1739300</v>
       </c>
       <c r="E43" s="3">
-        <v>2377500</v>
+        <v>2463500</v>
       </c>
       <c r="F43" s="3">
-        <v>4525500</v>
+        <v>4689200</v>
       </c>
       <c r="G43" s="3">
-        <v>6359400</v>
+        <v>6589500</v>
       </c>
       <c r="H43" s="3">
-        <v>1788900</v>
+        <v>1853600</v>
       </c>
       <c r="I43" s="3">
-        <v>435500</v>
+        <v>451300</v>
       </c>
       <c r="J43" s="3">
-        <v>74400</v>
+        <v>77100</v>
       </c>
       <c r="K43" s="3">
         <v>77100</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8119800</v>
+        <v>8413500</v>
       </c>
       <c r="E44" s="3">
-        <v>6171300</v>
+        <v>6394500</v>
       </c>
       <c r="F44" s="3">
-        <v>5844700</v>
+        <v>6056100</v>
       </c>
       <c r="G44" s="3">
-        <v>8103900</v>
+        <v>8397000</v>
       </c>
       <c r="H44" s="3">
-        <v>2878800</v>
+        <v>2983000</v>
       </c>
       <c r="I44" s="3">
-        <v>1708700</v>
+        <v>1770500</v>
       </c>
       <c r="J44" s="3">
-        <v>895100</v>
+        <v>927500</v>
       </c>
       <c r="K44" s="3">
         <v>682100</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1066900</v>
+        <v>1105500</v>
       </c>
       <c r="E45" s="3">
-        <v>1060300</v>
+        <v>1098700</v>
       </c>
       <c r="F45" s="3">
-        <v>948000</v>
+        <v>982300</v>
       </c>
       <c r="G45" s="3">
-        <v>3738900</v>
+        <v>3874200</v>
       </c>
       <c r="H45" s="3">
-        <v>823100</v>
+        <v>852900</v>
       </c>
       <c r="I45" s="3">
-        <v>756900</v>
+        <v>784300</v>
       </c>
       <c r="J45" s="3">
-        <v>396300</v>
+        <v>410600</v>
       </c>
       <c r="K45" s="3">
         <v>303600</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19495500</v>
+        <v>20200700</v>
       </c>
       <c r="E46" s="3">
-        <v>14696600</v>
+        <v>15228200</v>
       </c>
       <c r="F46" s="3">
-        <v>16122400</v>
+        <v>16705600</v>
       </c>
       <c r="G46" s="3">
-        <v>14987600</v>
+        <v>15529700</v>
       </c>
       <c r="H46" s="3">
-        <v>8194900</v>
+        <v>8491300</v>
       </c>
       <c r="I46" s="3">
-        <v>6999800</v>
+        <v>7253000</v>
       </c>
       <c r="J46" s="3">
-        <v>3150800</v>
+        <v>3264800</v>
       </c>
       <c r="K46" s="3">
         <v>2249700</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7988100</v>
+        <v>8277100</v>
       </c>
       <c r="E47" s="3">
-        <v>6623700</v>
+        <v>6863300</v>
       </c>
       <c r="F47" s="3">
-        <v>4005700</v>
+        <v>4150500</v>
       </c>
       <c r="G47" s="3">
-        <v>5230000</v>
+        <v>5419200</v>
       </c>
       <c r="H47" s="3">
-        <v>1362200</v>
+        <v>1411500</v>
       </c>
       <c r="I47" s="3">
-        <v>143100</v>
+        <v>148300</v>
       </c>
       <c r="J47" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="K47" s="3">
         <v>400</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4920200</v>
+        <v>5098200</v>
       </c>
       <c r="E48" s="3">
-        <v>3873500</v>
+        <v>4013700</v>
       </c>
       <c r="F48" s="3">
-        <v>2210400</v>
+        <v>2290400</v>
       </c>
       <c r="G48" s="3">
-        <v>2248000</v>
+        <v>2329300</v>
       </c>
       <c r="H48" s="3">
-        <v>1051200</v>
+        <v>1089200</v>
       </c>
       <c r="I48" s="3">
-        <v>607900</v>
+        <v>629900</v>
       </c>
       <c r="J48" s="3">
-        <v>317100</v>
+        <v>328500</v>
       </c>
       <c r="K48" s="3">
         <v>143700</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3033800</v>
+        <v>3143600</v>
       </c>
       <c r="E49" s="3">
-        <v>3101900</v>
+        <v>3214100</v>
       </c>
       <c r="F49" s="3">
-        <v>2858400</v>
+        <v>2961800</v>
       </c>
       <c r="G49" s="3">
-        <v>3961000</v>
+        <v>4104300</v>
       </c>
       <c r="H49" s="3">
-        <v>990200</v>
+        <v>1026000</v>
       </c>
       <c r="I49" s="3">
-        <v>1481200</v>
+        <v>1534700</v>
       </c>
       <c r="J49" s="3">
-        <v>116200</v>
+        <v>120400</v>
       </c>
       <c r="K49" s="3">
         <v>110800</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>965300</v>
+        <v>1000200</v>
       </c>
       <c r="E52" s="3">
-        <v>1020800</v>
+        <v>1057800</v>
       </c>
       <c r="F52" s="3">
-        <v>600200</v>
+        <v>621900</v>
       </c>
       <c r="G52" s="3">
-        <v>1605200</v>
+        <v>1663200</v>
       </c>
       <c r="H52" s="3">
-        <v>295300</v>
+        <v>306000</v>
       </c>
       <c r="I52" s="3">
-        <v>87700</v>
+        <v>90800</v>
       </c>
       <c r="J52" s="3">
-        <v>56300</v>
+        <v>58400</v>
       </c>
       <c r="K52" s="3">
         <v>61700</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36402900</v>
+        <v>37719700</v>
       </c>
       <c r="E54" s="3">
-        <v>29316500</v>
+        <v>30377000</v>
       </c>
       <c r="F54" s="3">
-        <v>25797100</v>
+        <v>26730300</v>
       </c>
       <c r="G54" s="3">
-        <v>22478000</v>
+        <v>23291000</v>
       </c>
       <c r="H54" s="3">
-        <v>11915700</v>
+        <v>12346700</v>
       </c>
       <c r="I54" s="3">
-        <v>9319700</v>
+        <v>9656800</v>
       </c>
       <c r="J54" s="3">
-        <v>3645500</v>
+        <v>3777400</v>
       </c>
       <c r="K54" s="3">
         <v>2566300</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12719000</v>
+        <v>13179100</v>
       </c>
       <c r="E57" s="3">
-        <v>11240900</v>
+        <v>11647500</v>
       </c>
       <c r="F57" s="3">
-        <v>10426800</v>
+        <v>10804000</v>
       </c>
       <c r="G57" s="3">
-        <v>6474100</v>
+        <v>6708300</v>
       </c>
       <c r="H57" s="3">
-        <v>4194200</v>
+        <v>4345900</v>
       </c>
       <c r="I57" s="3">
-        <v>2339100</v>
+        <v>2423700</v>
       </c>
       <c r="J57" s="3">
-        <v>1544400</v>
+        <v>1600300</v>
       </c>
       <c r="K57" s="3">
         <v>1162400</v>
@@ -2182,22 +2182,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>637000</v>
+        <v>660100</v>
       </c>
       <c r="F58" s="3">
-        <v>1805900</v>
+        <v>1871300</v>
       </c>
       <c r="G58" s="3">
-        <v>1557100</v>
+        <v>1613400</v>
       </c>
       <c r="H58" s="3">
-        <v>507400</v>
+        <v>525700</v>
       </c>
       <c r="I58" s="3">
-        <v>265000</v>
+        <v>274600</v>
       </c>
       <c r="J58" s="3">
-        <v>130700</v>
+        <v>135500</v>
       </c>
       <c r="K58" s="3">
         <v>124500</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6905800</v>
+        <v>7155600</v>
       </c>
       <c r="E59" s="3">
-        <v>5062100</v>
+        <v>5245200</v>
       </c>
       <c r="F59" s="3">
-        <v>4341300</v>
+        <v>4498300</v>
       </c>
       <c r="G59" s="3">
-        <v>10774300</v>
+        <v>11164100</v>
       </c>
       <c r="H59" s="3">
-        <v>2164100</v>
+        <v>2242400</v>
       </c>
       <c r="I59" s="3">
-        <v>1459800</v>
+        <v>1512600</v>
       </c>
       <c r="J59" s="3">
-        <v>675300</v>
+        <v>699800</v>
       </c>
       <c r="K59" s="3">
         <v>360800</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19624800</v>
+        <v>20334700</v>
       </c>
       <c r="E60" s="3">
-        <v>16940000</v>
+        <v>17552800</v>
       </c>
       <c r="F60" s="3">
-        <v>16574000</v>
+        <v>17173500</v>
       </c>
       <c r="G60" s="3">
-        <v>14680400</v>
+        <v>15211400</v>
       </c>
       <c r="H60" s="3">
-        <v>6865500</v>
+        <v>7113800</v>
       </c>
       <c r="I60" s="3">
-        <v>4064000</v>
+        <v>4211000</v>
       </c>
       <c r="J60" s="3">
-        <v>2350500</v>
+        <v>2435500</v>
       </c>
       <c r="K60" s="3">
         <v>1647700</v>
@@ -2278,19 +2278,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1408900</v>
+        <v>1459800</v>
       </c>
       <c r="E61" s="3">
-        <v>1384000</v>
+        <v>1434100</v>
       </c>
       <c r="F61" s="3">
-        <v>1530900</v>
+        <v>1586300</v>
       </c>
       <c r="G61" s="3">
-        <v>1282400</v>
+        <v>1328800</v>
       </c>
       <c r="H61" s="3">
-        <v>386000</v>
+        <v>399900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2311,19 +2311,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1265700</v>
+        <v>1311500</v>
       </c>
       <c r="E62" s="3">
-        <v>224300</v>
+        <v>232400</v>
       </c>
       <c r="F62" s="3">
-        <v>349400</v>
+        <v>362100</v>
       </c>
       <c r="G62" s="3">
-        <v>483900</v>
+        <v>501400</v>
       </c>
       <c r="H62" s="3">
-        <v>358500</v>
+        <v>371400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24929900</v>
+        <v>25831700</v>
       </c>
       <c r="E66" s="3">
-        <v>20939000</v>
+        <v>21696500</v>
       </c>
       <c r="F66" s="3">
-        <v>18503100</v>
+        <v>19172400</v>
       </c>
       <c r="G66" s="3">
-        <v>17727500</v>
+        <v>18368800</v>
       </c>
       <c r="H66" s="3">
-        <v>7629200</v>
+        <v>7905200</v>
       </c>
       <c r="I66" s="3">
-        <v>4064000</v>
+        <v>4211000</v>
       </c>
       <c r="J66" s="3">
-        <v>2350500</v>
+        <v>2435500</v>
       </c>
       <c r="K66" s="3">
         <v>1647700</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>1053600</v>
+        <v>1091700</v>
       </c>
       <c r="K70" s="3">
         <v>734600</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1465200</v>
+        <v>-1518200</v>
       </c>
       <c r="E72" s="3">
-        <v>-3172900</v>
+        <v>-3287700</v>
       </c>
       <c r="F72" s="3">
-        <v>-3027300</v>
+        <v>-3136800</v>
       </c>
       <c r="G72" s="3">
-        <v>-3045300</v>
+        <v>-3155500</v>
       </c>
       <c r="H72" s="3">
-        <v>-2574100</v>
+        <v>-2667200</v>
       </c>
       <c r="I72" s="3">
-        <v>-1297500</v>
+        <v>-1344400</v>
       </c>
       <c r="J72" s="3">
-        <v>-597200</v>
+        <v>-618800</v>
       </c>
       <c r="K72" s="3">
         <v>-604200</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11472900</v>
+        <v>11887900</v>
       </c>
       <c r="E76" s="3">
-        <v>8377500</v>
+        <v>8680500</v>
       </c>
       <c r="F76" s="3">
-        <v>7294000</v>
+        <v>7557900</v>
       </c>
       <c r="G76" s="3">
-        <v>4750400</v>
+        <v>4922300</v>
       </c>
       <c r="H76" s="3">
-        <v>4286500</v>
+        <v>4441600</v>
       </c>
       <c r="I76" s="3">
-        <v>5255700</v>
+        <v>5445800</v>
       </c>
       <c r="J76" s="3">
-        <v>241500</v>
+        <v>250200</v>
       </c>
       <c r="K76" s="3">
         <v>184000</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1705300</v>
+        <v>1769500</v>
       </c>
       <c r="E81" s="3">
-        <v>-348700</v>
+        <v>-361900</v>
       </c>
       <c r="F81" s="3">
-        <v>-21300</v>
+        <v>-22100</v>
       </c>
       <c r="G81" s="3">
-        <v>-532800</v>
+        <v>-552900</v>
       </c>
       <c r="H81" s="3">
-        <v>-1274700</v>
+        <v>-1322700</v>
       </c>
       <c r="I81" s="3">
-        <v>-1813000</v>
+        <v>-1881300</v>
       </c>
       <c r="J81" s="3">
-        <v>-347800</v>
+        <v>-360900</v>
       </c>
       <c r="K81" s="3">
         <v>-475900</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>815700</v>
+        <v>846400</v>
       </c>
       <c r="E83" s="3">
-        <v>778200</v>
+        <v>807500</v>
       </c>
       <c r="F83" s="3">
-        <v>586800</v>
+        <v>608900</v>
       </c>
       <c r="G83" s="3">
-        <v>478700</v>
+        <v>496700</v>
       </c>
       <c r="H83" s="3">
-        <v>350900</v>
+        <v>364100</v>
       </c>
       <c r="I83" s="3">
-        <v>231000</v>
+        <v>239700</v>
       </c>
       <c r="J83" s="3">
-        <v>41000</v>
+        <v>42600</v>
       </c>
       <c r="K83" s="3">
         <v>26600</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3468400</v>
+        <v>3599000</v>
       </c>
       <c r="E89" s="3">
-        <v>2922600</v>
+        <v>3032600</v>
       </c>
       <c r="F89" s="3">
-        <v>3758900</v>
+        <v>3900400</v>
       </c>
       <c r="G89" s="3">
-        <v>1153300</v>
+        <v>1196700</v>
       </c>
       <c r="H89" s="3">
-        <v>237400</v>
+        <v>246400</v>
       </c>
       <c r="I89" s="3">
-        <v>180500</v>
+        <v>187300</v>
       </c>
       <c r="J89" s="3">
-        <v>499600</v>
+        <v>518400</v>
       </c>
       <c r="K89" s="3">
         <v>201400</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-363500</v>
+        <v>-377200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1363700</v>
+        <v>-1415000</v>
       </c>
       <c r="F91" s="3">
-        <v>-461100</v>
+        <v>-478400</v>
       </c>
       <c r="G91" s="3">
-        <v>-299600</v>
+        <v>-310900</v>
       </c>
       <c r="H91" s="3">
-        <v>-357000</v>
+        <v>-370400</v>
       </c>
       <c r="I91" s="3">
-        <v>-199400</v>
+        <v>-206900</v>
       </c>
       <c r="J91" s="3">
-        <v>-61600</v>
+        <v>-63900</v>
       </c>
       <c r="K91" s="3">
         <v>-85700</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3547900</v>
+        <v>-3681500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3650000</v>
+        <v>-3787500</v>
       </c>
       <c r="F94" s="3">
-        <v>-5572500</v>
+        <v>-5782400</v>
       </c>
       <c r="G94" s="3">
-        <v>-6365600</v>
+        <v>-6605300</v>
       </c>
       <c r="H94" s="3">
-        <v>-810400</v>
+        <v>-841000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1886400</v>
+        <v>-1957400</v>
       </c>
       <c r="J94" s="3">
-        <v>-373800</v>
+        <v>-387900</v>
       </c>
       <c r="K94" s="3">
         <v>-483400</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>360000</v>
+        <v>373600</v>
       </c>
       <c r="E100" s="3">
-        <v>1570300</v>
+        <v>1629500</v>
       </c>
       <c r="F100" s="3">
-        <v>2692100</v>
+        <v>2793500</v>
       </c>
       <c r="G100" s="3">
-        <v>5696300</v>
+        <v>5910800</v>
       </c>
       <c r="H100" s="3">
-        <v>657900</v>
+        <v>682600</v>
       </c>
       <c r="I100" s="3">
-        <v>2574100</v>
+        <v>2671100</v>
       </c>
       <c r="J100" s="3">
-        <v>391200</v>
+        <v>405900</v>
       </c>
       <c r="K100" s="3">
         <v>409400</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>56800</v>
+        <v>58900</v>
       </c>
       <c r="E101" s="3">
-        <v>235300</v>
+        <v>244200</v>
       </c>
       <c r="F101" s="3">
-        <v>-89800</v>
+        <v>-93200</v>
       </c>
       <c r="G101" s="3">
-        <v>101700</v>
+        <v>105500</v>
       </c>
       <c r="H101" s="3">
-        <v>48000</v>
+        <v>49800</v>
       </c>
       <c r="I101" s="3">
-        <v>-14200</v>
+        <v>-14700</v>
       </c>
       <c r="J101" s="3">
-        <v>-8200</v>
+        <v>-8600</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>337300</v>
+        <v>350000</v>
       </c>
       <c r="E102" s="3">
-        <v>1078200</v>
+        <v>1118800</v>
       </c>
       <c r="F102" s="3">
-        <v>788700</v>
+        <v>818400</v>
       </c>
       <c r="G102" s="3">
-        <v>585700</v>
+        <v>607800</v>
       </c>
       <c r="H102" s="3">
-        <v>132900</v>
+        <v>137900</v>
       </c>
       <c r="I102" s="3">
-        <v>854100</v>
+        <v>886200</v>
       </c>
       <c r="J102" s="3">
-        <v>508800</v>
+        <v>527900</v>
       </c>
       <c r="K102" s="3">
         <v>127500</v>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>83781500</v>
+        <v>87756300</v>
       </c>
       <c r="E8" s="3">
-        <v>67099100</v>
+        <v>70282400</v>
       </c>
       <c r="F8" s="3">
-        <v>52621400</v>
+        <v>55117900</v>
       </c>
       <c r="G8" s="3">
-        <v>37511400</v>
+        <v>39291100</v>
       </c>
       <c r="H8" s="3">
-        <v>26292800</v>
+        <v>27540200</v>
       </c>
       <c r="I8" s="3">
-        <v>16701800</v>
+        <v>17494200</v>
       </c>
       <c r="J8" s="3">
-        <v>10070200</v>
+        <v>10548000</v>
       </c>
       <c r="K8" s="3">
         <v>5937300</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>71521000</v>
+        <v>74914100</v>
       </c>
       <c r="E9" s="3">
-        <v>57520700</v>
+        <v>60249600</v>
       </c>
       <c r="F9" s="3">
-        <v>45241600</v>
+        <v>47387900</v>
       </c>
       <c r="G9" s="3">
-        <v>64428900</v>
+        <v>67485500</v>
       </c>
       <c r="H9" s="3">
-        <v>45888100</v>
+        <v>48065200</v>
       </c>
       <c r="I9" s="3">
-        <v>14759900</v>
+        <v>15460200</v>
       </c>
       <c r="J9" s="3">
-        <v>9076200</v>
+        <v>9506800</v>
       </c>
       <c r="K9" s="3">
         <v>5437700</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12260500</v>
+        <v>12842100</v>
       </c>
       <c r="E10" s="3">
-        <v>9578400</v>
+        <v>10032900</v>
       </c>
       <c r="F10" s="3">
-        <v>7379900</v>
+        <v>7730000</v>
       </c>
       <c r="G10" s="3">
-        <v>-26917400</v>
+        <v>-28194400</v>
       </c>
       <c r="H10" s="3">
-        <v>-19595400</v>
+        <v>-20525000</v>
       </c>
       <c r="I10" s="3">
-        <v>1941900</v>
+        <v>2034000</v>
       </c>
       <c r="J10" s="3">
-        <v>994000</v>
+        <v>1041200</v>
       </c>
       <c r="K10" s="3">
         <v>499600</v>
@@ -833,25 +833,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2108700</v>
+        <v>2208700</v>
       </c>
       <c r="E12" s="3">
-        <v>1749500</v>
+        <v>1832500</v>
       </c>
       <c r="F12" s="3">
-        <v>953900</v>
+        <v>999200</v>
       </c>
       <c r="G12" s="3">
-        <v>640000</v>
+        <v>670300</v>
       </c>
       <c r="H12" s="3">
-        <v>418000</v>
+        <v>437800</v>
       </c>
       <c r="I12" s="3">
-        <v>266600</v>
+        <v>279300</v>
       </c>
       <c r="J12" s="3">
-        <v>140000</v>
+        <v>146600</v>
       </c>
       <c r="K12" s="3">
         <v>91300</v>
@@ -899,10 +899,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-454600</v>
+        <v>-476100</v>
       </c>
       <c r="E14" s="3">
-        <v>-102400</v>
+        <v>-107200</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>399400</v>
+        <v>418300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -932,19 +932,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>175600</v>
+        <v>183900</v>
       </c>
       <c r="E15" s="3">
-        <v>262300</v>
+        <v>274700</v>
       </c>
       <c r="F15" s="3">
-        <v>258200</v>
+        <v>270500</v>
       </c>
       <c r="G15" s="3">
-        <v>233700</v>
+        <v>244800</v>
       </c>
       <c r="H15" s="3">
-        <v>209000</v>
+        <v>218900</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>82584800</v>
+        <v>86502800</v>
       </c>
       <c r="E17" s="3">
-        <v>67373900</v>
+        <v>70570300</v>
       </c>
       <c r="F17" s="3">
-        <v>52742800</v>
+        <v>55245000</v>
       </c>
       <c r="G17" s="3">
-        <v>37693200</v>
+        <v>39481500</v>
       </c>
       <c r="H17" s="3">
-        <v>27070900</v>
+        <v>28355200</v>
       </c>
       <c r="I17" s="3">
-        <v>17544500</v>
+        <v>18376800</v>
       </c>
       <c r="J17" s="3">
-        <v>10154300</v>
+        <v>10636000</v>
       </c>
       <c r="K17" s="3">
         <v>6217200</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1196700</v>
+        <v>1253500</v>
       </c>
       <c r="E18" s="3">
-        <v>-274800</v>
+        <v>-287800</v>
       </c>
       <c r="F18" s="3">
-        <v>-121300</v>
+        <v>-127100</v>
       </c>
       <c r="G18" s="3">
-        <v>-181800</v>
+        <v>-190400</v>
       </c>
       <c r="H18" s="3">
-        <v>-778100</v>
+        <v>-815000</v>
       </c>
       <c r="I18" s="3">
-        <v>-842700</v>
+        <v>-882700</v>
       </c>
       <c r="J18" s="3">
-        <v>-84100</v>
+        <v>-88100</v>
       </c>
       <c r="K18" s="3">
         <v>-279900</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>897100</v>
+        <v>939700</v>
       </c>
       <c r="E20" s="3">
-        <v>54200</v>
+        <v>56700</v>
       </c>
       <c r="F20" s="3">
-        <v>278900</v>
+        <v>292100</v>
       </c>
       <c r="G20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H20" s="3">
-        <v>-337700</v>
+        <v>-353800</v>
       </c>
       <c r="I20" s="3">
-        <v>124100</v>
+        <v>129900</v>
       </c>
       <c r="J20" s="3">
-        <v>78000</v>
+        <v>81700</v>
       </c>
       <c r="K20" s="3">
         <v>33900</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2937100</v>
+        <v>3079700</v>
       </c>
       <c r="E21" s="3">
-        <v>583800</v>
+        <v>614600</v>
       </c>
       <c r="F21" s="3">
-        <v>764100</v>
+        <v>802800</v>
       </c>
       <c r="G21" s="3">
-        <v>311400</v>
+        <v>328100</v>
       </c>
       <c r="H21" s="3">
-        <v>-753100</v>
+        <v>-787400</v>
       </c>
       <c r="I21" s="3">
-        <v>-479800</v>
+        <v>-501700</v>
       </c>
       <c r="J21" s="3">
-        <v>36400</v>
+        <v>38300</v>
       </c>
       <c r="K21" s="3">
         <v>-219400</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>105300</v>
+        <v>110300</v>
       </c>
       <c r="E22" s="3">
-        <v>124100</v>
+        <v>130000</v>
       </c>
       <c r="F22" s="3">
-        <v>140000</v>
+        <v>146600</v>
       </c>
       <c r="G22" s="3">
-        <v>89800</v>
+        <v>94100</v>
       </c>
       <c r="H22" s="3">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="I22" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="J22" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K22" s="3">
         <v>1200</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1988600</v>
+        <v>2082900</v>
       </c>
       <c r="E23" s="3">
-        <v>-344700</v>
+        <v>-361100</v>
       </c>
       <c r="F23" s="3">
-        <v>17600</v>
+        <v>18400</v>
       </c>
       <c r="G23" s="3">
-        <v>-273300</v>
+        <v>-286300</v>
       </c>
       <c r="H23" s="3">
-        <v>-1126400</v>
+        <v>-1179800</v>
       </c>
       <c r="I23" s="3">
-        <v>-722800</v>
+        <v>-757100</v>
       </c>
       <c r="J23" s="3">
-        <v>-7300</v>
+        <v>-7600</v>
       </c>
       <c r="K23" s="3">
         <v>-247300</v>
@@ -1190,22 +1190,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>261800</v>
+        <v>274200</v>
       </c>
       <c r="E24" s="3">
-        <v>62000</v>
+        <v>64900</v>
       </c>
       <c r="F24" s="3">
-        <v>20300</v>
+        <v>21200</v>
       </c>
       <c r="G24" s="3">
-        <v>24200</v>
+        <v>25300</v>
       </c>
       <c r="H24" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="I24" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1726800</v>
+        <v>1808700</v>
       </c>
       <c r="E26" s="3">
-        <v>-406700</v>
+        <v>-426000</v>
       </c>
       <c r="F26" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="G26" s="3">
-        <v>-297500</v>
+        <v>-311600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1124300</v>
+        <v>-1177600</v>
       </c>
       <c r="I26" s="3">
-        <v>-725600</v>
+        <v>-760000</v>
       </c>
       <c r="J26" s="3">
-        <v>-7200</v>
+        <v>-7600</v>
       </c>
       <c r="K26" s="3">
         <v>-248100</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1769500</v>
+        <v>1853500</v>
       </c>
       <c r="E27" s="3">
-        <v>-361900</v>
+        <v>-379000</v>
       </c>
       <c r="F27" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="G27" s="3">
-        <v>-290500</v>
+        <v>-304300</v>
       </c>
       <c r="H27" s="3">
-        <v>-1122900</v>
+        <v>-1176200</v>
       </c>
       <c r="I27" s="3">
-        <v>-1881300</v>
+        <v>-1970600</v>
       </c>
       <c r="J27" s="3">
-        <v>-360900</v>
+        <v>-378100</v>
       </c>
       <c r="K27" s="3">
         <v>-475900</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-39100</v>
+        <v>-40900</v>
       </c>
       <c r="G29" s="3">
-        <v>-262300</v>
+        <v>-274800</v>
       </c>
       <c r="H29" s="3">
-        <v>-199900</v>
+        <v>-209300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-897100</v>
+        <v>-939700</v>
       </c>
       <c r="E32" s="3">
-        <v>-54200</v>
+        <v>-56700</v>
       </c>
       <c r="F32" s="3">
-        <v>-278900</v>
+        <v>-292100</v>
       </c>
       <c r="G32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H32" s="3">
-        <v>337700</v>
+        <v>353800</v>
       </c>
       <c r="I32" s="3">
-        <v>-124100</v>
+        <v>-129900</v>
       </c>
       <c r="J32" s="3">
-        <v>-78000</v>
+        <v>-81700</v>
       </c>
       <c r="K32" s="3">
         <v>-33900</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1769500</v>
+        <v>1853500</v>
       </c>
       <c r="E33" s="3">
-        <v>-361900</v>
+        <v>-379000</v>
       </c>
       <c r="F33" s="3">
-        <v>-22100</v>
+        <v>-23200</v>
       </c>
       <c r="G33" s="3">
-        <v>-552900</v>
+        <v>-579100</v>
       </c>
       <c r="H33" s="3">
-        <v>-1322700</v>
+        <v>-1385500</v>
       </c>
       <c r="I33" s="3">
-        <v>-1881300</v>
+        <v>-1970600</v>
       </c>
       <c r="J33" s="3">
-        <v>-360900</v>
+        <v>-378100</v>
       </c>
       <c r="K33" s="3">
         <v>-475900</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1769500</v>
+        <v>1853500</v>
       </c>
       <c r="E35" s="3">
-        <v>-361900</v>
+        <v>-379000</v>
       </c>
       <c r="F35" s="3">
-        <v>-22100</v>
+        <v>-23200</v>
       </c>
       <c r="G35" s="3">
-        <v>-552900</v>
+        <v>-579100</v>
       </c>
       <c r="H35" s="3">
-        <v>-1322700</v>
+        <v>-1385500</v>
       </c>
       <c r="I35" s="3">
-        <v>-1881300</v>
+        <v>-1970600</v>
       </c>
       <c r="J35" s="3">
-        <v>-360900</v>
+        <v>-378100</v>
       </c>
       <c r="K35" s="3">
         <v>-475900</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5369400</v>
+        <v>5624100</v>
       </c>
       <c r="E41" s="3">
-        <v>4975900</v>
+        <v>5212000</v>
       </c>
       <c r="F41" s="3">
-        <v>3730700</v>
+        <v>3907700</v>
       </c>
       <c r="G41" s="3">
-        <v>2260800</v>
+        <v>2368100</v>
       </c>
       <c r="H41" s="3">
-        <v>2594400</v>
+        <v>2717500</v>
       </c>
       <c r="I41" s="3">
-        <v>2456500</v>
+        <v>2573100</v>
       </c>
       <c r="J41" s="3">
-        <v>1570300</v>
+        <v>1644800</v>
       </c>
       <c r="K41" s="3">
         <v>1029800</v>
@@ -1687,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3573100</v>
+        <v>3742600</v>
       </c>
       <c r="E42" s="3">
-        <v>295600</v>
+        <v>309700</v>
       </c>
       <c r="F42" s="3">
-        <v>1247200</v>
+        <v>1306400</v>
       </c>
       <c r="G42" s="3">
-        <v>2619700</v>
+        <v>2744000</v>
       </c>
       <c r="H42" s="3">
-        <v>423400</v>
+        <v>443500</v>
       </c>
       <c r="I42" s="3">
-        <v>1790500</v>
+        <v>1875400</v>
       </c>
       <c r="J42" s="3">
-        <v>279400</v>
+        <v>292600</v>
       </c>
       <c r="K42" s="3">
         <v>157100</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1739300</v>
+        <v>1821800</v>
       </c>
       <c r="E43" s="3">
-        <v>2463500</v>
+        <v>2580400</v>
       </c>
       <c r="F43" s="3">
-        <v>4689200</v>
+        <v>4911700</v>
       </c>
       <c r="G43" s="3">
-        <v>6589500</v>
+        <v>6902100</v>
       </c>
       <c r="H43" s="3">
-        <v>1853600</v>
+        <v>1941500</v>
       </c>
       <c r="I43" s="3">
-        <v>451300</v>
+        <v>472700</v>
       </c>
       <c r="J43" s="3">
-        <v>77100</v>
+        <v>80700</v>
       </c>
       <c r="K43" s="3">
         <v>77100</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8413500</v>
+        <v>8812600</v>
       </c>
       <c r="E44" s="3">
-        <v>6394500</v>
+        <v>6697900</v>
       </c>
       <c r="F44" s="3">
-        <v>6056100</v>
+        <v>6343500</v>
       </c>
       <c r="G44" s="3">
-        <v>8397000</v>
+        <v>8795400</v>
       </c>
       <c r="H44" s="3">
-        <v>2983000</v>
+        <v>3124500</v>
       </c>
       <c r="I44" s="3">
-        <v>1770500</v>
+        <v>1854500</v>
       </c>
       <c r="J44" s="3">
-        <v>927500</v>
+        <v>971500</v>
       </c>
       <c r="K44" s="3">
         <v>682100</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1105500</v>
+        <v>1158000</v>
       </c>
       <c r="E45" s="3">
-        <v>1098700</v>
+        <v>1150800</v>
       </c>
       <c r="F45" s="3">
-        <v>982300</v>
+        <v>1028900</v>
       </c>
       <c r="G45" s="3">
-        <v>3874200</v>
+        <v>4058000</v>
       </c>
       <c r="H45" s="3">
-        <v>852900</v>
+        <v>893300</v>
       </c>
       <c r="I45" s="3">
-        <v>784300</v>
+        <v>821500</v>
       </c>
       <c r="J45" s="3">
-        <v>410600</v>
+        <v>430100</v>
       </c>
       <c r="K45" s="3">
         <v>303600</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20200700</v>
+        <v>21159100</v>
       </c>
       <c r="E46" s="3">
-        <v>15228200</v>
+        <v>15950700</v>
       </c>
       <c r="F46" s="3">
-        <v>16705600</v>
+        <v>17498200</v>
       </c>
       <c r="G46" s="3">
-        <v>15529700</v>
+        <v>16266500</v>
       </c>
       <c r="H46" s="3">
-        <v>8491300</v>
+        <v>8894200</v>
       </c>
       <c r="I46" s="3">
-        <v>7253000</v>
+        <v>7597100</v>
       </c>
       <c r="J46" s="3">
-        <v>3264800</v>
+        <v>3419700</v>
       </c>
       <c r="K46" s="3">
         <v>2249700</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8277100</v>
+        <v>8669800</v>
       </c>
       <c r="E47" s="3">
-        <v>6863300</v>
+        <v>7188900</v>
       </c>
       <c r="F47" s="3">
-        <v>4150500</v>
+        <v>4347500</v>
       </c>
       <c r="G47" s="3">
-        <v>5419200</v>
+        <v>5676300</v>
       </c>
       <c r="H47" s="3">
-        <v>1411500</v>
+        <v>1478500</v>
       </c>
       <c r="I47" s="3">
-        <v>148300</v>
+        <v>155300</v>
       </c>
       <c r="J47" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="K47" s="3">
         <v>400</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5098200</v>
+        <v>5340000</v>
       </c>
       <c r="E48" s="3">
-        <v>4013700</v>
+        <v>4204100</v>
       </c>
       <c r="F48" s="3">
-        <v>2290400</v>
+        <v>2399000</v>
       </c>
       <c r="G48" s="3">
-        <v>2329300</v>
+        <v>2439800</v>
       </c>
       <c r="H48" s="3">
-        <v>1089200</v>
+        <v>1140900</v>
       </c>
       <c r="I48" s="3">
-        <v>629900</v>
+        <v>659800</v>
       </c>
       <c r="J48" s="3">
-        <v>328500</v>
+        <v>344100</v>
       </c>
       <c r="K48" s="3">
         <v>143700</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3143600</v>
+        <v>3292700</v>
       </c>
       <c r="E49" s="3">
-        <v>3214100</v>
+        <v>3366600</v>
       </c>
       <c r="F49" s="3">
-        <v>2961800</v>
+        <v>3102300</v>
       </c>
       <c r="G49" s="3">
-        <v>4104300</v>
+        <v>4299000</v>
       </c>
       <c r="H49" s="3">
-        <v>1026000</v>
+        <v>1074700</v>
       </c>
       <c r="I49" s="3">
-        <v>1534700</v>
+        <v>1607600</v>
       </c>
       <c r="J49" s="3">
-        <v>120400</v>
+        <v>126200</v>
       </c>
       <c r="K49" s="3">
         <v>110800</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000200</v>
+        <v>1047600</v>
       </c>
       <c r="E52" s="3">
-        <v>1057800</v>
+        <v>1107900</v>
       </c>
       <c r="F52" s="3">
-        <v>621900</v>
+        <v>651400</v>
       </c>
       <c r="G52" s="3">
-        <v>1663200</v>
+        <v>1742100</v>
       </c>
       <c r="H52" s="3">
-        <v>306000</v>
+        <v>320500</v>
       </c>
       <c r="I52" s="3">
-        <v>90800</v>
+        <v>95100</v>
       </c>
       <c r="J52" s="3">
-        <v>58400</v>
+        <v>61100</v>
       </c>
       <c r="K52" s="3">
         <v>61700</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37719700</v>
+        <v>39509200</v>
       </c>
       <c r="E54" s="3">
-        <v>30377000</v>
+        <v>31818200</v>
       </c>
       <c r="F54" s="3">
-        <v>26730300</v>
+        <v>27998400</v>
       </c>
       <c r="G54" s="3">
-        <v>23291000</v>
+        <v>24396000</v>
       </c>
       <c r="H54" s="3">
-        <v>12346700</v>
+        <v>12932500</v>
       </c>
       <c r="I54" s="3">
-        <v>9656800</v>
+        <v>10114900</v>
       </c>
       <c r="J54" s="3">
-        <v>3777400</v>
+        <v>3956600</v>
       </c>
       <c r="K54" s="3">
         <v>2566300</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13179100</v>
+        <v>13804300</v>
       </c>
       <c r="E57" s="3">
-        <v>11647500</v>
+        <v>12200100</v>
       </c>
       <c r="F57" s="3">
-        <v>10804000</v>
+        <v>11316500</v>
       </c>
       <c r="G57" s="3">
-        <v>6708300</v>
+        <v>7026500</v>
       </c>
       <c r="H57" s="3">
-        <v>4345900</v>
+        <v>4552000</v>
       </c>
       <c r="I57" s="3">
-        <v>2423700</v>
+        <v>2538700</v>
       </c>
       <c r="J57" s="3">
-        <v>1600300</v>
+        <v>1676200</v>
       </c>
       <c r="K57" s="3">
         <v>1162400</v>
@@ -2182,22 +2182,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>660100</v>
+        <v>691400</v>
       </c>
       <c r="F58" s="3">
-        <v>1871300</v>
+        <v>1960000</v>
       </c>
       <c r="G58" s="3">
-        <v>1613400</v>
+        <v>1690000</v>
       </c>
       <c r="H58" s="3">
-        <v>525700</v>
+        <v>550700</v>
       </c>
       <c r="I58" s="3">
-        <v>274600</v>
+        <v>287600</v>
       </c>
       <c r="J58" s="3">
-        <v>135500</v>
+        <v>141900</v>
       </c>
       <c r="K58" s="3">
         <v>124500</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7155600</v>
+        <v>7495100</v>
       </c>
       <c r="E59" s="3">
-        <v>5245200</v>
+        <v>5494000</v>
       </c>
       <c r="F59" s="3">
-        <v>4498300</v>
+        <v>4711700</v>
       </c>
       <c r="G59" s="3">
-        <v>11164100</v>
+        <v>11693700</v>
       </c>
       <c r="H59" s="3">
-        <v>2242400</v>
+        <v>2348700</v>
       </c>
       <c r="I59" s="3">
-        <v>1512600</v>
+        <v>1584400</v>
       </c>
       <c r="J59" s="3">
-        <v>699800</v>
+        <v>733000</v>
       </c>
       <c r="K59" s="3">
         <v>360800</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20334700</v>
+        <v>21299400</v>
       </c>
       <c r="E60" s="3">
-        <v>17552800</v>
+        <v>18385500</v>
       </c>
       <c r="F60" s="3">
-        <v>17173500</v>
+        <v>17988300</v>
       </c>
       <c r="G60" s="3">
-        <v>15211400</v>
+        <v>15933100</v>
       </c>
       <c r="H60" s="3">
-        <v>7113800</v>
+        <v>7451300</v>
       </c>
       <c r="I60" s="3">
-        <v>4211000</v>
+        <v>4410700</v>
       </c>
       <c r="J60" s="3">
-        <v>2435500</v>
+        <v>2551000</v>
       </c>
       <c r="K60" s="3">
         <v>1647700</v>
@@ -2278,19 +2278,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1459800</v>
+        <v>1529100</v>
       </c>
       <c r="E61" s="3">
-        <v>1434100</v>
+        <v>1502100</v>
       </c>
       <c r="F61" s="3">
-        <v>1586300</v>
+        <v>1661500</v>
       </c>
       <c r="G61" s="3">
-        <v>1328800</v>
+        <v>1391800</v>
       </c>
       <c r="H61" s="3">
-        <v>399900</v>
+        <v>418900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2311,19 +2311,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1311500</v>
+        <v>1373700</v>
       </c>
       <c r="E62" s="3">
-        <v>232400</v>
+        <v>243400</v>
       </c>
       <c r="F62" s="3">
-        <v>362100</v>
+        <v>379200</v>
       </c>
       <c r="G62" s="3">
-        <v>501400</v>
+        <v>525200</v>
       </c>
       <c r="H62" s="3">
-        <v>371400</v>
+        <v>389100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25831700</v>
+        <v>27057200</v>
       </c>
       <c r="E66" s="3">
-        <v>21696500</v>
+        <v>22725800</v>
       </c>
       <c r="F66" s="3">
-        <v>19172400</v>
+        <v>20082000</v>
       </c>
       <c r="G66" s="3">
-        <v>18368800</v>
+        <v>19240200</v>
       </c>
       <c r="H66" s="3">
-        <v>7905200</v>
+        <v>8280200</v>
       </c>
       <c r="I66" s="3">
-        <v>4211000</v>
+        <v>4410700</v>
       </c>
       <c r="J66" s="3">
-        <v>2435500</v>
+        <v>2551000</v>
       </c>
       <c r="K66" s="3">
         <v>1647700</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>1091700</v>
+        <v>1143500</v>
       </c>
       <c r="K70" s="3">
         <v>734600</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1518200</v>
+        <v>-1590200</v>
       </c>
       <c r="E72" s="3">
-        <v>-3287700</v>
+        <v>-3443600</v>
       </c>
       <c r="F72" s="3">
-        <v>-3136800</v>
+        <v>-3285600</v>
       </c>
       <c r="G72" s="3">
-        <v>-3155500</v>
+        <v>-3305200</v>
       </c>
       <c r="H72" s="3">
-        <v>-2667200</v>
+        <v>-2793700</v>
       </c>
       <c r="I72" s="3">
-        <v>-1344400</v>
+        <v>-1408200</v>
       </c>
       <c r="J72" s="3">
-        <v>-618800</v>
+        <v>-648200</v>
       </c>
       <c r="K72" s="3">
         <v>-604200</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11887900</v>
+        <v>12451900</v>
       </c>
       <c r="E76" s="3">
-        <v>8680500</v>
+        <v>9092400</v>
       </c>
       <c r="F76" s="3">
-        <v>7557900</v>
+        <v>7916400</v>
       </c>
       <c r="G76" s="3">
-        <v>4922300</v>
+        <v>5155800</v>
       </c>
       <c r="H76" s="3">
-        <v>4441600</v>
+        <v>4652300</v>
       </c>
       <c r="I76" s="3">
-        <v>5445800</v>
+        <v>5704200</v>
       </c>
       <c r="J76" s="3">
-        <v>250200</v>
+        <v>262100</v>
       </c>
       <c r="K76" s="3">
         <v>184000</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1769500</v>
+        <v>1853500</v>
       </c>
       <c r="E81" s="3">
-        <v>-361900</v>
+        <v>-379000</v>
       </c>
       <c r="F81" s="3">
-        <v>-22100</v>
+        <v>-23200</v>
       </c>
       <c r="G81" s="3">
-        <v>-552900</v>
+        <v>-579100</v>
       </c>
       <c r="H81" s="3">
-        <v>-1322700</v>
+        <v>-1385500</v>
       </c>
       <c r="I81" s="3">
-        <v>-1881300</v>
+        <v>-1970600</v>
       </c>
       <c r="J81" s="3">
-        <v>-360900</v>
+        <v>-378100</v>
       </c>
       <c r="K81" s="3">
         <v>-475900</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>846400</v>
+        <v>886600</v>
       </c>
       <c r="E83" s="3">
-        <v>807500</v>
+        <v>845800</v>
       </c>
       <c r="F83" s="3">
-        <v>608900</v>
+        <v>637800</v>
       </c>
       <c r="G83" s="3">
-        <v>496700</v>
+        <v>520300</v>
       </c>
       <c r="H83" s="3">
-        <v>364100</v>
+        <v>381400</v>
       </c>
       <c r="I83" s="3">
-        <v>239700</v>
+        <v>251100</v>
       </c>
       <c r="J83" s="3">
-        <v>42600</v>
+        <v>44600</v>
       </c>
       <c r="K83" s="3">
         <v>26600</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3599000</v>
+        <v>3769700</v>
       </c>
       <c r="E89" s="3">
-        <v>3032600</v>
+        <v>3176500</v>
       </c>
       <c r="F89" s="3">
-        <v>3900400</v>
+        <v>4085400</v>
       </c>
       <c r="G89" s="3">
-        <v>1196700</v>
+        <v>1253500</v>
       </c>
       <c r="H89" s="3">
-        <v>246400</v>
+        <v>258000</v>
       </c>
       <c r="I89" s="3">
-        <v>187300</v>
+        <v>196200</v>
       </c>
       <c r="J89" s="3">
-        <v>518400</v>
+        <v>543000</v>
       </c>
       <c r="K89" s="3">
         <v>201400</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-377200</v>
+        <v>-395100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1415000</v>
+        <v>-1482200</v>
       </c>
       <c r="F91" s="3">
-        <v>-478400</v>
+        <v>-501100</v>
       </c>
       <c r="G91" s="3">
-        <v>-310900</v>
+        <v>-325700</v>
       </c>
       <c r="H91" s="3">
-        <v>-370400</v>
+        <v>-388000</v>
       </c>
       <c r="I91" s="3">
-        <v>-206900</v>
+        <v>-216700</v>
       </c>
       <c r="J91" s="3">
-        <v>-63900</v>
+        <v>-66900</v>
       </c>
       <c r="K91" s="3">
         <v>-85700</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3681500</v>
+        <v>-3856100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3787500</v>
+        <v>-3967100</v>
       </c>
       <c r="F94" s="3">
-        <v>-5782400</v>
+        <v>-6056700</v>
       </c>
       <c r="G94" s="3">
-        <v>-6605300</v>
+        <v>-6918600</v>
       </c>
       <c r="H94" s="3">
-        <v>-841000</v>
+        <v>-880900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1957400</v>
+        <v>-2050300</v>
       </c>
       <c r="J94" s="3">
-        <v>-387900</v>
+        <v>-406300</v>
       </c>
       <c r="K94" s="3">
         <v>-483400</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>373600</v>
+        <v>391300</v>
       </c>
       <c r="E100" s="3">
-        <v>1629500</v>
+        <v>1706800</v>
       </c>
       <c r="F100" s="3">
-        <v>2793500</v>
+        <v>2926000</v>
       </c>
       <c r="G100" s="3">
-        <v>5910800</v>
+        <v>6191200</v>
       </c>
       <c r="H100" s="3">
-        <v>682600</v>
+        <v>715000</v>
       </c>
       <c r="I100" s="3">
-        <v>2671100</v>
+        <v>2797800</v>
       </c>
       <c r="J100" s="3">
-        <v>405900</v>
+        <v>425200</v>
       </c>
       <c r="K100" s="3">
         <v>409400</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>58900</v>
+        <v>61700</v>
       </c>
       <c r="E101" s="3">
-        <v>244200</v>
+        <v>255700</v>
       </c>
       <c r="F101" s="3">
-        <v>-93200</v>
+        <v>-97600</v>
       </c>
       <c r="G101" s="3">
-        <v>105500</v>
+        <v>110500</v>
       </c>
       <c r="H101" s="3">
-        <v>49800</v>
+        <v>52200</v>
       </c>
       <c r="I101" s="3">
-        <v>-14700</v>
+        <v>-15400</v>
       </c>
       <c r="J101" s="3">
-        <v>-8600</v>
+        <v>-9000</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>350000</v>
+        <v>366600</v>
       </c>
       <c r="E102" s="3">
-        <v>1118800</v>
+        <v>1171900</v>
       </c>
       <c r="F102" s="3">
-        <v>818400</v>
+        <v>857200</v>
       </c>
       <c r="G102" s="3">
-        <v>607800</v>
+        <v>636600</v>
       </c>
       <c r="H102" s="3">
-        <v>137900</v>
+        <v>144400</v>
       </c>
       <c r="I102" s="3">
-        <v>886200</v>
+        <v>928300</v>
       </c>
       <c r="J102" s="3">
-        <v>527900</v>
+        <v>553000</v>
       </c>
       <c r="K102" s="3">
         <v>127500</v>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>JD</t>
   </si>
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>87756300</v>
+        <v>88137000</v>
       </c>
       <c r="E8" s="3">
-        <v>70282400</v>
+        <v>70587400</v>
       </c>
       <c r="F8" s="3">
-        <v>55117900</v>
+        <v>55357000</v>
       </c>
       <c r="G8" s="3">
-        <v>39291100</v>
+        <v>39461500</v>
       </c>
       <c r="H8" s="3">
-        <v>27540200</v>
+        <v>27659600</v>
       </c>
       <c r="I8" s="3">
-        <v>17494200</v>
+        <v>17570100</v>
       </c>
       <c r="J8" s="3">
-        <v>10548000</v>
+        <v>10593700</v>
       </c>
       <c r="K8" s="3">
         <v>5937300</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>74914100</v>
+        <v>75239200</v>
       </c>
       <c r="E9" s="3">
-        <v>60249600</v>
+        <v>60511000</v>
       </c>
       <c r="F9" s="3">
-        <v>47387900</v>
+        <v>47593500</v>
       </c>
       <c r="G9" s="3">
-        <v>67485500</v>
+        <v>67778300</v>
       </c>
       <c r="H9" s="3">
-        <v>48065200</v>
+        <v>48273700</v>
       </c>
       <c r="I9" s="3">
-        <v>15460200</v>
+        <v>15527300</v>
       </c>
       <c r="J9" s="3">
-        <v>9506800</v>
+        <v>9548100</v>
       </c>
       <c r="K9" s="3">
         <v>5437700</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12842100</v>
+        <v>12897900</v>
       </c>
       <c r="E10" s="3">
-        <v>10032900</v>
+        <v>10076400</v>
       </c>
       <c r="F10" s="3">
-        <v>7730000</v>
+        <v>7763500</v>
       </c>
       <c r="G10" s="3">
-        <v>-28194400</v>
+        <v>-28316800</v>
       </c>
       <c r="H10" s="3">
-        <v>-20525000</v>
+        <v>-20614100</v>
       </c>
       <c r="I10" s="3">
-        <v>2034000</v>
+        <v>2042800</v>
       </c>
       <c r="J10" s="3">
-        <v>1041200</v>
+        <v>1045700</v>
       </c>
       <c r="K10" s="3">
         <v>499600</v>
@@ -833,25 +833,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2208700</v>
+        <v>2218300</v>
       </c>
       <c r="E12" s="3">
-        <v>1832500</v>
+        <v>1840400</v>
       </c>
       <c r="F12" s="3">
-        <v>999200</v>
+        <v>1003500</v>
       </c>
       <c r="G12" s="3">
-        <v>670300</v>
+        <v>673300</v>
       </c>
       <c r="H12" s="3">
-        <v>437800</v>
+        <v>439700</v>
       </c>
       <c r="I12" s="3">
-        <v>279300</v>
+        <v>280500</v>
       </c>
       <c r="J12" s="3">
-        <v>146600</v>
+        <v>147200</v>
       </c>
       <c r="K12" s="3">
         <v>91300</v>
@@ -899,10 +899,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-476100</v>
+        <v>-478200</v>
       </c>
       <c r="E14" s="3">
-        <v>-107200</v>
+        <v>-107700</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>418300</v>
+        <v>420200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -932,19 +932,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>183900</v>
+        <v>184700</v>
       </c>
       <c r="E15" s="3">
-        <v>274700</v>
+        <v>275900</v>
       </c>
       <c r="F15" s="3">
-        <v>270500</v>
+        <v>271600</v>
       </c>
       <c r="G15" s="3">
-        <v>244800</v>
+        <v>245800</v>
       </c>
       <c r="H15" s="3">
-        <v>218900</v>
+        <v>219900</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86502800</v>
+        <v>86878100</v>
       </c>
       <c r="E17" s="3">
-        <v>70570300</v>
+        <v>70876400</v>
       </c>
       <c r="F17" s="3">
-        <v>55245000</v>
+        <v>55484700</v>
       </c>
       <c r="G17" s="3">
-        <v>39481500</v>
+        <v>39652800</v>
       </c>
       <c r="H17" s="3">
-        <v>28355200</v>
+        <v>28478200</v>
       </c>
       <c r="I17" s="3">
-        <v>18376800</v>
+        <v>18456600</v>
       </c>
       <c r="J17" s="3">
-        <v>10636000</v>
+        <v>10682200</v>
       </c>
       <c r="K17" s="3">
         <v>6217200</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1253500</v>
+        <v>1258900</v>
       </c>
       <c r="E18" s="3">
-        <v>-287800</v>
+        <v>-289100</v>
       </c>
       <c r="F18" s="3">
-        <v>-127100</v>
+        <v>-127600</v>
       </c>
       <c r="G18" s="3">
-        <v>-190400</v>
+        <v>-191200</v>
       </c>
       <c r="H18" s="3">
-        <v>-815000</v>
+        <v>-818600</v>
       </c>
       <c r="I18" s="3">
-        <v>-882700</v>
+        <v>-886500</v>
       </c>
       <c r="J18" s="3">
-        <v>-88100</v>
+        <v>-88400</v>
       </c>
       <c r="K18" s="3">
         <v>-279900</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>939700</v>
+        <v>943800</v>
       </c>
       <c r="E20" s="3">
-        <v>56700</v>
+        <v>57000</v>
       </c>
       <c r="F20" s="3">
-        <v>292100</v>
+        <v>293400</v>
       </c>
       <c r="G20" s="3">
         <v>-1800</v>
       </c>
       <c r="H20" s="3">
-        <v>-353800</v>
+        <v>-355300</v>
       </c>
       <c r="I20" s="3">
-        <v>129900</v>
+        <v>130500</v>
       </c>
       <c r="J20" s="3">
-        <v>81700</v>
+        <v>82100</v>
       </c>
       <c r="K20" s="3">
         <v>33900</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3079700</v>
+        <v>3096200</v>
       </c>
       <c r="E21" s="3">
-        <v>614600</v>
+        <v>620300</v>
       </c>
       <c r="F21" s="3">
-        <v>802800</v>
+        <v>808500</v>
       </c>
       <c r="G21" s="3">
-        <v>328100</v>
+        <v>331300</v>
       </c>
       <c r="H21" s="3">
-        <v>-787400</v>
+        <v>-789500</v>
       </c>
       <c r="I21" s="3">
-        <v>-501700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>38300</v>
+        <v>-503000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K21" s="3">
         <v>-219400</v>
@@ -1124,19 +1124,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>110300</v>
+        <v>110800</v>
       </c>
       <c r="E22" s="3">
-        <v>130000</v>
+        <v>130600</v>
       </c>
       <c r="F22" s="3">
-        <v>146600</v>
+        <v>147200</v>
       </c>
       <c r="G22" s="3">
-        <v>94100</v>
+        <v>94500</v>
       </c>
       <c r="H22" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="I22" s="3">
         <v>4400</v>
@@ -1157,22 +1157,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2082900</v>
+        <v>2091900</v>
       </c>
       <c r="E23" s="3">
-        <v>-361100</v>
+        <v>-362700</v>
       </c>
       <c r="F23" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="G23" s="3">
-        <v>-286300</v>
+        <v>-287500</v>
       </c>
       <c r="H23" s="3">
-        <v>-1179800</v>
+        <v>-1185000</v>
       </c>
       <c r="I23" s="3">
-        <v>-757100</v>
+        <v>-760400</v>
       </c>
       <c r="J23" s="3">
         <v>-7600</v>
@@ -1190,22 +1190,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>274200</v>
+        <v>275400</v>
       </c>
       <c r="E24" s="3">
-        <v>64900</v>
+        <v>65200</v>
       </c>
       <c r="F24" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="G24" s="3">
-        <v>25300</v>
+        <v>25400</v>
       </c>
       <c r="H24" s="3">
         <v>-2200</v>
       </c>
       <c r="I24" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1256,22 +1256,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1808700</v>
+        <v>1816600</v>
       </c>
       <c r="E26" s="3">
-        <v>-426000</v>
+        <v>-427900</v>
       </c>
       <c r="F26" s="3">
         <v>-2800</v>
       </c>
       <c r="G26" s="3">
-        <v>-311600</v>
+        <v>-312900</v>
       </c>
       <c r="H26" s="3">
-        <v>-1177600</v>
+        <v>-1182700</v>
       </c>
       <c r="I26" s="3">
-        <v>-760000</v>
+        <v>-763300</v>
       </c>
       <c r="J26" s="3">
         <v>-7600</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1853500</v>
+        <v>1861500</v>
       </c>
       <c r="E27" s="3">
-        <v>-379000</v>
+        <v>-380700</v>
       </c>
       <c r="F27" s="3">
         <v>17800</v>
       </c>
       <c r="G27" s="3">
-        <v>-304300</v>
+        <v>-305600</v>
       </c>
       <c r="H27" s="3">
-        <v>-1176200</v>
+        <v>-1181300</v>
       </c>
       <c r="I27" s="3">
-        <v>-1970600</v>
+        <v>-1979100</v>
       </c>
       <c r="J27" s="3">
-        <v>-378100</v>
+        <v>-379700</v>
       </c>
       <c r="K27" s="3">
         <v>-475900</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-40900</v>
+        <v>-41100</v>
       </c>
       <c r="G29" s="3">
-        <v>-274800</v>
+        <v>-276000</v>
       </c>
       <c r="H29" s="3">
-        <v>-209300</v>
+        <v>-210300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-939700</v>
+        <v>-943800</v>
       </c>
       <c r="E32" s="3">
-        <v>-56700</v>
+        <v>-57000</v>
       </c>
       <c r="F32" s="3">
-        <v>-292100</v>
+        <v>-293400</v>
       </c>
       <c r="G32" s="3">
         <v>1800</v>
       </c>
       <c r="H32" s="3">
-        <v>353800</v>
+        <v>355300</v>
       </c>
       <c r="I32" s="3">
-        <v>-129900</v>
+        <v>-130500</v>
       </c>
       <c r="J32" s="3">
-        <v>-81700</v>
+        <v>-82100</v>
       </c>
       <c r="K32" s="3">
         <v>-33900</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1853500</v>
+        <v>1861500</v>
       </c>
       <c r="E33" s="3">
-        <v>-379000</v>
+        <v>-380700</v>
       </c>
       <c r="F33" s="3">
-        <v>-23200</v>
+        <v>-23300</v>
       </c>
       <c r="G33" s="3">
-        <v>-579100</v>
+        <v>-581600</v>
       </c>
       <c r="H33" s="3">
-        <v>-1385500</v>
+        <v>-1391500</v>
       </c>
       <c r="I33" s="3">
-        <v>-1970600</v>
+        <v>-1979100</v>
       </c>
       <c r="J33" s="3">
-        <v>-378100</v>
+        <v>-379700</v>
       </c>
       <c r="K33" s="3">
         <v>-475900</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1853500</v>
+        <v>1861500</v>
       </c>
       <c r="E35" s="3">
-        <v>-379000</v>
+        <v>-380700</v>
       </c>
       <c r="F35" s="3">
-        <v>-23200</v>
+        <v>-23300</v>
       </c>
       <c r="G35" s="3">
-        <v>-579100</v>
+        <v>-581600</v>
       </c>
       <c r="H35" s="3">
-        <v>-1385500</v>
+        <v>-1391500</v>
       </c>
       <c r="I35" s="3">
-        <v>-1970600</v>
+        <v>-1979100</v>
       </c>
       <c r="J35" s="3">
-        <v>-378100</v>
+        <v>-379700</v>
       </c>
       <c r="K35" s="3">
         <v>-475900</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5624100</v>
+        <v>5648500</v>
       </c>
       <c r="E41" s="3">
-        <v>5212000</v>
+        <v>5234600</v>
       </c>
       <c r="F41" s="3">
-        <v>3907700</v>
+        <v>3924700</v>
       </c>
       <c r="G41" s="3">
-        <v>2368100</v>
+        <v>2378300</v>
       </c>
       <c r="H41" s="3">
-        <v>2717500</v>
+        <v>2729200</v>
       </c>
       <c r="I41" s="3">
-        <v>2573100</v>
+        <v>2584200</v>
       </c>
       <c r="J41" s="3">
-        <v>1644800</v>
+        <v>1651900</v>
       </c>
       <c r="K41" s="3">
         <v>1029800</v>
@@ -1687,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3742600</v>
+        <v>3758800</v>
       </c>
       <c r="E42" s="3">
-        <v>309700</v>
+        <v>311000</v>
       </c>
       <c r="F42" s="3">
-        <v>1306400</v>
+        <v>1312100</v>
       </c>
       <c r="G42" s="3">
-        <v>2744000</v>
+        <v>2755900</v>
       </c>
       <c r="H42" s="3">
-        <v>443500</v>
+        <v>445500</v>
       </c>
       <c r="I42" s="3">
-        <v>1875400</v>
+        <v>1883600</v>
       </c>
       <c r="J42" s="3">
-        <v>292600</v>
+        <v>293900</v>
       </c>
       <c r="K42" s="3">
         <v>157100</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1821800</v>
+        <v>1829700</v>
       </c>
       <c r="E43" s="3">
-        <v>2580400</v>
+        <v>2591600</v>
       </c>
       <c r="F43" s="3">
-        <v>4911700</v>
+        <v>4933000</v>
       </c>
       <c r="G43" s="3">
-        <v>6902100</v>
+        <v>6932000</v>
       </c>
       <c r="H43" s="3">
-        <v>1941500</v>
+        <v>1949900</v>
       </c>
       <c r="I43" s="3">
-        <v>472700</v>
+        <v>474800</v>
       </c>
       <c r="J43" s="3">
-        <v>80700</v>
+        <v>81100</v>
       </c>
       <c r="K43" s="3">
         <v>77100</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8812600</v>
+        <v>8850900</v>
       </c>
       <c r="E44" s="3">
-        <v>6697900</v>
+        <v>6726900</v>
       </c>
       <c r="F44" s="3">
-        <v>6343500</v>
+        <v>6371000</v>
       </c>
       <c r="G44" s="3">
-        <v>8795400</v>
+        <v>8833600</v>
       </c>
       <c r="H44" s="3">
-        <v>3124500</v>
+        <v>3138000</v>
       </c>
       <c r="I44" s="3">
-        <v>1854500</v>
+        <v>1862500</v>
       </c>
       <c r="J44" s="3">
-        <v>971500</v>
+        <v>975700</v>
       </c>
       <c r="K44" s="3">
         <v>682100</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1158000</v>
+        <v>1163000</v>
       </c>
       <c r="E45" s="3">
-        <v>1150800</v>
+        <v>1155800</v>
       </c>
       <c r="F45" s="3">
-        <v>1028900</v>
+        <v>1033400</v>
       </c>
       <c r="G45" s="3">
-        <v>4058000</v>
+        <v>4075600</v>
       </c>
       <c r="H45" s="3">
-        <v>893300</v>
+        <v>897200</v>
       </c>
       <c r="I45" s="3">
-        <v>821500</v>
+        <v>825000</v>
       </c>
       <c r="J45" s="3">
-        <v>430100</v>
+        <v>431900</v>
       </c>
       <c r="K45" s="3">
         <v>303600</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21159100</v>
+        <v>21250900</v>
       </c>
       <c r="E46" s="3">
-        <v>15950700</v>
+        <v>16019900</v>
       </c>
       <c r="F46" s="3">
-        <v>17498200</v>
+        <v>17574100</v>
       </c>
       <c r="G46" s="3">
-        <v>16266500</v>
+        <v>16337100</v>
       </c>
       <c r="H46" s="3">
-        <v>8894200</v>
+        <v>8932800</v>
       </c>
       <c r="I46" s="3">
-        <v>7597100</v>
+        <v>7630100</v>
       </c>
       <c r="J46" s="3">
-        <v>3419700</v>
+        <v>3434500</v>
       </c>
       <c r="K46" s="3">
         <v>2249700</v>
@@ -1852,22 +1852,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8669800</v>
+        <v>8707400</v>
       </c>
       <c r="E47" s="3">
-        <v>7188900</v>
+        <v>7220100</v>
       </c>
       <c r="F47" s="3">
-        <v>4347500</v>
+        <v>4366300</v>
       </c>
       <c r="G47" s="3">
-        <v>5676300</v>
+        <v>5700900</v>
       </c>
       <c r="H47" s="3">
-        <v>1478500</v>
+        <v>1484900</v>
       </c>
       <c r="I47" s="3">
-        <v>155300</v>
+        <v>156000</v>
       </c>
       <c r="J47" s="3">
         <v>5600</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5340000</v>
+        <v>5363200</v>
       </c>
       <c r="E48" s="3">
-        <v>4204100</v>
+        <v>4222300</v>
       </c>
       <c r="F48" s="3">
-        <v>2399000</v>
+        <v>2409400</v>
       </c>
       <c r="G48" s="3">
-        <v>2439800</v>
+        <v>2450400</v>
       </c>
       <c r="H48" s="3">
-        <v>1140900</v>
+        <v>1145900</v>
       </c>
       <c r="I48" s="3">
-        <v>659800</v>
+        <v>662700</v>
       </c>
       <c r="J48" s="3">
-        <v>344100</v>
+        <v>345600</v>
       </c>
       <c r="K48" s="3">
         <v>143700</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3292700</v>
+        <v>3307000</v>
       </c>
       <c r="E49" s="3">
-        <v>3366600</v>
+        <v>3381200</v>
       </c>
       <c r="F49" s="3">
-        <v>3102300</v>
+        <v>3115800</v>
       </c>
       <c r="G49" s="3">
-        <v>4299000</v>
+        <v>4317700</v>
       </c>
       <c r="H49" s="3">
-        <v>1074700</v>
+        <v>1079300</v>
       </c>
       <c r="I49" s="3">
-        <v>1607600</v>
+        <v>1614500</v>
       </c>
       <c r="J49" s="3">
-        <v>126200</v>
+        <v>126700</v>
       </c>
       <c r="K49" s="3">
         <v>110800</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1047600</v>
+        <v>1052200</v>
       </c>
       <c r="E52" s="3">
-        <v>1107900</v>
+        <v>1112700</v>
       </c>
       <c r="F52" s="3">
-        <v>651400</v>
+        <v>654300</v>
       </c>
       <c r="G52" s="3">
-        <v>1742100</v>
+        <v>1749700</v>
       </c>
       <c r="H52" s="3">
-        <v>320500</v>
+        <v>321900</v>
       </c>
       <c r="I52" s="3">
-        <v>95100</v>
+        <v>95500</v>
       </c>
       <c r="J52" s="3">
-        <v>61100</v>
+        <v>61400</v>
       </c>
       <c r="K52" s="3">
         <v>61700</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39509200</v>
+        <v>39680600</v>
       </c>
       <c r="E54" s="3">
-        <v>31818200</v>
+        <v>31956200</v>
       </c>
       <c r="F54" s="3">
-        <v>27998400</v>
+        <v>28119900</v>
       </c>
       <c r="G54" s="3">
-        <v>24396000</v>
+        <v>24501900</v>
       </c>
       <c r="H54" s="3">
-        <v>12932500</v>
+        <v>12988600</v>
       </c>
       <c r="I54" s="3">
-        <v>10114900</v>
+        <v>10158800</v>
       </c>
       <c r="J54" s="3">
-        <v>3956600</v>
+        <v>3973800</v>
       </c>
       <c r="K54" s="3">
         <v>2566300</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13804300</v>
+        <v>13864200</v>
       </c>
       <c r="E57" s="3">
-        <v>12200100</v>
+        <v>12253100</v>
       </c>
       <c r="F57" s="3">
-        <v>11316500</v>
+        <v>11365600</v>
       </c>
       <c r="G57" s="3">
-        <v>7026500</v>
+        <v>7057000</v>
       </c>
       <c r="H57" s="3">
-        <v>4552000</v>
+        <v>4571800</v>
       </c>
       <c r="I57" s="3">
-        <v>2538700</v>
+        <v>2549700</v>
       </c>
       <c r="J57" s="3">
-        <v>1676200</v>
+        <v>1683500</v>
       </c>
       <c r="K57" s="3">
         <v>1162400</v>
@@ -2182,22 +2182,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>691400</v>
+        <v>694400</v>
       </c>
       <c r="F58" s="3">
-        <v>1960000</v>
+        <v>1968600</v>
       </c>
       <c r="G58" s="3">
-        <v>1690000</v>
+        <v>1697300</v>
       </c>
       <c r="H58" s="3">
-        <v>550700</v>
+        <v>553100</v>
       </c>
       <c r="I58" s="3">
-        <v>287600</v>
+        <v>288900</v>
       </c>
       <c r="J58" s="3">
-        <v>141900</v>
+        <v>142500</v>
       </c>
       <c r="K58" s="3">
         <v>124500</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7495100</v>
+        <v>7527600</v>
       </c>
       <c r="E59" s="3">
-        <v>5494000</v>
+        <v>5517900</v>
       </c>
       <c r="F59" s="3">
-        <v>4711700</v>
+        <v>4732200</v>
       </c>
       <c r="G59" s="3">
-        <v>11693700</v>
+        <v>11744400</v>
       </c>
       <c r="H59" s="3">
-        <v>2348700</v>
+        <v>2358900</v>
       </c>
       <c r="I59" s="3">
-        <v>1584400</v>
+        <v>1591300</v>
       </c>
       <c r="J59" s="3">
-        <v>733000</v>
+        <v>736100</v>
       </c>
       <c r="K59" s="3">
         <v>360800</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21299400</v>
+        <v>21391800</v>
       </c>
       <c r="E60" s="3">
-        <v>18385500</v>
+        <v>18465300</v>
       </c>
       <c r="F60" s="3">
-        <v>17988300</v>
+        <v>18066300</v>
       </c>
       <c r="G60" s="3">
-        <v>15933100</v>
+        <v>16002200</v>
       </c>
       <c r="H60" s="3">
-        <v>7451300</v>
+        <v>7483600</v>
       </c>
       <c r="I60" s="3">
-        <v>4410700</v>
+        <v>4429900</v>
       </c>
       <c r="J60" s="3">
-        <v>2551000</v>
+        <v>2562100</v>
       </c>
       <c r="K60" s="3">
         <v>1647700</v>
@@ -2278,19 +2278,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1529100</v>
+        <v>1535700</v>
       </c>
       <c r="E61" s="3">
-        <v>1502100</v>
+        <v>1508600</v>
       </c>
       <c r="F61" s="3">
-        <v>1661500</v>
+        <v>1668800</v>
       </c>
       <c r="G61" s="3">
-        <v>1391800</v>
+        <v>1397800</v>
       </c>
       <c r="H61" s="3">
-        <v>418900</v>
+        <v>420700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2311,19 +2311,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1373700</v>
+        <v>1379700</v>
       </c>
       <c r="E62" s="3">
-        <v>243400</v>
+        <v>244500</v>
       </c>
       <c r="F62" s="3">
-        <v>379200</v>
+        <v>380900</v>
       </c>
       <c r="G62" s="3">
-        <v>525200</v>
+        <v>527500</v>
       </c>
       <c r="H62" s="3">
-        <v>389100</v>
+        <v>390700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27057200</v>
+        <v>27174600</v>
       </c>
       <c r="E66" s="3">
-        <v>22725800</v>
+        <v>22824400</v>
       </c>
       <c r="F66" s="3">
-        <v>20082000</v>
+        <v>20169100</v>
       </c>
       <c r="G66" s="3">
-        <v>19240200</v>
+        <v>19323700</v>
       </c>
       <c r="H66" s="3">
-        <v>8280200</v>
+        <v>8316100</v>
       </c>
       <c r="I66" s="3">
-        <v>4410700</v>
+        <v>4429900</v>
       </c>
       <c r="J66" s="3">
-        <v>2551000</v>
+        <v>2562100</v>
       </c>
       <c r="K66" s="3">
         <v>1647700</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>1143500</v>
+        <v>1148500</v>
       </c>
       <c r="K70" s="3">
         <v>734600</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1590200</v>
+        <v>-1597100</v>
       </c>
       <c r="E72" s="3">
-        <v>-3443600</v>
+        <v>-3458600</v>
       </c>
       <c r="F72" s="3">
-        <v>-3285600</v>
+        <v>-3299800</v>
       </c>
       <c r="G72" s="3">
-        <v>-3305200</v>
+        <v>-3319500</v>
       </c>
       <c r="H72" s="3">
-        <v>-2793700</v>
+        <v>-2805800</v>
       </c>
       <c r="I72" s="3">
-        <v>-1408200</v>
+        <v>-1414300</v>
       </c>
       <c r="J72" s="3">
-        <v>-648200</v>
+        <v>-651000</v>
       </c>
       <c r="K72" s="3">
         <v>-604200</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12451900</v>
+        <v>12506000</v>
       </c>
       <c r="E76" s="3">
-        <v>9092400</v>
+        <v>9131800</v>
       </c>
       <c r="F76" s="3">
-        <v>7916400</v>
+        <v>7950800</v>
       </c>
       <c r="G76" s="3">
-        <v>5155800</v>
+        <v>5178200</v>
       </c>
       <c r="H76" s="3">
-        <v>4652300</v>
+        <v>4672500</v>
       </c>
       <c r="I76" s="3">
-        <v>5704200</v>
+        <v>5729000</v>
       </c>
       <c r="J76" s="3">
-        <v>262100</v>
+        <v>263200</v>
       </c>
       <c r="K76" s="3">
         <v>184000</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1853500</v>
+        <v>1861500</v>
       </c>
       <c r="E81" s="3">
-        <v>-379000</v>
+        <v>-380700</v>
       </c>
       <c r="F81" s="3">
-        <v>-23200</v>
+        <v>-23300</v>
       </c>
       <c r="G81" s="3">
-        <v>-579100</v>
+        <v>-581600</v>
       </c>
       <c r="H81" s="3">
-        <v>-1385500</v>
+        <v>-1391500</v>
       </c>
       <c r="I81" s="3">
-        <v>-1970600</v>
+        <v>-1979100</v>
       </c>
       <c r="J81" s="3">
-        <v>-378100</v>
+        <v>-379700</v>
       </c>
       <c r="K81" s="3">
         <v>-475900</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>886600</v>
+        <v>890400</v>
       </c>
       <c r="E83" s="3">
-        <v>845800</v>
+        <v>849500</v>
       </c>
       <c r="F83" s="3">
-        <v>637800</v>
+        <v>640600</v>
       </c>
       <c r="G83" s="3">
-        <v>520300</v>
+        <v>522600</v>
       </c>
       <c r="H83" s="3">
-        <v>381400</v>
+        <v>383100</v>
       </c>
       <c r="I83" s="3">
-        <v>251100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>44600</v>
+        <v>252200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K83" s="3">
         <v>26600</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3769700</v>
+        <v>3786100</v>
       </c>
       <c r="E89" s="3">
-        <v>3176500</v>
+        <v>3190300</v>
       </c>
       <c r="F89" s="3">
-        <v>4085400</v>
+        <v>4103200</v>
       </c>
       <c r="G89" s="3">
-        <v>1253500</v>
+        <v>1259000</v>
       </c>
       <c r="H89" s="3">
-        <v>258000</v>
+        <v>259200</v>
       </c>
       <c r="I89" s="3">
-        <v>196200</v>
+        <v>197100</v>
       </c>
       <c r="J89" s="3">
-        <v>543000</v>
+        <v>545400</v>
       </c>
       <c r="K89" s="3">
         <v>201400</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-395100</v>
+        <v>-396800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1482200</v>
+        <v>-1488600</v>
       </c>
       <c r="F91" s="3">
-        <v>-501100</v>
+        <v>-503300</v>
       </c>
       <c r="G91" s="3">
-        <v>-325700</v>
+        <v>-327100</v>
       </c>
       <c r="H91" s="3">
-        <v>-388000</v>
+        <v>-389700</v>
       </c>
       <c r="I91" s="3">
-        <v>-216700</v>
+        <v>-217600</v>
       </c>
       <c r="J91" s="3">
-        <v>-66900</v>
+        <v>-67200</v>
       </c>
       <c r="K91" s="3">
         <v>-85700</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3856100</v>
+        <v>-3872900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3967100</v>
+        <v>-3984300</v>
       </c>
       <c r="F94" s="3">
-        <v>-6056700</v>
+        <v>-6083000</v>
       </c>
       <c r="G94" s="3">
-        <v>-6918600</v>
+        <v>-6948700</v>
       </c>
       <c r="H94" s="3">
-        <v>-880900</v>
+        <v>-884700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2050300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-406300</v>
+        <v>-2059200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>-483400</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>391300</v>
+        <v>393000</v>
       </c>
       <c r="E100" s="3">
-        <v>1706800</v>
+        <v>1714200</v>
       </c>
       <c r="F100" s="3">
-        <v>2926000</v>
+        <v>2938700</v>
       </c>
       <c r="G100" s="3">
-        <v>6191200</v>
+        <v>6218100</v>
       </c>
       <c r="H100" s="3">
-        <v>715000</v>
+        <v>718100</v>
       </c>
       <c r="I100" s="3">
-        <v>2797800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>425200</v>
+        <v>2809900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3">
         <v>409400</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>61700</v>
+        <v>62000</v>
       </c>
       <c r="E101" s="3">
-        <v>255700</v>
+        <v>256800</v>
       </c>
       <c r="F101" s="3">
-        <v>-97600</v>
+        <v>-98000</v>
       </c>
       <c r="G101" s="3">
-        <v>110500</v>
+        <v>111000</v>
       </c>
       <c r="H101" s="3">
-        <v>52200</v>
+        <v>52400</v>
       </c>
       <c r="I101" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-9000</v>
+        <v>-15500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>366600</v>
+        <v>368200</v>
       </c>
       <c r="E102" s="3">
-        <v>1171900</v>
+        <v>1176900</v>
       </c>
       <c r="F102" s="3">
-        <v>857200</v>
+        <v>860900</v>
       </c>
       <c r="G102" s="3">
-        <v>636600</v>
+        <v>639400</v>
       </c>
       <c r="H102" s="3">
-        <v>144400</v>
+        <v>145000</v>
       </c>
       <c r="I102" s="3">
-        <v>928300</v>
+        <v>932300</v>
       </c>
       <c r="J102" s="3">
-        <v>553000</v>
+        <v>555400</v>
       </c>
       <c r="K102" s="3">
         <v>127500</v>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>JD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>88137000</v>
+        <v>116352600</v>
       </c>
       <c r="E8" s="3">
-        <v>70587400</v>
+        <v>90000400</v>
       </c>
       <c r="F8" s="3">
-        <v>55357000</v>
+        <v>72079700</v>
       </c>
       <c r="G8" s="3">
-        <v>39461500</v>
+        <v>56527400</v>
       </c>
       <c r="H8" s="3">
-        <v>27659600</v>
+        <v>40295800</v>
       </c>
       <c r="I8" s="3">
-        <v>17570100</v>
+        <v>28244400</v>
       </c>
       <c r="J8" s="3">
+        <v>17941500</v>
+      </c>
+      <c r="K8" s="3">
         <v>10593700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5937300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3072800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>75239200</v>
+        <v>99330600</v>
       </c>
       <c r="E9" s="3">
-        <v>60511000</v>
+        <v>76829800</v>
       </c>
       <c r="F9" s="3">
-        <v>47593500</v>
+        <v>61790300</v>
       </c>
       <c r="G9" s="3">
-        <v>67778300</v>
+        <v>48599700</v>
       </c>
       <c r="H9" s="3">
-        <v>48273700</v>
+        <v>69211200</v>
       </c>
       <c r="I9" s="3">
-        <v>15527300</v>
+        <v>49294300</v>
       </c>
       <c r="J9" s="3">
+        <v>15855500</v>
+      </c>
+      <c r="K9" s="3">
         <v>9548100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5437700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2905200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12897900</v>
+        <v>17022000</v>
       </c>
       <c r="E10" s="3">
-        <v>10076400</v>
+        <v>13170500</v>
       </c>
       <c r="F10" s="3">
-        <v>7763500</v>
+        <v>10289400</v>
       </c>
       <c r="G10" s="3">
-        <v>-28316800</v>
+        <v>7927600</v>
       </c>
       <c r="H10" s="3">
-        <v>-20614100</v>
+        <v>-28915400</v>
       </c>
       <c r="I10" s="3">
-        <v>2042800</v>
+        <v>-21049900</v>
       </c>
       <c r="J10" s="3">
+        <v>2086000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1045700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>499600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>167600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,41 +840,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2218300</v>
+        <v>2504000</v>
       </c>
       <c r="E12" s="3">
-        <v>1840400</v>
+        <v>2265200</v>
       </c>
       <c r="F12" s="3">
-        <v>1003500</v>
+        <v>1879400</v>
       </c>
       <c r="G12" s="3">
-        <v>673300</v>
+        <v>1024700</v>
       </c>
       <c r="H12" s="3">
-        <v>439700</v>
+        <v>687500</v>
       </c>
       <c r="I12" s="3">
-        <v>280500</v>
+        <v>449000</v>
       </c>
       <c r="J12" s="3">
+        <v>286400</v>
+      </c>
+      <c r="K12" s="3">
         <v>147200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>91300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34900</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,29 +909,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-478200</v>
+        <v>-268300</v>
       </c>
       <c r="E14" s="3">
-        <v>-107700</v>
+        <v>-488300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-110000</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>420200</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>429000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -925,29 +945,32 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>184700</v>
+        <v>201700</v>
       </c>
       <c r="E15" s="3">
-        <v>275900</v>
+        <v>188600</v>
       </c>
       <c r="F15" s="3">
-        <v>271600</v>
+        <v>281800</v>
       </c>
       <c r="G15" s="3">
-        <v>245800</v>
+        <v>277400</v>
       </c>
       <c r="H15" s="3">
-        <v>219900</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
+        <v>251000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>224500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -958,9 +981,12 @@
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +997,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86878100</v>
+        <v>114415800</v>
       </c>
       <c r="E17" s="3">
-        <v>70876400</v>
+        <v>88714800</v>
       </c>
       <c r="F17" s="3">
-        <v>55484700</v>
+        <v>72374900</v>
       </c>
       <c r="G17" s="3">
-        <v>39652800</v>
+        <v>56657700</v>
       </c>
       <c r="H17" s="3">
-        <v>28478200</v>
+        <v>40491100</v>
       </c>
       <c r="I17" s="3">
-        <v>18456600</v>
+        <v>29080300</v>
       </c>
       <c r="J17" s="3">
+        <v>18846700</v>
+      </c>
+      <c r="K17" s="3">
         <v>10682200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6217200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3277000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1258900</v>
+        <v>1936700</v>
       </c>
       <c r="E18" s="3">
-        <v>-289100</v>
+        <v>1285600</v>
       </c>
       <c r="F18" s="3">
-        <v>-127600</v>
+        <v>-295200</v>
       </c>
       <c r="G18" s="3">
-        <v>-191200</v>
+        <v>-130300</v>
       </c>
       <c r="H18" s="3">
-        <v>-818600</v>
+        <v>-195300</v>
       </c>
       <c r="I18" s="3">
-        <v>-886500</v>
+        <v>-835900</v>
       </c>
       <c r="J18" s="3">
+        <v>-905200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-88400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-279900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-204200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1085,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>943800</v>
+        <v>6167100</v>
       </c>
       <c r="E20" s="3">
-        <v>57000</v>
+        <v>963700</v>
       </c>
       <c r="F20" s="3">
-        <v>293400</v>
+        <v>58200</v>
       </c>
       <c r="G20" s="3">
+        <v>299600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
-        <v>-355300</v>
-      </c>
       <c r="I20" s="3">
-        <v>130500</v>
+        <v>-362800</v>
       </c>
       <c r="J20" s="3">
+        <v>133300</v>
+      </c>
+      <c r="K20" s="3">
         <v>82100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>33900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3096200</v>
+        <v>9049300</v>
       </c>
       <c r="E21" s="3">
-        <v>620300</v>
+        <v>3157400</v>
       </c>
       <c r="F21" s="3">
-        <v>808500</v>
+        <v>629400</v>
       </c>
       <c r="G21" s="3">
-        <v>331300</v>
+        <v>822500</v>
       </c>
       <c r="H21" s="3">
-        <v>-789500</v>
+        <v>335900</v>
       </c>
       <c r="I21" s="3">
-        <v>-503000</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>-808000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-514800</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-219400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-175900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>110800</v>
+        <v>175500</v>
       </c>
       <c r="E22" s="3">
-        <v>130600</v>
+        <v>113100</v>
       </c>
       <c r="F22" s="3">
-        <v>147200</v>
+        <v>133300</v>
       </c>
       <c r="G22" s="3">
-        <v>94500</v>
+        <v>150400</v>
       </c>
       <c r="H22" s="3">
-        <v>11100</v>
+        <v>96500</v>
       </c>
       <c r="I22" s="3">
-        <v>4400</v>
+        <v>11300</v>
       </c>
       <c r="J22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2091900</v>
+        <v>7928300</v>
       </c>
       <c r="E23" s="3">
-        <v>-362700</v>
+        <v>2136200</v>
       </c>
       <c r="F23" s="3">
-        <v>18500</v>
+        <v>-370300</v>
       </c>
       <c r="G23" s="3">
-        <v>-287500</v>
+        <v>18900</v>
       </c>
       <c r="H23" s="3">
-        <v>-1185000</v>
+        <v>-293600</v>
       </c>
       <c r="I23" s="3">
-        <v>-760400</v>
+        <v>-1210000</v>
       </c>
       <c r="J23" s="3">
+        <v>-776500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-247300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-186700</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>275400</v>
+        <v>231200</v>
       </c>
       <c r="E24" s="3">
-        <v>65200</v>
+        <v>281200</v>
       </c>
       <c r="F24" s="3">
-        <v>21300</v>
+        <v>66600</v>
       </c>
       <c r="G24" s="3">
-        <v>25400</v>
+        <v>21800</v>
       </c>
       <c r="H24" s="3">
-        <v>-2200</v>
+        <v>26000</v>
       </c>
       <c r="I24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1298,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1816600</v>
+        <v>7697100</v>
       </c>
       <c r="E26" s="3">
-        <v>-427900</v>
+        <v>1855000</v>
       </c>
       <c r="F26" s="3">
-        <v>-2800</v>
+        <v>-436900</v>
       </c>
       <c r="G26" s="3">
-        <v>-312900</v>
+        <v>-2900</v>
       </c>
       <c r="H26" s="3">
-        <v>-1182700</v>
+        <v>-319600</v>
       </c>
       <c r="I26" s="3">
-        <v>-763300</v>
+        <v>-1207700</v>
       </c>
       <c r="J26" s="3">
+        <v>-779500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-248100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-186700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1861500</v>
+        <v>7707700</v>
       </c>
       <c r="E27" s="3">
-        <v>-380700</v>
+        <v>1900900</v>
       </c>
       <c r="F27" s="3">
-        <v>17800</v>
+        <v>-388700</v>
       </c>
       <c r="G27" s="3">
-        <v>-305600</v>
+        <v>18200</v>
       </c>
       <c r="H27" s="3">
-        <v>-1181300</v>
+        <v>-312100</v>
       </c>
       <c r="I27" s="3">
-        <v>-1979100</v>
+        <v>-1206200</v>
       </c>
       <c r="J27" s="3">
+        <v>-2021000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-379700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-475900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-428200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,29 +1406,32 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-41100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-276000</v>
+        <v>-42000</v>
       </c>
       <c r="H29" s="3">
-        <v>-210300</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
+        <v>-281800</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-214700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1381,9 +1442,12 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1514,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-943800</v>
+        <v>-6167100</v>
       </c>
       <c r="E32" s="3">
-        <v>-57000</v>
+        <v>-963700</v>
       </c>
       <c r="F32" s="3">
-        <v>-293400</v>
+        <v>-58200</v>
       </c>
       <c r="G32" s="3">
+        <v>-299600</v>
+      </c>
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
-        <v>355300</v>
-      </c>
       <c r="I32" s="3">
-        <v>-130500</v>
+        <v>362800</v>
       </c>
       <c r="J32" s="3">
+        <v>-133300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-82100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-33900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1861500</v>
+        <v>7707700</v>
       </c>
       <c r="E33" s="3">
-        <v>-380700</v>
+        <v>1900900</v>
       </c>
       <c r="F33" s="3">
-        <v>-23300</v>
+        <v>-388700</v>
       </c>
       <c r="G33" s="3">
-        <v>-581600</v>
+        <v>-23800</v>
       </c>
       <c r="H33" s="3">
-        <v>-1391500</v>
+        <v>-593900</v>
       </c>
       <c r="I33" s="3">
-        <v>-1979100</v>
+        <v>-1420900</v>
       </c>
       <c r="J33" s="3">
+        <v>-2021000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-379700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-475900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-428200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1622,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1861500</v>
+        <v>7707700</v>
       </c>
       <c r="E35" s="3">
-        <v>-380700</v>
+        <v>1900900</v>
       </c>
       <c r="F35" s="3">
-        <v>-23300</v>
+        <v>-388700</v>
       </c>
       <c r="G35" s="3">
-        <v>-581600</v>
+        <v>-23800</v>
       </c>
       <c r="H35" s="3">
-        <v>-1391500</v>
+        <v>-593900</v>
       </c>
       <c r="I35" s="3">
-        <v>-1979100</v>
+        <v>-1420900</v>
       </c>
       <c r="J35" s="3">
+        <v>-2021000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-379700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-475900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-428200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,305 +1734,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5648500</v>
+        <v>13430100</v>
       </c>
       <c r="E41" s="3">
-        <v>5234600</v>
+        <v>5767900</v>
       </c>
       <c r="F41" s="3">
-        <v>3924700</v>
+        <v>5345300</v>
       </c>
       <c r="G41" s="3">
-        <v>2378300</v>
+        <v>4007600</v>
       </c>
       <c r="H41" s="3">
-        <v>2729200</v>
+        <v>2428600</v>
       </c>
       <c r="I41" s="3">
-        <v>2584200</v>
+        <v>2786900</v>
       </c>
       <c r="J41" s="3">
+        <v>2638900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1651900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1029800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>914600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3758800</v>
+        <v>9450600</v>
       </c>
       <c r="E42" s="3">
-        <v>311000</v>
+        <v>3838300</v>
       </c>
       <c r="F42" s="3">
-        <v>1312100</v>
+        <v>317600</v>
       </c>
       <c r="G42" s="3">
-        <v>2755900</v>
+        <v>1339800</v>
       </c>
       <c r="H42" s="3">
-        <v>445500</v>
+        <v>2814200</v>
       </c>
       <c r="I42" s="3">
-        <v>1883600</v>
+        <v>454900</v>
       </c>
       <c r="J42" s="3">
+        <v>1923400</v>
+      </c>
+      <c r="K42" s="3">
         <v>293900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>157100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1829700</v>
+        <v>2256300</v>
       </c>
       <c r="E43" s="3">
-        <v>2591600</v>
+        <v>1868400</v>
       </c>
       <c r="F43" s="3">
-        <v>4933000</v>
+        <v>2646400</v>
       </c>
       <c r="G43" s="3">
-        <v>6932000</v>
+        <v>5037300</v>
       </c>
       <c r="H43" s="3">
-        <v>1949900</v>
+        <v>7078600</v>
       </c>
       <c r="I43" s="3">
-        <v>474800</v>
+        <v>1991100</v>
       </c>
       <c r="J43" s="3">
+        <v>484800</v>
+      </c>
+      <c r="K43" s="3">
         <v>81100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>77100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>69900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8850900</v>
+        <v>9194100</v>
       </c>
       <c r="E44" s="3">
-        <v>6726900</v>
+        <v>9038000</v>
       </c>
       <c r="F44" s="3">
-        <v>6371000</v>
+        <v>6869100</v>
       </c>
       <c r="G44" s="3">
-        <v>8833600</v>
+        <v>6505700</v>
       </c>
       <c r="H44" s="3">
-        <v>3138000</v>
+        <v>9020300</v>
       </c>
       <c r="I44" s="3">
-        <v>1862500</v>
+        <v>3204400</v>
       </c>
       <c r="J44" s="3">
+        <v>1901900</v>
+      </c>
+      <c r="K44" s="3">
         <v>975700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>682100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>401900</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1163000</v>
+        <v>2300300</v>
       </c>
       <c r="E45" s="3">
-        <v>1155800</v>
+        <v>1187600</v>
       </c>
       <c r="F45" s="3">
-        <v>1033400</v>
+        <v>1180200</v>
       </c>
       <c r="G45" s="3">
-        <v>4075600</v>
+        <v>1055200</v>
       </c>
       <c r="H45" s="3">
-        <v>897200</v>
+        <v>4161700</v>
       </c>
       <c r="I45" s="3">
-        <v>825000</v>
+        <v>916200</v>
       </c>
       <c r="J45" s="3">
+        <v>842500</v>
+      </c>
+      <c r="K45" s="3">
         <v>431900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>303600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>49900</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21250900</v>
+        <v>36631300</v>
       </c>
       <c r="E46" s="3">
-        <v>16019900</v>
+        <v>21700100</v>
       </c>
       <c r="F46" s="3">
-        <v>17574100</v>
+        <v>16358600</v>
       </c>
       <c r="G46" s="3">
-        <v>16337100</v>
+        <v>17945600</v>
       </c>
       <c r="H46" s="3">
-        <v>8932800</v>
+        <v>16682500</v>
       </c>
       <c r="I46" s="3">
-        <v>7630100</v>
+        <v>9121600</v>
       </c>
       <c r="J46" s="3">
+        <v>7791400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3434500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2249700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1437200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8707400</v>
+        <v>15224500</v>
       </c>
       <c r="E47" s="3">
-        <v>7220100</v>
+        <v>8891500</v>
       </c>
       <c r="F47" s="3">
-        <v>4366300</v>
+        <v>7372800</v>
       </c>
       <c r="G47" s="3">
-        <v>5700900</v>
+        <v>4458600</v>
       </c>
       <c r="H47" s="3">
-        <v>1484900</v>
+        <v>5821500</v>
       </c>
       <c r="I47" s="3">
-        <v>156000</v>
+        <v>1516300</v>
       </c>
       <c r="J47" s="3">
+        <v>159300</v>
+      </c>
+      <c r="K47" s="3">
         <v>5600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5363200</v>
+        <v>7174400</v>
       </c>
       <c r="E48" s="3">
-        <v>4222300</v>
+        <v>5476600</v>
       </c>
       <c r="F48" s="3">
-        <v>2409400</v>
+        <v>4311600</v>
       </c>
       <c r="G48" s="3">
-        <v>2450400</v>
+        <v>2460400</v>
       </c>
       <c r="H48" s="3">
-        <v>1145900</v>
+        <v>2502200</v>
       </c>
       <c r="I48" s="3">
-        <v>662700</v>
+        <v>1170100</v>
       </c>
       <c r="J48" s="3">
+        <v>676700</v>
+      </c>
+      <c r="K48" s="3">
         <v>345600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>143700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>46600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3307000</v>
+        <v>4445100</v>
       </c>
       <c r="E49" s="3">
-        <v>3381200</v>
+        <v>3376900</v>
       </c>
       <c r="F49" s="3">
-        <v>3115800</v>
+        <v>3452700</v>
       </c>
       <c r="G49" s="3">
-        <v>4317700</v>
+        <v>3181700</v>
       </c>
       <c r="H49" s="3">
-        <v>1079300</v>
+        <v>4408900</v>
       </c>
       <c r="I49" s="3">
-        <v>1614500</v>
+        <v>1102100</v>
       </c>
       <c r="J49" s="3">
+        <v>1648700</v>
+      </c>
+      <c r="K49" s="3">
         <v>126700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>110800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2127,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1052200</v>
+        <v>2405800</v>
       </c>
       <c r="E52" s="3">
-        <v>1112700</v>
+        <v>1074400</v>
       </c>
       <c r="F52" s="3">
-        <v>654300</v>
+        <v>1136300</v>
       </c>
       <c r="G52" s="3">
-        <v>1749700</v>
+        <v>668100</v>
       </c>
       <c r="H52" s="3">
-        <v>321900</v>
+        <v>1786700</v>
       </c>
       <c r="I52" s="3">
-        <v>95500</v>
+        <v>328700</v>
       </c>
       <c r="J52" s="3">
+        <v>97600</v>
+      </c>
+      <c r="K52" s="3">
         <v>61400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>40200</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2199,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39680600</v>
+        <v>65881100</v>
       </c>
       <c r="E54" s="3">
-        <v>31956200</v>
+        <v>40519500</v>
       </c>
       <c r="F54" s="3">
-        <v>28119900</v>
+        <v>32631800</v>
       </c>
       <c r="G54" s="3">
-        <v>24501900</v>
+        <v>28714400</v>
       </c>
       <c r="H54" s="3">
-        <v>12988600</v>
+        <v>25019900</v>
       </c>
       <c r="I54" s="3">
-        <v>10158800</v>
+        <v>13263200</v>
       </c>
       <c r="J54" s="3">
+        <v>10373600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3973800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2566300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1538500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,160 +2270,173 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13864200</v>
+        <v>16756100</v>
       </c>
       <c r="E57" s="3">
-        <v>12253100</v>
+        <v>14157300</v>
       </c>
       <c r="F57" s="3">
-        <v>11365600</v>
+        <v>12512100</v>
       </c>
       <c r="G57" s="3">
-        <v>7057000</v>
+        <v>11605900</v>
       </c>
       <c r="H57" s="3">
-        <v>4571800</v>
+        <v>7206200</v>
       </c>
       <c r="I57" s="3">
-        <v>2549700</v>
+        <v>4668500</v>
       </c>
       <c r="J57" s="3">
+        <v>2603600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1683500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1162400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>528800</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>508600</v>
       </c>
       <c r="E58" s="3">
-        <v>694400</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>1968600</v>
+        <v>709100</v>
       </c>
       <c r="G58" s="3">
-        <v>1697300</v>
+        <v>2010200</v>
       </c>
       <c r="H58" s="3">
-        <v>553100</v>
+        <v>1733200</v>
       </c>
       <c r="I58" s="3">
-        <v>288900</v>
+        <v>564800</v>
       </c>
       <c r="J58" s="3">
+        <v>295000</v>
+      </c>
+      <c r="K58" s="3">
         <v>142500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>124500</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7527600</v>
+        <v>9883700</v>
       </c>
       <c r="E59" s="3">
-        <v>5517900</v>
+        <v>7686700</v>
       </c>
       <c r="F59" s="3">
-        <v>4732200</v>
+        <v>5634500</v>
       </c>
       <c r="G59" s="3">
-        <v>11744400</v>
+        <v>4832200</v>
       </c>
       <c r="H59" s="3">
-        <v>2358900</v>
+        <v>11992700</v>
       </c>
       <c r="I59" s="3">
-        <v>1591300</v>
+        <v>2408800</v>
       </c>
       <c r="J59" s="3">
+        <v>1624900</v>
+      </c>
+      <c r="K59" s="3">
         <v>736100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>360800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>146700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21391800</v>
+        <v>27148300</v>
       </c>
       <c r="E60" s="3">
-        <v>18465300</v>
+        <v>21844100</v>
       </c>
       <c r="F60" s="3">
-        <v>18066300</v>
+        <v>18855700</v>
       </c>
       <c r="G60" s="3">
-        <v>16002200</v>
+        <v>18448300</v>
       </c>
       <c r="H60" s="3">
-        <v>7483600</v>
+        <v>16340500</v>
       </c>
       <c r="I60" s="3">
-        <v>4429900</v>
+        <v>7641800</v>
       </c>
       <c r="J60" s="3">
+        <v>4523500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2562100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1647700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>675500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1535700</v>
+        <v>1954900</v>
       </c>
       <c r="E61" s="3">
-        <v>1508600</v>
+        <v>1568200</v>
       </c>
       <c r="F61" s="3">
-        <v>1668800</v>
+        <v>1540500</v>
       </c>
       <c r="G61" s="3">
-        <v>1397800</v>
+        <v>1704000</v>
       </c>
       <c r="H61" s="3">
-        <v>420700</v>
+        <v>1427400</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>429600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2304,29 +2447,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1379700</v>
+        <v>2203100</v>
       </c>
       <c r="E62" s="3">
-        <v>244500</v>
+        <v>1408900</v>
       </c>
       <c r="F62" s="3">
-        <v>380900</v>
+        <v>249600</v>
       </c>
       <c r="G62" s="3">
-        <v>527500</v>
+        <v>388900</v>
       </c>
       <c r="H62" s="3">
-        <v>390700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
+        <v>538600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>399000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
@@ -2337,9 +2483,12 @@
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2591,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27174600</v>
+        <v>36622500</v>
       </c>
       <c r="E66" s="3">
-        <v>22824400</v>
+        <v>27749100</v>
       </c>
       <c r="F66" s="3">
-        <v>20169100</v>
+        <v>23306900</v>
       </c>
       <c r="G66" s="3">
-        <v>19323700</v>
+        <v>20595500</v>
       </c>
       <c r="H66" s="3">
-        <v>8316100</v>
+        <v>19732200</v>
       </c>
       <c r="I66" s="3">
-        <v>4429900</v>
+        <v>8492000</v>
       </c>
       <c r="J66" s="3">
+        <v>4523500</v>
+      </c>
+      <c r="K66" s="3">
         <v>2562100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1647700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>675500</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2575,17 +2743,20 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>1148500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>734600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>513800</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2787,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1597100</v>
+        <v>6076900</v>
       </c>
       <c r="E72" s="3">
-        <v>-3458600</v>
+        <v>-1630900</v>
       </c>
       <c r="F72" s="3">
-        <v>-3299800</v>
+        <v>-3531700</v>
       </c>
       <c r="G72" s="3">
-        <v>-3319500</v>
+        <v>-3369600</v>
       </c>
       <c r="H72" s="3">
-        <v>-2805800</v>
+        <v>-3389700</v>
       </c>
       <c r="I72" s="3">
-        <v>-1414300</v>
+        <v>-2865200</v>
       </c>
       <c r="J72" s="3">
+        <v>-1444200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-651000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-604200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-360900</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2931,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12506000</v>
+        <v>29258600</v>
       </c>
       <c r="E76" s="3">
-        <v>9131800</v>
+        <v>12770300</v>
       </c>
       <c r="F76" s="3">
-        <v>7950800</v>
+        <v>9324900</v>
       </c>
       <c r="G76" s="3">
-        <v>5178200</v>
+        <v>8118900</v>
       </c>
       <c r="H76" s="3">
-        <v>4672500</v>
+        <v>5287600</v>
       </c>
       <c r="I76" s="3">
-        <v>5729000</v>
+        <v>4771300</v>
       </c>
       <c r="J76" s="3">
+        <v>5850100</v>
+      </c>
+      <c r="K76" s="3">
         <v>263200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>184000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>349200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3003,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1861500</v>
+        <v>7707700</v>
       </c>
       <c r="E81" s="3">
-        <v>-380700</v>
+        <v>1900900</v>
       </c>
       <c r="F81" s="3">
-        <v>-23300</v>
+        <v>-388700</v>
       </c>
       <c r="G81" s="3">
-        <v>-581600</v>
+        <v>-23800</v>
       </c>
       <c r="H81" s="3">
-        <v>-1391500</v>
+        <v>-593900</v>
       </c>
       <c r="I81" s="3">
-        <v>-1979100</v>
+        <v>-1420900</v>
       </c>
       <c r="J81" s="3">
+        <v>-2021000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-379700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-475900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-428200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3099,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>890400</v>
+        <v>946600</v>
       </c>
       <c r="E83" s="3">
-        <v>849500</v>
+        <v>909200</v>
       </c>
       <c r="F83" s="3">
-        <v>640600</v>
+        <v>867400</v>
       </c>
       <c r="G83" s="3">
-        <v>522600</v>
+        <v>654100</v>
       </c>
       <c r="H83" s="3">
-        <v>383100</v>
+        <v>533600</v>
       </c>
       <c r="I83" s="3">
-        <v>252200</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>391200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>257500</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>26600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3312,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3786100</v>
+        <v>6637300</v>
       </c>
       <c r="E89" s="3">
-        <v>3190300</v>
+        <v>3866100</v>
       </c>
       <c r="F89" s="3">
-        <v>4103200</v>
+        <v>3257700</v>
       </c>
       <c r="G89" s="3">
-        <v>1259000</v>
+        <v>4189900</v>
       </c>
       <c r="H89" s="3">
-        <v>259200</v>
+        <v>1285600</v>
       </c>
       <c r="I89" s="3">
-        <v>197100</v>
+        <v>264600</v>
       </c>
       <c r="J89" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K89" s="3">
         <v>545400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>201400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3367,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-396800</v>
+        <v>-525800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1488600</v>
+        <v>-405200</v>
       </c>
       <c r="F91" s="3">
-        <v>-503300</v>
+        <v>-1520100</v>
       </c>
       <c r="G91" s="3">
-        <v>-327100</v>
+        <v>-513900</v>
       </c>
       <c r="H91" s="3">
-        <v>-389700</v>
+        <v>-334000</v>
       </c>
       <c r="I91" s="3">
-        <v>-217600</v>
+        <v>-397900</v>
       </c>
       <c r="J91" s="3">
+        <v>-222200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-67200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-85700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-90700</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3472,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3872900</v>
+        <v>-9019000</v>
       </c>
       <c r="E94" s="3">
-        <v>-3984300</v>
+        <v>-3954800</v>
       </c>
       <c r="F94" s="3">
-        <v>-6083000</v>
+        <v>-4068600</v>
       </c>
       <c r="G94" s="3">
-        <v>-6948700</v>
+        <v>-6211600</v>
       </c>
       <c r="H94" s="3">
-        <v>-884700</v>
+        <v>-7095600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2059200</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-903400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2102700</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-483400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-90800</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3527,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,9 +3560,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3668,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>393000</v>
+        <v>11087900</v>
       </c>
       <c r="E100" s="3">
-        <v>1714200</v>
+        <v>401300</v>
       </c>
       <c r="F100" s="3">
-        <v>2938700</v>
+        <v>1750400</v>
       </c>
       <c r="G100" s="3">
-        <v>6218100</v>
+        <v>3000900</v>
       </c>
       <c r="H100" s="3">
-        <v>718100</v>
+        <v>6349500</v>
       </c>
       <c r="I100" s="3">
-        <v>2809900</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>733300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2869300</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>409400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>907000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>62000</v>
+        <v>-792900</v>
       </c>
       <c r="E101" s="3">
-        <v>256800</v>
+        <v>63300</v>
       </c>
       <c r="F101" s="3">
-        <v>-98000</v>
+        <v>262300</v>
       </c>
       <c r="G101" s="3">
-        <v>111000</v>
+        <v>-100100</v>
       </c>
       <c r="H101" s="3">
-        <v>52400</v>
+        <v>113300</v>
       </c>
       <c r="I101" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>53500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>368200</v>
+        <v>7913300</v>
       </c>
       <c r="E102" s="3">
-        <v>1176900</v>
+        <v>376000</v>
       </c>
       <c r="F102" s="3">
-        <v>860900</v>
+        <v>1201800</v>
       </c>
       <c r="G102" s="3">
-        <v>639400</v>
+        <v>879100</v>
       </c>
       <c r="H102" s="3">
-        <v>145000</v>
+        <v>652900</v>
       </c>
       <c r="I102" s="3">
-        <v>932300</v>
+        <v>148100</v>
       </c>
       <c r="J102" s="3">
+        <v>952000</v>
+      </c>
+      <c r="K102" s="3">
         <v>555400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>127500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>788100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>116352600</v>
+        <v>114838600</v>
       </c>
       <c r="E8" s="3">
-        <v>90000400</v>
+        <v>88829300</v>
       </c>
       <c r="F8" s="3">
-        <v>72079700</v>
+        <v>71141800</v>
       </c>
       <c r="G8" s="3">
-        <v>56527400</v>
+        <v>55791800</v>
       </c>
       <c r="H8" s="3">
-        <v>40295800</v>
+        <v>39771500</v>
       </c>
       <c r="I8" s="3">
-        <v>28244400</v>
+        <v>27876900</v>
       </c>
       <c r="J8" s="3">
-        <v>17941500</v>
+        <v>17708100</v>
       </c>
       <c r="K8" s="3">
         <v>10593700</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>99330600</v>
+        <v>98038100</v>
       </c>
       <c r="E9" s="3">
-        <v>76829800</v>
+        <v>75830100</v>
       </c>
       <c r="F9" s="3">
-        <v>61790300</v>
+        <v>60986300</v>
       </c>
       <c r="G9" s="3">
-        <v>48599700</v>
+        <v>47967400</v>
       </c>
       <c r="H9" s="3">
-        <v>69211200</v>
+        <v>68310700</v>
       </c>
       <c r="I9" s="3">
-        <v>49294300</v>
+        <v>48652900</v>
       </c>
       <c r="J9" s="3">
-        <v>15855500</v>
+        <v>15649200</v>
       </c>
       <c r="K9" s="3">
         <v>9548100</v>
@@ -795,25 +795,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17022000</v>
+        <v>16800500</v>
       </c>
       <c r="E10" s="3">
-        <v>13170500</v>
+        <v>12999200</v>
       </c>
       <c r="F10" s="3">
-        <v>10289400</v>
+        <v>10155500</v>
       </c>
       <c r="G10" s="3">
-        <v>7927600</v>
+        <v>7824500</v>
       </c>
       <c r="H10" s="3">
-        <v>-28915400</v>
+        <v>-28539200</v>
       </c>
       <c r="I10" s="3">
-        <v>-21049900</v>
+        <v>-20776000</v>
       </c>
       <c r="J10" s="3">
-        <v>2086000</v>
+        <v>2058800</v>
       </c>
       <c r="K10" s="3">
         <v>1045700</v>
@@ -847,25 +847,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2504000</v>
+        <v>2471400</v>
       </c>
       <c r="E12" s="3">
-        <v>2265200</v>
+        <v>2235700</v>
       </c>
       <c r="F12" s="3">
-        <v>1879400</v>
+        <v>1854900</v>
       </c>
       <c r="G12" s="3">
-        <v>1024700</v>
+        <v>1011400</v>
       </c>
       <c r="H12" s="3">
-        <v>687500</v>
+        <v>678500</v>
       </c>
       <c r="I12" s="3">
-        <v>449000</v>
+        <v>443200</v>
       </c>
       <c r="J12" s="3">
-        <v>286400</v>
+        <v>282700</v>
       </c>
       <c r="K12" s="3">
         <v>147200</v>
@@ -919,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-268300</v>
+        <v>-264800</v>
       </c>
       <c r="E14" s="3">
-        <v>-488300</v>
+        <v>-482000</v>
       </c>
       <c r="F14" s="3">
-        <v>-110000</v>
+        <v>-108500</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>429000</v>
+        <v>423500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -955,22 +955,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>201700</v>
+        <v>199100</v>
       </c>
       <c r="E15" s="3">
-        <v>188600</v>
+        <v>186200</v>
       </c>
       <c r="F15" s="3">
-        <v>281800</v>
+        <v>278100</v>
       </c>
       <c r="G15" s="3">
-        <v>277400</v>
+        <v>273800</v>
       </c>
       <c r="H15" s="3">
-        <v>251000</v>
+        <v>247800</v>
       </c>
       <c r="I15" s="3">
-        <v>224500</v>
+        <v>221600</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>114415800</v>
+        <v>112927100</v>
       </c>
       <c r="E17" s="3">
-        <v>88714800</v>
+        <v>87560500</v>
       </c>
       <c r="F17" s="3">
-        <v>72374900</v>
+        <v>71433100</v>
       </c>
       <c r="G17" s="3">
-        <v>56657700</v>
+        <v>55920500</v>
       </c>
       <c r="H17" s="3">
-        <v>40491100</v>
+        <v>39964200</v>
       </c>
       <c r="I17" s="3">
-        <v>29080300</v>
+        <v>28701900</v>
       </c>
       <c r="J17" s="3">
-        <v>18846700</v>
+        <v>18601500</v>
       </c>
       <c r="K17" s="3">
         <v>10682200</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1936700</v>
+        <v>1911500</v>
       </c>
       <c r="E18" s="3">
-        <v>1285600</v>
+        <v>1268800</v>
       </c>
       <c r="F18" s="3">
-        <v>-295200</v>
+        <v>-291300</v>
       </c>
       <c r="G18" s="3">
-        <v>-130300</v>
+        <v>-128600</v>
       </c>
       <c r="H18" s="3">
-        <v>-195300</v>
+        <v>-192700</v>
       </c>
       <c r="I18" s="3">
-        <v>-835900</v>
+        <v>-825000</v>
       </c>
       <c r="J18" s="3">
-        <v>-905200</v>
+        <v>-893500</v>
       </c>
       <c r="K18" s="3">
         <v>-88400</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6167100</v>
+        <v>6086800</v>
       </c>
       <c r="E20" s="3">
-        <v>963700</v>
+        <v>951200</v>
       </c>
       <c r="F20" s="3">
-        <v>58200</v>
+        <v>57400</v>
       </c>
       <c r="G20" s="3">
-        <v>299600</v>
+        <v>295700</v>
       </c>
       <c r="H20" s="3">
         <v>-1800</v>
       </c>
       <c r="I20" s="3">
-        <v>-362800</v>
+        <v>-358100</v>
       </c>
       <c r="J20" s="3">
-        <v>133300</v>
+        <v>131500</v>
       </c>
       <c r="K20" s="3">
         <v>82100</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9049300</v>
+        <v>8934100</v>
       </c>
       <c r="E21" s="3">
-        <v>3157400</v>
+        <v>3118800</v>
       </c>
       <c r="F21" s="3">
-        <v>629400</v>
+        <v>623600</v>
       </c>
       <c r="G21" s="3">
-        <v>822500</v>
+        <v>813600</v>
       </c>
       <c r="H21" s="3">
-        <v>335900</v>
+        <v>332900</v>
       </c>
       <c r="I21" s="3">
-        <v>-808000</v>
+        <v>-796400</v>
       </c>
       <c r="J21" s="3">
-        <v>-514800</v>
+        <v>-507400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1164,25 +1164,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>175500</v>
+        <v>173300</v>
       </c>
       <c r="E22" s="3">
-        <v>113100</v>
+        <v>111600</v>
       </c>
       <c r="F22" s="3">
-        <v>133300</v>
+        <v>131600</v>
       </c>
       <c r="G22" s="3">
-        <v>150400</v>
+        <v>148400</v>
       </c>
       <c r="H22" s="3">
-        <v>96500</v>
+        <v>95200</v>
       </c>
       <c r="I22" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="J22" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7928300</v>
+        <v>7825100</v>
       </c>
       <c r="E23" s="3">
-        <v>2136200</v>
+        <v>2108400</v>
       </c>
       <c r="F23" s="3">
-        <v>-370300</v>
+        <v>-365500</v>
       </c>
       <c r="G23" s="3">
-        <v>18900</v>
+        <v>18600</v>
       </c>
       <c r="H23" s="3">
-        <v>-293600</v>
+        <v>-289800</v>
       </c>
       <c r="I23" s="3">
-        <v>-1210000</v>
+        <v>-1194300</v>
       </c>
       <c r="J23" s="3">
-        <v>-776500</v>
+        <v>-766400</v>
       </c>
       <c r="K23" s="3">
         <v>-7600</v>
@@ -1236,19 +1236,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>231200</v>
+        <v>228100</v>
       </c>
       <c r="E24" s="3">
-        <v>281200</v>
+        <v>277500</v>
       </c>
       <c r="F24" s="3">
-        <v>66600</v>
+        <v>65700</v>
       </c>
       <c r="G24" s="3">
-        <v>21800</v>
+        <v>21500</v>
       </c>
       <c r="H24" s="3">
-        <v>26000</v>
+        <v>25600</v>
       </c>
       <c r="I24" s="3">
         <v>-2300</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7697100</v>
+        <v>7596900</v>
       </c>
       <c r="E26" s="3">
-        <v>1855000</v>
+        <v>1830800</v>
       </c>
       <c r="F26" s="3">
-        <v>-436900</v>
+        <v>-431200</v>
       </c>
       <c r="G26" s="3">
         <v>-2900</v>
       </c>
       <c r="H26" s="3">
-        <v>-319600</v>
+        <v>-315400</v>
       </c>
       <c r="I26" s="3">
-        <v>-1207700</v>
+        <v>-1192000</v>
       </c>
       <c r="J26" s="3">
-        <v>-779500</v>
+        <v>-769300</v>
       </c>
       <c r="K26" s="3">
         <v>-7600</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7707700</v>
+        <v>7607400</v>
       </c>
       <c r="E27" s="3">
-        <v>1900900</v>
+        <v>1876100</v>
       </c>
       <c r="F27" s="3">
-        <v>-388700</v>
+        <v>-383700</v>
       </c>
       <c r="G27" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="H27" s="3">
-        <v>-312100</v>
+        <v>-308000</v>
       </c>
       <c r="I27" s="3">
-        <v>-1206200</v>
+        <v>-1190500</v>
       </c>
       <c r="J27" s="3">
-        <v>-2021000</v>
+        <v>-1994700</v>
       </c>
       <c r="K27" s="3">
         <v>-379700</v>
@@ -1425,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-42000</v>
+        <v>-41400</v>
       </c>
       <c r="H29" s="3">
-        <v>-281800</v>
+        <v>-278100</v>
       </c>
       <c r="I29" s="3">
-        <v>-214700</v>
+        <v>-211900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1524,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6167100</v>
+        <v>-6086800</v>
       </c>
       <c r="E32" s="3">
-        <v>-963700</v>
+        <v>-951200</v>
       </c>
       <c r="F32" s="3">
-        <v>-58200</v>
+        <v>-57400</v>
       </c>
       <c r="G32" s="3">
-        <v>-299600</v>
+        <v>-295700</v>
       </c>
       <c r="H32" s="3">
         <v>1800</v>
       </c>
       <c r="I32" s="3">
-        <v>362800</v>
+        <v>358100</v>
       </c>
       <c r="J32" s="3">
-        <v>-133300</v>
+        <v>-131500</v>
       </c>
       <c r="K32" s="3">
         <v>-82100</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7707700</v>
+        <v>7607400</v>
       </c>
       <c r="E33" s="3">
-        <v>1900900</v>
+        <v>1876100</v>
       </c>
       <c r="F33" s="3">
-        <v>-388700</v>
+        <v>-383700</v>
       </c>
       <c r="G33" s="3">
-        <v>-23800</v>
+        <v>-23400</v>
       </c>
       <c r="H33" s="3">
-        <v>-593900</v>
+        <v>-586200</v>
       </c>
       <c r="I33" s="3">
-        <v>-1420900</v>
+        <v>-1402400</v>
       </c>
       <c r="J33" s="3">
-        <v>-2021000</v>
+        <v>-1994700</v>
       </c>
       <c r="K33" s="3">
         <v>-379700</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7707700</v>
+        <v>7607400</v>
       </c>
       <c r="E35" s="3">
-        <v>1900900</v>
+        <v>1876100</v>
       </c>
       <c r="F35" s="3">
-        <v>-388700</v>
+        <v>-383700</v>
       </c>
       <c r="G35" s="3">
-        <v>-23800</v>
+        <v>-23400</v>
       </c>
       <c r="H35" s="3">
-        <v>-593900</v>
+        <v>-586200</v>
       </c>
       <c r="I35" s="3">
-        <v>-1420900</v>
+        <v>-1402400</v>
       </c>
       <c r="J35" s="3">
-        <v>-2021000</v>
+        <v>-1994700</v>
       </c>
       <c r="K35" s="3">
         <v>-379700</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13430100</v>
+        <v>13255300</v>
       </c>
       <c r="E41" s="3">
-        <v>5767900</v>
+        <v>5692900</v>
       </c>
       <c r="F41" s="3">
-        <v>5345300</v>
+        <v>5275700</v>
       </c>
       <c r="G41" s="3">
-        <v>4007600</v>
+        <v>3955500</v>
       </c>
       <c r="H41" s="3">
-        <v>2428600</v>
+        <v>2397000</v>
       </c>
       <c r="I41" s="3">
-        <v>2786900</v>
+        <v>2750700</v>
       </c>
       <c r="J41" s="3">
-        <v>2638900</v>
+        <v>2604500</v>
       </c>
       <c r="K41" s="3">
         <v>1651900</v>
@@ -1777,25 +1777,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9450600</v>
+        <v>9327700</v>
       </c>
       <c r="E42" s="3">
-        <v>3838300</v>
+        <v>3788300</v>
       </c>
       <c r="F42" s="3">
-        <v>317600</v>
+        <v>313400</v>
       </c>
       <c r="G42" s="3">
-        <v>1339800</v>
+        <v>1322400</v>
       </c>
       <c r="H42" s="3">
-        <v>2814200</v>
+        <v>2777500</v>
       </c>
       <c r="I42" s="3">
-        <v>454900</v>
+        <v>449000</v>
       </c>
       <c r="J42" s="3">
-        <v>1923400</v>
+        <v>1898400</v>
       </c>
       <c r="K42" s="3">
         <v>293900</v>
@@ -1813,25 +1813,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2256300</v>
+        <v>2226900</v>
       </c>
       <c r="E43" s="3">
-        <v>1868400</v>
+        <v>1844100</v>
       </c>
       <c r="F43" s="3">
-        <v>2646400</v>
+        <v>2611900</v>
       </c>
       <c r="G43" s="3">
-        <v>5037300</v>
+        <v>4971800</v>
       </c>
       <c r="H43" s="3">
-        <v>7078600</v>
+        <v>6986500</v>
       </c>
       <c r="I43" s="3">
-        <v>1991100</v>
+        <v>1965200</v>
       </c>
       <c r="J43" s="3">
-        <v>484800</v>
+        <v>478500</v>
       </c>
       <c r="K43" s="3">
         <v>81100</v>
@@ -1849,25 +1849,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9194100</v>
+        <v>9074400</v>
       </c>
       <c r="E44" s="3">
-        <v>9038000</v>
+        <v>8920400</v>
       </c>
       <c r="F44" s="3">
-        <v>6869100</v>
+        <v>6779800</v>
       </c>
       <c r="G44" s="3">
-        <v>6505700</v>
+        <v>6421000</v>
       </c>
       <c r="H44" s="3">
-        <v>9020300</v>
+        <v>8902900</v>
       </c>
       <c r="I44" s="3">
-        <v>3204400</v>
+        <v>3162700</v>
       </c>
       <c r="J44" s="3">
-        <v>1901900</v>
+        <v>1877100</v>
       </c>
       <c r="K44" s="3">
         <v>975700</v>
@@ -1885,25 +1885,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2300300</v>
+        <v>2270300</v>
       </c>
       <c r="E45" s="3">
-        <v>1187600</v>
+        <v>1172100</v>
       </c>
       <c r="F45" s="3">
-        <v>1180200</v>
+        <v>1164900</v>
       </c>
       <c r="G45" s="3">
-        <v>1055200</v>
+        <v>1041500</v>
       </c>
       <c r="H45" s="3">
-        <v>4161700</v>
+        <v>4107600</v>
       </c>
       <c r="I45" s="3">
-        <v>916200</v>
+        <v>904300</v>
       </c>
       <c r="J45" s="3">
-        <v>842500</v>
+        <v>831500</v>
       </c>
       <c r="K45" s="3">
         <v>431900</v>
@@ -1921,25 +1921,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36631300</v>
+        <v>36154700</v>
       </c>
       <c r="E46" s="3">
-        <v>21700100</v>
+        <v>21417800</v>
       </c>
       <c r="F46" s="3">
-        <v>16358600</v>
+        <v>16145700</v>
       </c>
       <c r="G46" s="3">
-        <v>17945600</v>
+        <v>17712100</v>
       </c>
       <c r="H46" s="3">
-        <v>16682500</v>
+        <v>16465400</v>
       </c>
       <c r="I46" s="3">
-        <v>9121600</v>
+        <v>9002900</v>
       </c>
       <c r="J46" s="3">
-        <v>7791400</v>
+        <v>7690000</v>
       </c>
       <c r="K46" s="3">
         <v>3434500</v>
@@ -1957,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15224500</v>
+        <v>15026400</v>
       </c>
       <c r="E47" s="3">
-        <v>8891500</v>
+        <v>8775800</v>
       </c>
       <c r="F47" s="3">
-        <v>7372800</v>
+        <v>7276800</v>
       </c>
       <c r="G47" s="3">
-        <v>4458600</v>
+        <v>4400600</v>
       </c>
       <c r="H47" s="3">
-        <v>5821500</v>
+        <v>5745700</v>
       </c>
       <c r="I47" s="3">
-        <v>1516300</v>
+        <v>1496500</v>
       </c>
       <c r="J47" s="3">
-        <v>159300</v>
+        <v>157200</v>
       </c>
       <c r="K47" s="3">
         <v>5600</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7174400</v>
+        <v>7081100</v>
       </c>
       <c r="E48" s="3">
-        <v>5476600</v>
+        <v>5405300</v>
       </c>
       <c r="F48" s="3">
-        <v>4311600</v>
+        <v>4255500</v>
       </c>
       <c r="G48" s="3">
-        <v>2460400</v>
+        <v>2428400</v>
       </c>
       <c r="H48" s="3">
-        <v>2502200</v>
+        <v>2469700</v>
       </c>
       <c r="I48" s="3">
-        <v>1170100</v>
+        <v>1154900</v>
       </c>
       <c r="J48" s="3">
-        <v>676700</v>
+        <v>667900</v>
       </c>
       <c r="K48" s="3">
         <v>345600</v>
@@ -2029,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4445100</v>
+        <v>4387200</v>
       </c>
       <c r="E49" s="3">
-        <v>3376900</v>
+        <v>3333000</v>
       </c>
       <c r="F49" s="3">
-        <v>3452700</v>
+        <v>3407700</v>
       </c>
       <c r="G49" s="3">
-        <v>3181700</v>
+        <v>3140300</v>
       </c>
       <c r="H49" s="3">
-        <v>4408900</v>
+        <v>4351600</v>
       </c>
       <c r="I49" s="3">
-        <v>1102100</v>
+        <v>1087800</v>
       </c>
       <c r="J49" s="3">
-        <v>1648700</v>
+        <v>1627200</v>
       </c>
       <c r="K49" s="3">
         <v>126700</v>
@@ -2137,25 +2137,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2405800</v>
+        <v>2374500</v>
       </c>
       <c r="E52" s="3">
-        <v>1074400</v>
+        <v>1060400</v>
       </c>
       <c r="F52" s="3">
-        <v>1136300</v>
+        <v>1121500</v>
       </c>
       <c r="G52" s="3">
-        <v>668100</v>
+        <v>659400</v>
       </c>
       <c r="H52" s="3">
-        <v>1786700</v>
+        <v>1763400</v>
       </c>
       <c r="I52" s="3">
-        <v>328700</v>
+        <v>324400</v>
       </c>
       <c r="J52" s="3">
-        <v>97600</v>
+        <v>96300</v>
       </c>
       <c r="K52" s="3">
         <v>61400</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65881100</v>
+        <v>65023900</v>
       </c>
       <c r="E54" s="3">
-        <v>40519500</v>
+        <v>39992300</v>
       </c>
       <c r="F54" s="3">
-        <v>32631800</v>
+        <v>32207200</v>
       </c>
       <c r="G54" s="3">
-        <v>28714400</v>
+        <v>28340800</v>
       </c>
       <c r="H54" s="3">
-        <v>25019900</v>
+        <v>24694300</v>
       </c>
       <c r="I54" s="3">
-        <v>13263200</v>
+        <v>13090600</v>
       </c>
       <c r="J54" s="3">
-        <v>10373600</v>
+        <v>10238600</v>
       </c>
       <c r="K54" s="3">
         <v>3973800</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16756100</v>
+        <v>16538000</v>
       </c>
       <c r="E57" s="3">
-        <v>14157300</v>
+        <v>13973100</v>
       </c>
       <c r="F57" s="3">
-        <v>12512100</v>
+        <v>12349300</v>
       </c>
       <c r="G57" s="3">
-        <v>11605900</v>
+        <v>11454900</v>
       </c>
       <c r="H57" s="3">
-        <v>7206200</v>
+        <v>7112500</v>
       </c>
       <c r="I57" s="3">
-        <v>4668500</v>
+        <v>4607700</v>
       </c>
       <c r="J57" s="3">
-        <v>2603600</v>
+        <v>2569700</v>
       </c>
       <c r="K57" s="3">
         <v>1683500</v>
@@ -2313,25 +2313,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>508600</v>
+        <v>502000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>709100</v>
+        <v>699800</v>
       </c>
       <c r="G58" s="3">
-        <v>2010200</v>
+        <v>1984000</v>
       </c>
       <c r="H58" s="3">
-        <v>1733200</v>
+        <v>1710600</v>
       </c>
       <c r="I58" s="3">
-        <v>564800</v>
+        <v>557400</v>
       </c>
       <c r="J58" s="3">
-        <v>295000</v>
+        <v>291100</v>
       </c>
       <c r="K58" s="3">
         <v>142500</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9883700</v>
+        <v>9755100</v>
       </c>
       <c r="E59" s="3">
-        <v>7686700</v>
+        <v>7586700</v>
       </c>
       <c r="F59" s="3">
-        <v>5634500</v>
+        <v>5561200</v>
       </c>
       <c r="G59" s="3">
-        <v>4832200</v>
+        <v>4769300</v>
       </c>
       <c r="H59" s="3">
-        <v>11992700</v>
+        <v>11836700</v>
       </c>
       <c r="I59" s="3">
-        <v>2408800</v>
+        <v>2377500</v>
       </c>
       <c r="J59" s="3">
-        <v>1624900</v>
+        <v>1603800</v>
       </c>
       <c r="K59" s="3">
         <v>736100</v>
@@ -2385,25 +2385,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27148300</v>
+        <v>26795100</v>
       </c>
       <c r="E60" s="3">
-        <v>21844100</v>
+        <v>21559800</v>
       </c>
       <c r="F60" s="3">
-        <v>18855700</v>
+        <v>18610300</v>
       </c>
       <c r="G60" s="3">
-        <v>18448300</v>
+        <v>18208200</v>
       </c>
       <c r="H60" s="3">
-        <v>16340500</v>
+        <v>16127900</v>
       </c>
       <c r="I60" s="3">
-        <v>7641800</v>
+        <v>7542400</v>
       </c>
       <c r="J60" s="3">
-        <v>4523500</v>
+        <v>4464700</v>
       </c>
       <c r="K60" s="3">
         <v>2562100</v>
@@ -2421,22 +2421,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1954900</v>
+        <v>1929500</v>
       </c>
       <c r="E61" s="3">
-        <v>1568200</v>
+        <v>1547800</v>
       </c>
       <c r="F61" s="3">
-        <v>1540500</v>
+        <v>1520500</v>
       </c>
       <c r="G61" s="3">
-        <v>1704000</v>
+        <v>1681900</v>
       </c>
       <c r="H61" s="3">
-        <v>1427400</v>
+        <v>1408800</v>
       </c>
       <c r="I61" s="3">
-        <v>429600</v>
+        <v>424000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2457,22 +2457,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2203100</v>
+        <v>2174400</v>
       </c>
       <c r="E62" s="3">
-        <v>1408900</v>
+        <v>1390500</v>
       </c>
       <c r="F62" s="3">
-        <v>249600</v>
+        <v>246400</v>
       </c>
       <c r="G62" s="3">
-        <v>388900</v>
+        <v>383900</v>
       </c>
       <c r="H62" s="3">
-        <v>538600</v>
+        <v>531600</v>
       </c>
       <c r="I62" s="3">
-        <v>399000</v>
+        <v>393800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36622500</v>
+        <v>36146000</v>
       </c>
       <c r="E66" s="3">
-        <v>27749100</v>
+        <v>27388100</v>
       </c>
       <c r="F66" s="3">
-        <v>23306900</v>
+        <v>23003700</v>
       </c>
       <c r="G66" s="3">
-        <v>20595500</v>
+        <v>20327500</v>
       </c>
       <c r="H66" s="3">
-        <v>19732200</v>
+        <v>19475500</v>
       </c>
       <c r="I66" s="3">
-        <v>8492000</v>
+        <v>8381500</v>
       </c>
       <c r="J66" s="3">
-        <v>4523500</v>
+        <v>4464700</v>
       </c>
       <c r="K66" s="3">
         <v>2562100</v>
@@ -2797,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6076900</v>
+        <v>5997800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1630900</v>
+        <v>-1609600</v>
       </c>
       <c r="F72" s="3">
-        <v>-3531700</v>
+        <v>-3485700</v>
       </c>
       <c r="G72" s="3">
-        <v>-3369600</v>
+        <v>-3325800</v>
       </c>
       <c r="H72" s="3">
-        <v>-3389700</v>
+        <v>-3345600</v>
       </c>
       <c r="I72" s="3">
-        <v>-2865200</v>
+        <v>-2827900</v>
       </c>
       <c r="J72" s="3">
-        <v>-1444200</v>
+        <v>-1425400</v>
       </c>
       <c r="K72" s="3">
         <v>-651000</v>
@@ -2941,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29258600</v>
+        <v>28877900</v>
       </c>
       <c r="E76" s="3">
-        <v>12770300</v>
+        <v>12604200</v>
       </c>
       <c r="F76" s="3">
-        <v>9324900</v>
+        <v>9203500</v>
       </c>
       <c r="G76" s="3">
-        <v>8118900</v>
+        <v>8013200</v>
       </c>
       <c r="H76" s="3">
-        <v>5287600</v>
+        <v>5218800</v>
       </c>
       <c r="I76" s="3">
-        <v>4771300</v>
+        <v>4709200</v>
       </c>
       <c r="J76" s="3">
-        <v>5850100</v>
+        <v>5774000</v>
       </c>
       <c r="K76" s="3">
         <v>263200</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7707700</v>
+        <v>7607400</v>
       </c>
       <c r="E81" s="3">
-        <v>1900900</v>
+        <v>1876100</v>
       </c>
       <c r="F81" s="3">
-        <v>-388700</v>
+        <v>-383700</v>
       </c>
       <c r="G81" s="3">
-        <v>-23800</v>
+        <v>-23400</v>
       </c>
       <c r="H81" s="3">
-        <v>-593900</v>
+        <v>-586200</v>
       </c>
       <c r="I81" s="3">
-        <v>-1420900</v>
+        <v>-1402400</v>
       </c>
       <c r="J81" s="3">
-        <v>-2021000</v>
+        <v>-1994700</v>
       </c>
       <c r="K81" s="3">
         <v>-379700</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>946600</v>
+        <v>934300</v>
       </c>
       <c r="E83" s="3">
-        <v>909200</v>
+        <v>897400</v>
       </c>
       <c r="F83" s="3">
-        <v>867400</v>
+        <v>856100</v>
       </c>
       <c r="G83" s="3">
-        <v>654100</v>
+        <v>645600</v>
       </c>
       <c r="H83" s="3">
-        <v>533600</v>
+        <v>526700</v>
       </c>
       <c r="I83" s="3">
-        <v>391200</v>
+        <v>386100</v>
       </c>
       <c r="J83" s="3">
-        <v>257500</v>
+        <v>254100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6637300</v>
+        <v>6551000</v>
       </c>
       <c r="E89" s="3">
-        <v>3866100</v>
+        <v>3815800</v>
       </c>
       <c r="F89" s="3">
-        <v>3257700</v>
+        <v>3215300</v>
       </c>
       <c r="G89" s="3">
-        <v>4189900</v>
+        <v>4135400</v>
       </c>
       <c r="H89" s="3">
-        <v>1285600</v>
+        <v>1268900</v>
       </c>
       <c r="I89" s="3">
-        <v>264600</v>
+        <v>261200</v>
       </c>
       <c r="J89" s="3">
-        <v>201200</v>
+        <v>198600</v>
       </c>
       <c r="K89" s="3">
         <v>545400</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-525800</v>
+        <v>-518900</v>
       </c>
       <c r="E91" s="3">
-        <v>-405200</v>
+        <v>-399900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1520100</v>
+        <v>-1500300</v>
       </c>
       <c r="G91" s="3">
-        <v>-513900</v>
+        <v>-507300</v>
       </c>
       <c r="H91" s="3">
-        <v>-334000</v>
+        <v>-329600</v>
       </c>
       <c r="I91" s="3">
-        <v>-397900</v>
+        <v>-392700</v>
       </c>
       <c r="J91" s="3">
-        <v>-222200</v>
+        <v>-219300</v>
       </c>
       <c r="K91" s="3">
         <v>-67200</v>
@@ -3482,25 +3482,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9019000</v>
+        <v>-8901700</v>
       </c>
       <c r="E94" s="3">
-        <v>-3954800</v>
+        <v>-3903300</v>
       </c>
       <c r="F94" s="3">
-        <v>-4068600</v>
+        <v>-4015600</v>
       </c>
       <c r="G94" s="3">
-        <v>-6211600</v>
+        <v>-6130800</v>
       </c>
       <c r="H94" s="3">
-        <v>-7095600</v>
+        <v>-7003200</v>
       </c>
       <c r="I94" s="3">
-        <v>-903400</v>
+        <v>-891600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2102700</v>
+        <v>-2075400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -3678,25 +3678,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11087900</v>
+        <v>10943600</v>
       </c>
       <c r="E100" s="3">
-        <v>401300</v>
+        <v>396100</v>
       </c>
       <c r="F100" s="3">
-        <v>1750400</v>
+        <v>1727600</v>
       </c>
       <c r="G100" s="3">
-        <v>3000900</v>
+        <v>2961800</v>
       </c>
       <c r="H100" s="3">
-        <v>6349500</v>
+        <v>6266900</v>
       </c>
       <c r="I100" s="3">
-        <v>733300</v>
+        <v>723700</v>
       </c>
       <c r="J100" s="3">
-        <v>2869300</v>
+        <v>2832000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -3714,25 +3714,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-792900</v>
+        <v>-782600</v>
       </c>
       <c r="E101" s="3">
-        <v>63300</v>
+        <v>62500</v>
       </c>
       <c r="F101" s="3">
-        <v>262300</v>
+        <v>258900</v>
       </c>
       <c r="G101" s="3">
-        <v>-100100</v>
+        <v>-98800</v>
       </c>
       <c r="H101" s="3">
-        <v>113300</v>
+        <v>111900</v>
       </c>
       <c r="I101" s="3">
-        <v>53500</v>
+        <v>52800</v>
       </c>
       <c r="J101" s="3">
-        <v>-15800</v>
+        <v>-15600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7913300</v>
+        <v>7810300</v>
       </c>
       <c r="E102" s="3">
-        <v>376000</v>
+        <v>371100</v>
       </c>
       <c r="F102" s="3">
-        <v>1201800</v>
+        <v>1186200</v>
       </c>
       <c r="G102" s="3">
-        <v>879100</v>
+        <v>867700</v>
       </c>
       <c r="H102" s="3">
-        <v>652900</v>
+        <v>644400</v>
       </c>
       <c r="I102" s="3">
-        <v>148100</v>
+        <v>146200</v>
       </c>
       <c r="J102" s="3">
-        <v>952000</v>
+        <v>939600</v>
       </c>
       <c r="K102" s="3">
         <v>555400</v>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>114838600</v>
+        <v>116762700</v>
       </c>
       <c r="E8" s="3">
-        <v>88829300</v>
+        <v>90317700</v>
       </c>
       <c r="F8" s="3">
-        <v>71141800</v>
+        <v>72333800</v>
       </c>
       <c r="G8" s="3">
-        <v>55791800</v>
+        <v>56726700</v>
       </c>
       <c r="H8" s="3">
-        <v>39771500</v>
+        <v>40437900</v>
       </c>
       <c r="I8" s="3">
-        <v>27876900</v>
+        <v>28344000</v>
       </c>
       <c r="J8" s="3">
-        <v>17708100</v>
+        <v>18004800</v>
       </c>
       <c r="K8" s="3">
         <v>10593700</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>98038100</v>
+        <v>99680700</v>
       </c>
       <c r="E9" s="3">
-        <v>75830100</v>
+        <v>77100700</v>
       </c>
       <c r="F9" s="3">
-        <v>60986300</v>
+        <v>62008100</v>
       </c>
       <c r="G9" s="3">
-        <v>47967400</v>
+        <v>48771100</v>
       </c>
       <c r="H9" s="3">
-        <v>68310700</v>
+        <v>69455200</v>
       </c>
       <c r="I9" s="3">
-        <v>48652900</v>
+        <v>49468100</v>
       </c>
       <c r="J9" s="3">
-        <v>15649200</v>
+        <v>15911400</v>
       </c>
       <c r="K9" s="3">
         <v>9548100</v>
@@ -795,25 +795,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16800500</v>
+        <v>17082000</v>
       </c>
       <c r="E10" s="3">
-        <v>12999200</v>
+        <v>13217000</v>
       </c>
       <c r="F10" s="3">
-        <v>10155500</v>
+        <v>10325700</v>
       </c>
       <c r="G10" s="3">
-        <v>7824500</v>
+        <v>7955600</v>
       </c>
       <c r="H10" s="3">
-        <v>-28539200</v>
+        <v>-29017400</v>
       </c>
       <c r="I10" s="3">
-        <v>-20776000</v>
+        <v>-21124100</v>
       </c>
       <c r="J10" s="3">
-        <v>2058800</v>
+        <v>2093300</v>
       </c>
       <c r="K10" s="3">
         <v>1045700</v>
@@ -847,25 +847,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2471400</v>
+        <v>2512800</v>
       </c>
       <c r="E12" s="3">
-        <v>2235700</v>
+        <v>2273200</v>
       </c>
       <c r="F12" s="3">
-        <v>1854900</v>
+        <v>1886000</v>
       </c>
       <c r="G12" s="3">
-        <v>1011400</v>
+        <v>1028300</v>
       </c>
       <c r="H12" s="3">
-        <v>678500</v>
+        <v>689900</v>
       </c>
       <c r="I12" s="3">
-        <v>443200</v>
+        <v>450600</v>
       </c>
       <c r="J12" s="3">
-        <v>282700</v>
+        <v>287400</v>
       </c>
       <c r="K12" s="3">
         <v>147200</v>
@@ -919,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-264800</v>
+        <v>-269300</v>
       </c>
       <c r="E14" s="3">
-        <v>-482000</v>
+        <v>-490000</v>
       </c>
       <c r="F14" s="3">
-        <v>-108500</v>
+        <v>-110300</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>423500</v>
+        <v>430600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -955,22 +955,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>199100</v>
+        <v>202400</v>
       </c>
       <c r="E15" s="3">
-        <v>186200</v>
+        <v>189300</v>
       </c>
       <c r="F15" s="3">
-        <v>278100</v>
+        <v>282700</v>
       </c>
       <c r="G15" s="3">
-        <v>273800</v>
+        <v>278400</v>
       </c>
       <c r="H15" s="3">
-        <v>247800</v>
+        <v>251900</v>
       </c>
       <c r="I15" s="3">
-        <v>221600</v>
+        <v>225300</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>112927100</v>
+        <v>114819200</v>
       </c>
       <c r="E17" s="3">
-        <v>87560500</v>
+        <v>89027600</v>
       </c>
       <c r="F17" s="3">
-        <v>71433100</v>
+        <v>72630000</v>
       </c>
       <c r="G17" s="3">
-        <v>55920500</v>
+        <v>56857500</v>
       </c>
       <c r="H17" s="3">
-        <v>39964200</v>
+        <v>40633800</v>
       </c>
       <c r="I17" s="3">
-        <v>28701900</v>
+        <v>29182800</v>
       </c>
       <c r="J17" s="3">
-        <v>18601500</v>
+        <v>18913200</v>
       </c>
       <c r="K17" s="3">
         <v>10682200</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1911500</v>
+        <v>1943500</v>
       </c>
       <c r="E18" s="3">
-        <v>1268800</v>
+        <v>1290100</v>
       </c>
       <c r="F18" s="3">
-        <v>-291300</v>
+        <v>-296200</v>
       </c>
       <c r="G18" s="3">
-        <v>-128600</v>
+        <v>-130800</v>
       </c>
       <c r="H18" s="3">
-        <v>-192700</v>
+        <v>-196000</v>
       </c>
       <c r="I18" s="3">
-        <v>-825000</v>
+        <v>-838800</v>
       </c>
       <c r="J18" s="3">
-        <v>-893500</v>
+        <v>-908400</v>
       </c>
       <c r="K18" s="3">
         <v>-88400</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6086800</v>
+        <v>6188800</v>
       </c>
       <c r="E20" s="3">
-        <v>951200</v>
+        <v>967100</v>
       </c>
       <c r="F20" s="3">
-        <v>57400</v>
+        <v>58400</v>
       </c>
       <c r="G20" s="3">
-        <v>295700</v>
+        <v>300600</v>
       </c>
       <c r="H20" s="3">
         <v>-1800</v>
       </c>
       <c r="I20" s="3">
-        <v>-358100</v>
+        <v>-364100</v>
       </c>
       <c r="J20" s="3">
-        <v>131500</v>
+        <v>133700</v>
       </c>
       <c r="K20" s="3">
         <v>82100</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8934100</v>
+        <v>9081600</v>
       </c>
       <c r="E21" s="3">
-        <v>3118800</v>
+        <v>3169000</v>
       </c>
       <c r="F21" s="3">
-        <v>623600</v>
+        <v>632000</v>
       </c>
       <c r="G21" s="3">
-        <v>813600</v>
+        <v>825700</v>
       </c>
       <c r="H21" s="3">
-        <v>332900</v>
+        <v>337300</v>
       </c>
       <c r="I21" s="3">
-        <v>-796400</v>
+        <v>-810700</v>
       </c>
       <c r="J21" s="3">
-        <v>-507400</v>
+        <v>-516500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1164,25 +1164,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>173300</v>
+        <v>176200</v>
       </c>
       <c r="E22" s="3">
-        <v>111600</v>
+        <v>113500</v>
       </c>
       <c r="F22" s="3">
-        <v>131600</v>
+        <v>133800</v>
       </c>
       <c r="G22" s="3">
-        <v>148400</v>
+        <v>150900</v>
       </c>
       <c r="H22" s="3">
-        <v>95200</v>
+        <v>96800</v>
       </c>
       <c r="I22" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="J22" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7825100</v>
+        <v>7956200</v>
       </c>
       <c r="E23" s="3">
-        <v>2108400</v>
+        <v>2143700</v>
       </c>
       <c r="F23" s="3">
-        <v>-365500</v>
+        <v>-371600</v>
       </c>
       <c r="G23" s="3">
-        <v>18600</v>
+        <v>18900</v>
       </c>
       <c r="H23" s="3">
-        <v>-289800</v>
+        <v>-294600</v>
       </c>
       <c r="I23" s="3">
-        <v>-1194300</v>
+        <v>-1214300</v>
       </c>
       <c r="J23" s="3">
-        <v>-766400</v>
+        <v>-779200</v>
       </c>
       <c r="K23" s="3">
         <v>-7600</v>
@@ -1236,19 +1236,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>228100</v>
+        <v>232000</v>
       </c>
       <c r="E24" s="3">
-        <v>277500</v>
+        <v>282200</v>
       </c>
       <c r="F24" s="3">
-        <v>65700</v>
+        <v>66800</v>
       </c>
       <c r="G24" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="H24" s="3">
-        <v>25600</v>
+        <v>26100</v>
       </c>
       <c r="I24" s="3">
         <v>-2300</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7596900</v>
+        <v>7724200</v>
       </c>
       <c r="E26" s="3">
-        <v>1830800</v>
+        <v>1861500</v>
       </c>
       <c r="F26" s="3">
-        <v>-431200</v>
+        <v>-438500</v>
       </c>
       <c r="G26" s="3">
         <v>-2900</v>
       </c>
       <c r="H26" s="3">
-        <v>-315400</v>
+        <v>-320700</v>
       </c>
       <c r="I26" s="3">
-        <v>-1192000</v>
+        <v>-1212000</v>
       </c>
       <c r="J26" s="3">
-        <v>-769300</v>
+        <v>-782200</v>
       </c>
       <c r="K26" s="3">
         <v>-7600</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7607400</v>
+        <v>7734900</v>
       </c>
       <c r="E27" s="3">
-        <v>1876100</v>
+        <v>1907600</v>
       </c>
       <c r="F27" s="3">
-        <v>-383700</v>
+        <v>-390100</v>
       </c>
       <c r="G27" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="H27" s="3">
-        <v>-308000</v>
+        <v>-313200</v>
       </c>
       <c r="I27" s="3">
-        <v>-1190500</v>
+        <v>-1210500</v>
       </c>
       <c r="J27" s="3">
-        <v>-1994700</v>
+        <v>-2028100</v>
       </c>
       <c r="K27" s="3">
         <v>-379700</v>
@@ -1425,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-41400</v>
+        <v>-42100</v>
       </c>
       <c r="H29" s="3">
-        <v>-278100</v>
+        <v>-282800</v>
       </c>
       <c r="I29" s="3">
-        <v>-211900</v>
+        <v>-215500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1524,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6086800</v>
+        <v>-6188800</v>
       </c>
       <c r="E32" s="3">
-        <v>-951200</v>
+        <v>-967100</v>
       </c>
       <c r="F32" s="3">
-        <v>-57400</v>
+        <v>-58400</v>
       </c>
       <c r="G32" s="3">
-        <v>-295700</v>
+        <v>-300600</v>
       </c>
       <c r="H32" s="3">
         <v>1800</v>
       </c>
       <c r="I32" s="3">
-        <v>358100</v>
+        <v>364100</v>
       </c>
       <c r="J32" s="3">
-        <v>-131500</v>
+        <v>-133700</v>
       </c>
       <c r="K32" s="3">
         <v>-82100</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7607400</v>
+        <v>7734900</v>
       </c>
       <c r="E33" s="3">
-        <v>1876100</v>
+        <v>1907600</v>
       </c>
       <c r="F33" s="3">
-        <v>-383700</v>
+        <v>-390100</v>
       </c>
       <c r="G33" s="3">
-        <v>-23400</v>
+        <v>-23800</v>
       </c>
       <c r="H33" s="3">
-        <v>-586200</v>
+        <v>-596000</v>
       </c>
       <c r="I33" s="3">
-        <v>-1402400</v>
+        <v>-1425900</v>
       </c>
       <c r="J33" s="3">
-        <v>-1994700</v>
+        <v>-2028100</v>
       </c>
       <c r="K33" s="3">
         <v>-379700</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7607400</v>
+        <v>7734900</v>
       </c>
       <c r="E35" s="3">
-        <v>1876100</v>
+        <v>1907600</v>
       </c>
       <c r="F35" s="3">
-        <v>-383700</v>
+        <v>-390100</v>
       </c>
       <c r="G35" s="3">
-        <v>-23400</v>
+        <v>-23800</v>
       </c>
       <c r="H35" s="3">
-        <v>-586200</v>
+        <v>-596000</v>
       </c>
       <c r="I35" s="3">
-        <v>-1402400</v>
+        <v>-1425900</v>
       </c>
       <c r="J35" s="3">
-        <v>-1994700</v>
+        <v>-2028100</v>
       </c>
       <c r="K35" s="3">
         <v>-379700</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13255300</v>
+        <v>13477400</v>
       </c>
       <c r="E41" s="3">
-        <v>5692900</v>
+        <v>5788200</v>
       </c>
       <c r="F41" s="3">
-        <v>5275700</v>
+        <v>5364100</v>
       </c>
       <c r="G41" s="3">
-        <v>3955500</v>
+        <v>4021800</v>
       </c>
       <c r="H41" s="3">
-        <v>2397000</v>
+        <v>2437200</v>
       </c>
       <c r="I41" s="3">
-        <v>2750700</v>
+        <v>2796800</v>
       </c>
       <c r="J41" s="3">
-        <v>2604500</v>
+        <v>2648200</v>
       </c>
       <c r="K41" s="3">
         <v>1651900</v>
@@ -1777,25 +1777,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9327700</v>
+        <v>9484000</v>
       </c>
       <c r="E42" s="3">
-        <v>3788300</v>
+        <v>3851800</v>
       </c>
       <c r="F42" s="3">
-        <v>313400</v>
+        <v>318700</v>
       </c>
       <c r="G42" s="3">
-        <v>1322400</v>
+        <v>1344500</v>
       </c>
       <c r="H42" s="3">
-        <v>2777500</v>
+        <v>2824100</v>
       </c>
       <c r="I42" s="3">
-        <v>449000</v>
+        <v>456500</v>
       </c>
       <c r="J42" s="3">
-        <v>1898400</v>
+        <v>1930200</v>
       </c>
       <c r="K42" s="3">
         <v>293900</v>
@@ -1813,25 +1813,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2226900</v>
+        <v>2264200</v>
       </c>
       <c r="E43" s="3">
-        <v>1844100</v>
+        <v>1875000</v>
       </c>
       <c r="F43" s="3">
-        <v>2611900</v>
+        <v>2655700</v>
       </c>
       <c r="G43" s="3">
-        <v>4971800</v>
+        <v>5055100</v>
       </c>
       <c r="H43" s="3">
-        <v>6986500</v>
+        <v>7103500</v>
       </c>
       <c r="I43" s="3">
-        <v>1965200</v>
+        <v>1998200</v>
       </c>
       <c r="J43" s="3">
-        <v>478500</v>
+        <v>486500</v>
       </c>
       <c r="K43" s="3">
         <v>81100</v>
@@ -1849,25 +1849,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9074400</v>
+        <v>9226500</v>
       </c>
       <c r="E44" s="3">
-        <v>8920400</v>
+        <v>9069900</v>
       </c>
       <c r="F44" s="3">
-        <v>6779800</v>
+        <v>6893300</v>
       </c>
       <c r="G44" s="3">
-        <v>6421000</v>
+        <v>6528600</v>
       </c>
       <c r="H44" s="3">
-        <v>8902900</v>
+        <v>9052100</v>
       </c>
       <c r="I44" s="3">
-        <v>3162700</v>
+        <v>3215700</v>
       </c>
       <c r="J44" s="3">
-        <v>1877100</v>
+        <v>1908600</v>
       </c>
       <c r="K44" s="3">
         <v>975700</v>
@@ -1885,25 +1885,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2270300</v>
+        <v>2308400</v>
       </c>
       <c r="E45" s="3">
-        <v>1172100</v>
+        <v>1191700</v>
       </c>
       <c r="F45" s="3">
-        <v>1164900</v>
+        <v>1184400</v>
       </c>
       <c r="G45" s="3">
-        <v>1041500</v>
+        <v>1058900</v>
       </c>
       <c r="H45" s="3">
-        <v>4107600</v>
+        <v>4176400</v>
       </c>
       <c r="I45" s="3">
-        <v>904300</v>
+        <v>919400</v>
       </c>
       <c r="J45" s="3">
-        <v>831500</v>
+        <v>845500</v>
       </c>
       <c r="K45" s="3">
         <v>431900</v>
@@ -1921,25 +1921,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36154700</v>
+        <v>36760500</v>
       </c>
       <c r="E46" s="3">
-        <v>21417800</v>
+        <v>21776600</v>
       </c>
       <c r="F46" s="3">
-        <v>16145700</v>
+        <v>16416200</v>
       </c>
       <c r="G46" s="3">
-        <v>17712100</v>
+        <v>18008900</v>
       </c>
       <c r="H46" s="3">
-        <v>16465400</v>
+        <v>16741300</v>
       </c>
       <c r="I46" s="3">
-        <v>9002900</v>
+        <v>9153800</v>
       </c>
       <c r="J46" s="3">
-        <v>7690000</v>
+        <v>7818900</v>
       </c>
       <c r="K46" s="3">
         <v>3434500</v>
@@ -1957,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15026400</v>
+        <v>15278100</v>
       </c>
       <c r="E47" s="3">
-        <v>8775800</v>
+        <v>8922800</v>
       </c>
       <c r="F47" s="3">
-        <v>7276800</v>
+        <v>7398700</v>
       </c>
       <c r="G47" s="3">
-        <v>4400600</v>
+        <v>4474300</v>
       </c>
       <c r="H47" s="3">
-        <v>5745700</v>
+        <v>5842000</v>
       </c>
       <c r="I47" s="3">
-        <v>1496500</v>
+        <v>1521600</v>
       </c>
       <c r="J47" s="3">
-        <v>157200</v>
+        <v>159900</v>
       </c>
       <c r="K47" s="3">
         <v>5600</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7081100</v>
+        <v>7199700</v>
       </c>
       <c r="E48" s="3">
-        <v>5405300</v>
+        <v>5495900</v>
       </c>
       <c r="F48" s="3">
-        <v>4255500</v>
+        <v>4326800</v>
       </c>
       <c r="G48" s="3">
-        <v>2428400</v>
+        <v>2469100</v>
       </c>
       <c r="H48" s="3">
-        <v>2469700</v>
+        <v>2511100</v>
       </c>
       <c r="I48" s="3">
-        <v>1154900</v>
+        <v>1174200</v>
       </c>
       <c r="J48" s="3">
-        <v>667900</v>
+        <v>679100</v>
       </c>
       <c r="K48" s="3">
         <v>345600</v>
@@ -2029,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4387200</v>
+        <v>4460700</v>
       </c>
       <c r="E49" s="3">
-        <v>3333000</v>
+        <v>3388800</v>
       </c>
       <c r="F49" s="3">
-        <v>3407700</v>
+        <v>3464800</v>
       </c>
       <c r="G49" s="3">
-        <v>3140300</v>
+        <v>3192900</v>
       </c>
       <c r="H49" s="3">
-        <v>4351600</v>
+        <v>4424500</v>
       </c>
       <c r="I49" s="3">
-        <v>1087800</v>
+        <v>1106000</v>
       </c>
       <c r="J49" s="3">
-        <v>1627200</v>
+        <v>1654500</v>
       </c>
       <c r="K49" s="3">
         <v>126700</v>
@@ -2137,25 +2137,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2374500</v>
+        <v>2414300</v>
       </c>
       <c r="E52" s="3">
-        <v>1060400</v>
+        <v>1078200</v>
       </c>
       <c r="F52" s="3">
-        <v>1121500</v>
+        <v>1140300</v>
       </c>
       <c r="G52" s="3">
-        <v>659400</v>
+        <v>670500</v>
       </c>
       <c r="H52" s="3">
-        <v>1763400</v>
+        <v>1793000</v>
       </c>
       <c r="I52" s="3">
-        <v>324400</v>
+        <v>329800</v>
       </c>
       <c r="J52" s="3">
-        <v>96300</v>
+        <v>97900</v>
       </c>
       <c r="K52" s="3">
         <v>61400</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65023900</v>
+        <v>66113400</v>
       </c>
       <c r="E54" s="3">
-        <v>39992300</v>
+        <v>40662300</v>
       </c>
       <c r="F54" s="3">
-        <v>32207200</v>
+        <v>32746900</v>
       </c>
       <c r="G54" s="3">
-        <v>28340800</v>
+        <v>28815600</v>
       </c>
       <c r="H54" s="3">
-        <v>24694300</v>
+        <v>25108100</v>
       </c>
       <c r="I54" s="3">
-        <v>13090600</v>
+        <v>13310000</v>
       </c>
       <c r="J54" s="3">
-        <v>10238600</v>
+        <v>10410200</v>
       </c>
       <c r="K54" s="3">
         <v>3973800</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16538000</v>
+        <v>16815100</v>
       </c>
       <c r="E57" s="3">
-        <v>13973100</v>
+        <v>14207300</v>
       </c>
       <c r="F57" s="3">
-        <v>12349300</v>
+        <v>12556200</v>
       </c>
       <c r="G57" s="3">
-        <v>11454900</v>
+        <v>11646800</v>
       </c>
       <c r="H57" s="3">
-        <v>7112500</v>
+        <v>7231600</v>
       </c>
       <c r="I57" s="3">
-        <v>4607700</v>
+        <v>4684900</v>
       </c>
       <c r="J57" s="3">
-        <v>2569700</v>
+        <v>2612800</v>
       </c>
       <c r="K57" s="3">
         <v>1683500</v>
@@ -2313,25 +2313,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>502000</v>
+        <v>510400</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>699800</v>
+        <v>711600</v>
       </c>
       <c r="G58" s="3">
-        <v>1984000</v>
+        <v>2017300</v>
       </c>
       <c r="H58" s="3">
-        <v>1710600</v>
+        <v>1739300</v>
       </c>
       <c r="I58" s="3">
-        <v>557400</v>
+        <v>566800</v>
       </c>
       <c r="J58" s="3">
-        <v>291100</v>
+        <v>296000</v>
       </c>
       <c r="K58" s="3">
         <v>142500</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9755100</v>
+        <v>9918600</v>
       </c>
       <c r="E59" s="3">
-        <v>7586700</v>
+        <v>7713800</v>
       </c>
       <c r="F59" s="3">
-        <v>5561200</v>
+        <v>5654400</v>
       </c>
       <c r="G59" s="3">
-        <v>4769300</v>
+        <v>4849200</v>
       </c>
       <c r="H59" s="3">
-        <v>11836700</v>
+        <v>12035000</v>
       </c>
       <c r="I59" s="3">
-        <v>2377500</v>
+        <v>2417300</v>
       </c>
       <c r="J59" s="3">
-        <v>1603800</v>
+        <v>1630700</v>
       </c>
       <c r="K59" s="3">
         <v>736100</v>
@@ -2385,25 +2385,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>26795100</v>
+        <v>27244000</v>
       </c>
       <c r="E60" s="3">
-        <v>21559800</v>
+        <v>21921100</v>
       </c>
       <c r="F60" s="3">
-        <v>18610300</v>
+        <v>18922200</v>
       </c>
       <c r="G60" s="3">
-        <v>18208200</v>
+        <v>18513300</v>
       </c>
       <c r="H60" s="3">
-        <v>16127900</v>
+        <v>16398100</v>
       </c>
       <c r="I60" s="3">
-        <v>7542400</v>
+        <v>7668800</v>
       </c>
       <c r="J60" s="3">
-        <v>4464700</v>
+        <v>4539500</v>
       </c>
       <c r="K60" s="3">
         <v>2562100</v>
@@ -2421,22 +2421,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1929500</v>
+        <v>1961800</v>
       </c>
       <c r="E61" s="3">
-        <v>1547800</v>
+        <v>1573700</v>
       </c>
       <c r="F61" s="3">
-        <v>1520500</v>
+        <v>1546000</v>
       </c>
       <c r="G61" s="3">
-        <v>1681900</v>
+        <v>1710000</v>
       </c>
       <c r="H61" s="3">
-        <v>1408800</v>
+        <v>1432400</v>
       </c>
       <c r="I61" s="3">
-        <v>424000</v>
+        <v>431100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2457,22 +2457,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2174400</v>
+        <v>2210800</v>
       </c>
       <c r="E62" s="3">
-        <v>1390500</v>
+        <v>1413800</v>
       </c>
       <c r="F62" s="3">
-        <v>246400</v>
+        <v>250500</v>
       </c>
       <c r="G62" s="3">
-        <v>383900</v>
+        <v>390300</v>
       </c>
       <c r="H62" s="3">
-        <v>531600</v>
+        <v>540500</v>
       </c>
       <c r="I62" s="3">
-        <v>393800</v>
+        <v>400400</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36146000</v>
+        <v>36751600</v>
       </c>
       <c r="E66" s="3">
-        <v>27388100</v>
+        <v>27847000</v>
       </c>
       <c r="F66" s="3">
-        <v>23003700</v>
+        <v>23389100</v>
       </c>
       <c r="G66" s="3">
-        <v>20327500</v>
+        <v>20668100</v>
       </c>
       <c r="H66" s="3">
-        <v>19475500</v>
+        <v>19801800</v>
       </c>
       <c r="I66" s="3">
-        <v>8381500</v>
+        <v>8521900</v>
       </c>
       <c r="J66" s="3">
-        <v>4464700</v>
+        <v>4539500</v>
       </c>
       <c r="K66" s="3">
         <v>2562100</v>
@@ -2797,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5997800</v>
+        <v>6098300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1609600</v>
+        <v>-1636600</v>
       </c>
       <c r="F72" s="3">
-        <v>-3485700</v>
+        <v>-3544200</v>
       </c>
       <c r="G72" s="3">
-        <v>-3325800</v>
+        <v>-3381500</v>
       </c>
       <c r="H72" s="3">
-        <v>-3345600</v>
+        <v>-3401600</v>
       </c>
       <c r="I72" s="3">
-        <v>-2827900</v>
+        <v>-2875300</v>
       </c>
       <c r="J72" s="3">
-        <v>-1425400</v>
+        <v>-1449300</v>
       </c>
       <c r="K72" s="3">
         <v>-651000</v>
@@ -2941,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28877900</v>
+        <v>29361800</v>
       </c>
       <c r="E76" s="3">
-        <v>12604200</v>
+        <v>12815400</v>
       </c>
       <c r="F76" s="3">
-        <v>9203500</v>
+        <v>9357700</v>
       </c>
       <c r="G76" s="3">
-        <v>8013200</v>
+        <v>8147500</v>
       </c>
       <c r="H76" s="3">
-        <v>5218800</v>
+        <v>5306300</v>
       </c>
       <c r="I76" s="3">
-        <v>4709200</v>
+        <v>4788100</v>
       </c>
       <c r="J76" s="3">
-        <v>5774000</v>
+        <v>5870700</v>
       </c>
       <c r="K76" s="3">
         <v>263200</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7607400</v>
+        <v>7734900</v>
       </c>
       <c r="E81" s="3">
-        <v>1876100</v>
+        <v>1907600</v>
       </c>
       <c r="F81" s="3">
-        <v>-383700</v>
+        <v>-390100</v>
       </c>
       <c r="G81" s="3">
-        <v>-23400</v>
+        <v>-23800</v>
       </c>
       <c r="H81" s="3">
-        <v>-586200</v>
+        <v>-596000</v>
       </c>
       <c r="I81" s="3">
-        <v>-1402400</v>
+        <v>-1425900</v>
       </c>
       <c r="J81" s="3">
-        <v>-1994700</v>
+        <v>-2028100</v>
       </c>
       <c r="K81" s="3">
         <v>-379700</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>934300</v>
+        <v>950000</v>
       </c>
       <c r="E83" s="3">
-        <v>897400</v>
+        <v>912400</v>
       </c>
       <c r="F83" s="3">
-        <v>856100</v>
+        <v>870500</v>
       </c>
       <c r="G83" s="3">
-        <v>645600</v>
+        <v>656400</v>
       </c>
       <c r="H83" s="3">
-        <v>526700</v>
+        <v>535500</v>
       </c>
       <c r="I83" s="3">
-        <v>386100</v>
+        <v>392500</v>
       </c>
       <c r="J83" s="3">
-        <v>254100</v>
+        <v>258400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6551000</v>
+        <v>6660700</v>
       </c>
       <c r="E89" s="3">
-        <v>3815800</v>
+        <v>3879700</v>
       </c>
       <c r="F89" s="3">
-        <v>3215300</v>
+        <v>3269200</v>
       </c>
       <c r="G89" s="3">
-        <v>4135400</v>
+        <v>4204700</v>
       </c>
       <c r="H89" s="3">
-        <v>1268900</v>
+        <v>1290100</v>
       </c>
       <c r="I89" s="3">
-        <v>261200</v>
+        <v>265600</v>
       </c>
       <c r="J89" s="3">
-        <v>198600</v>
+        <v>201900</v>
       </c>
       <c r="K89" s="3">
         <v>545400</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-518900</v>
+        <v>-527600</v>
       </c>
       <c r="E91" s="3">
-        <v>-399900</v>
+        <v>-406600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1500300</v>
+        <v>-1525400</v>
       </c>
       <c r="G91" s="3">
-        <v>-507300</v>
+        <v>-515800</v>
       </c>
       <c r="H91" s="3">
-        <v>-329600</v>
+        <v>-335200</v>
       </c>
       <c r="I91" s="3">
-        <v>-392700</v>
+        <v>-399300</v>
       </c>
       <c r="J91" s="3">
-        <v>-219300</v>
+        <v>-223000</v>
       </c>
       <c r="K91" s="3">
         <v>-67200</v>
@@ -3482,25 +3482,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8901700</v>
+        <v>-9050800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3903300</v>
+        <v>-3968700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4015600</v>
+        <v>-4082900</v>
       </c>
       <c r="G94" s="3">
-        <v>-6130800</v>
+        <v>-6233500</v>
       </c>
       <c r="H94" s="3">
-        <v>-7003200</v>
+        <v>-7120600</v>
       </c>
       <c r="I94" s="3">
-        <v>-891600</v>
+        <v>-906600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2075400</v>
+        <v>-2110100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -3678,25 +3678,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10943600</v>
+        <v>11127000</v>
       </c>
       <c r="E100" s="3">
-        <v>396100</v>
+        <v>402700</v>
       </c>
       <c r="F100" s="3">
-        <v>1727600</v>
+        <v>1756600</v>
       </c>
       <c r="G100" s="3">
-        <v>2961800</v>
+        <v>3011400</v>
       </c>
       <c r="H100" s="3">
-        <v>6266900</v>
+        <v>6371900</v>
       </c>
       <c r="I100" s="3">
-        <v>723700</v>
+        <v>735900</v>
       </c>
       <c r="J100" s="3">
-        <v>2832000</v>
+        <v>2879500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -3714,25 +3714,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-782600</v>
+        <v>-795700</v>
       </c>
       <c r="E101" s="3">
-        <v>62500</v>
+        <v>63500</v>
       </c>
       <c r="F101" s="3">
-        <v>258900</v>
+        <v>263200</v>
       </c>
       <c r="G101" s="3">
-        <v>-98800</v>
+        <v>-100400</v>
       </c>
       <c r="H101" s="3">
-        <v>111900</v>
+        <v>113700</v>
       </c>
       <c r="I101" s="3">
-        <v>52800</v>
+        <v>53700</v>
       </c>
       <c r="J101" s="3">
-        <v>-15600</v>
+        <v>-15900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7810300</v>
+        <v>7941200</v>
       </c>
       <c r="E102" s="3">
-        <v>371100</v>
+        <v>377300</v>
       </c>
       <c r="F102" s="3">
-        <v>1186200</v>
+        <v>1206100</v>
       </c>
       <c r="G102" s="3">
-        <v>867700</v>
+        <v>882200</v>
       </c>
       <c r="H102" s="3">
-        <v>644400</v>
+        <v>655200</v>
       </c>
       <c r="I102" s="3">
-        <v>146200</v>
+        <v>148600</v>
       </c>
       <c r="J102" s="3">
-        <v>939600</v>
+        <v>955400</v>
       </c>
       <c r="K102" s="3">
         <v>555400</v>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>JD</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>116762700</v>
+        <v>117657700</v>
       </c>
       <c r="E8" s="3">
-        <v>90317700</v>
+        <v>91009900</v>
       </c>
       <c r="F8" s="3">
-        <v>72333800</v>
+        <v>72888200</v>
       </c>
       <c r="G8" s="3">
-        <v>56726700</v>
+        <v>57161500</v>
       </c>
       <c r="H8" s="3">
-        <v>40437900</v>
+        <v>40747800</v>
       </c>
       <c r="I8" s="3">
-        <v>28344000</v>
+        <v>28561200</v>
       </c>
       <c r="J8" s="3">
-        <v>18004800</v>
+        <v>18142800</v>
       </c>
       <c r="K8" s="3">
         <v>10593700</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>99680700</v>
+        <v>100444800</v>
       </c>
       <c r="E9" s="3">
-        <v>77100700</v>
+        <v>77691700</v>
       </c>
       <c r="F9" s="3">
-        <v>62008100</v>
+        <v>62483400</v>
       </c>
       <c r="G9" s="3">
-        <v>48771100</v>
+        <v>49144900</v>
       </c>
       <c r="H9" s="3">
-        <v>69455200</v>
+        <v>69987600</v>
       </c>
       <c r="I9" s="3">
-        <v>49468100</v>
+        <v>49847200</v>
       </c>
       <c r="J9" s="3">
-        <v>15911400</v>
+        <v>16033400</v>
       </c>
       <c r="K9" s="3">
         <v>9548100</v>
@@ -795,25 +795,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17082000</v>
+        <v>17212900</v>
       </c>
       <c r="E10" s="3">
-        <v>13217000</v>
+        <v>13318300</v>
       </c>
       <c r="F10" s="3">
-        <v>10325700</v>
+        <v>10404800</v>
       </c>
       <c r="G10" s="3">
-        <v>7955600</v>
+        <v>8016600</v>
       </c>
       <c r="H10" s="3">
-        <v>-29017400</v>
+        <v>-29239800</v>
       </c>
       <c r="I10" s="3">
-        <v>-21124100</v>
+        <v>-21286000</v>
       </c>
       <c r="J10" s="3">
-        <v>2093300</v>
+        <v>2109400</v>
       </c>
       <c r="K10" s="3">
         <v>1045700</v>
@@ -847,25 +847,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2512800</v>
+        <v>2532000</v>
       </c>
       <c r="E12" s="3">
-        <v>2273200</v>
+        <v>2290600</v>
       </c>
       <c r="F12" s="3">
-        <v>1886000</v>
+        <v>1900400</v>
       </c>
       <c r="G12" s="3">
-        <v>1028300</v>
+        <v>1036200</v>
       </c>
       <c r="H12" s="3">
-        <v>689900</v>
+        <v>695200</v>
       </c>
       <c r="I12" s="3">
-        <v>450600</v>
+        <v>454000</v>
       </c>
       <c r="J12" s="3">
-        <v>287400</v>
+        <v>289600</v>
       </c>
       <c r="K12" s="3">
         <v>147200</v>
@@ -919,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-269300</v>
+        <v>-271300</v>
       </c>
       <c r="E14" s="3">
-        <v>-490000</v>
+        <v>-493800</v>
       </c>
       <c r="F14" s="3">
-        <v>-110300</v>
+        <v>-111200</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>430600</v>
+        <v>433900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -955,22 +955,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>202400</v>
+        <v>204000</v>
       </c>
       <c r="E15" s="3">
-        <v>189300</v>
+        <v>190700</v>
       </c>
       <c r="F15" s="3">
-        <v>282700</v>
+        <v>284900</v>
       </c>
       <c r="G15" s="3">
-        <v>278400</v>
+        <v>280500</v>
       </c>
       <c r="H15" s="3">
-        <v>251900</v>
+        <v>253800</v>
       </c>
       <c r="I15" s="3">
-        <v>225300</v>
+        <v>227000</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>114819200</v>
+        <v>115699300</v>
       </c>
       <c r="E17" s="3">
-        <v>89027600</v>
+        <v>89709900</v>
       </c>
       <c r="F17" s="3">
-        <v>72630000</v>
+        <v>73186700</v>
       </c>
       <c r="G17" s="3">
-        <v>56857500</v>
+        <v>57293300</v>
       </c>
       <c r="H17" s="3">
-        <v>40633800</v>
+        <v>40945300</v>
       </c>
       <c r="I17" s="3">
-        <v>29182800</v>
+        <v>29406500</v>
       </c>
       <c r="J17" s="3">
-        <v>18913200</v>
+        <v>19058200</v>
       </c>
       <c r="K17" s="3">
         <v>10682200</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1943500</v>
+        <v>1958400</v>
       </c>
       <c r="E18" s="3">
-        <v>1290100</v>
+        <v>1300000</v>
       </c>
       <c r="F18" s="3">
-        <v>-296200</v>
+        <v>-298500</v>
       </c>
       <c r="G18" s="3">
-        <v>-130800</v>
+        <v>-131800</v>
       </c>
       <c r="H18" s="3">
-        <v>-196000</v>
+        <v>-197500</v>
       </c>
       <c r="I18" s="3">
-        <v>-838800</v>
+        <v>-845300</v>
       </c>
       <c r="J18" s="3">
-        <v>-908400</v>
+        <v>-915400</v>
       </c>
       <c r="K18" s="3">
         <v>-88400</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6188800</v>
+        <v>6236300</v>
       </c>
       <c r="E20" s="3">
-        <v>967100</v>
+        <v>974500</v>
       </c>
       <c r="F20" s="3">
-        <v>58400</v>
+        <v>58800</v>
       </c>
       <c r="G20" s="3">
-        <v>300600</v>
+        <v>302900</v>
       </c>
       <c r="H20" s="3">
         <v>-1800</v>
       </c>
       <c r="I20" s="3">
-        <v>-364100</v>
+        <v>-366900</v>
       </c>
       <c r="J20" s="3">
-        <v>133700</v>
+        <v>134800</v>
       </c>
       <c r="K20" s="3">
         <v>82100</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9081600</v>
+        <v>9155100</v>
       </c>
       <c r="E21" s="3">
-        <v>3169000</v>
+        <v>3197000</v>
       </c>
       <c r="F21" s="3">
-        <v>632000</v>
+        <v>640400</v>
       </c>
       <c r="G21" s="3">
-        <v>825700</v>
+        <v>834800</v>
       </c>
       <c r="H21" s="3">
-        <v>337300</v>
+        <v>342100</v>
       </c>
       <c r="I21" s="3">
-        <v>-810700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-516500</v>
+        <v>-815200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1164,22 +1164,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>176200</v>
+        <v>177500</v>
       </c>
       <c r="E22" s="3">
-        <v>113500</v>
+        <v>114400</v>
       </c>
       <c r="F22" s="3">
-        <v>133800</v>
+        <v>134800</v>
       </c>
       <c r="G22" s="3">
-        <v>150900</v>
+        <v>152000</v>
       </c>
       <c r="H22" s="3">
-        <v>96800</v>
+        <v>97600</v>
       </c>
       <c r="I22" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="J22" s="3">
         <v>4500</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7956200</v>
+        <v>8017200</v>
       </c>
       <c r="E23" s="3">
-        <v>2143700</v>
+        <v>2160100</v>
       </c>
       <c r="F23" s="3">
-        <v>-371600</v>
+        <v>-374500</v>
       </c>
       <c r="G23" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="H23" s="3">
-        <v>-294600</v>
+        <v>-296900</v>
       </c>
       <c r="I23" s="3">
-        <v>-1214300</v>
+        <v>-1223600</v>
       </c>
       <c r="J23" s="3">
-        <v>-779200</v>
+        <v>-785200</v>
       </c>
       <c r="K23" s="3">
         <v>-7600</v>
@@ -1236,19 +1236,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>232000</v>
+        <v>233700</v>
       </c>
       <c r="E24" s="3">
-        <v>282200</v>
+        <v>284400</v>
       </c>
       <c r="F24" s="3">
-        <v>66800</v>
+        <v>67300</v>
       </c>
       <c r="G24" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="H24" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="I24" s="3">
         <v>-2300</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7724200</v>
+        <v>7783400</v>
       </c>
       <c r="E26" s="3">
-        <v>1861500</v>
+        <v>1875800</v>
       </c>
       <c r="F26" s="3">
-        <v>-438500</v>
+        <v>-441800</v>
       </c>
       <c r="G26" s="3">
         <v>-2900</v>
       </c>
       <c r="H26" s="3">
-        <v>-320700</v>
+        <v>-323100</v>
       </c>
       <c r="I26" s="3">
-        <v>-1212000</v>
+        <v>-1221300</v>
       </c>
       <c r="J26" s="3">
-        <v>-782200</v>
+        <v>-788200</v>
       </c>
       <c r="K26" s="3">
         <v>-7600</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7734900</v>
+        <v>7794200</v>
       </c>
       <c r="E27" s="3">
-        <v>1907600</v>
+        <v>1922200</v>
       </c>
       <c r="F27" s="3">
-        <v>-390100</v>
+        <v>-393100</v>
       </c>
       <c r="G27" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="H27" s="3">
-        <v>-313200</v>
+        <v>-315600</v>
       </c>
       <c r="I27" s="3">
-        <v>-1210500</v>
+        <v>-1219800</v>
       </c>
       <c r="J27" s="3">
-        <v>-2028100</v>
+        <v>-2043600</v>
       </c>
       <c r="K27" s="3">
         <v>-379700</v>
@@ -1425,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-42100</v>
+        <v>-42400</v>
       </c>
       <c r="H29" s="3">
-        <v>-282800</v>
+        <v>-285000</v>
       </c>
       <c r="I29" s="3">
-        <v>-215500</v>
+        <v>-217100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1524,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6188800</v>
+        <v>-6236300</v>
       </c>
       <c r="E32" s="3">
-        <v>-967100</v>
+        <v>-974500</v>
       </c>
       <c r="F32" s="3">
-        <v>-58400</v>
+        <v>-58800</v>
       </c>
       <c r="G32" s="3">
-        <v>-300600</v>
+        <v>-302900</v>
       </c>
       <c r="H32" s="3">
         <v>1800</v>
       </c>
       <c r="I32" s="3">
-        <v>364100</v>
+        <v>366900</v>
       </c>
       <c r="J32" s="3">
-        <v>-133700</v>
+        <v>-134800</v>
       </c>
       <c r="K32" s="3">
         <v>-82100</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7734900</v>
+        <v>7794200</v>
       </c>
       <c r="E33" s="3">
-        <v>1907600</v>
+        <v>1922200</v>
       </c>
       <c r="F33" s="3">
-        <v>-390100</v>
+        <v>-393100</v>
       </c>
       <c r="G33" s="3">
-        <v>-23800</v>
+        <v>-24000</v>
       </c>
       <c r="H33" s="3">
-        <v>-596000</v>
+        <v>-600600</v>
       </c>
       <c r="I33" s="3">
-        <v>-1425900</v>
+        <v>-1436900</v>
       </c>
       <c r="J33" s="3">
-        <v>-2028100</v>
+        <v>-2043600</v>
       </c>
       <c r="K33" s="3">
         <v>-379700</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7734900</v>
+        <v>7794200</v>
       </c>
       <c r="E35" s="3">
-        <v>1907600</v>
+        <v>1922200</v>
       </c>
       <c r="F35" s="3">
-        <v>-390100</v>
+        <v>-393100</v>
       </c>
       <c r="G35" s="3">
-        <v>-23800</v>
+        <v>-24000</v>
       </c>
       <c r="H35" s="3">
-        <v>-596000</v>
+        <v>-600600</v>
       </c>
       <c r="I35" s="3">
-        <v>-1425900</v>
+        <v>-1436900</v>
       </c>
       <c r="J35" s="3">
-        <v>-2028100</v>
+        <v>-2043600</v>
       </c>
       <c r="K35" s="3">
         <v>-379700</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13477400</v>
+        <v>11164100</v>
       </c>
       <c r="E41" s="3">
-        <v>5788200</v>
+        <v>13580700</v>
       </c>
       <c r="F41" s="3">
-        <v>5364100</v>
+        <v>5832600</v>
       </c>
       <c r="G41" s="3">
-        <v>4021800</v>
+        <v>5405200</v>
       </c>
       <c r="H41" s="3">
-        <v>2437200</v>
+        <v>4052600</v>
       </c>
       <c r="I41" s="3">
-        <v>2796800</v>
+        <v>2455900</v>
       </c>
       <c r="J41" s="3">
-        <v>2648200</v>
+        <v>2818200</v>
       </c>
       <c r="K41" s="3">
         <v>1651900</v>
@@ -1777,25 +1777,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9484000</v>
+        <v>18073700</v>
       </c>
       <c r="E42" s="3">
-        <v>3851800</v>
+        <v>9556600</v>
       </c>
       <c r="F42" s="3">
-        <v>318700</v>
+        <v>3881300</v>
       </c>
       <c r="G42" s="3">
-        <v>1344500</v>
+        <v>321100</v>
       </c>
       <c r="H42" s="3">
-        <v>2824100</v>
+        <v>1354800</v>
       </c>
       <c r="I42" s="3">
-        <v>456500</v>
+        <v>2845700</v>
       </c>
       <c r="J42" s="3">
-        <v>1930200</v>
+        <v>460000</v>
       </c>
       <c r="K42" s="3">
         <v>293900</v>
@@ -1813,25 +1813,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2264200</v>
+        <v>2745000</v>
       </c>
       <c r="E43" s="3">
-        <v>1875000</v>
+        <v>2281600</v>
       </c>
       <c r="F43" s="3">
-        <v>2655700</v>
+        <v>1889400</v>
       </c>
       <c r="G43" s="3">
-        <v>5055100</v>
+        <v>2676000</v>
       </c>
       <c r="H43" s="3">
-        <v>7103500</v>
+        <v>5093800</v>
       </c>
       <c r="I43" s="3">
-        <v>1998200</v>
+        <v>7158000</v>
       </c>
       <c r="J43" s="3">
-        <v>486500</v>
+        <v>2013500</v>
       </c>
       <c r="K43" s="3">
         <v>81100</v>
@@ -1849,25 +1849,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9226500</v>
+        <v>11926900</v>
       </c>
       <c r="E44" s="3">
-        <v>9069900</v>
+        <v>9297200</v>
       </c>
       <c r="F44" s="3">
-        <v>6893300</v>
+        <v>9139400</v>
       </c>
       <c r="G44" s="3">
-        <v>6528600</v>
+        <v>6946200</v>
       </c>
       <c r="H44" s="3">
-        <v>9052100</v>
+        <v>6578700</v>
       </c>
       <c r="I44" s="3">
-        <v>3215700</v>
+        <v>9121500</v>
       </c>
       <c r="J44" s="3">
-        <v>1908600</v>
+        <v>3240300</v>
       </c>
       <c r="K44" s="3">
         <v>975700</v>
@@ -1885,25 +1885,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2308400</v>
+        <v>3366600</v>
       </c>
       <c r="E45" s="3">
-        <v>1191700</v>
+        <v>2326100</v>
       </c>
       <c r="F45" s="3">
-        <v>1184400</v>
+        <v>1200900</v>
       </c>
       <c r="G45" s="3">
-        <v>1058900</v>
+        <v>1193400</v>
       </c>
       <c r="H45" s="3">
-        <v>4176400</v>
+        <v>1067000</v>
       </c>
       <c r="I45" s="3">
-        <v>919400</v>
+        <v>4208400</v>
       </c>
       <c r="J45" s="3">
-        <v>845500</v>
+        <v>926400</v>
       </c>
       <c r="K45" s="3">
         <v>431900</v>
@@ -1921,25 +1921,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36760500</v>
+        <v>47276200</v>
       </c>
       <c r="E46" s="3">
-        <v>21776600</v>
+        <v>37042200</v>
       </c>
       <c r="F46" s="3">
-        <v>16416200</v>
+        <v>21943600</v>
       </c>
       <c r="G46" s="3">
-        <v>18008900</v>
+        <v>16542000</v>
       </c>
       <c r="H46" s="3">
-        <v>16741300</v>
+        <v>18146900</v>
       </c>
       <c r="I46" s="3">
-        <v>9153800</v>
+        <v>16869600</v>
       </c>
       <c r="J46" s="3">
-        <v>7818900</v>
+        <v>9223900</v>
       </c>
       <c r="K46" s="3">
         <v>3434500</v>
@@ -1957,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15278100</v>
+        <v>12985300</v>
       </c>
       <c r="E47" s="3">
-        <v>8922800</v>
+        <v>15395200</v>
       </c>
       <c r="F47" s="3">
-        <v>7398700</v>
+        <v>8991200</v>
       </c>
       <c r="G47" s="3">
-        <v>4474300</v>
+        <v>7455500</v>
       </c>
       <c r="H47" s="3">
-        <v>5842000</v>
+        <v>4508600</v>
       </c>
       <c r="I47" s="3">
-        <v>1521600</v>
+        <v>5886800</v>
       </c>
       <c r="J47" s="3">
-        <v>159900</v>
+        <v>1533300</v>
       </c>
       <c r="K47" s="3">
         <v>5600</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7199700</v>
+        <v>9268200</v>
       </c>
       <c r="E48" s="3">
-        <v>5495900</v>
+        <v>7254900</v>
       </c>
       <c r="F48" s="3">
-        <v>4326800</v>
+        <v>5538000</v>
       </c>
       <c r="G48" s="3">
-        <v>2469100</v>
+        <v>4359900</v>
       </c>
       <c r="H48" s="3">
-        <v>2511100</v>
+        <v>2488000</v>
       </c>
       <c r="I48" s="3">
-        <v>1174200</v>
+        <v>2530300</v>
       </c>
       <c r="J48" s="3">
-        <v>679100</v>
+        <v>1183200</v>
       </c>
       <c r="K48" s="3">
         <v>345600</v>
@@ -2029,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4460700</v>
+        <v>5142600</v>
       </c>
       <c r="E49" s="3">
-        <v>3388800</v>
+        <v>4494900</v>
       </c>
       <c r="F49" s="3">
-        <v>3464800</v>
+        <v>3414800</v>
       </c>
       <c r="G49" s="3">
-        <v>3192900</v>
+        <v>3491400</v>
       </c>
       <c r="H49" s="3">
-        <v>4424500</v>
+        <v>3217400</v>
       </c>
       <c r="I49" s="3">
-        <v>1106000</v>
+        <v>4458400</v>
       </c>
       <c r="J49" s="3">
-        <v>1654500</v>
+        <v>1114500</v>
       </c>
       <c r="K49" s="3">
         <v>126700</v>
@@ -2137,25 +2137,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2414300</v>
+        <v>3656600</v>
       </c>
       <c r="E52" s="3">
-        <v>1078200</v>
+        <v>2432800</v>
       </c>
       <c r="F52" s="3">
-        <v>1140300</v>
+        <v>1086500</v>
       </c>
       <c r="G52" s="3">
-        <v>670500</v>
+        <v>1149000</v>
       </c>
       <c r="H52" s="3">
-        <v>1793000</v>
+        <v>675600</v>
       </c>
       <c r="I52" s="3">
-        <v>329800</v>
+        <v>1806700</v>
       </c>
       <c r="J52" s="3">
-        <v>97900</v>
+        <v>332300</v>
       </c>
       <c r="K52" s="3">
         <v>61400</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66113400</v>
+        <v>78328900</v>
       </c>
       <c r="E54" s="3">
-        <v>40662300</v>
+        <v>66620100</v>
       </c>
       <c r="F54" s="3">
-        <v>32746900</v>
+        <v>40974000</v>
       </c>
       <c r="G54" s="3">
-        <v>28815600</v>
+        <v>32997800</v>
       </c>
       <c r="H54" s="3">
-        <v>25108100</v>
+        <v>29036500</v>
       </c>
       <c r="I54" s="3">
-        <v>13310000</v>
+        <v>25300500</v>
       </c>
       <c r="J54" s="3">
-        <v>10410200</v>
+        <v>13412000</v>
       </c>
       <c r="K54" s="3">
         <v>3973800</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16815100</v>
+        <v>22244700</v>
       </c>
       <c r="E57" s="3">
-        <v>14207300</v>
+        <v>16944000</v>
       </c>
       <c r="F57" s="3">
-        <v>12556200</v>
+        <v>14316100</v>
       </c>
       <c r="G57" s="3">
-        <v>11646800</v>
+        <v>12652500</v>
       </c>
       <c r="H57" s="3">
-        <v>7231600</v>
+        <v>11736100</v>
       </c>
       <c r="I57" s="3">
-        <v>4684900</v>
+        <v>7287100</v>
       </c>
       <c r="J57" s="3">
-        <v>2612800</v>
+        <v>4720800</v>
       </c>
       <c r="K57" s="3">
         <v>1683500</v>
@@ -2313,25 +2313,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>510400</v>
+        <v>689000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>514300</v>
       </c>
       <c r="F58" s="3">
-        <v>711600</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>2017300</v>
+        <v>717000</v>
       </c>
       <c r="H58" s="3">
-        <v>1739300</v>
+        <v>2032700</v>
       </c>
       <c r="I58" s="3">
-        <v>566800</v>
+        <v>1752600</v>
       </c>
       <c r="J58" s="3">
-        <v>296000</v>
+        <v>571100</v>
       </c>
       <c r="K58" s="3">
         <v>142500</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9918600</v>
+        <v>12031500</v>
       </c>
       <c r="E59" s="3">
-        <v>7713800</v>
+        <v>9994600</v>
       </c>
       <c r="F59" s="3">
-        <v>5654400</v>
+        <v>7772900</v>
       </c>
       <c r="G59" s="3">
-        <v>4849200</v>
+        <v>5697700</v>
       </c>
       <c r="H59" s="3">
-        <v>12035000</v>
+        <v>4886400</v>
       </c>
       <c r="I59" s="3">
-        <v>2417300</v>
+        <v>12127300</v>
       </c>
       <c r="J59" s="3">
-        <v>1630700</v>
+        <v>2435800</v>
       </c>
       <c r="K59" s="3">
         <v>736100</v>
@@ -2385,25 +2385,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27244000</v>
+        <v>34965200</v>
       </c>
       <c r="E60" s="3">
-        <v>21921100</v>
+        <v>27452900</v>
       </c>
       <c r="F60" s="3">
-        <v>18922200</v>
+        <v>22089100</v>
       </c>
       <c r="G60" s="3">
-        <v>18513300</v>
+        <v>19067200</v>
       </c>
       <c r="H60" s="3">
-        <v>16398100</v>
+        <v>18655200</v>
       </c>
       <c r="I60" s="3">
-        <v>7668800</v>
+        <v>16523800</v>
       </c>
       <c r="J60" s="3">
-        <v>4539500</v>
+        <v>7727600</v>
       </c>
       <c r="K60" s="3">
         <v>2562100</v>
@@ -2421,25 +2421,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1961800</v>
+        <v>1480700</v>
       </c>
       <c r="E61" s="3">
-        <v>1573700</v>
+        <v>1976900</v>
       </c>
       <c r="F61" s="3">
-        <v>1546000</v>
+        <v>1585800</v>
       </c>
       <c r="G61" s="3">
-        <v>1710000</v>
+        <v>1557800</v>
       </c>
       <c r="H61" s="3">
-        <v>1432400</v>
+        <v>1723100</v>
       </c>
       <c r="I61" s="3">
-        <v>431100</v>
+        <v>1443400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>434400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2457,25 +2457,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2210800</v>
+        <v>2950300</v>
       </c>
       <c r="E62" s="3">
-        <v>1413800</v>
+        <v>2227800</v>
       </c>
       <c r="F62" s="3">
-        <v>250500</v>
+        <v>1424700</v>
       </c>
       <c r="G62" s="3">
-        <v>390300</v>
+        <v>252400</v>
       </c>
       <c r="H62" s="3">
-        <v>540500</v>
+        <v>393300</v>
       </c>
       <c r="I62" s="3">
-        <v>400400</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
+        <v>544700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>403500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36751600</v>
+        <v>45371000</v>
       </c>
       <c r="E66" s="3">
-        <v>27847000</v>
+        <v>37033300</v>
       </c>
       <c r="F66" s="3">
-        <v>23389100</v>
+        <v>28060400</v>
       </c>
       <c r="G66" s="3">
-        <v>20668100</v>
+        <v>23568400</v>
       </c>
       <c r="H66" s="3">
-        <v>19801800</v>
+        <v>20826600</v>
       </c>
       <c r="I66" s="3">
-        <v>8521900</v>
+        <v>19953600</v>
       </c>
       <c r="J66" s="3">
-        <v>4539500</v>
+        <v>8587200</v>
       </c>
       <c r="K66" s="3">
         <v>2562100</v>
@@ -2796,26 +2796,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>6098300</v>
+      <c r="D72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E72" s="3">
-        <v>-1636600</v>
+        <v>6145000</v>
       </c>
       <c r="F72" s="3">
-        <v>-3544200</v>
+        <v>-1649100</v>
       </c>
       <c r="G72" s="3">
-        <v>-3381500</v>
+        <v>-3571300</v>
       </c>
       <c r="H72" s="3">
-        <v>-3401600</v>
+        <v>-3407400</v>
       </c>
       <c r="I72" s="3">
-        <v>-2875300</v>
+        <v>-3427700</v>
       </c>
       <c r="J72" s="3">
-        <v>-1449300</v>
+        <v>-2897300</v>
       </c>
       <c r="K72" s="3">
         <v>-651000</v>
@@ -2941,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29361800</v>
+        <v>32957900</v>
       </c>
       <c r="E76" s="3">
-        <v>12815400</v>
+        <v>29586800</v>
       </c>
       <c r="F76" s="3">
-        <v>9357700</v>
+        <v>12913600</v>
       </c>
       <c r="G76" s="3">
-        <v>8147500</v>
+        <v>9429500</v>
       </c>
       <c r="H76" s="3">
-        <v>5306300</v>
+        <v>8210000</v>
       </c>
       <c r="I76" s="3">
-        <v>4788100</v>
+        <v>5346900</v>
       </c>
       <c r="J76" s="3">
-        <v>5870700</v>
+        <v>4824800</v>
       </c>
       <c r="K76" s="3">
         <v>263200</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7734900</v>
+        <v>7794200</v>
       </c>
       <c r="E81" s="3">
-        <v>1907600</v>
+        <v>1922200</v>
       </c>
       <c r="F81" s="3">
-        <v>-390100</v>
+        <v>-393100</v>
       </c>
       <c r="G81" s="3">
-        <v>-23800</v>
+        <v>-24000</v>
       </c>
       <c r="H81" s="3">
-        <v>-596000</v>
+        <v>-600600</v>
       </c>
       <c r="I81" s="3">
-        <v>-1425900</v>
+        <v>-1436900</v>
       </c>
       <c r="J81" s="3">
-        <v>-2028100</v>
+        <v>-2043600</v>
       </c>
       <c r="K81" s="3">
         <v>-379700</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>950000</v>
+        <v>957200</v>
       </c>
       <c r="E83" s="3">
-        <v>912400</v>
+        <v>919400</v>
       </c>
       <c r="F83" s="3">
-        <v>870500</v>
+        <v>877200</v>
       </c>
       <c r="G83" s="3">
-        <v>656400</v>
+        <v>661400</v>
       </c>
       <c r="H83" s="3">
-        <v>535500</v>
+        <v>539600</v>
       </c>
       <c r="I83" s="3">
-        <v>392500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>258400</v>
+        <v>395600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6660700</v>
+        <v>6711800</v>
       </c>
       <c r="E89" s="3">
-        <v>3879700</v>
+        <v>3909500</v>
       </c>
       <c r="F89" s="3">
-        <v>3269200</v>
+        <v>3294300</v>
       </c>
       <c r="G89" s="3">
-        <v>4204700</v>
+        <v>4236900</v>
       </c>
       <c r="H89" s="3">
-        <v>1290100</v>
+        <v>1300000</v>
       </c>
       <c r="I89" s="3">
-        <v>265600</v>
+        <v>267600</v>
       </c>
       <c r="J89" s="3">
-        <v>201900</v>
+        <v>203500</v>
       </c>
       <c r="K89" s="3">
         <v>545400</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-527600</v>
+        <v>-531700</v>
       </c>
       <c r="E91" s="3">
-        <v>-406600</v>
+        <v>-409700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1525400</v>
+        <v>-1537100</v>
       </c>
       <c r="G91" s="3">
-        <v>-515800</v>
+        <v>-519700</v>
       </c>
       <c r="H91" s="3">
-        <v>-335200</v>
+        <v>-337700</v>
       </c>
       <c r="I91" s="3">
-        <v>-399300</v>
+        <v>-402400</v>
       </c>
       <c r="J91" s="3">
-        <v>-223000</v>
+        <v>-224700</v>
       </c>
       <c r="K91" s="3">
         <v>-67200</v>
@@ -3482,25 +3482,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9050800</v>
+        <v>-9120200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3968700</v>
+        <v>-3999100</v>
       </c>
       <c r="F94" s="3">
-        <v>-4082900</v>
+        <v>-4114200</v>
       </c>
       <c r="G94" s="3">
-        <v>-6233500</v>
+        <v>-6281300</v>
       </c>
       <c r="H94" s="3">
-        <v>-7120600</v>
+        <v>-7175200</v>
       </c>
       <c r="I94" s="3">
-        <v>-906600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2110100</v>
+        <v>-913500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -3678,25 +3678,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11127000</v>
+        <v>11212300</v>
       </c>
       <c r="E100" s="3">
-        <v>402700</v>
+        <v>405800</v>
       </c>
       <c r="F100" s="3">
-        <v>1756600</v>
+        <v>1770100</v>
       </c>
       <c r="G100" s="3">
-        <v>3011400</v>
+        <v>3034500</v>
       </c>
       <c r="H100" s="3">
-        <v>6371900</v>
+        <v>6420700</v>
       </c>
       <c r="I100" s="3">
-        <v>735900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>2879500</v>
+        <v>741500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -3714,25 +3714,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-795700</v>
+        <v>-801800</v>
       </c>
       <c r="E101" s="3">
-        <v>63500</v>
+        <v>64000</v>
       </c>
       <c r="F101" s="3">
-        <v>263200</v>
+        <v>265200</v>
       </c>
       <c r="G101" s="3">
-        <v>-100400</v>
+        <v>-101200</v>
       </c>
       <c r="H101" s="3">
-        <v>113700</v>
+        <v>114600</v>
       </c>
       <c r="I101" s="3">
-        <v>53700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-15900</v>
+        <v>54100</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7941200</v>
+        <v>8002100</v>
       </c>
       <c r="E102" s="3">
-        <v>377300</v>
+        <v>380200</v>
       </c>
       <c r="F102" s="3">
-        <v>1206100</v>
+        <v>1215300</v>
       </c>
       <c r="G102" s="3">
-        <v>882200</v>
+        <v>889000</v>
       </c>
       <c r="H102" s="3">
-        <v>655200</v>
+        <v>660200</v>
       </c>
       <c r="I102" s="3">
-        <v>148600</v>
+        <v>149700</v>
       </c>
       <c r="J102" s="3">
-        <v>955400</v>
+        <v>962700</v>
       </c>
       <c r="K102" s="3">
         <v>555400</v>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,180 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>117657700</v>
+        <v>140226600</v>
       </c>
       <c r="E8" s="3">
-        <v>91009900</v>
+        <v>109901400</v>
       </c>
       <c r="F8" s="3">
-        <v>72888200</v>
+        <v>85010300</v>
       </c>
       <c r="G8" s="3">
-        <v>57161500</v>
+        <v>68083200</v>
       </c>
       <c r="H8" s="3">
-        <v>40747800</v>
+        <v>53393200</v>
       </c>
       <c r="I8" s="3">
-        <v>28561200</v>
+        <v>38061600</v>
       </c>
       <c r="J8" s="3">
+        <v>26678400</v>
+      </c>
+      <c r="K8" s="3">
         <v>18142800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10593700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5937300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3072800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100444800</v>
+        <v>121207400</v>
       </c>
       <c r="E9" s="3">
-        <v>77691700</v>
+        <v>93823200</v>
       </c>
       <c r="F9" s="3">
-        <v>62483400</v>
+        <v>72570000</v>
       </c>
       <c r="G9" s="3">
-        <v>49144900</v>
+        <v>58364300</v>
       </c>
       <c r="H9" s="3">
-        <v>69987600</v>
+        <v>45905100</v>
       </c>
       <c r="I9" s="3">
-        <v>49847200</v>
+        <v>65373800</v>
       </c>
       <c r="J9" s="3">
+        <v>46561200</v>
+      </c>
+      <c r="K9" s="3">
         <v>16033400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9548100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5437700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2905200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17212900</v>
+        <v>19019200</v>
       </c>
       <c r="E10" s="3">
-        <v>13318300</v>
+        <v>16078200</v>
       </c>
       <c r="F10" s="3">
-        <v>10404800</v>
+        <v>12440300</v>
       </c>
       <c r="G10" s="3">
-        <v>8016600</v>
+        <v>9718900</v>
       </c>
       <c r="H10" s="3">
-        <v>-29239800</v>
+        <v>7488100</v>
       </c>
       <c r="I10" s="3">
-        <v>-21286000</v>
+        <v>-27312200</v>
       </c>
       <c r="J10" s="3">
+        <v>-19882800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2109400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1045700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>499600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>167600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,44 +853,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2532000</v>
+        <v>2391400</v>
       </c>
       <c r="E12" s="3">
-        <v>2290600</v>
+        <v>2365100</v>
       </c>
       <c r="F12" s="3">
-        <v>1900400</v>
+        <v>2139600</v>
       </c>
       <c r="G12" s="3">
-        <v>1036200</v>
+        <v>1775200</v>
       </c>
       <c r="H12" s="3">
-        <v>695200</v>
+        <v>967900</v>
       </c>
       <c r="I12" s="3">
-        <v>454000</v>
+        <v>649400</v>
       </c>
       <c r="J12" s="3">
+        <v>424100</v>
+      </c>
+      <c r="K12" s="3">
         <v>289600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>147200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>91300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>34900</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,32 +928,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-271300</v>
+        <v>-49100</v>
       </c>
       <c r="E14" s="3">
-        <v>-493800</v>
+        <v>-253400</v>
       </c>
       <c r="F14" s="3">
-        <v>-111200</v>
+        <v>-461200</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-103900</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>433900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>405300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -948,32 +967,35 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>204000</v>
+        <v>219100</v>
       </c>
       <c r="E15" s="3">
-        <v>190700</v>
+        <v>190500</v>
       </c>
       <c r="F15" s="3">
-        <v>284900</v>
+        <v>178200</v>
       </c>
       <c r="G15" s="3">
-        <v>280500</v>
+        <v>266100</v>
       </c>
       <c r="H15" s="3">
-        <v>253800</v>
+        <v>262000</v>
       </c>
       <c r="I15" s="3">
-        <v>227000</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+        <v>237100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>212100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -984,9 +1006,12 @@
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -998,80 +1023,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>115699300</v>
+        <v>139680300</v>
       </c>
       <c r="E17" s="3">
-        <v>89709900</v>
+        <v>108072000</v>
       </c>
       <c r="F17" s="3">
-        <v>73186700</v>
+        <v>83796000</v>
       </c>
       <c r="G17" s="3">
-        <v>57293300</v>
+        <v>68362000</v>
       </c>
       <c r="H17" s="3">
-        <v>40945300</v>
+        <v>53516300</v>
       </c>
       <c r="I17" s="3">
-        <v>29406500</v>
+        <v>38246100</v>
       </c>
       <c r="J17" s="3">
+        <v>27467900</v>
+      </c>
+      <c r="K17" s="3">
         <v>19058200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10682200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6217200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3277000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1958400</v>
+        <v>546300</v>
       </c>
       <c r="E18" s="3">
-        <v>1300000</v>
+        <v>1829300</v>
       </c>
       <c r="F18" s="3">
-        <v>-298500</v>
+        <v>1214300</v>
       </c>
       <c r="G18" s="3">
-        <v>-131800</v>
+        <v>-278800</v>
       </c>
       <c r="H18" s="3">
-        <v>-197500</v>
+        <v>-123100</v>
       </c>
       <c r="I18" s="3">
-        <v>-845300</v>
+        <v>-184400</v>
       </c>
       <c r="J18" s="3">
+        <v>-789500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-915400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-88400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-279900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-204200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1086,188 +1118,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6236300</v>
+        <v>-747700</v>
       </c>
       <c r="E20" s="3">
-        <v>974500</v>
+        <v>5825200</v>
       </c>
       <c r="F20" s="3">
-        <v>58800</v>
+        <v>910300</v>
       </c>
       <c r="G20" s="3">
-        <v>302900</v>
+        <v>54900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1800</v>
+        <v>283000</v>
       </c>
       <c r="I20" s="3">
-        <v>-366900</v>
+        <v>-1700</v>
       </c>
       <c r="J20" s="3">
+        <v>-342700</v>
+      </c>
+      <c r="K20" s="3">
         <v>134800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>82100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>33900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9155100</v>
+        <v>726100</v>
       </c>
       <c r="E21" s="3">
-        <v>3197000</v>
+        <v>8557600</v>
       </c>
       <c r="F21" s="3">
-        <v>640400</v>
+        <v>2992000</v>
       </c>
       <c r="G21" s="3">
-        <v>834800</v>
+        <v>603700</v>
       </c>
       <c r="H21" s="3">
-        <v>342100</v>
+        <v>783900</v>
       </c>
       <c r="I21" s="3">
-        <v>-815200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>10</v>
+        <v>322900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-759000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3">
         <v>-219400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-175900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>177500</v>
+        <v>178700</v>
       </c>
       <c r="E22" s="3">
-        <v>114400</v>
+        <v>165800</v>
       </c>
       <c r="F22" s="3">
-        <v>134800</v>
+        <v>106800</v>
       </c>
       <c r="G22" s="3">
-        <v>152000</v>
+        <v>125900</v>
       </c>
       <c r="H22" s="3">
-        <v>97600</v>
+        <v>142000</v>
       </c>
       <c r="I22" s="3">
-        <v>11500</v>
+        <v>91200</v>
       </c>
       <c r="J22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K22" s="3">
         <v>4500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8017200</v>
+        <v>-380200</v>
       </c>
       <c r="E23" s="3">
-        <v>2160100</v>
+        <v>7488700</v>
       </c>
       <c r="F23" s="3">
-        <v>-374500</v>
+        <v>2017700</v>
       </c>
       <c r="G23" s="3">
-        <v>19100</v>
+        <v>-349800</v>
       </c>
       <c r="H23" s="3">
-        <v>-296900</v>
+        <v>17800</v>
       </c>
       <c r="I23" s="3">
-        <v>-1223600</v>
+        <v>-277300</v>
       </c>
       <c r="J23" s="3">
+        <v>-1142900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-785200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-247300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-186700</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>233700</v>
+        <v>278100</v>
       </c>
       <c r="E24" s="3">
-        <v>284400</v>
+        <v>218300</v>
       </c>
       <c r="F24" s="3">
-        <v>67300</v>
+        <v>265600</v>
       </c>
       <c r="G24" s="3">
-        <v>22000</v>
+        <v>62900</v>
       </c>
       <c r="H24" s="3">
-        <v>26200</v>
+        <v>20600</v>
       </c>
       <c r="I24" s="3">
-        <v>-2300</v>
+        <v>24500</v>
       </c>
       <c r="J24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1301,81 +1349,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7783400</v>
+        <v>-658300</v>
       </c>
       <c r="E26" s="3">
-        <v>1875800</v>
+        <v>7270300</v>
       </c>
       <c r="F26" s="3">
-        <v>-441800</v>
+        <v>1752100</v>
       </c>
       <c r="G26" s="3">
-        <v>-2900</v>
+        <v>-412700</v>
       </c>
       <c r="H26" s="3">
-        <v>-323100</v>
+        <v>-2700</v>
       </c>
       <c r="I26" s="3">
-        <v>-1221300</v>
+        <v>-301800</v>
       </c>
       <c r="J26" s="3">
+        <v>-1140800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-788200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-248100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-186700</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7794200</v>
+        <v>-524600</v>
       </c>
       <c r="E27" s="3">
-        <v>1922200</v>
+        <v>7280400</v>
       </c>
       <c r="F27" s="3">
-        <v>-393100</v>
+        <v>1795500</v>
       </c>
       <c r="G27" s="3">
-        <v>18400</v>
+        <v>-367200</v>
       </c>
       <c r="H27" s="3">
-        <v>-315600</v>
+        <v>17200</v>
       </c>
       <c r="I27" s="3">
-        <v>-1219800</v>
+        <v>-294800</v>
       </c>
       <c r="J27" s="3">
+        <v>-1139400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2043600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-379700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-475900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-428200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1409,32 +1466,35 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-42400</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-285000</v>
+        <v>-39700</v>
       </c>
       <c r="I29" s="3">
-        <v>-217100</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+        <v>-266200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-202800</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1445,9 +1505,12 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1481,9 +1544,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1517,81 +1583,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6236300</v>
+        <v>747700</v>
       </c>
       <c r="E32" s="3">
-        <v>-974500</v>
+        <v>-5825200</v>
       </c>
       <c r="F32" s="3">
-        <v>-58800</v>
+        <v>-910300</v>
       </c>
       <c r="G32" s="3">
-        <v>-302900</v>
+        <v>-54900</v>
       </c>
       <c r="H32" s="3">
-        <v>1800</v>
+        <v>-283000</v>
       </c>
       <c r="I32" s="3">
-        <v>366900</v>
+        <v>1700</v>
       </c>
       <c r="J32" s="3">
+        <v>342700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-134800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-82100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-33900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7794200</v>
+        <v>-524600</v>
       </c>
       <c r="E33" s="3">
-        <v>1922200</v>
+        <v>7280400</v>
       </c>
       <c r="F33" s="3">
-        <v>-393100</v>
+        <v>1795500</v>
       </c>
       <c r="G33" s="3">
-        <v>-24000</v>
+        <v>-367200</v>
       </c>
       <c r="H33" s="3">
-        <v>-600600</v>
+        <v>-22400</v>
       </c>
       <c r="I33" s="3">
-        <v>-1436900</v>
+        <v>-561000</v>
       </c>
       <c r="J33" s="3">
+        <v>-1342100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2043600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-379700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-475900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-428200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1625,86 +1700,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7794200</v>
+        <v>-524600</v>
       </c>
       <c r="E35" s="3">
-        <v>1922200</v>
+        <v>7280400</v>
       </c>
       <c r="F35" s="3">
-        <v>-393100</v>
+        <v>1795500</v>
       </c>
       <c r="G35" s="3">
-        <v>-24000</v>
+        <v>-367200</v>
       </c>
       <c r="H35" s="3">
-        <v>-600600</v>
+        <v>-22400</v>
       </c>
       <c r="I35" s="3">
-        <v>-1436900</v>
+        <v>-561000</v>
       </c>
       <c r="J35" s="3">
+        <v>-1342100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2043600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-379700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-475900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-428200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1719,8 +1803,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,332 +1820,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11164100</v>
+        <v>10428200</v>
       </c>
       <c r="E41" s="3">
-        <v>13580700</v>
+        <v>12685500</v>
       </c>
       <c r="F41" s="3">
-        <v>5832600</v>
+        <v>5448100</v>
       </c>
       <c r="G41" s="3">
-        <v>5405200</v>
+        <v>5048900</v>
       </c>
       <c r="H41" s="3">
-        <v>4052600</v>
+        <v>3785400</v>
       </c>
       <c r="I41" s="3">
-        <v>2455900</v>
+        <v>2294000</v>
       </c>
       <c r="J41" s="3">
+        <v>2632400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2818200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1651900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1029800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>914600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18073700</v>
+        <v>16882200</v>
       </c>
       <c r="E42" s="3">
-        <v>9556600</v>
+        <v>8926600</v>
       </c>
       <c r="F42" s="3">
-        <v>3881300</v>
+        <v>3625500</v>
       </c>
       <c r="G42" s="3">
-        <v>321100</v>
+        <v>300000</v>
       </c>
       <c r="H42" s="3">
-        <v>1354800</v>
+        <v>1265500</v>
       </c>
       <c r="I42" s="3">
-        <v>2845700</v>
+        <v>2658100</v>
       </c>
       <c r="J42" s="3">
+        <v>429600</v>
+      </c>
+      <c r="K42" s="3">
         <v>460000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>293900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>157100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2745000</v>
+        <v>2564100</v>
       </c>
       <c r="E43" s="3">
-        <v>2281600</v>
+        <v>2131200</v>
       </c>
       <c r="F43" s="3">
-        <v>1889400</v>
+        <v>1764800</v>
       </c>
       <c r="G43" s="3">
-        <v>2676000</v>
+        <v>2499600</v>
       </c>
       <c r="H43" s="3">
-        <v>5093800</v>
+        <v>4758000</v>
       </c>
       <c r="I43" s="3">
-        <v>7158000</v>
+        <v>6686100</v>
       </c>
       <c r="J43" s="3">
+        <v>1880700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2013500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>81100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>77100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>69900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11926900</v>
+        <v>11140600</v>
       </c>
       <c r="E44" s="3">
-        <v>9297200</v>
+        <v>8684300</v>
       </c>
       <c r="F44" s="3">
-        <v>9139400</v>
+        <v>8536900</v>
       </c>
       <c r="G44" s="3">
-        <v>6946200</v>
+        <v>6488300</v>
       </c>
       <c r="H44" s="3">
-        <v>6578700</v>
+        <v>6145000</v>
       </c>
       <c r="I44" s="3">
-        <v>9121500</v>
+        <v>8520200</v>
       </c>
       <c r="J44" s="3">
+        <v>3026700</v>
+      </c>
+      <c r="K44" s="3">
         <v>3240300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>975700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>682100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>401900</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3366600</v>
+        <v>3144700</v>
       </c>
       <c r="E45" s="3">
-        <v>2326100</v>
+        <v>2172700</v>
       </c>
       <c r="F45" s="3">
-        <v>1200900</v>
+        <v>1121700</v>
       </c>
       <c r="G45" s="3">
-        <v>1193400</v>
+        <v>1114800</v>
       </c>
       <c r="H45" s="3">
-        <v>1067000</v>
+        <v>996700</v>
       </c>
       <c r="I45" s="3">
-        <v>4208400</v>
+        <v>3931000</v>
       </c>
       <c r="J45" s="3">
+        <v>865400</v>
+      </c>
+      <c r="K45" s="3">
         <v>926400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>431900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>303600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>49900</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47276200</v>
+        <v>44159700</v>
       </c>
       <c r="E46" s="3">
-        <v>37042200</v>
+        <v>34600300</v>
       </c>
       <c r="F46" s="3">
-        <v>21943600</v>
+        <v>20497000</v>
       </c>
       <c r="G46" s="3">
-        <v>16542000</v>
+        <v>15451500</v>
       </c>
       <c r="H46" s="3">
-        <v>18146900</v>
+        <v>16950600</v>
       </c>
       <c r="I46" s="3">
-        <v>16869600</v>
+        <v>15757500</v>
       </c>
       <c r="J46" s="3">
+        <v>8615900</v>
+      </c>
+      <c r="K46" s="3">
         <v>9223900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3434500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2249700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1437200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12985300</v>
+        <v>12129200</v>
       </c>
       <c r="E47" s="3">
-        <v>15395200</v>
+        <v>14380300</v>
       </c>
       <c r="F47" s="3">
-        <v>8991200</v>
+        <v>8398500</v>
       </c>
       <c r="G47" s="3">
-        <v>7455500</v>
+        <v>6964000</v>
       </c>
       <c r="H47" s="3">
-        <v>4508600</v>
+        <v>4211400</v>
       </c>
       <c r="I47" s="3">
-        <v>5886800</v>
+        <v>5498700</v>
       </c>
       <c r="J47" s="3">
+        <v>1432200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1533300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9268200</v>
+        <v>8657100</v>
       </c>
       <c r="E48" s="3">
-        <v>7254900</v>
+        <v>6776700</v>
       </c>
       <c r="F48" s="3">
-        <v>5538000</v>
+        <v>5172900</v>
       </c>
       <c r="G48" s="3">
-        <v>4359900</v>
+        <v>4072500</v>
       </c>
       <c r="H48" s="3">
-        <v>2488000</v>
+        <v>2324000</v>
       </c>
       <c r="I48" s="3">
-        <v>2530300</v>
+        <v>2363500</v>
       </c>
       <c r="J48" s="3">
+        <v>1105200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1183200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>345600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>143700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5142600</v>
+        <v>4803600</v>
       </c>
       <c r="E49" s="3">
-        <v>4494900</v>
+        <v>4198600</v>
       </c>
       <c r="F49" s="3">
-        <v>3414800</v>
+        <v>3189700</v>
       </c>
       <c r="G49" s="3">
-        <v>3491400</v>
+        <v>3261200</v>
       </c>
       <c r="H49" s="3">
-        <v>3217400</v>
+        <v>3005300</v>
       </c>
       <c r="I49" s="3">
-        <v>4458400</v>
+        <v>4164500</v>
       </c>
       <c r="J49" s="3">
+        <v>1041000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1114500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>126700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>110800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2094,9 +2207,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2130,45 +2246,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3656600</v>
+        <v>3415700</v>
       </c>
       <c r="E52" s="3">
-        <v>2432800</v>
+        <v>2272400</v>
       </c>
       <c r="F52" s="3">
-        <v>1086500</v>
+        <v>1014800</v>
       </c>
       <c r="G52" s="3">
-        <v>1149000</v>
+        <v>1073300</v>
       </c>
       <c r="H52" s="3">
-        <v>675600</v>
+        <v>631100</v>
       </c>
       <c r="I52" s="3">
-        <v>1806700</v>
+        <v>1687600</v>
       </c>
       <c r="J52" s="3">
+        <v>310400</v>
+      </c>
+      <c r="K52" s="3">
         <v>332300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>40200</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2202,45 +2324,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78328900</v>
+        <v>73165300</v>
       </c>
       <c r="E54" s="3">
-        <v>66620100</v>
+        <v>62228300</v>
       </c>
       <c r="F54" s="3">
-        <v>40974000</v>
+        <v>38272900</v>
       </c>
       <c r="G54" s="3">
-        <v>32997800</v>
+        <v>30822500</v>
       </c>
       <c r="H54" s="3">
-        <v>29036500</v>
+        <v>27122300</v>
       </c>
       <c r="I54" s="3">
-        <v>25300500</v>
+        <v>23632600</v>
       </c>
       <c r="J54" s="3">
+        <v>12527800</v>
+      </c>
+      <c r="K54" s="3">
         <v>13412000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3973800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2566300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1538500</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2255,8 +2383,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2271,214 +2400,230 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22244700</v>
+        <v>20778200</v>
       </c>
       <c r="E57" s="3">
-        <v>16944000</v>
+        <v>15827000</v>
       </c>
       <c r="F57" s="3">
-        <v>14316100</v>
+        <v>13372400</v>
       </c>
       <c r="G57" s="3">
-        <v>12652500</v>
+        <v>11818400</v>
       </c>
       <c r="H57" s="3">
-        <v>11736100</v>
+        <v>10962400</v>
       </c>
       <c r="I57" s="3">
-        <v>7287100</v>
+        <v>6806700</v>
       </c>
       <c r="J57" s="3">
+        <v>4409600</v>
+      </c>
+      <c r="K57" s="3">
         <v>4720800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1683500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1162400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>528800</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>689000</v>
+        <v>643700</v>
       </c>
       <c r="E58" s="3">
-        <v>514300</v>
+        <v>480400</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>717000</v>
+        <v>669700</v>
       </c>
       <c r="H58" s="3">
-        <v>2032700</v>
+        <v>1898700</v>
       </c>
       <c r="I58" s="3">
-        <v>1752600</v>
+        <v>1637100</v>
       </c>
       <c r="J58" s="3">
+        <v>533500</v>
+      </c>
+      <c r="K58" s="3">
         <v>571100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>142500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>124500</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12031500</v>
+        <v>11238400</v>
       </c>
       <c r="E59" s="3">
-        <v>9994600</v>
+        <v>9335700</v>
       </c>
       <c r="F59" s="3">
-        <v>7772900</v>
+        <v>7260500</v>
       </c>
       <c r="G59" s="3">
-        <v>5697700</v>
+        <v>5322100</v>
       </c>
       <c r="H59" s="3">
-        <v>4886400</v>
+        <v>4564300</v>
       </c>
       <c r="I59" s="3">
-        <v>12127300</v>
+        <v>11327800</v>
       </c>
       <c r="J59" s="3">
+        <v>2275300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2435800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>736100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>360800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>146700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34965200</v>
+        <v>32660300</v>
       </c>
       <c r="E60" s="3">
-        <v>27452900</v>
+        <v>25643100</v>
       </c>
       <c r="F60" s="3">
-        <v>22089100</v>
+        <v>20632900</v>
       </c>
       <c r="G60" s="3">
-        <v>19067200</v>
+        <v>17810200</v>
       </c>
       <c r="H60" s="3">
-        <v>18655200</v>
+        <v>17425400</v>
       </c>
       <c r="I60" s="3">
-        <v>16523800</v>
+        <v>15434500</v>
       </c>
       <c r="J60" s="3">
+        <v>7218100</v>
+      </c>
+      <c r="K60" s="3">
         <v>7727600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2562100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1647700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>675500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1480700</v>
+        <v>1383100</v>
       </c>
       <c r="E61" s="3">
-        <v>1976900</v>
+        <v>1846500</v>
       </c>
       <c r="F61" s="3">
-        <v>1585800</v>
+        <v>1481200</v>
       </c>
       <c r="G61" s="3">
-        <v>1557800</v>
+        <v>1455100</v>
       </c>
       <c r="H61" s="3">
-        <v>1723100</v>
+        <v>1609600</v>
       </c>
       <c r="I61" s="3">
-        <v>1443400</v>
+        <v>1348300</v>
       </c>
       <c r="J61" s="3">
+        <v>405800</v>
+      </c>
+      <c r="K61" s="3">
         <v>434400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2950300</v>
+        <v>2755800</v>
       </c>
       <c r="E62" s="3">
-        <v>2227800</v>
+        <v>2080900</v>
       </c>
       <c r="F62" s="3">
-        <v>1424700</v>
+        <v>1330800</v>
       </c>
       <c r="G62" s="3">
-        <v>252400</v>
+        <v>235800</v>
       </c>
       <c r="H62" s="3">
-        <v>393300</v>
+        <v>367400</v>
       </c>
       <c r="I62" s="3">
-        <v>544700</v>
+        <v>508800</v>
       </c>
       <c r="J62" s="3">
+        <v>376900</v>
+      </c>
+      <c r="K62" s="3">
         <v>403500</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
@@ -2486,9 +2631,12 @@
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2522,9 +2670,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2558,9 +2709,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2594,45 +2748,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45371000</v>
+        <v>42380100</v>
       </c>
       <c r="E66" s="3">
-        <v>37033300</v>
+        <v>34591900</v>
       </c>
       <c r="F66" s="3">
-        <v>28060400</v>
+        <v>26210600</v>
       </c>
       <c r="G66" s="3">
-        <v>23568400</v>
+        <v>22014700</v>
       </c>
       <c r="H66" s="3">
-        <v>20826600</v>
+        <v>19453600</v>
       </c>
       <c r="I66" s="3">
-        <v>19953600</v>
+        <v>18638200</v>
       </c>
       <c r="J66" s="3">
+        <v>8021100</v>
+      </c>
+      <c r="K66" s="3">
         <v>8587200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2562100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1647700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>675500</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2647,8 +2807,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2682,9 +2843,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2718,9 +2882,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2746,17 +2913,20 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>1148500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>734600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>513800</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2790,45 +2960,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
+      <c r="D72" s="3">
+        <v>5215200</v>
       </c>
       <c r="E72" s="3">
-        <v>6145000</v>
+        <v>5739900</v>
       </c>
       <c r="F72" s="3">
-        <v>-1649100</v>
+        <v>-1540400</v>
       </c>
       <c r="G72" s="3">
-        <v>-3571300</v>
+        <v>-3335900</v>
       </c>
       <c r="H72" s="3">
-        <v>-3407400</v>
+        <v>-3182800</v>
       </c>
       <c r="I72" s="3">
-        <v>-3427700</v>
+        <v>-3201800</v>
       </c>
       <c r="J72" s="3">
+        <v>-2706300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2897300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-651000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-604200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-360900</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,9 +3038,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2898,9 +3077,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2934,45 +3116,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32957900</v>
+        <v>30785100</v>
       </c>
       <c r="E76" s="3">
-        <v>29586800</v>
+        <v>27636400</v>
       </c>
       <c r="F76" s="3">
-        <v>12913600</v>
+        <v>12062300</v>
       </c>
       <c r="G76" s="3">
-        <v>9429500</v>
+        <v>8807900</v>
       </c>
       <c r="H76" s="3">
-        <v>8210000</v>
+        <v>7668700</v>
       </c>
       <c r="I76" s="3">
-        <v>5346900</v>
+        <v>4994500</v>
       </c>
       <c r="J76" s="3">
+        <v>4506700</v>
+      </c>
+      <c r="K76" s="3">
         <v>4824800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>263200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>184000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>349200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3006,86 +3194,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7794200</v>
+        <v>-524600</v>
       </c>
       <c r="E81" s="3">
-        <v>1922200</v>
+        <v>7280400</v>
       </c>
       <c r="F81" s="3">
-        <v>-393100</v>
+        <v>1795500</v>
       </c>
       <c r="G81" s="3">
-        <v>-24000</v>
+        <v>-367200</v>
       </c>
       <c r="H81" s="3">
-        <v>-600600</v>
+        <v>-22400</v>
       </c>
       <c r="I81" s="3">
-        <v>-1436900</v>
+        <v>-561000</v>
       </c>
       <c r="J81" s="3">
+        <v>-1342100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2043600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-379700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-475900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-428200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3100,44 +3297,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>957200</v>
+        <v>918300</v>
       </c>
       <c r="E83" s="3">
-        <v>919400</v>
+        <v>894100</v>
       </c>
       <c r="F83" s="3">
-        <v>877200</v>
+        <v>858800</v>
       </c>
       <c r="G83" s="3">
-        <v>661400</v>
+        <v>819300</v>
       </c>
       <c r="H83" s="3">
-        <v>539600</v>
+        <v>617800</v>
       </c>
       <c r="I83" s="3">
-        <v>395600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>10</v>
+        <v>504000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>369500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M83" s="3">
         <v>26600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3171,9 +3372,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3207,9 +3411,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3243,9 +3450,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3279,9 +3489,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3315,45 +3528,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6711800</v>
+        <v>6233500</v>
       </c>
       <c r="E89" s="3">
-        <v>3909500</v>
+        <v>6269300</v>
       </c>
       <c r="F89" s="3">
-        <v>3294300</v>
+        <v>3651800</v>
       </c>
       <c r="G89" s="3">
-        <v>4236900</v>
+        <v>3077100</v>
       </c>
       <c r="H89" s="3">
-        <v>1300000</v>
+        <v>3957600</v>
       </c>
       <c r="I89" s="3">
-        <v>267600</v>
+        <v>1214300</v>
       </c>
       <c r="J89" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K89" s="3">
         <v>203500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>545400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>201400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3368,44 +3587,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-531700</v>
+        <v>-819600</v>
       </c>
       <c r="E91" s="3">
-        <v>-409700</v>
+        <v>-496600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1537100</v>
+        <v>-382700</v>
       </c>
       <c r="G91" s="3">
-        <v>-519700</v>
+        <v>-1435800</v>
       </c>
       <c r="H91" s="3">
-        <v>-337700</v>
+        <v>-485400</v>
       </c>
       <c r="I91" s="3">
-        <v>-402400</v>
+        <v>-315500</v>
       </c>
       <c r="J91" s="3">
+        <v>-375900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-224700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-67200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-85700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-90700</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3439,9 +3662,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3475,45 +3701,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9120200</v>
+        <v>-10941200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3999100</v>
+        <v>-8519000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4114200</v>
+        <v>-3735500</v>
       </c>
       <c r="G94" s="3">
-        <v>-6281300</v>
+        <v>-3843000</v>
       </c>
       <c r="H94" s="3">
-        <v>-7175200</v>
+        <v>-5867200</v>
       </c>
       <c r="I94" s="3">
-        <v>-913500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
+        <v>-6702100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-853300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M94" s="3">
         <v>-483400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-90800</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3528,8 +3760,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3563,9 +3796,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3599,9 +3835,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3635,9 +3874,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3671,115 +3913,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11212300</v>
+        <v>2874000</v>
       </c>
       <c r="E100" s="3">
-        <v>405800</v>
+        <v>10473100</v>
       </c>
       <c r="F100" s="3">
-        <v>1770100</v>
+        <v>379100</v>
       </c>
       <c r="G100" s="3">
-        <v>3034500</v>
+        <v>1653400</v>
       </c>
       <c r="H100" s="3">
-        <v>6420700</v>
+        <v>2834500</v>
       </c>
       <c r="I100" s="3">
-        <v>741500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
+        <v>5997500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>692600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" s="3">
         <v>409400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>907000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-801800</v>
+        <v>-220700</v>
       </c>
       <c r="E101" s="3">
-        <v>64000</v>
+        <v>-748900</v>
       </c>
       <c r="F101" s="3">
-        <v>265200</v>
+        <v>59800</v>
       </c>
       <c r="G101" s="3">
-        <v>-101200</v>
+        <v>247700</v>
       </c>
       <c r="H101" s="3">
-        <v>114600</v>
+        <v>-94500</v>
       </c>
       <c r="I101" s="3">
-        <v>54100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>10</v>
+        <v>107100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>50600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-15600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8002100</v>
+        <v>-2054500</v>
       </c>
       <c r="E102" s="3">
-        <v>380200</v>
+        <v>7474500</v>
       </c>
       <c r="F102" s="3">
-        <v>1215300</v>
+        <v>355200</v>
       </c>
       <c r="G102" s="3">
-        <v>889000</v>
+        <v>1135200</v>
       </c>
       <c r="H102" s="3">
-        <v>660200</v>
+        <v>830400</v>
       </c>
       <c r="I102" s="3">
-        <v>149700</v>
+        <v>616700</v>
       </c>
       <c r="J102" s="3">
+        <v>139900</v>
+      </c>
+      <c r="K102" s="3">
         <v>962700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>555400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>127500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>788100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>140226600</v>
+        <v>138961000</v>
       </c>
       <c r="E8" s="3">
-        <v>109901400</v>
+        <v>108909400</v>
       </c>
       <c r="F8" s="3">
-        <v>85010300</v>
+        <v>84243000</v>
       </c>
       <c r="G8" s="3">
-        <v>68083200</v>
+        <v>67468700</v>
       </c>
       <c r="H8" s="3">
-        <v>53393200</v>
+        <v>52911300</v>
       </c>
       <c r="I8" s="3">
-        <v>38061600</v>
+        <v>37718100</v>
       </c>
       <c r="J8" s="3">
-        <v>26678400</v>
+        <v>26437600</v>
       </c>
       <c r="K8" s="3">
         <v>18142800</v>
@@ -765,25 +765,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>121207400</v>
+        <v>120113500</v>
       </c>
       <c r="E9" s="3">
-        <v>93823200</v>
+        <v>92976400</v>
       </c>
       <c r="F9" s="3">
-        <v>72570000</v>
+        <v>71915000</v>
       </c>
       <c r="G9" s="3">
-        <v>58364300</v>
+        <v>57837500</v>
       </c>
       <c r="H9" s="3">
-        <v>45905100</v>
+        <v>45490800</v>
       </c>
       <c r="I9" s="3">
-        <v>65373800</v>
+        <v>64783800</v>
       </c>
       <c r="J9" s="3">
-        <v>46561200</v>
+        <v>46140900</v>
       </c>
       <c r="K9" s="3">
         <v>16033400</v>
@@ -804,25 +804,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19019200</v>
+        <v>18847500</v>
       </c>
       <c r="E10" s="3">
-        <v>16078200</v>
+        <v>15933100</v>
       </c>
       <c r="F10" s="3">
-        <v>12440300</v>
+        <v>12328000</v>
       </c>
       <c r="G10" s="3">
-        <v>9718900</v>
+        <v>9631200</v>
       </c>
       <c r="H10" s="3">
-        <v>7488100</v>
+        <v>7420500</v>
       </c>
       <c r="I10" s="3">
-        <v>-27312200</v>
+        <v>-27065700</v>
       </c>
       <c r="J10" s="3">
-        <v>-19882800</v>
+        <v>-19703300</v>
       </c>
       <c r="K10" s="3">
         <v>2109400</v>
@@ -860,25 +860,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2391400</v>
+        <v>2369800</v>
       </c>
       <c r="E12" s="3">
-        <v>2365100</v>
+        <v>2343800</v>
       </c>
       <c r="F12" s="3">
-        <v>2139600</v>
+        <v>2120300</v>
       </c>
       <c r="G12" s="3">
-        <v>1775200</v>
+        <v>1759100</v>
       </c>
       <c r="H12" s="3">
-        <v>967900</v>
+        <v>959200</v>
       </c>
       <c r="I12" s="3">
-        <v>649400</v>
+        <v>643500</v>
       </c>
       <c r="J12" s="3">
-        <v>424100</v>
+        <v>420300</v>
       </c>
       <c r="K12" s="3">
         <v>289600</v>
@@ -938,16 +938,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-49100</v>
+        <v>-48600</v>
       </c>
       <c r="E14" s="3">
-        <v>-253400</v>
+        <v>-251200</v>
       </c>
       <c r="F14" s="3">
-        <v>-461200</v>
+        <v>-457100</v>
       </c>
       <c r="G14" s="3">
-        <v>-103900</v>
+        <v>-102900</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>405300</v>
+        <v>401600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -977,25 +977,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>219100</v>
+        <v>217100</v>
       </c>
       <c r="E15" s="3">
-        <v>190500</v>
+        <v>188800</v>
       </c>
       <c r="F15" s="3">
-        <v>178200</v>
+        <v>176600</v>
       </c>
       <c r="G15" s="3">
-        <v>266100</v>
+        <v>263700</v>
       </c>
       <c r="H15" s="3">
-        <v>262000</v>
+        <v>259600</v>
       </c>
       <c r="I15" s="3">
-        <v>237100</v>
+        <v>235000</v>
       </c>
       <c r="J15" s="3">
-        <v>212100</v>
+        <v>210100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -1030,25 +1030,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>139680300</v>
+        <v>138419600</v>
       </c>
       <c r="E17" s="3">
-        <v>108072000</v>
+        <v>107096600</v>
       </c>
       <c r="F17" s="3">
-        <v>83796000</v>
+        <v>83039700</v>
       </c>
       <c r="G17" s="3">
-        <v>68362000</v>
+        <v>67745000</v>
       </c>
       <c r="H17" s="3">
-        <v>53516300</v>
+        <v>53033300</v>
       </c>
       <c r="I17" s="3">
-        <v>38246100</v>
+        <v>37900900</v>
       </c>
       <c r="J17" s="3">
-        <v>27467900</v>
+        <v>27220000</v>
       </c>
       <c r="K17" s="3">
         <v>19058200</v>
@@ -1069,25 +1069,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>546300</v>
+        <v>541300</v>
       </c>
       <c r="E18" s="3">
-        <v>1829300</v>
+        <v>1812800</v>
       </c>
       <c r="F18" s="3">
-        <v>1214300</v>
+        <v>1203300</v>
       </c>
       <c r="G18" s="3">
-        <v>-278800</v>
+        <v>-276300</v>
       </c>
       <c r="H18" s="3">
-        <v>-123100</v>
+        <v>-122000</v>
       </c>
       <c r="I18" s="3">
-        <v>-184400</v>
+        <v>-182800</v>
       </c>
       <c r="J18" s="3">
-        <v>-789500</v>
+        <v>-782400</v>
       </c>
       <c r="K18" s="3">
         <v>-915400</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-747700</v>
+        <v>-741000</v>
       </c>
       <c r="E20" s="3">
-        <v>5825200</v>
+        <v>5772600</v>
       </c>
       <c r="F20" s="3">
-        <v>910300</v>
+        <v>902100</v>
       </c>
       <c r="G20" s="3">
-        <v>54900</v>
+        <v>54400</v>
       </c>
       <c r="H20" s="3">
-        <v>283000</v>
+        <v>280400</v>
       </c>
       <c r="I20" s="3">
         <v>-1700</v>
       </c>
       <c r="J20" s="3">
-        <v>-342700</v>
+        <v>-339600</v>
       </c>
       <c r="K20" s="3">
         <v>134800</v>
@@ -1164,25 +1164,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>726100</v>
+        <v>709100</v>
       </c>
       <c r="E21" s="3">
-        <v>8557600</v>
+        <v>8470100</v>
       </c>
       <c r="F21" s="3">
-        <v>2992000</v>
+        <v>2955200</v>
       </c>
       <c r="G21" s="3">
-        <v>603700</v>
+        <v>588900</v>
       </c>
       <c r="H21" s="3">
-        <v>783900</v>
+        <v>769700</v>
       </c>
       <c r="I21" s="3">
-        <v>322900</v>
+        <v>314200</v>
       </c>
       <c r="J21" s="3">
-        <v>-759000</v>
+        <v>-756400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1203,25 +1203,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>178700</v>
+        <v>177100</v>
       </c>
       <c r="E22" s="3">
-        <v>165800</v>
+        <v>164300</v>
       </c>
       <c r="F22" s="3">
-        <v>106800</v>
+        <v>105900</v>
       </c>
       <c r="G22" s="3">
-        <v>125900</v>
+        <v>124800</v>
       </c>
       <c r="H22" s="3">
-        <v>142000</v>
+        <v>140700</v>
       </c>
       <c r="I22" s="3">
-        <v>91200</v>
+        <v>90300</v>
       </c>
       <c r="J22" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="K22" s="3">
         <v>4500</v>
@@ -1242,25 +1242,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-380200</v>
+        <v>-376800</v>
       </c>
       <c r="E23" s="3">
-        <v>7488700</v>
+        <v>7421100</v>
       </c>
       <c r="F23" s="3">
-        <v>2017700</v>
+        <v>1999500</v>
       </c>
       <c r="G23" s="3">
-        <v>-349800</v>
+        <v>-346600</v>
       </c>
       <c r="H23" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="I23" s="3">
-        <v>-277300</v>
+        <v>-274800</v>
       </c>
       <c r="J23" s="3">
-        <v>-1142900</v>
+        <v>-1132600</v>
       </c>
       <c r="K23" s="3">
         <v>-785200</v>
@@ -1281,25 +1281,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>278100</v>
+        <v>275600</v>
       </c>
       <c r="E24" s="3">
-        <v>218300</v>
+        <v>216400</v>
       </c>
       <c r="F24" s="3">
-        <v>265600</v>
+        <v>263200</v>
       </c>
       <c r="G24" s="3">
-        <v>62900</v>
+        <v>62300</v>
       </c>
       <c r="H24" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="I24" s="3">
-        <v>24500</v>
+        <v>24300</v>
       </c>
       <c r="J24" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="K24" s="3">
         <v>3000</v>
@@ -1359,25 +1359,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-658300</v>
+        <v>-652300</v>
       </c>
       <c r="E26" s="3">
-        <v>7270300</v>
+        <v>7204700</v>
       </c>
       <c r="F26" s="3">
-        <v>1752100</v>
+        <v>1736300</v>
       </c>
       <c r="G26" s="3">
-        <v>-412700</v>
+        <v>-409000</v>
       </c>
       <c r="H26" s="3">
         <v>-2700</v>
       </c>
       <c r="I26" s="3">
-        <v>-301800</v>
+        <v>-299100</v>
       </c>
       <c r="J26" s="3">
-        <v>-1140800</v>
+        <v>-1130500</v>
       </c>
       <c r="K26" s="3">
         <v>-788200</v>
@@ -1398,25 +1398,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-524600</v>
+        <v>-519900</v>
       </c>
       <c r="E27" s="3">
-        <v>7280400</v>
+        <v>7214600</v>
       </c>
       <c r="F27" s="3">
-        <v>1795500</v>
+        <v>1779300</v>
       </c>
       <c r="G27" s="3">
-        <v>-367200</v>
+        <v>-363900</v>
       </c>
       <c r="H27" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="I27" s="3">
-        <v>-294800</v>
+        <v>-292100</v>
       </c>
       <c r="J27" s="3">
-        <v>-1139400</v>
+        <v>-1129100</v>
       </c>
       <c r="K27" s="3">
         <v>-2043600</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-39700</v>
+        <v>-39300</v>
       </c>
       <c r="I29" s="3">
-        <v>-266200</v>
+        <v>-263800</v>
       </c>
       <c r="J29" s="3">
-        <v>-202800</v>
+        <v>-201000</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1593,25 +1593,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>747700</v>
+        <v>741000</v>
       </c>
       <c r="E32" s="3">
-        <v>-5825200</v>
+        <v>-5772600</v>
       </c>
       <c r="F32" s="3">
-        <v>-910300</v>
+        <v>-902100</v>
       </c>
       <c r="G32" s="3">
-        <v>-54900</v>
+        <v>-54400</v>
       </c>
       <c r="H32" s="3">
-        <v>-283000</v>
+        <v>-280400</v>
       </c>
       <c r="I32" s="3">
         <v>1700</v>
       </c>
       <c r="J32" s="3">
-        <v>342700</v>
+        <v>339600</v>
       </c>
       <c r="K32" s="3">
         <v>-134800</v>
@@ -1632,25 +1632,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-524600</v>
+        <v>-519900</v>
       </c>
       <c r="E33" s="3">
-        <v>7280400</v>
+        <v>7214600</v>
       </c>
       <c r="F33" s="3">
-        <v>1795500</v>
+        <v>1779300</v>
       </c>
       <c r="G33" s="3">
-        <v>-367200</v>
+        <v>-363900</v>
       </c>
       <c r="H33" s="3">
-        <v>-22400</v>
+        <v>-22200</v>
       </c>
       <c r="I33" s="3">
-        <v>-561000</v>
+        <v>-555900</v>
       </c>
       <c r="J33" s="3">
-        <v>-1342100</v>
+        <v>-1330000</v>
       </c>
       <c r="K33" s="3">
         <v>-2043600</v>
@@ -1710,25 +1710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-524600</v>
+        <v>-519900</v>
       </c>
       <c r="E35" s="3">
-        <v>7280400</v>
+        <v>7214600</v>
       </c>
       <c r="F35" s="3">
-        <v>1795500</v>
+        <v>1779300</v>
       </c>
       <c r="G35" s="3">
-        <v>-367200</v>
+        <v>-363900</v>
       </c>
       <c r="H35" s="3">
-        <v>-22400</v>
+        <v>-22200</v>
       </c>
       <c r="I35" s="3">
-        <v>-561000</v>
+        <v>-555900</v>
       </c>
       <c r="J35" s="3">
-        <v>-1342100</v>
+        <v>-1330000</v>
       </c>
       <c r="K35" s="3">
         <v>-2043600</v>
@@ -1827,25 +1827,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10428200</v>
+        <v>10334100</v>
       </c>
       <c r="E41" s="3">
-        <v>12685500</v>
+        <v>12571000</v>
       </c>
       <c r="F41" s="3">
-        <v>5448100</v>
+        <v>5398900</v>
       </c>
       <c r="G41" s="3">
-        <v>5048900</v>
+        <v>5003300</v>
       </c>
       <c r="H41" s="3">
-        <v>3785400</v>
+        <v>3751300</v>
       </c>
       <c r="I41" s="3">
-        <v>2294000</v>
+        <v>2273300</v>
       </c>
       <c r="J41" s="3">
-        <v>2632400</v>
+        <v>2608700</v>
       </c>
       <c r="K41" s="3">
         <v>2818200</v>
@@ -1866,25 +1866,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16882200</v>
+        <v>16729800</v>
       </c>
       <c r="E42" s="3">
-        <v>8926600</v>
+        <v>8846100</v>
       </c>
       <c r="F42" s="3">
-        <v>3625500</v>
+        <v>3592700</v>
       </c>
       <c r="G42" s="3">
-        <v>300000</v>
+        <v>297300</v>
       </c>
       <c r="H42" s="3">
-        <v>1265500</v>
+        <v>1254100</v>
       </c>
       <c r="I42" s="3">
-        <v>2658100</v>
+        <v>2634100</v>
       </c>
       <c r="J42" s="3">
-        <v>429600</v>
+        <v>425800</v>
       </c>
       <c r="K42" s="3">
         <v>460000</v>
@@ -1905,25 +1905,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2564100</v>
+        <v>2540900</v>
       </c>
       <c r="E43" s="3">
-        <v>2131200</v>
+        <v>2112000</v>
       </c>
       <c r="F43" s="3">
-        <v>1764800</v>
+        <v>1748900</v>
       </c>
       <c r="G43" s="3">
-        <v>2499600</v>
+        <v>2477100</v>
       </c>
       <c r="H43" s="3">
-        <v>4758000</v>
+        <v>4715100</v>
       </c>
       <c r="I43" s="3">
-        <v>6686100</v>
+        <v>6625800</v>
       </c>
       <c r="J43" s="3">
-        <v>1880700</v>
+        <v>1863800</v>
       </c>
       <c r="K43" s="3">
         <v>2013500</v>
@@ -1944,25 +1944,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11140600</v>
+        <v>11040000</v>
       </c>
       <c r="E44" s="3">
-        <v>8684300</v>
+        <v>8605900</v>
       </c>
       <c r="F44" s="3">
-        <v>8536900</v>
+        <v>8459800</v>
       </c>
       <c r="G44" s="3">
-        <v>6488300</v>
+        <v>6429700</v>
       </c>
       <c r="H44" s="3">
-        <v>6145000</v>
+        <v>6089500</v>
       </c>
       <c r="I44" s="3">
-        <v>8520200</v>
+        <v>8443300</v>
       </c>
       <c r="J44" s="3">
-        <v>3026700</v>
+        <v>2999400</v>
       </c>
       <c r="K44" s="3">
         <v>3240300</v>
@@ -1983,25 +1983,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3144700</v>
+        <v>3116300</v>
       </c>
       <c r="E45" s="3">
-        <v>2172700</v>
+        <v>2153100</v>
       </c>
       <c r="F45" s="3">
-        <v>1121700</v>
+        <v>1111600</v>
       </c>
       <c r="G45" s="3">
-        <v>1114800</v>
+        <v>1104700</v>
       </c>
       <c r="H45" s="3">
-        <v>996700</v>
+        <v>987700</v>
       </c>
       <c r="I45" s="3">
-        <v>3931000</v>
+        <v>3895500</v>
       </c>
       <c r="J45" s="3">
-        <v>865400</v>
+        <v>857600</v>
       </c>
       <c r="K45" s="3">
         <v>926400</v>
@@ -2022,25 +2022,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44159700</v>
+        <v>43761100</v>
       </c>
       <c r="E46" s="3">
-        <v>34600300</v>
+        <v>34288000</v>
       </c>
       <c r="F46" s="3">
-        <v>20497000</v>
+        <v>20312000</v>
       </c>
       <c r="G46" s="3">
-        <v>15451500</v>
+        <v>15312100</v>
       </c>
       <c r="H46" s="3">
-        <v>16950600</v>
+        <v>16797600</v>
       </c>
       <c r="I46" s="3">
-        <v>15757500</v>
+        <v>15615300</v>
       </c>
       <c r="J46" s="3">
-        <v>8615900</v>
+        <v>8538100</v>
       </c>
       <c r="K46" s="3">
         <v>9223900</v>
@@ -2061,25 +2061,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12129200</v>
+        <v>12019700</v>
       </c>
       <c r="E47" s="3">
-        <v>14380300</v>
+        <v>14250600</v>
       </c>
       <c r="F47" s="3">
-        <v>8398500</v>
+        <v>8322700</v>
       </c>
       <c r="G47" s="3">
-        <v>6964000</v>
+        <v>6901100</v>
       </c>
       <c r="H47" s="3">
-        <v>4211400</v>
+        <v>4173400</v>
       </c>
       <c r="I47" s="3">
-        <v>5498700</v>
+        <v>5449100</v>
       </c>
       <c r="J47" s="3">
-        <v>1432200</v>
+        <v>1419300</v>
       </c>
       <c r="K47" s="3">
         <v>1533300</v>
@@ -2100,25 +2100,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8657100</v>
+        <v>8579000</v>
       </c>
       <c r="E48" s="3">
-        <v>6776700</v>
+        <v>6715500</v>
       </c>
       <c r="F48" s="3">
-        <v>5172900</v>
+        <v>5126200</v>
       </c>
       <c r="G48" s="3">
-        <v>4072500</v>
+        <v>4035800</v>
       </c>
       <c r="H48" s="3">
-        <v>2324000</v>
+        <v>2303000</v>
       </c>
       <c r="I48" s="3">
-        <v>2363500</v>
+        <v>2342200</v>
       </c>
       <c r="J48" s="3">
-        <v>1105200</v>
+        <v>1095200</v>
       </c>
       <c r="K48" s="3">
         <v>1183200</v>
@@ -2139,25 +2139,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4803600</v>
+        <v>4760300</v>
       </c>
       <c r="E49" s="3">
-        <v>4198600</v>
+        <v>4160700</v>
       </c>
       <c r="F49" s="3">
-        <v>3189700</v>
+        <v>3160900</v>
       </c>
       <c r="G49" s="3">
-        <v>3261200</v>
+        <v>3231800</v>
       </c>
       <c r="H49" s="3">
-        <v>3005300</v>
+        <v>2978100</v>
       </c>
       <c r="I49" s="3">
-        <v>4164500</v>
+        <v>4126900</v>
       </c>
       <c r="J49" s="3">
-        <v>1041000</v>
+        <v>1031600</v>
       </c>
       <c r="K49" s="3">
         <v>1114500</v>
@@ -2256,25 +2256,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3415700</v>
+        <v>3384800</v>
       </c>
       <c r="E52" s="3">
-        <v>2272400</v>
+        <v>2251900</v>
       </c>
       <c r="F52" s="3">
-        <v>1014800</v>
+        <v>1005700</v>
       </c>
       <c r="G52" s="3">
-        <v>1073300</v>
+        <v>1063600</v>
       </c>
       <c r="H52" s="3">
-        <v>631100</v>
+        <v>625400</v>
       </c>
       <c r="I52" s="3">
-        <v>1687600</v>
+        <v>1672400</v>
       </c>
       <c r="J52" s="3">
-        <v>310400</v>
+        <v>307600</v>
       </c>
       <c r="K52" s="3">
         <v>332300</v>
@@ -2334,25 +2334,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73165300</v>
+        <v>72504900</v>
       </c>
       <c r="E54" s="3">
-        <v>62228300</v>
+        <v>61666700</v>
       </c>
       <c r="F54" s="3">
-        <v>38272900</v>
+        <v>37927500</v>
       </c>
       <c r="G54" s="3">
-        <v>30822500</v>
+        <v>30544300</v>
       </c>
       <c r="H54" s="3">
-        <v>27122300</v>
+        <v>26877500</v>
       </c>
       <c r="I54" s="3">
-        <v>23632600</v>
+        <v>23419300</v>
       </c>
       <c r="J54" s="3">
-        <v>12527800</v>
+        <v>12414800</v>
       </c>
       <c r="K54" s="3">
         <v>13412000</v>
@@ -2407,25 +2407,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20778200</v>
+        <v>20590700</v>
       </c>
       <c r="E57" s="3">
-        <v>15827000</v>
+        <v>15684200</v>
       </c>
       <c r="F57" s="3">
-        <v>13372400</v>
+        <v>13251700</v>
       </c>
       <c r="G57" s="3">
-        <v>11818400</v>
+        <v>11711700</v>
       </c>
       <c r="H57" s="3">
-        <v>10962400</v>
+        <v>10863500</v>
       </c>
       <c r="I57" s="3">
-        <v>6806700</v>
+        <v>6745200</v>
       </c>
       <c r="J57" s="3">
-        <v>4409600</v>
+        <v>4369800</v>
       </c>
       <c r="K57" s="3">
         <v>4720800</v>
@@ -2446,25 +2446,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>643700</v>
+        <v>637900</v>
       </c>
       <c r="E58" s="3">
-        <v>480400</v>
+        <v>476000</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>669700</v>
+        <v>663700</v>
       </c>
       <c r="H58" s="3">
-        <v>1898700</v>
+        <v>1881600</v>
       </c>
       <c r="I58" s="3">
-        <v>1637100</v>
+        <v>1622300</v>
       </c>
       <c r="J58" s="3">
-        <v>533500</v>
+        <v>528600</v>
       </c>
       <c r="K58" s="3">
         <v>571100</v>
@@ -2485,25 +2485,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11238400</v>
+        <v>11137000</v>
       </c>
       <c r="E59" s="3">
-        <v>9335700</v>
+        <v>9251400</v>
       </c>
       <c r="F59" s="3">
-        <v>7260500</v>
+        <v>7195000</v>
       </c>
       <c r="G59" s="3">
-        <v>5322100</v>
+        <v>5274100</v>
       </c>
       <c r="H59" s="3">
-        <v>4564300</v>
+        <v>4523100</v>
       </c>
       <c r="I59" s="3">
-        <v>11327800</v>
+        <v>11225500</v>
       </c>
       <c r="J59" s="3">
-        <v>2275300</v>
+        <v>2254700</v>
       </c>
       <c r="K59" s="3">
         <v>2435800</v>
@@ -2524,25 +2524,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32660300</v>
+        <v>32365500</v>
       </c>
       <c r="E60" s="3">
-        <v>25643100</v>
+        <v>25411700</v>
       </c>
       <c r="F60" s="3">
-        <v>20632900</v>
+        <v>20446700</v>
       </c>
       <c r="G60" s="3">
-        <v>17810200</v>
+        <v>17649500</v>
       </c>
       <c r="H60" s="3">
-        <v>17425400</v>
+        <v>17268100</v>
       </c>
       <c r="I60" s="3">
-        <v>15434500</v>
+        <v>15295200</v>
       </c>
       <c r="J60" s="3">
-        <v>7218100</v>
+        <v>7153000</v>
       </c>
       <c r="K60" s="3">
         <v>7727600</v>
@@ -2563,25 +2563,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1383100</v>
+        <v>1370600</v>
       </c>
       <c r="E61" s="3">
-        <v>1846500</v>
+        <v>1829900</v>
       </c>
       <c r="F61" s="3">
-        <v>1481200</v>
+        <v>1467900</v>
       </c>
       <c r="G61" s="3">
-        <v>1455100</v>
+        <v>1442000</v>
       </c>
       <c r="H61" s="3">
-        <v>1609600</v>
+        <v>1595000</v>
       </c>
       <c r="I61" s="3">
-        <v>1348300</v>
+        <v>1336100</v>
       </c>
       <c r="J61" s="3">
-        <v>405800</v>
+        <v>402100</v>
       </c>
       <c r="K61" s="3">
         <v>434400</v>
@@ -2602,25 +2602,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2755800</v>
+        <v>2730900</v>
       </c>
       <c r="E62" s="3">
-        <v>2080900</v>
+        <v>2062100</v>
       </c>
       <c r="F62" s="3">
-        <v>1330800</v>
+        <v>1318700</v>
       </c>
       <c r="G62" s="3">
-        <v>235800</v>
+        <v>233700</v>
       </c>
       <c r="H62" s="3">
-        <v>367400</v>
+        <v>364100</v>
       </c>
       <c r="I62" s="3">
-        <v>508800</v>
+        <v>504200</v>
       </c>
       <c r="J62" s="3">
-        <v>376900</v>
+        <v>373500</v>
       </c>
       <c r="K62" s="3">
         <v>403500</v>
@@ -2758,25 +2758,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42380100</v>
+        <v>41997600</v>
       </c>
       <c r="E66" s="3">
-        <v>34591900</v>
+        <v>34279700</v>
       </c>
       <c r="F66" s="3">
-        <v>26210600</v>
+        <v>25974000</v>
       </c>
       <c r="G66" s="3">
-        <v>22014700</v>
+        <v>21816000</v>
       </c>
       <c r="H66" s="3">
-        <v>19453600</v>
+        <v>19278000</v>
       </c>
       <c r="I66" s="3">
-        <v>18638200</v>
+        <v>18470000</v>
       </c>
       <c r="J66" s="3">
-        <v>8021100</v>
+        <v>7948700</v>
       </c>
       <c r="K66" s="3">
         <v>8587200</v>
@@ -2970,25 +2970,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5215200</v>
+        <v>5168100</v>
       </c>
       <c r="E72" s="3">
-        <v>5739900</v>
+        <v>5688100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1540400</v>
+        <v>-1526500</v>
       </c>
       <c r="G72" s="3">
-        <v>-3335900</v>
+        <v>-3305800</v>
       </c>
       <c r="H72" s="3">
-        <v>-3182800</v>
+        <v>-3154000</v>
       </c>
       <c r="I72" s="3">
-        <v>-3201800</v>
+        <v>-3172900</v>
       </c>
       <c r="J72" s="3">
-        <v>-2706300</v>
+        <v>-2681900</v>
       </c>
       <c r="K72" s="3">
         <v>-2897300</v>
@@ -3126,25 +3126,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30785100</v>
+        <v>30507300</v>
       </c>
       <c r="E76" s="3">
-        <v>27636400</v>
+        <v>27386900</v>
       </c>
       <c r="F76" s="3">
-        <v>12062300</v>
+        <v>11953400</v>
       </c>
       <c r="G76" s="3">
-        <v>8807900</v>
+        <v>8728400</v>
       </c>
       <c r="H76" s="3">
-        <v>7668700</v>
+        <v>7599500</v>
       </c>
       <c r="I76" s="3">
-        <v>4994500</v>
+        <v>4949400</v>
       </c>
       <c r="J76" s="3">
-        <v>4506700</v>
+        <v>4466000</v>
       </c>
       <c r="K76" s="3">
         <v>4824800</v>
@@ -3248,25 +3248,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-524600</v>
+        <v>-519900</v>
       </c>
       <c r="E81" s="3">
-        <v>7280400</v>
+        <v>7214600</v>
       </c>
       <c r="F81" s="3">
-        <v>1795500</v>
+        <v>1779300</v>
       </c>
       <c r="G81" s="3">
-        <v>-367200</v>
+        <v>-363900</v>
       </c>
       <c r="H81" s="3">
-        <v>-22400</v>
+        <v>-22200</v>
       </c>
       <c r="I81" s="3">
-        <v>-561000</v>
+        <v>-555900</v>
       </c>
       <c r="J81" s="3">
-        <v>-1342100</v>
+        <v>-1330000</v>
       </c>
       <c r="K81" s="3">
         <v>-2043600</v>
@@ -3304,25 +3304,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>918300</v>
+        <v>910100</v>
       </c>
       <c r="E83" s="3">
-        <v>894100</v>
+        <v>886100</v>
       </c>
       <c r="F83" s="3">
-        <v>858800</v>
+        <v>851100</v>
       </c>
       <c r="G83" s="3">
-        <v>819300</v>
+        <v>811900</v>
       </c>
       <c r="H83" s="3">
-        <v>617800</v>
+        <v>612300</v>
       </c>
       <c r="I83" s="3">
-        <v>504000</v>
+        <v>499500</v>
       </c>
       <c r="J83" s="3">
-        <v>369500</v>
+        <v>366100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3538,25 +3538,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6233500</v>
+        <v>6177200</v>
       </c>
       <c r="E89" s="3">
-        <v>6269300</v>
+        <v>6212700</v>
       </c>
       <c r="F89" s="3">
-        <v>3651800</v>
+        <v>3618800</v>
       </c>
       <c r="G89" s="3">
-        <v>3077100</v>
+        <v>3049300</v>
       </c>
       <c r="H89" s="3">
-        <v>3957600</v>
+        <v>3921900</v>
       </c>
       <c r="I89" s="3">
-        <v>1214300</v>
+        <v>1203300</v>
       </c>
       <c r="J89" s="3">
-        <v>250000</v>
+        <v>247700</v>
       </c>
       <c r="K89" s="3">
         <v>203500</v>
@@ -3594,25 +3594,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-819600</v>
+        <v>-812200</v>
       </c>
       <c r="E91" s="3">
-        <v>-496600</v>
+        <v>-492100</v>
       </c>
       <c r="F91" s="3">
-        <v>-382700</v>
+        <v>-379200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1435800</v>
+        <v>-1422800</v>
       </c>
       <c r="H91" s="3">
-        <v>-485400</v>
+        <v>-481100</v>
       </c>
       <c r="I91" s="3">
-        <v>-315500</v>
+        <v>-312600</v>
       </c>
       <c r="J91" s="3">
-        <v>-375900</v>
+        <v>-372500</v>
       </c>
       <c r="K91" s="3">
         <v>-224700</v>
@@ -3711,25 +3711,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10941200</v>
+        <v>-10842400</v>
       </c>
       <c r="E94" s="3">
-        <v>-8519000</v>
+        <v>-8442100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3735500</v>
+        <v>-3701800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3843000</v>
+        <v>-3808300</v>
       </c>
       <c r="H94" s="3">
-        <v>-5867200</v>
+        <v>-5814200</v>
       </c>
       <c r="I94" s="3">
-        <v>-6702100</v>
+        <v>-6641700</v>
       </c>
       <c r="J94" s="3">
-        <v>-853300</v>
+        <v>-845600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -3923,25 +3923,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2874000</v>
+        <v>2848000</v>
       </c>
       <c r="E100" s="3">
-        <v>10473100</v>
+        <v>10378600</v>
       </c>
       <c r="F100" s="3">
-        <v>379100</v>
+        <v>375700</v>
       </c>
       <c r="G100" s="3">
-        <v>1653400</v>
+        <v>1638400</v>
       </c>
       <c r="H100" s="3">
-        <v>2834500</v>
+        <v>2808900</v>
       </c>
       <c r="I100" s="3">
-        <v>5997500</v>
+        <v>5943300</v>
       </c>
       <c r="J100" s="3">
-        <v>692600</v>
+        <v>686400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -3962,25 +3962,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-220700</v>
+        <v>-218800</v>
       </c>
       <c r="E101" s="3">
-        <v>-748900</v>
+        <v>-742200</v>
       </c>
       <c r="F101" s="3">
-        <v>59800</v>
+        <v>59300</v>
       </c>
       <c r="G101" s="3">
-        <v>247700</v>
+        <v>245500</v>
       </c>
       <c r="H101" s="3">
-        <v>-94500</v>
+        <v>-93700</v>
       </c>
       <c r="I101" s="3">
-        <v>107100</v>
+        <v>106100</v>
       </c>
       <c r="J101" s="3">
-        <v>50600</v>
+        <v>50100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -4001,25 +4001,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2054500</v>
+        <v>-2036000</v>
       </c>
       <c r="E102" s="3">
-        <v>7474500</v>
+        <v>7407100</v>
       </c>
       <c r="F102" s="3">
-        <v>355200</v>
+        <v>352000</v>
       </c>
       <c r="G102" s="3">
-        <v>1135200</v>
+        <v>1124900</v>
       </c>
       <c r="H102" s="3">
-        <v>830400</v>
+        <v>822900</v>
       </c>
       <c r="I102" s="3">
-        <v>616700</v>
+        <v>611100</v>
       </c>
       <c r="J102" s="3">
-        <v>139900</v>
+        <v>138600</v>
       </c>
       <c r="K102" s="3">
         <v>962700</v>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>138961000</v>
+        <v>132461600</v>
       </c>
       <c r="E8" s="3">
-        <v>108909400</v>
+        <v>103815600</v>
       </c>
       <c r="F8" s="3">
-        <v>84243000</v>
+        <v>80302900</v>
       </c>
       <c r="G8" s="3">
-        <v>67468700</v>
+        <v>64313200</v>
       </c>
       <c r="H8" s="3">
-        <v>52911300</v>
+        <v>50436600</v>
       </c>
       <c r="I8" s="3">
-        <v>37718100</v>
+        <v>35954000</v>
       </c>
       <c r="J8" s="3">
-        <v>26437600</v>
+        <v>25201100</v>
       </c>
       <c r="K8" s="3">
         <v>18142800</v>
@@ -765,25 +765,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>120113500</v>
+        <v>114495600</v>
       </c>
       <c r="E9" s="3">
-        <v>92976400</v>
+        <v>88627700</v>
       </c>
       <c r="F9" s="3">
-        <v>71915000</v>
+        <v>68551500</v>
       </c>
       <c r="G9" s="3">
-        <v>57837500</v>
+        <v>55132400</v>
       </c>
       <c r="H9" s="3">
-        <v>45490800</v>
+        <v>43363100</v>
       </c>
       <c r="I9" s="3">
-        <v>64783800</v>
+        <v>61753800</v>
       </c>
       <c r="J9" s="3">
-        <v>46140900</v>
+        <v>43982800</v>
       </c>
       <c r="K9" s="3">
         <v>16033400</v>
@@ -804,25 +804,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>18847500</v>
+        <v>17966000</v>
       </c>
       <c r="E10" s="3">
-        <v>15933100</v>
+        <v>15187900</v>
       </c>
       <c r="F10" s="3">
-        <v>12328000</v>
+        <v>11751400</v>
       </c>
       <c r="G10" s="3">
-        <v>9631200</v>
+        <v>9180700</v>
       </c>
       <c r="H10" s="3">
-        <v>7420500</v>
+        <v>7073400</v>
       </c>
       <c r="I10" s="3">
-        <v>-27065700</v>
+        <v>-25799800</v>
       </c>
       <c r="J10" s="3">
-        <v>-19703300</v>
+        <v>-18781800</v>
       </c>
       <c r="K10" s="3">
         <v>2109400</v>
@@ -860,25 +860,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2369800</v>
+        <v>2258900</v>
       </c>
       <c r="E12" s="3">
-        <v>2343800</v>
+        <v>2234200</v>
       </c>
       <c r="F12" s="3">
-        <v>2120300</v>
+        <v>2021100</v>
       </c>
       <c r="G12" s="3">
-        <v>1759100</v>
+        <v>1676900</v>
       </c>
       <c r="H12" s="3">
-        <v>959200</v>
+        <v>914300</v>
       </c>
       <c r="I12" s="3">
-        <v>643500</v>
+        <v>613400</v>
       </c>
       <c r="J12" s="3">
-        <v>420300</v>
+        <v>400600</v>
       </c>
       <c r="K12" s="3">
         <v>289600</v>
@@ -938,16 +938,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-48600</v>
+        <v>-46400</v>
       </c>
       <c r="E14" s="3">
-        <v>-251200</v>
+        <v>-239400</v>
       </c>
       <c r="F14" s="3">
-        <v>-457100</v>
+        <v>-435700</v>
       </c>
       <c r="G14" s="3">
-        <v>-102900</v>
+        <v>-98100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>401600</v>
+        <v>382800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -977,25 +977,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>217100</v>
+        <v>207000</v>
       </c>
       <c r="E15" s="3">
-        <v>188800</v>
+        <v>180000</v>
       </c>
       <c r="F15" s="3">
-        <v>176600</v>
+        <v>168300</v>
       </c>
       <c r="G15" s="3">
-        <v>263700</v>
+        <v>251400</v>
       </c>
       <c r="H15" s="3">
-        <v>259600</v>
+        <v>247500</v>
       </c>
       <c r="I15" s="3">
-        <v>235000</v>
+        <v>224000</v>
       </c>
       <c r="J15" s="3">
-        <v>210100</v>
+        <v>200300</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -1030,25 +1030,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>138419600</v>
+        <v>131945600</v>
       </c>
       <c r="E17" s="3">
-        <v>107096600</v>
+        <v>102087600</v>
       </c>
       <c r="F17" s="3">
-        <v>83039700</v>
+        <v>79155800</v>
       </c>
       <c r="G17" s="3">
-        <v>67745000</v>
+        <v>64576500</v>
       </c>
       <c r="H17" s="3">
-        <v>53033300</v>
+        <v>50552900</v>
       </c>
       <c r="I17" s="3">
-        <v>37900900</v>
+        <v>36128200</v>
       </c>
       <c r="J17" s="3">
-        <v>27220000</v>
+        <v>25946900</v>
       </c>
       <c r="K17" s="3">
         <v>19058200</v>
@@ -1069,25 +1069,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>541300</v>
+        <v>516000</v>
       </c>
       <c r="E18" s="3">
-        <v>1812800</v>
+        <v>1728000</v>
       </c>
       <c r="F18" s="3">
-        <v>1203300</v>
+        <v>1147000</v>
       </c>
       <c r="G18" s="3">
-        <v>-276300</v>
+        <v>-263400</v>
       </c>
       <c r="H18" s="3">
-        <v>-122000</v>
+        <v>-116300</v>
       </c>
       <c r="I18" s="3">
-        <v>-182800</v>
+        <v>-174200</v>
       </c>
       <c r="J18" s="3">
-        <v>-782400</v>
+        <v>-745800</v>
       </c>
       <c r="K18" s="3">
         <v>-915400</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-741000</v>
+        <v>-706300</v>
       </c>
       <c r="E20" s="3">
-        <v>5772600</v>
+        <v>5502600</v>
       </c>
       <c r="F20" s="3">
-        <v>902100</v>
+        <v>859900</v>
       </c>
       <c r="G20" s="3">
-        <v>54400</v>
+        <v>51900</v>
       </c>
       <c r="H20" s="3">
-        <v>280400</v>
+        <v>267300</v>
       </c>
       <c r="I20" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="J20" s="3">
-        <v>-339600</v>
+        <v>-323700</v>
       </c>
       <c r="K20" s="3">
         <v>134800</v>
@@ -1164,25 +1164,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>709100</v>
+        <v>670500</v>
       </c>
       <c r="E21" s="3">
-        <v>8470100</v>
+        <v>8068700</v>
       </c>
       <c r="F21" s="3">
-        <v>2955200</v>
+        <v>2811900</v>
       </c>
       <c r="G21" s="3">
-        <v>588900</v>
+        <v>556500</v>
       </c>
       <c r="H21" s="3">
-        <v>769700</v>
+        <v>730100</v>
       </c>
       <c r="I21" s="3">
-        <v>314200</v>
+        <v>296600</v>
       </c>
       <c r="J21" s="3">
-        <v>-756400</v>
+        <v>-723200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1203,25 +1203,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>177100</v>
+        <v>168800</v>
       </c>
       <c r="E22" s="3">
-        <v>164300</v>
+        <v>156600</v>
       </c>
       <c r="F22" s="3">
-        <v>105900</v>
+        <v>100900</v>
       </c>
       <c r="G22" s="3">
-        <v>124800</v>
+        <v>119000</v>
       </c>
       <c r="H22" s="3">
-        <v>140700</v>
+        <v>134200</v>
       </c>
       <c r="I22" s="3">
-        <v>90300</v>
+        <v>86100</v>
       </c>
       <c r="J22" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="K22" s="3">
         <v>4500</v>
@@ -1242,25 +1242,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-376800</v>
+        <v>-359100</v>
       </c>
       <c r="E23" s="3">
-        <v>7421100</v>
+        <v>7074000</v>
       </c>
       <c r="F23" s="3">
-        <v>1999500</v>
+        <v>1906000</v>
       </c>
       <c r="G23" s="3">
-        <v>-346600</v>
+        <v>-330400</v>
       </c>
       <c r="H23" s="3">
-        <v>17700</v>
+        <v>16800</v>
       </c>
       <c r="I23" s="3">
-        <v>-274800</v>
+        <v>-262000</v>
       </c>
       <c r="J23" s="3">
-        <v>-1132600</v>
+        <v>-1079600</v>
       </c>
       <c r="K23" s="3">
         <v>-785200</v>
@@ -1281,25 +1281,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>275600</v>
+        <v>262700</v>
       </c>
       <c r="E24" s="3">
-        <v>216400</v>
+        <v>206200</v>
       </c>
       <c r="F24" s="3">
-        <v>263200</v>
+        <v>250900</v>
       </c>
       <c r="G24" s="3">
-        <v>62300</v>
+        <v>59400</v>
       </c>
       <c r="H24" s="3">
-        <v>20400</v>
+        <v>19400</v>
       </c>
       <c r="I24" s="3">
-        <v>24300</v>
+        <v>23200</v>
       </c>
       <c r="J24" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="K24" s="3">
         <v>3000</v>
@@ -1359,25 +1359,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-652300</v>
+        <v>-621800</v>
       </c>
       <c r="E26" s="3">
-        <v>7204700</v>
+        <v>6867700</v>
       </c>
       <c r="F26" s="3">
-        <v>1736300</v>
+        <v>1655100</v>
       </c>
       <c r="G26" s="3">
-        <v>-409000</v>
+        <v>-389800</v>
       </c>
       <c r="H26" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="I26" s="3">
-        <v>-299100</v>
+        <v>-285100</v>
       </c>
       <c r="J26" s="3">
-        <v>-1130500</v>
+        <v>-1077600</v>
       </c>
       <c r="K26" s="3">
         <v>-788200</v>
@@ -1398,25 +1398,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-519900</v>
+        <v>-495600</v>
       </c>
       <c r="E27" s="3">
-        <v>7214600</v>
+        <v>6877200</v>
       </c>
       <c r="F27" s="3">
-        <v>1779300</v>
+        <v>1696000</v>
       </c>
       <c r="G27" s="3">
-        <v>-363900</v>
+        <v>-346800</v>
       </c>
       <c r="H27" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="I27" s="3">
-        <v>-292100</v>
+        <v>-278500</v>
       </c>
       <c r="J27" s="3">
-        <v>-1129100</v>
+        <v>-1076300</v>
       </c>
       <c r="K27" s="3">
         <v>-2043600</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-39300</v>
+        <v>-37500</v>
       </c>
       <c r="I29" s="3">
-        <v>-263800</v>
+        <v>-251400</v>
       </c>
       <c r="J29" s="3">
-        <v>-201000</v>
+        <v>-191600</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1593,25 +1593,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>741000</v>
+        <v>706300</v>
       </c>
       <c r="E32" s="3">
-        <v>-5772600</v>
+        <v>-5502600</v>
       </c>
       <c r="F32" s="3">
-        <v>-902100</v>
+        <v>-859900</v>
       </c>
       <c r="G32" s="3">
-        <v>-54400</v>
+        <v>-51900</v>
       </c>
       <c r="H32" s="3">
-        <v>-280400</v>
+        <v>-267300</v>
       </c>
       <c r="I32" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J32" s="3">
-        <v>339600</v>
+        <v>323700</v>
       </c>
       <c r="K32" s="3">
         <v>-134800</v>
@@ -1632,25 +1632,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-519900</v>
+        <v>-495600</v>
       </c>
       <c r="E33" s="3">
-        <v>7214600</v>
+        <v>6877200</v>
       </c>
       <c r="F33" s="3">
-        <v>1779300</v>
+        <v>1696000</v>
       </c>
       <c r="G33" s="3">
-        <v>-363900</v>
+        <v>-346800</v>
       </c>
       <c r="H33" s="3">
-        <v>-22200</v>
+        <v>-21200</v>
       </c>
       <c r="I33" s="3">
-        <v>-555900</v>
+        <v>-529900</v>
       </c>
       <c r="J33" s="3">
-        <v>-1330000</v>
+        <v>-1267800</v>
       </c>
       <c r="K33" s="3">
         <v>-2043600</v>
@@ -1710,25 +1710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-519900</v>
+        <v>-495600</v>
       </c>
       <c r="E35" s="3">
-        <v>7214600</v>
+        <v>6877200</v>
       </c>
       <c r="F35" s="3">
-        <v>1779300</v>
+        <v>1696000</v>
       </c>
       <c r="G35" s="3">
-        <v>-363900</v>
+        <v>-346800</v>
       </c>
       <c r="H35" s="3">
-        <v>-22200</v>
+        <v>-21200</v>
       </c>
       <c r="I35" s="3">
-        <v>-555900</v>
+        <v>-529900</v>
       </c>
       <c r="J35" s="3">
-        <v>-1330000</v>
+        <v>-1267800</v>
       </c>
       <c r="K35" s="3">
         <v>-2043600</v>
@@ -1827,25 +1827,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10334100</v>
+        <v>9850800</v>
       </c>
       <c r="E41" s="3">
-        <v>12571000</v>
+        <v>11983000</v>
       </c>
       <c r="F41" s="3">
-        <v>5398900</v>
+        <v>5146400</v>
       </c>
       <c r="G41" s="3">
-        <v>5003300</v>
+        <v>4769300</v>
       </c>
       <c r="H41" s="3">
-        <v>3751300</v>
+        <v>3575800</v>
       </c>
       <c r="I41" s="3">
-        <v>2273300</v>
+        <v>2166900</v>
       </c>
       <c r="J41" s="3">
-        <v>2608700</v>
+        <v>2486700</v>
       </c>
       <c r="K41" s="3">
         <v>2818200</v>
@@ -1866,25 +1866,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16729800</v>
+        <v>15947300</v>
       </c>
       <c r="E42" s="3">
-        <v>8846100</v>
+        <v>8432300</v>
       </c>
       <c r="F42" s="3">
-        <v>3592700</v>
+        <v>3424700</v>
       </c>
       <c r="G42" s="3">
-        <v>297300</v>
+        <v>283400</v>
       </c>
       <c r="H42" s="3">
-        <v>1254100</v>
+        <v>1195400</v>
       </c>
       <c r="I42" s="3">
-        <v>2634100</v>
+        <v>2510900</v>
       </c>
       <c r="J42" s="3">
-        <v>425800</v>
+        <v>405900</v>
       </c>
       <c r="K42" s="3">
         <v>460000</v>
@@ -1905,25 +1905,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2540900</v>
+        <v>2422100</v>
       </c>
       <c r="E43" s="3">
-        <v>2112000</v>
+        <v>2013200</v>
       </c>
       <c r="F43" s="3">
-        <v>1748900</v>
+        <v>1667100</v>
       </c>
       <c r="G43" s="3">
-        <v>2477100</v>
+        <v>2361200</v>
       </c>
       <c r="H43" s="3">
-        <v>4715100</v>
+        <v>4494500</v>
       </c>
       <c r="I43" s="3">
-        <v>6625800</v>
+        <v>6315900</v>
       </c>
       <c r="J43" s="3">
-        <v>1863800</v>
+        <v>1776600</v>
       </c>
       <c r="K43" s="3">
         <v>2013500</v>
@@ -1944,25 +1944,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11040000</v>
+        <v>10523700</v>
       </c>
       <c r="E44" s="3">
-        <v>8605900</v>
+        <v>8203400</v>
       </c>
       <c r="F44" s="3">
-        <v>8459800</v>
+        <v>8064200</v>
       </c>
       <c r="G44" s="3">
-        <v>6429700</v>
+        <v>6129000</v>
       </c>
       <c r="H44" s="3">
-        <v>6089500</v>
+        <v>5804700</v>
       </c>
       <c r="I44" s="3">
-        <v>8443300</v>
+        <v>8048400</v>
       </c>
       <c r="J44" s="3">
-        <v>2999400</v>
+        <v>2859100</v>
       </c>
       <c r="K44" s="3">
         <v>3240300</v>
@@ -1983,25 +1983,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3116300</v>
+        <v>2970500</v>
       </c>
       <c r="E45" s="3">
-        <v>2153100</v>
+        <v>2052400</v>
       </c>
       <c r="F45" s="3">
-        <v>1111600</v>
+        <v>1059600</v>
       </c>
       <c r="G45" s="3">
-        <v>1104700</v>
+        <v>1053000</v>
       </c>
       <c r="H45" s="3">
-        <v>987700</v>
+        <v>941500</v>
       </c>
       <c r="I45" s="3">
-        <v>3895500</v>
+        <v>3713300</v>
       </c>
       <c r="J45" s="3">
-        <v>857600</v>
+        <v>817500</v>
       </c>
       <c r="K45" s="3">
         <v>926400</v>
@@ -2022,25 +2022,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>43761100</v>
+        <v>41714300</v>
       </c>
       <c r="E46" s="3">
-        <v>34288000</v>
+        <v>32684300</v>
       </c>
       <c r="F46" s="3">
-        <v>20312000</v>
+        <v>19362000</v>
       </c>
       <c r="G46" s="3">
-        <v>15312100</v>
+        <v>14595900</v>
       </c>
       <c r="H46" s="3">
-        <v>16797600</v>
+        <v>16012000</v>
       </c>
       <c r="I46" s="3">
-        <v>15615300</v>
+        <v>14884900</v>
       </c>
       <c r="J46" s="3">
-        <v>8538100</v>
+        <v>8138800</v>
       </c>
       <c r="K46" s="3">
         <v>9223900</v>
@@ -2061,25 +2061,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12019700</v>
+        <v>11457600</v>
       </c>
       <c r="E47" s="3">
-        <v>14250600</v>
+        <v>13584000</v>
       </c>
       <c r="F47" s="3">
-        <v>8322700</v>
+        <v>7933400</v>
       </c>
       <c r="G47" s="3">
-        <v>6901100</v>
+        <v>6578300</v>
       </c>
       <c r="H47" s="3">
-        <v>4173400</v>
+        <v>3978200</v>
       </c>
       <c r="I47" s="3">
-        <v>5449100</v>
+        <v>5194200</v>
       </c>
       <c r="J47" s="3">
-        <v>1419300</v>
+        <v>1352900</v>
       </c>
       <c r="K47" s="3">
         <v>1533300</v>
@@ -2100,25 +2100,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8579000</v>
+        <v>8177700</v>
       </c>
       <c r="E48" s="3">
-        <v>6715500</v>
+        <v>6401400</v>
       </c>
       <c r="F48" s="3">
-        <v>5126200</v>
+        <v>4886500</v>
       </c>
       <c r="G48" s="3">
-        <v>4035800</v>
+        <v>3847000</v>
       </c>
       <c r="H48" s="3">
-        <v>2303000</v>
+        <v>2195300</v>
       </c>
       <c r="I48" s="3">
-        <v>2342200</v>
+        <v>2232600</v>
       </c>
       <c r="J48" s="3">
-        <v>1095200</v>
+        <v>1044000</v>
       </c>
       <c r="K48" s="3">
         <v>1183200</v>
@@ -2139,25 +2139,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4760300</v>
+        <v>4537600</v>
       </c>
       <c r="E49" s="3">
-        <v>4160700</v>
+        <v>3966100</v>
       </c>
       <c r="F49" s="3">
-        <v>3160900</v>
+        <v>3013000</v>
       </c>
       <c r="G49" s="3">
-        <v>3231800</v>
+        <v>3080600</v>
       </c>
       <c r="H49" s="3">
-        <v>2978100</v>
+        <v>2838900</v>
       </c>
       <c r="I49" s="3">
-        <v>4126900</v>
+        <v>3933900</v>
       </c>
       <c r="J49" s="3">
-        <v>1031600</v>
+        <v>983400</v>
       </c>
       <c r="K49" s="3">
         <v>1114500</v>
@@ -2256,25 +2256,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3384800</v>
+        <v>3226500</v>
       </c>
       <c r="E52" s="3">
-        <v>2251900</v>
+        <v>2146600</v>
       </c>
       <c r="F52" s="3">
-        <v>1005700</v>
+        <v>958600</v>
       </c>
       <c r="G52" s="3">
-        <v>1063600</v>
+        <v>1013800</v>
       </c>
       <c r="H52" s="3">
-        <v>625400</v>
+        <v>596100</v>
       </c>
       <c r="I52" s="3">
-        <v>1672400</v>
+        <v>1594200</v>
       </c>
       <c r="J52" s="3">
-        <v>307600</v>
+        <v>293200</v>
       </c>
       <c r="K52" s="3">
         <v>332300</v>
@@ -2334,25 +2334,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>72504900</v>
+        <v>69113800</v>
       </c>
       <c r="E54" s="3">
-        <v>61666700</v>
+        <v>58782500</v>
       </c>
       <c r="F54" s="3">
-        <v>37927500</v>
+        <v>36153500</v>
       </c>
       <c r="G54" s="3">
-        <v>30544300</v>
+        <v>29115700</v>
       </c>
       <c r="H54" s="3">
-        <v>26877500</v>
+        <v>25620500</v>
       </c>
       <c r="I54" s="3">
-        <v>23419300</v>
+        <v>22324000</v>
       </c>
       <c r="J54" s="3">
-        <v>12414800</v>
+        <v>11834100</v>
       </c>
       <c r="K54" s="3">
         <v>13412000</v>
@@ -2407,25 +2407,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20590700</v>
+        <v>19627600</v>
       </c>
       <c r="E57" s="3">
-        <v>15684200</v>
+        <v>14950600</v>
       </c>
       <c r="F57" s="3">
-        <v>13251700</v>
+        <v>12631900</v>
       </c>
       <c r="G57" s="3">
-        <v>11711700</v>
+        <v>11163900</v>
       </c>
       <c r="H57" s="3">
-        <v>10863500</v>
+        <v>10355400</v>
       </c>
       <c r="I57" s="3">
-        <v>6745200</v>
+        <v>6429800</v>
       </c>
       <c r="J57" s="3">
-        <v>4369800</v>
+        <v>4165400</v>
       </c>
       <c r="K57" s="3">
         <v>4720800</v>
@@ -2446,25 +2446,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>637900</v>
+        <v>608000</v>
       </c>
       <c r="E58" s="3">
-        <v>476000</v>
+        <v>453800</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>663700</v>
+        <v>632700</v>
       </c>
       <c r="H58" s="3">
-        <v>1881600</v>
+        <v>1793600</v>
       </c>
       <c r="I58" s="3">
-        <v>1622300</v>
+        <v>1546400</v>
       </c>
       <c r="J58" s="3">
-        <v>528600</v>
+        <v>503900</v>
       </c>
       <c r="K58" s="3">
         <v>571100</v>
@@ -2485,25 +2485,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11137000</v>
+        <v>10616100</v>
       </c>
       <c r="E59" s="3">
-        <v>9251400</v>
+        <v>8818700</v>
       </c>
       <c r="F59" s="3">
-        <v>7195000</v>
+        <v>6858500</v>
       </c>
       <c r="G59" s="3">
-        <v>5274100</v>
+        <v>5027400</v>
       </c>
       <c r="H59" s="3">
-        <v>4523100</v>
+        <v>4311500</v>
       </c>
       <c r="I59" s="3">
-        <v>11225500</v>
+        <v>10700500</v>
       </c>
       <c r="J59" s="3">
-        <v>2254700</v>
+        <v>2149300</v>
       </c>
       <c r="K59" s="3">
         <v>2435800</v>
@@ -2524,25 +2524,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32365500</v>
+        <v>30851700</v>
       </c>
       <c r="E60" s="3">
-        <v>25411700</v>
+        <v>24223100</v>
       </c>
       <c r="F60" s="3">
-        <v>20446700</v>
+        <v>19490400</v>
       </c>
       <c r="G60" s="3">
-        <v>17649500</v>
+        <v>16824000</v>
       </c>
       <c r="H60" s="3">
-        <v>17268100</v>
+        <v>16460500</v>
       </c>
       <c r="I60" s="3">
-        <v>15295200</v>
+        <v>14579800</v>
       </c>
       <c r="J60" s="3">
-        <v>7153000</v>
+        <v>6818400</v>
       </c>
       <c r="K60" s="3">
         <v>7727600</v>
@@ -2563,25 +2563,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1370600</v>
+        <v>1306500</v>
       </c>
       <c r="E61" s="3">
-        <v>1829900</v>
+        <v>1744300</v>
       </c>
       <c r="F61" s="3">
-        <v>1467900</v>
+        <v>1399200</v>
       </c>
       <c r="G61" s="3">
-        <v>1442000</v>
+        <v>1374500</v>
       </c>
       <c r="H61" s="3">
-        <v>1595000</v>
+        <v>1520400</v>
       </c>
       <c r="I61" s="3">
-        <v>1336100</v>
+        <v>1273600</v>
       </c>
       <c r="J61" s="3">
-        <v>402100</v>
+        <v>383300</v>
       </c>
       <c r="K61" s="3">
         <v>434400</v>
@@ -2602,25 +2602,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2730900</v>
+        <v>2603200</v>
       </c>
       <c r="E62" s="3">
-        <v>2062100</v>
+        <v>1965700</v>
       </c>
       <c r="F62" s="3">
-        <v>1318700</v>
+        <v>1257100</v>
       </c>
       <c r="G62" s="3">
-        <v>233700</v>
+        <v>222700</v>
       </c>
       <c r="H62" s="3">
-        <v>364100</v>
+        <v>347000</v>
       </c>
       <c r="I62" s="3">
-        <v>504200</v>
+        <v>480600</v>
       </c>
       <c r="J62" s="3">
-        <v>373500</v>
+        <v>356000</v>
       </c>
       <c r="K62" s="3">
         <v>403500</v>
@@ -2758,25 +2758,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41997600</v>
+        <v>40033400</v>
       </c>
       <c r="E66" s="3">
-        <v>34279700</v>
+        <v>32676400</v>
       </c>
       <c r="F66" s="3">
-        <v>25974000</v>
+        <v>24759200</v>
       </c>
       <c r="G66" s="3">
-        <v>21816000</v>
+        <v>20795600</v>
       </c>
       <c r="H66" s="3">
-        <v>19278000</v>
+        <v>18376400</v>
       </c>
       <c r="I66" s="3">
-        <v>18470000</v>
+        <v>17606100</v>
       </c>
       <c r="J66" s="3">
-        <v>7948700</v>
+        <v>7576900</v>
       </c>
       <c r="K66" s="3">
         <v>8587200</v>
@@ -2970,25 +2970,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5168100</v>
+        <v>4926400</v>
       </c>
       <c r="E72" s="3">
-        <v>5688100</v>
+        <v>5422100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1526500</v>
+        <v>-1455100</v>
       </c>
       <c r="G72" s="3">
-        <v>-3305800</v>
+        <v>-3151200</v>
       </c>
       <c r="H72" s="3">
-        <v>-3154000</v>
+        <v>-3006500</v>
       </c>
       <c r="I72" s="3">
-        <v>-3172900</v>
+        <v>-3024500</v>
       </c>
       <c r="J72" s="3">
-        <v>-2681900</v>
+        <v>-2556400</v>
       </c>
       <c r="K72" s="3">
         <v>-2897300</v>
@@ -3126,25 +3126,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30507300</v>
+        <v>29080400</v>
       </c>
       <c r="E76" s="3">
-        <v>27386900</v>
+        <v>26106000</v>
       </c>
       <c r="F76" s="3">
-        <v>11953400</v>
+        <v>11394400</v>
       </c>
       <c r="G76" s="3">
-        <v>8728400</v>
+        <v>8320100</v>
       </c>
       <c r="H76" s="3">
-        <v>7599500</v>
+        <v>7244100</v>
       </c>
       <c r="I76" s="3">
-        <v>4949400</v>
+        <v>4717900</v>
       </c>
       <c r="J76" s="3">
-        <v>4466000</v>
+        <v>4257200</v>
       </c>
       <c r="K76" s="3">
         <v>4824800</v>
@@ -3248,25 +3248,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-519900</v>
+        <v>-495600</v>
       </c>
       <c r="E81" s="3">
-        <v>7214600</v>
+        <v>6877200</v>
       </c>
       <c r="F81" s="3">
-        <v>1779300</v>
+        <v>1696000</v>
       </c>
       <c r="G81" s="3">
-        <v>-363900</v>
+        <v>-346800</v>
       </c>
       <c r="H81" s="3">
-        <v>-22200</v>
+        <v>-21200</v>
       </c>
       <c r="I81" s="3">
-        <v>-555900</v>
+        <v>-529900</v>
       </c>
       <c r="J81" s="3">
-        <v>-1330000</v>
+        <v>-1267800</v>
       </c>
       <c r="K81" s="3">
         <v>-2043600</v>
@@ -3304,25 +3304,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>910100</v>
+        <v>867500</v>
       </c>
       <c r="E83" s="3">
-        <v>886100</v>
+        <v>844600</v>
       </c>
       <c r="F83" s="3">
-        <v>851100</v>
+        <v>811300</v>
       </c>
       <c r="G83" s="3">
-        <v>811900</v>
+        <v>774000</v>
       </c>
       <c r="H83" s="3">
-        <v>612300</v>
+        <v>583600</v>
       </c>
       <c r="I83" s="3">
-        <v>499500</v>
+        <v>476100</v>
       </c>
       <c r="J83" s="3">
-        <v>366100</v>
+        <v>349000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3538,25 +3538,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6177200</v>
+        <v>5888300</v>
       </c>
       <c r="E89" s="3">
-        <v>6212700</v>
+        <v>5922200</v>
       </c>
       <c r="F89" s="3">
-        <v>3618800</v>
+        <v>3449500</v>
       </c>
       <c r="G89" s="3">
-        <v>3049300</v>
+        <v>2906700</v>
       </c>
       <c r="H89" s="3">
-        <v>3921900</v>
+        <v>3738500</v>
       </c>
       <c r="I89" s="3">
-        <v>1203300</v>
+        <v>1147100</v>
       </c>
       <c r="J89" s="3">
-        <v>247700</v>
+        <v>236100</v>
       </c>
       <c r="K89" s="3">
         <v>203500</v>
@@ -3594,25 +3594,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-812200</v>
+        <v>-774200</v>
       </c>
       <c r="E91" s="3">
-        <v>-492100</v>
+        <v>-469100</v>
       </c>
       <c r="F91" s="3">
-        <v>-379200</v>
+        <v>-361500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1422800</v>
+        <v>-1356300</v>
       </c>
       <c r="H91" s="3">
-        <v>-481100</v>
+        <v>-458600</v>
       </c>
       <c r="I91" s="3">
-        <v>-312600</v>
+        <v>-298000</v>
       </c>
       <c r="J91" s="3">
-        <v>-372500</v>
+        <v>-355000</v>
       </c>
       <c r="K91" s="3">
         <v>-224700</v>
@@ -3711,25 +3711,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10842400</v>
+        <v>-10335300</v>
       </c>
       <c r="E94" s="3">
-        <v>-8442100</v>
+        <v>-8047200</v>
       </c>
       <c r="F94" s="3">
-        <v>-3701800</v>
+        <v>-3528600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3808300</v>
+        <v>-3630200</v>
       </c>
       <c r="H94" s="3">
-        <v>-5814200</v>
+        <v>-5542300</v>
       </c>
       <c r="I94" s="3">
-        <v>-6641700</v>
+        <v>-6331000</v>
       </c>
       <c r="J94" s="3">
-        <v>-845600</v>
+        <v>-806000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -3923,25 +3923,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2848000</v>
+        <v>2714800</v>
       </c>
       <c r="E100" s="3">
-        <v>10378600</v>
+        <v>9893200</v>
       </c>
       <c r="F100" s="3">
-        <v>375700</v>
+        <v>358100</v>
       </c>
       <c r="G100" s="3">
-        <v>1638400</v>
+        <v>1561800</v>
       </c>
       <c r="H100" s="3">
-        <v>2808900</v>
+        <v>2677500</v>
       </c>
       <c r="I100" s="3">
-        <v>5943300</v>
+        <v>5665400</v>
       </c>
       <c r="J100" s="3">
-        <v>686400</v>
+        <v>654300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -3962,25 +3962,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-218800</v>
+        <v>-208500</v>
       </c>
       <c r="E101" s="3">
-        <v>-742200</v>
+        <v>-707500</v>
       </c>
       <c r="F101" s="3">
-        <v>59300</v>
+        <v>56500</v>
       </c>
       <c r="G101" s="3">
-        <v>245500</v>
+        <v>234000</v>
       </c>
       <c r="H101" s="3">
-        <v>-93700</v>
+        <v>-89300</v>
       </c>
       <c r="I101" s="3">
-        <v>106100</v>
+        <v>101100</v>
       </c>
       <c r="J101" s="3">
-        <v>50100</v>
+        <v>47800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -4001,25 +4001,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2036000</v>
+        <v>-1940700</v>
       </c>
       <c r="E102" s="3">
-        <v>7407100</v>
+        <v>7060600</v>
       </c>
       <c r="F102" s="3">
-        <v>352000</v>
+        <v>335500</v>
       </c>
       <c r="G102" s="3">
-        <v>1124900</v>
+        <v>1072300</v>
       </c>
       <c r="H102" s="3">
-        <v>822900</v>
+        <v>784400</v>
       </c>
       <c r="I102" s="3">
-        <v>611100</v>
+        <v>582500</v>
       </c>
       <c r="J102" s="3">
-        <v>138600</v>
+        <v>132100</v>
       </c>
       <c r="K102" s="3">
         <v>962700</v>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>JD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,192 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>132461600</v>
+        <v>150260400</v>
       </c>
       <c r="E8" s="3">
-        <v>103815600</v>
+        <v>136667600</v>
       </c>
       <c r="F8" s="3">
-        <v>80302900</v>
+        <v>107112100</v>
       </c>
       <c r="G8" s="3">
-        <v>64313200</v>
+        <v>82852700</v>
       </c>
       <c r="H8" s="3">
-        <v>50436600</v>
+        <v>66355300</v>
       </c>
       <c r="I8" s="3">
-        <v>35954000</v>
+        <v>52038100</v>
       </c>
       <c r="J8" s="3">
+        <v>37095600</v>
+      </c>
+      <c r="K8" s="3">
         <v>25201100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18142800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10593700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5937300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3072800</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>114495600</v>
+        <v>129137800</v>
       </c>
       <c r="E9" s="3">
-        <v>88627700</v>
+        <v>118131200</v>
       </c>
       <c r="F9" s="3">
-        <v>68551500</v>
+        <v>91441900</v>
       </c>
       <c r="G9" s="3">
-        <v>55132400</v>
+        <v>70728200</v>
       </c>
       <c r="H9" s="3">
-        <v>43363100</v>
+        <v>56883000</v>
       </c>
       <c r="I9" s="3">
-        <v>61753800</v>
+        <v>44740000</v>
       </c>
       <c r="J9" s="3">
+        <v>63714600</v>
+      </c>
+      <c r="K9" s="3">
         <v>43982800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16033400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9548100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5437700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2905200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17966000</v>
+        <v>21122600</v>
       </c>
       <c r="E10" s="3">
-        <v>15187900</v>
+        <v>18536500</v>
       </c>
       <c r="F10" s="3">
-        <v>11751400</v>
+        <v>15670100</v>
       </c>
       <c r="G10" s="3">
-        <v>9180700</v>
+        <v>12124600</v>
       </c>
       <c r="H10" s="3">
-        <v>7073400</v>
+        <v>9472300</v>
       </c>
       <c r="I10" s="3">
-        <v>-25799800</v>
+        <v>7298000</v>
       </c>
       <c r="J10" s="3">
+        <v>-26619000</v>
+      </c>
+      <c r="K10" s="3">
         <v>-18781800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2109400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1045700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>499600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>167600</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,47 +866,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2258900</v>
+        <v>2387300</v>
       </c>
       <c r="E12" s="3">
-        <v>2234200</v>
+        <v>2330700</v>
       </c>
       <c r="F12" s="3">
-        <v>2021100</v>
+        <v>2305100</v>
       </c>
       <c r="G12" s="3">
-        <v>1676900</v>
+        <v>2085300</v>
       </c>
       <c r="H12" s="3">
-        <v>914300</v>
+        <v>1730100</v>
       </c>
       <c r="I12" s="3">
-        <v>613400</v>
+        <v>943300</v>
       </c>
       <c r="J12" s="3">
+        <v>632900</v>
+      </c>
+      <c r="K12" s="3">
         <v>400600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>289600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>147200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>91300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>34900</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,35 +947,38 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-46400</v>
+        <v>299400</v>
       </c>
       <c r="E14" s="3">
-        <v>-239400</v>
+        <v>-47800</v>
       </c>
       <c r="F14" s="3">
-        <v>-435700</v>
+        <v>-247000</v>
       </c>
       <c r="G14" s="3">
-        <v>-98100</v>
+        <v>-449500</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-101200</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>382800</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -970,35 +989,38 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>207000</v>
+        <v>243000</v>
       </c>
       <c r="E15" s="3">
-        <v>180000</v>
+        <v>213600</v>
       </c>
       <c r="F15" s="3">
-        <v>168300</v>
+        <v>185700</v>
       </c>
       <c r="G15" s="3">
-        <v>251400</v>
+        <v>173600</v>
       </c>
       <c r="H15" s="3">
-        <v>247500</v>
+        <v>259400</v>
       </c>
       <c r="I15" s="3">
-        <v>224000</v>
+        <v>255400</v>
       </c>
       <c r="J15" s="3">
+        <v>231100</v>
+      </c>
+      <c r="K15" s="3">
         <v>200300</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
@@ -1009,9 +1031,12 @@
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1024,86 +1049,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>131945600</v>
+        <v>147925300</v>
       </c>
       <c r="E17" s="3">
-        <v>102087600</v>
+        <v>136135200</v>
       </c>
       <c r="F17" s="3">
-        <v>79155800</v>
+        <v>105329200</v>
       </c>
       <c r="G17" s="3">
-        <v>64576500</v>
+        <v>81669300</v>
       </c>
       <c r="H17" s="3">
-        <v>50552900</v>
+        <v>66627000</v>
       </c>
       <c r="I17" s="3">
-        <v>36128200</v>
+        <v>52158100</v>
       </c>
       <c r="J17" s="3">
+        <v>37275400</v>
+      </c>
+      <c r="K17" s="3">
         <v>25946900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19058200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10682200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6217200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3277000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>516000</v>
+        <v>2335100</v>
       </c>
       <c r="E18" s="3">
-        <v>1728000</v>
+        <v>532400</v>
       </c>
       <c r="F18" s="3">
-        <v>1147000</v>
+        <v>1782900</v>
       </c>
       <c r="G18" s="3">
-        <v>-263400</v>
+        <v>1183500</v>
       </c>
       <c r="H18" s="3">
-        <v>-116300</v>
+        <v>-271700</v>
       </c>
       <c r="I18" s="3">
-        <v>-174200</v>
+        <v>-120000</v>
       </c>
       <c r="J18" s="3">
+        <v>-179800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-745800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-915400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-88400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-279900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-204200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,203 +1151,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-706300</v>
+        <v>-41100</v>
       </c>
       <c r="E20" s="3">
-        <v>5502600</v>
+        <v>-728700</v>
       </c>
       <c r="F20" s="3">
-        <v>859900</v>
+        <v>5677300</v>
       </c>
       <c r="G20" s="3">
-        <v>51900</v>
+        <v>887200</v>
       </c>
       <c r="H20" s="3">
-        <v>267300</v>
+        <v>53600</v>
       </c>
       <c r="I20" s="3">
-        <v>-1600</v>
+        <v>275800</v>
       </c>
       <c r="J20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-323700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>134800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>82100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>33900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>17500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>670500</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>8068700</v>
+        <v>700400</v>
       </c>
       <c r="F21" s="3">
-        <v>2811900</v>
+        <v>8333300</v>
       </c>
       <c r="G21" s="3">
-        <v>556500</v>
+        <v>2909200</v>
       </c>
       <c r="H21" s="3">
-        <v>730100</v>
+        <v>581900</v>
       </c>
       <c r="I21" s="3">
-        <v>296600</v>
+        <v>759100</v>
       </c>
       <c r="J21" s="3">
+        <v>310700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-723200</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3">
         <v>-219400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-175900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>168800</v>
+        <v>302500</v>
       </c>
       <c r="E22" s="3">
-        <v>156600</v>
+        <v>174200</v>
       </c>
       <c r="F22" s="3">
-        <v>100900</v>
+        <v>161600</v>
       </c>
       <c r="G22" s="3">
-        <v>119000</v>
+        <v>104100</v>
       </c>
       <c r="H22" s="3">
-        <v>134200</v>
+        <v>122700</v>
       </c>
       <c r="I22" s="3">
-        <v>86100</v>
+        <v>138400</v>
       </c>
       <c r="J22" s="3">
+        <v>88800</v>
+      </c>
+      <c r="K22" s="3">
         <v>10100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-359100</v>
+        <v>1991600</v>
       </c>
       <c r="E23" s="3">
-        <v>7074000</v>
+        <v>-370500</v>
       </c>
       <c r="F23" s="3">
-        <v>1906000</v>
+        <v>7298600</v>
       </c>
       <c r="G23" s="3">
-        <v>-330400</v>
+        <v>1966500</v>
       </c>
       <c r="H23" s="3">
-        <v>16800</v>
+        <v>-340900</v>
       </c>
       <c r="I23" s="3">
-        <v>-262000</v>
+        <v>17400</v>
       </c>
       <c r="J23" s="3">
+        <v>-270300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1079600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-785200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-247300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-186700</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>262700</v>
+        <v>599800</v>
       </c>
       <c r="E24" s="3">
-        <v>206200</v>
+        <v>271000</v>
       </c>
       <c r="F24" s="3">
-        <v>250900</v>
+        <v>212800</v>
       </c>
       <c r="G24" s="3">
-        <v>59400</v>
+        <v>258900</v>
       </c>
       <c r="H24" s="3">
-        <v>19400</v>
+        <v>61300</v>
       </c>
       <c r="I24" s="3">
-        <v>23200</v>
+        <v>20000</v>
       </c>
       <c r="J24" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1352,87 +1400,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-621800</v>
+        <v>1391800</v>
       </c>
       <c r="E26" s="3">
-        <v>6867700</v>
+        <v>-641600</v>
       </c>
       <c r="F26" s="3">
-        <v>1655100</v>
+        <v>7085800</v>
       </c>
       <c r="G26" s="3">
-        <v>-389800</v>
+        <v>1707700</v>
       </c>
       <c r="H26" s="3">
-        <v>-2600</v>
+        <v>-402200</v>
       </c>
       <c r="I26" s="3">
-        <v>-285100</v>
+        <v>-2700</v>
       </c>
       <c r="J26" s="3">
+        <v>-294200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1077600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-788200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-248100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-186700</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-495600</v>
+        <v>1490800</v>
       </c>
       <c r="E27" s="3">
-        <v>6877200</v>
+        <v>-511300</v>
       </c>
       <c r="F27" s="3">
-        <v>1696000</v>
+        <v>7095600</v>
       </c>
       <c r="G27" s="3">
-        <v>-346800</v>
+        <v>1749900</v>
       </c>
       <c r="H27" s="3">
-        <v>16300</v>
+        <v>-357800</v>
       </c>
       <c r="I27" s="3">
-        <v>-278500</v>
+        <v>16800</v>
       </c>
       <c r="J27" s="3">
+        <v>-287300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1076300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2043600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-379700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-475900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-428200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1469,9 +1526,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,23 +1541,23 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-37500</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-251400</v>
+        <v>-38600</v>
       </c>
       <c r="J29" s="3">
+        <v>-259400</v>
+      </c>
+      <c r="K29" s="3">
         <v>-191600</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -1508,9 +1568,12 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1547,9 +1610,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1586,87 +1652,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>706300</v>
+        <v>41100</v>
       </c>
       <c r="E32" s="3">
-        <v>-5502600</v>
+        <v>728700</v>
       </c>
       <c r="F32" s="3">
-        <v>-859900</v>
+        <v>-5677300</v>
       </c>
       <c r="G32" s="3">
-        <v>-51900</v>
+        <v>-887200</v>
       </c>
       <c r="H32" s="3">
-        <v>-267300</v>
+        <v>-53600</v>
       </c>
       <c r="I32" s="3">
-        <v>1600</v>
+        <v>-275800</v>
       </c>
       <c r="J32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K32" s="3">
         <v>323700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-134800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-82100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-33900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-17500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-495600</v>
+        <v>1490800</v>
       </c>
       <c r="E33" s="3">
-        <v>6877200</v>
+        <v>-511300</v>
       </c>
       <c r="F33" s="3">
-        <v>1696000</v>
+        <v>7095600</v>
       </c>
       <c r="G33" s="3">
-        <v>-346800</v>
+        <v>1749900</v>
       </c>
       <c r="H33" s="3">
-        <v>-21200</v>
+        <v>-357800</v>
       </c>
       <c r="I33" s="3">
-        <v>-529900</v>
+        <v>-21900</v>
       </c>
       <c r="J33" s="3">
+        <v>-546700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1267800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2043600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-379700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-475900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-428200</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1703,92 +1778,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-495600</v>
+        <v>1490800</v>
       </c>
       <c r="E35" s="3">
-        <v>6877200</v>
+        <v>-511300</v>
       </c>
       <c r="F35" s="3">
-        <v>1696000</v>
+        <v>7095600</v>
       </c>
       <c r="G35" s="3">
-        <v>-346800</v>
+        <v>1749900</v>
       </c>
       <c r="H35" s="3">
-        <v>-21200</v>
+        <v>-357800</v>
       </c>
       <c r="I35" s="3">
-        <v>-529900</v>
+        <v>-21900</v>
       </c>
       <c r="J35" s="3">
+        <v>-546700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1267800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2043600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-379700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-475900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-428200</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1804,8 +1888,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1821,359 +1906,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9850800</v>
+        <v>11326000</v>
       </c>
       <c r="E41" s="3">
-        <v>11983000</v>
+        <v>10163600</v>
       </c>
       <c r="F41" s="3">
-        <v>5146400</v>
+        <v>12363500</v>
       </c>
       <c r="G41" s="3">
-        <v>4769300</v>
+        <v>5309800</v>
       </c>
       <c r="H41" s="3">
-        <v>3575800</v>
+        <v>4920800</v>
       </c>
       <c r="I41" s="3">
-        <v>2166900</v>
+        <v>3689400</v>
       </c>
       <c r="J41" s="3">
+        <v>2235700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2486700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2818200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1651900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1029800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>914600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15947300</v>
+        <v>20264100</v>
       </c>
       <c r="E42" s="3">
-        <v>8432300</v>
+        <v>16453700</v>
       </c>
       <c r="F42" s="3">
-        <v>3424700</v>
+        <v>8700100</v>
       </c>
       <c r="G42" s="3">
-        <v>283400</v>
+        <v>3533500</v>
       </c>
       <c r="H42" s="3">
-        <v>1195400</v>
+        <v>292300</v>
       </c>
       <c r="I42" s="3">
-        <v>2510900</v>
+        <v>1233400</v>
       </c>
       <c r="J42" s="3">
+        <v>2590700</v>
+      </c>
+      <c r="K42" s="3">
         <v>405900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>460000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>293900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>157100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2422100</v>
+        <v>3837200</v>
       </c>
       <c r="E43" s="3">
-        <v>2013200</v>
+        <v>2499000</v>
       </c>
       <c r="F43" s="3">
-        <v>1667100</v>
+        <v>2077100</v>
       </c>
       <c r="G43" s="3">
-        <v>2361200</v>
+        <v>1720000</v>
       </c>
       <c r="H43" s="3">
-        <v>4494500</v>
+        <v>2436200</v>
       </c>
       <c r="I43" s="3">
-        <v>6315900</v>
+        <v>4637300</v>
       </c>
       <c r="J43" s="3">
+        <v>6516400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1776600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2013500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>81100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>77100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>69900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10523700</v>
+        <v>11195000</v>
       </c>
       <c r="E44" s="3">
-        <v>8203400</v>
+        <v>10857800</v>
       </c>
       <c r="F44" s="3">
-        <v>8064200</v>
+        <v>8463900</v>
       </c>
       <c r="G44" s="3">
-        <v>6129000</v>
+        <v>8320200</v>
       </c>
       <c r="H44" s="3">
-        <v>5804700</v>
+        <v>6323600</v>
       </c>
       <c r="I44" s="3">
-        <v>8048400</v>
+        <v>5989000</v>
       </c>
       <c r="J44" s="3">
+        <v>8303900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2859100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3240300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>975700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>682100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>401900</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2970500</v>
+        <v>3798900</v>
       </c>
       <c r="E45" s="3">
-        <v>2052400</v>
+        <v>3064900</v>
       </c>
       <c r="F45" s="3">
-        <v>1059600</v>
+        <v>2117600</v>
       </c>
       <c r="G45" s="3">
-        <v>1053000</v>
+        <v>1093200</v>
       </c>
       <c r="H45" s="3">
-        <v>941500</v>
+        <v>1086500</v>
       </c>
       <c r="I45" s="3">
-        <v>3713300</v>
+        <v>971400</v>
       </c>
       <c r="J45" s="3">
+        <v>3831200</v>
+      </c>
+      <c r="K45" s="3">
         <v>817500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>926400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>431900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>303600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>49900</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>41714300</v>
+        <v>50421200</v>
       </c>
       <c r="E46" s="3">
-        <v>32684300</v>
+        <v>43038900</v>
       </c>
       <c r="F46" s="3">
-        <v>19362000</v>
+        <v>33722200</v>
       </c>
       <c r="G46" s="3">
-        <v>14595900</v>
+        <v>19976800</v>
       </c>
       <c r="H46" s="3">
-        <v>16012000</v>
+        <v>15059400</v>
       </c>
       <c r="I46" s="3">
-        <v>14884900</v>
+        <v>16520400</v>
       </c>
       <c r="J46" s="3">
+        <v>15357600</v>
+      </c>
+      <c r="K46" s="3">
         <v>8138800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9223900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3434500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2249700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1437200</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11457600</v>
+        <v>9946000</v>
       </c>
       <c r="E47" s="3">
-        <v>13584000</v>
+        <v>11821400</v>
       </c>
       <c r="F47" s="3">
-        <v>7933400</v>
+        <v>14015400</v>
       </c>
       <c r="G47" s="3">
-        <v>6578300</v>
+        <v>8185300</v>
       </c>
       <c r="H47" s="3">
-        <v>3978200</v>
+        <v>6787200</v>
       </c>
       <c r="I47" s="3">
-        <v>5194200</v>
+        <v>4104500</v>
       </c>
       <c r="J47" s="3">
+        <v>5359100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1352900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1533300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8177700</v>
+        <v>12711500</v>
       </c>
       <c r="E48" s="3">
-        <v>6401400</v>
+        <v>8437400</v>
       </c>
       <c r="F48" s="3">
-        <v>4886500</v>
+        <v>6604700</v>
       </c>
       <c r="G48" s="3">
-        <v>3847000</v>
+        <v>5041600</v>
       </c>
       <c r="H48" s="3">
-        <v>2195300</v>
+        <v>3969200</v>
       </c>
       <c r="I48" s="3">
-        <v>2232600</v>
+        <v>2265000</v>
       </c>
       <c r="J48" s="3">
+        <v>2303500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1044000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1183200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>345600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>143700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>46600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4537600</v>
+        <v>9494700</v>
       </c>
       <c r="E49" s="3">
-        <v>3966100</v>
+        <v>4681700</v>
       </c>
       <c r="F49" s="3">
-        <v>3013000</v>
+        <v>4092100</v>
       </c>
       <c r="G49" s="3">
-        <v>3080600</v>
+        <v>3108700</v>
       </c>
       <c r="H49" s="3">
-        <v>2838900</v>
+        <v>3178500</v>
       </c>
       <c r="I49" s="3">
-        <v>3933900</v>
+        <v>2929000</v>
       </c>
       <c r="J49" s="3">
+        <v>4058800</v>
+      </c>
+      <c r="K49" s="3">
         <v>983400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1114500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>126700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>110800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2210,9 +2323,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2249,48 +2365,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3226500</v>
+        <v>2916300</v>
       </c>
       <c r="E52" s="3">
-        <v>2146600</v>
+        <v>3329000</v>
       </c>
       <c r="F52" s="3">
-        <v>958600</v>
+        <v>2214700</v>
       </c>
       <c r="G52" s="3">
-        <v>1013800</v>
+        <v>989100</v>
       </c>
       <c r="H52" s="3">
-        <v>596100</v>
+        <v>1046000</v>
       </c>
       <c r="I52" s="3">
-        <v>1594200</v>
+        <v>615000</v>
       </c>
       <c r="J52" s="3">
+        <v>1644800</v>
+      </c>
+      <c r="K52" s="3">
         <v>293200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>332300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>61700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>40200</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2327,48 +2449,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69113800</v>
+        <v>85489800</v>
       </c>
       <c r="E54" s="3">
-        <v>58782500</v>
+        <v>71308300</v>
       </c>
       <c r="F54" s="3">
-        <v>36153500</v>
+        <v>60649000</v>
       </c>
       <c r="G54" s="3">
-        <v>29115700</v>
+        <v>37301500</v>
       </c>
       <c r="H54" s="3">
-        <v>25620500</v>
+        <v>30040300</v>
       </c>
       <c r="I54" s="3">
-        <v>22324000</v>
+        <v>26434000</v>
       </c>
       <c r="J54" s="3">
+        <v>23032800</v>
+      </c>
+      <c r="K54" s="3">
         <v>11834100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13412000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3973800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2566300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1538500</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2384,8 +2512,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2401,232 +2530,248 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19627600</v>
+        <v>23136500</v>
       </c>
       <c r="E57" s="3">
-        <v>14950600</v>
+        <v>20250900</v>
       </c>
       <c r="F57" s="3">
-        <v>12631900</v>
+        <v>15425300</v>
       </c>
       <c r="G57" s="3">
-        <v>11163900</v>
+        <v>13033000</v>
       </c>
       <c r="H57" s="3">
-        <v>10355400</v>
+        <v>11518400</v>
       </c>
       <c r="I57" s="3">
-        <v>6429800</v>
+        <v>10684200</v>
       </c>
       <c r="J57" s="3">
+        <v>6633900</v>
+      </c>
+      <c r="K57" s="3">
         <v>4165400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4720800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1683500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1162400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>528800</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>608000</v>
+        <v>1744400</v>
       </c>
       <c r="E58" s="3">
-        <v>453800</v>
+        <v>627300</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>468200</v>
       </c>
       <c r="G58" s="3">
-        <v>632700</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>1793600</v>
+        <v>652700</v>
       </c>
       <c r="I58" s="3">
-        <v>1546400</v>
+        <v>1850500</v>
       </c>
       <c r="J58" s="3">
+        <v>1595500</v>
+      </c>
+      <c r="K58" s="3">
         <v>503900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>571100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>142500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>124500</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10616100</v>
+        <v>13402600</v>
       </c>
       <c r="E59" s="3">
-        <v>8818700</v>
+        <v>10953200</v>
       </c>
       <c r="F59" s="3">
-        <v>6858500</v>
+        <v>9098800</v>
       </c>
       <c r="G59" s="3">
-        <v>5027400</v>
+        <v>7076300</v>
       </c>
       <c r="H59" s="3">
-        <v>4311500</v>
+        <v>5187000</v>
       </c>
       <c r="I59" s="3">
-        <v>10700500</v>
+        <v>4448400</v>
       </c>
       <c r="J59" s="3">
+        <v>11040300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2149300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2435800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>736100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>360800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>146700</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30851700</v>
+        <v>38283500</v>
       </c>
       <c r="E60" s="3">
-        <v>24223100</v>
+        <v>31831400</v>
       </c>
       <c r="F60" s="3">
-        <v>19490400</v>
+        <v>24992300</v>
       </c>
       <c r="G60" s="3">
-        <v>16824000</v>
+        <v>20109200</v>
       </c>
       <c r="H60" s="3">
-        <v>16460500</v>
+        <v>17358200</v>
       </c>
       <c r="I60" s="3">
-        <v>14579800</v>
+        <v>16983200</v>
       </c>
       <c r="J60" s="3">
+        <v>15042800</v>
+      </c>
+      <c r="K60" s="3">
         <v>6818400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7727600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2562100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1647700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>675500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1306500</v>
+        <v>4342100</v>
       </c>
       <c r="E61" s="3">
-        <v>1744300</v>
+        <v>1348000</v>
       </c>
       <c r="F61" s="3">
-        <v>1399200</v>
+        <v>1799700</v>
       </c>
       <c r="G61" s="3">
-        <v>1374500</v>
+        <v>1443600</v>
       </c>
       <c r="H61" s="3">
-        <v>1520400</v>
+        <v>1418200</v>
       </c>
       <c r="I61" s="3">
-        <v>1273600</v>
+        <v>1568700</v>
       </c>
       <c r="J61" s="3">
+        <v>1314000</v>
+      </c>
+      <c r="K61" s="3">
         <v>383300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>434400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2603200</v>
+        <v>3494700</v>
       </c>
       <c r="E62" s="3">
-        <v>1965700</v>
+        <v>2685800</v>
       </c>
       <c r="F62" s="3">
-        <v>1257100</v>
+        <v>2028100</v>
       </c>
       <c r="G62" s="3">
-        <v>222700</v>
+        <v>1297000</v>
       </c>
       <c r="H62" s="3">
-        <v>347000</v>
+        <v>229800</v>
       </c>
       <c r="I62" s="3">
-        <v>480600</v>
+        <v>358100</v>
       </c>
       <c r="J62" s="3">
+        <v>495800</v>
+      </c>
+      <c r="K62" s="3">
         <v>356000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>403500</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>10</v>
@@ -2634,9 +2779,12 @@
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2673,9 +2821,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2712,9 +2863,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2751,48 +2905,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40033400</v>
+        <v>54846200</v>
       </c>
       <c r="E66" s="3">
-        <v>32676400</v>
+        <v>41304500</v>
       </c>
       <c r="F66" s="3">
-        <v>24759200</v>
+        <v>33714000</v>
       </c>
       <c r="G66" s="3">
-        <v>20795600</v>
+        <v>25545400</v>
       </c>
       <c r="H66" s="3">
-        <v>18376400</v>
+        <v>21455900</v>
       </c>
       <c r="I66" s="3">
-        <v>17606100</v>
+        <v>18959900</v>
       </c>
       <c r="J66" s="3">
+        <v>18165100</v>
+      </c>
+      <c r="K66" s="3">
         <v>7576900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8587200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2562100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1647700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>675500</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2808,8 +2968,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2846,9 +3007,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2885,9 +3049,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2916,17 +3083,20 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>1148500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>734600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>513800</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2963,48 +3133,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>4926400</v>
+      <c r="D72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E72" s="3">
-        <v>5422100</v>
+        <v>5082900</v>
       </c>
       <c r="F72" s="3">
-        <v>-1455100</v>
+        <v>5594200</v>
       </c>
       <c r="G72" s="3">
-        <v>-3151200</v>
+        <v>-1501300</v>
       </c>
       <c r="H72" s="3">
-        <v>-3006500</v>
+        <v>-3251200</v>
       </c>
       <c r="I72" s="3">
-        <v>-3024500</v>
+        <v>-3102000</v>
       </c>
       <c r="J72" s="3">
+        <v>-3120500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2556400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2897300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-651000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-604200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-360900</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3041,9 +3217,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3080,9 +3259,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3119,48 +3301,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29080400</v>
+        <v>30643600</v>
       </c>
       <c r="E76" s="3">
-        <v>26106000</v>
+        <v>30003800</v>
       </c>
       <c r="F76" s="3">
-        <v>11394400</v>
+        <v>26935000</v>
       </c>
       <c r="G76" s="3">
-        <v>8320100</v>
+        <v>11756200</v>
       </c>
       <c r="H76" s="3">
-        <v>7244100</v>
+        <v>8584300</v>
       </c>
       <c r="I76" s="3">
-        <v>4717900</v>
+        <v>7474100</v>
       </c>
       <c r="J76" s="3">
+        <v>4867700</v>
+      </c>
+      <c r="K76" s="3">
         <v>4257200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4824800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>263200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>184000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>349200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3197,92 +3385,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-495600</v>
+        <v>1490800</v>
       </c>
       <c r="E81" s="3">
-        <v>6877200</v>
+        <v>-511300</v>
       </c>
       <c r="F81" s="3">
-        <v>1696000</v>
+        <v>7095600</v>
       </c>
       <c r="G81" s="3">
-        <v>-346800</v>
+        <v>1749900</v>
       </c>
       <c r="H81" s="3">
-        <v>-21200</v>
+        <v>-357800</v>
       </c>
       <c r="I81" s="3">
-        <v>-529900</v>
+        <v>-21900</v>
       </c>
       <c r="J81" s="3">
+        <v>-546700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1267800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2043600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-379700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-475900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-428200</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3298,47 +3495,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>867500</v>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E83" s="3">
-        <v>844600</v>
+        <v>895000</v>
       </c>
       <c r="F83" s="3">
-        <v>811300</v>
+        <v>871400</v>
       </c>
       <c r="G83" s="3">
-        <v>774000</v>
+        <v>837000</v>
       </c>
       <c r="H83" s="3">
-        <v>583600</v>
+        <v>798500</v>
       </c>
       <c r="I83" s="3">
-        <v>476100</v>
+        <v>602200</v>
       </c>
       <c r="J83" s="3">
+        <v>491200</v>
+      </c>
+      <c r="K83" s="3">
         <v>349000</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N83" s="3">
         <v>26600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10800</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3375,9 +3576,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3414,9 +3618,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3453,9 +3660,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3492,9 +3702,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3531,48 +3744,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5888300</v>
+        <v>8304000</v>
       </c>
       <c r="E89" s="3">
-        <v>5922200</v>
+        <v>6075300</v>
       </c>
       <c r="F89" s="3">
-        <v>3449500</v>
+        <v>6110200</v>
       </c>
       <c r="G89" s="3">
-        <v>2906700</v>
+        <v>3559100</v>
       </c>
       <c r="H89" s="3">
-        <v>3738500</v>
+        <v>2999000</v>
       </c>
       <c r="I89" s="3">
-        <v>1147100</v>
+        <v>3857200</v>
       </c>
       <c r="J89" s="3">
+        <v>1183500</v>
+      </c>
+      <c r="K89" s="3">
         <v>236100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>203500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>545400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>201400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3588,47 +3807,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-774200</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="3">
-        <v>-469100</v>
+        <v>-798800</v>
       </c>
       <c r="F91" s="3">
-        <v>-361500</v>
+        <v>-484000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1356300</v>
+        <v>-373000</v>
       </c>
       <c r="H91" s="3">
-        <v>-458600</v>
+        <v>-1399400</v>
       </c>
       <c r="I91" s="3">
-        <v>-298000</v>
+        <v>-473100</v>
       </c>
       <c r="J91" s="3">
+        <v>-307500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-355000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-224700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-67200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-85700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-90700</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3665,9 +3888,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3704,48 +3930,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10335300</v>
+        <v>-7759200</v>
       </c>
       <c r="E94" s="3">
-        <v>-8047200</v>
+        <v>-10663500</v>
       </c>
       <c r="F94" s="3">
-        <v>-3528600</v>
+        <v>-8302800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3630200</v>
+        <v>-3640700</v>
       </c>
       <c r="H94" s="3">
-        <v>-5542300</v>
+        <v>-3745500</v>
       </c>
       <c r="I94" s="3">
-        <v>-6331000</v>
+        <v>-5718300</v>
       </c>
       <c r="J94" s="3">
+        <v>-6532000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-806000</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N94" s="3">
         <v>-483400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-90800</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3761,8 +3993,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3799,9 +4032,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3838,9 +4074,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3877,9 +4116,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3916,124 +4158,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2714800</v>
+        <v>169500</v>
       </c>
       <c r="E100" s="3">
-        <v>9893200</v>
+        <v>2801000</v>
       </c>
       <c r="F100" s="3">
-        <v>358100</v>
+        <v>10207300</v>
       </c>
       <c r="G100" s="3">
-        <v>1561800</v>
+        <v>369500</v>
       </c>
       <c r="H100" s="3">
-        <v>2677500</v>
+        <v>1611400</v>
       </c>
       <c r="I100" s="3">
-        <v>5665400</v>
+        <v>2762500</v>
       </c>
       <c r="J100" s="3">
+        <v>5845300</v>
+      </c>
+      <c r="K100" s="3">
         <v>654300</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N100" s="3">
         <v>409400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>907000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-208500</v>
+        <v>501200</v>
       </c>
       <c r="E101" s="3">
-        <v>-707500</v>
+        <v>-215100</v>
       </c>
       <c r="F101" s="3">
-        <v>56500</v>
+        <v>-729900</v>
       </c>
       <c r="G101" s="3">
-        <v>234000</v>
+        <v>58300</v>
       </c>
       <c r="H101" s="3">
-        <v>-89300</v>
+        <v>241400</v>
       </c>
       <c r="I101" s="3">
-        <v>101100</v>
+        <v>-92100</v>
       </c>
       <c r="J101" s="3">
+        <v>104300</v>
+      </c>
+      <c r="K101" s="3">
         <v>47800</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-15600</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1940700</v>
+        <v>1215500</v>
       </c>
       <c r="E102" s="3">
-        <v>7060600</v>
+        <v>-2002400</v>
       </c>
       <c r="F102" s="3">
-        <v>335500</v>
+        <v>7284800</v>
       </c>
       <c r="G102" s="3">
-        <v>1072300</v>
+        <v>346200</v>
       </c>
       <c r="H102" s="3">
-        <v>784400</v>
+        <v>1106400</v>
       </c>
       <c r="I102" s="3">
-        <v>582500</v>
+        <v>809300</v>
       </c>
       <c r="J102" s="3">
+        <v>601000</v>
+      </c>
+      <c r="K102" s="3">
         <v>132100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>962700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>555400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>127500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>788100</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>JD</t>
   </si>
@@ -729,25 +729,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>150260400</v>
+        <v>148722400</v>
       </c>
       <c r="E8" s="3">
-        <v>136667600</v>
+        <v>135268800</v>
       </c>
       <c r="F8" s="3">
-        <v>107112100</v>
+        <v>106015700</v>
       </c>
       <c r="G8" s="3">
-        <v>82852700</v>
+        <v>82004700</v>
       </c>
       <c r="H8" s="3">
-        <v>66355300</v>
+        <v>65676100</v>
       </c>
       <c r="I8" s="3">
-        <v>52038100</v>
+        <v>51505500</v>
       </c>
       <c r="J8" s="3">
-        <v>37095600</v>
+        <v>36715900</v>
       </c>
       <c r="K8" s="3">
         <v>25201100</v>
@@ -771,25 +771,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>129137800</v>
+        <v>127816000</v>
       </c>
       <c r="E9" s="3">
-        <v>118131200</v>
+        <v>116922100</v>
       </c>
       <c r="F9" s="3">
-        <v>91441900</v>
+        <v>90506000</v>
       </c>
       <c r="G9" s="3">
-        <v>70728200</v>
+        <v>70004200</v>
       </c>
       <c r="H9" s="3">
-        <v>56883000</v>
+        <v>56300800</v>
       </c>
       <c r="I9" s="3">
-        <v>44740000</v>
+        <v>44282100</v>
       </c>
       <c r="J9" s="3">
-        <v>63714600</v>
+        <v>63062500</v>
       </c>
       <c r="K9" s="3">
         <v>43982800</v>
@@ -813,25 +813,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21122600</v>
+        <v>20906400</v>
       </c>
       <c r="E10" s="3">
-        <v>18536500</v>
+        <v>18346700</v>
       </c>
       <c r="F10" s="3">
-        <v>15670100</v>
+        <v>15509700</v>
       </c>
       <c r="G10" s="3">
-        <v>12124600</v>
+        <v>12000500</v>
       </c>
       <c r="H10" s="3">
-        <v>9472300</v>
+        <v>9375300</v>
       </c>
       <c r="I10" s="3">
-        <v>7298000</v>
+        <v>7223300</v>
       </c>
       <c r="J10" s="3">
-        <v>-26619000</v>
+        <v>-26346600</v>
       </c>
       <c r="K10" s="3">
         <v>-18781800</v>
@@ -873,25 +873,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2387300</v>
+        <v>2362800</v>
       </c>
       <c r="E12" s="3">
-        <v>2330700</v>
+        <v>2306800</v>
       </c>
       <c r="F12" s="3">
-        <v>2305100</v>
+        <v>2281500</v>
       </c>
       <c r="G12" s="3">
-        <v>2085300</v>
+        <v>2064000</v>
       </c>
       <c r="H12" s="3">
-        <v>1730100</v>
+        <v>1712400</v>
       </c>
       <c r="I12" s="3">
-        <v>943300</v>
+        <v>933700</v>
       </c>
       <c r="J12" s="3">
-        <v>632900</v>
+        <v>626400</v>
       </c>
       <c r="K12" s="3">
         <v>400600</v>
@@ -957,19 +957,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>299400</v>
+        <v>589600</v>
       </c>
       <c r="E14" s="3">
-        <v>-47800</v>
+        <v>-47300</v>
       </c>
       <c r="F14" s="3">
-        <v>-247000</v>
+        <v>-244500</v>
       </c>
       <c r="G14" s="3">
-        <v>-449500</v>
+        <v>-444900</v>
       </c>
       <c r="H14" s="3">
-        <v>-101200</v>
+        <v>-100200</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -999,25 +999,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>243000</v>
+        <v>240500</v>
       </c>
       <c r="E15" s="3">
-        <v>213600</v>
+        <v>211400</v>
       </c>
       <c r="F15" s="3">
-        <v>185700</v>
+        <v>183800</v>
       </c>
       <c r="G15" s="3">
-        <v>173600</v>
+        <v>171900</v>
       </c>
       <c r="H15" s="3">
-        <v>259400</v>
+        <v>256700</v>
       </c>
       <c r="I15" s="3">
-        <v>255400</v>
+        <v>252700</v>
       </c>
       <c r="J15" s="3">
-        <v>231100</v>
+        <v>228700</v>
       </c>
       <c r="K15" s="3">
         <v>200300</v>
@@ -1056,25 +1056,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>147925300</v>
+        <v>146704500</v>
       </c>
       <c r="E17" s="3">
-        <v>136135200</v>
+        <v>134741900</v>
       </c>
       <c r="F17" s="3">
-        <v>105329200</v>
+        <v>104251100</v>
       </c>
       <c r="G17" s="3">
-        <v>81669300</v>
+        <v>80833300</v>
       </c>
       <c r="H17" s="3">
-        <v>66627000</v>
+        <v>65945100</v>
       </c>
       <c r="I17" s="3">
-        <v>52158100</v>
+        <v>51624200</v>
       </c>
       <c r="J17" s="3">
-        <v>37275400</v>
+        <v>36893800</v>
       </c>
       <c r="K17" s="3">
         <v>25946900</v>
@@ -1098,25 +1098,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2335100</v>
+        <v>2018000</v>
       </c>
       <c r="E18" s="3">
-        <v>532400</v>
+        <v>527000</v>
       </c>
       <c r="F18" s="3">
-        <v>1782900</v>
+        <v>1764600</v>
       </c>
       <c r="G18" s="3">
-        <v>1183500</v>
+        <v>1171400</v>
       </c>
       <c r="H18" s="3">
-        <v>-271700</v>
+        <v>-268900</v>
       </c>
       <c r="I18" s="3">
-        <v>-120000</v>
+        <v>-118800</v>
       </c>
       <c r="J18" s="3">
-        <v>-179800</v>
+        <v>-177900</v>
       </c>
       <c r="K18" s="3">
         <v>-745800</v>
@@ -1158,22 +1158,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-41100</v>
+        <v>252600</v>
       </c>
       <c r="E20" s="3">
-        <v>-728700</v>
+        <v>-721300</v>
       </c>
       <c r="F20" s="3">
-        <v>5677300</v>
+        <v>5619200</v>
       </c>
       <c r="G20" s="3">
-        <v>887200</v>
+        <v>878100</v>
       </c>
       <c r="H20" s="3">
-        <v>53600</v>
+        <v>53000</v>
       </c>
       <c r="I20" s="3">
-        <v>275800</v>
+        <v>273000</v>
       </c>
       <c r="J20" s="3">
         <v>-1700</v>
@@ -1199,26 +1199,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>3304600</v>
       </c>
       <c r="E21" s="3">
-        <v>700400</v>
+        <v>696200</v>
       </c>
       <c r="F21" s="3">
-        <v>8333300</v>
+        <v>8250900</v>
       </c>
       <c r="G21" s="3">
-        <v>2909200</v>
+        <v>2882300</v>
       </c>
       <c r="H21" s="3">
-        <v>581900</v>
+        <v>578600</v>
       </c>
       <c r="I21" s="3">
-        <v>759100</v>
+        <v>753300</v>
       </c>
       <c r="J21" s="3">
-        <v>310700</v>
+        <v>309200</v>
       </c>
       <c r="K21" s="3">
         <v>-723200</v>
@@ -1242,25 +1242,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>302500</v>
+        <v>299400</v>
       </c>
       <c r="E22" s="3">
-        <v>174200</v>
+        <v>172400</v>
       </c>
       <c r="F22" s="3">
-        <v>161600</v>
+        <v>159900</v>
       </c>
       <c r="G22" s="3">
-        <v>104100</v>
+        <v>103100</v>
       </c>
       <c r="H22" s="3">
-        <v>122700</v>
+        <v>121500</v>
       </c>
       <c r="I22" s="3">
-        <v>138400</v>
+        <v>137000</v>
       </c>
       <c r="J22" s="3">
-        <v>88800</v>
+        <v>87900</v>
       </c>
       <c r="K22" s="3">
         <v>10100</v>
@@ -1284,25 +1284,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1991600</v>
+        <v>1971200</v>
       </c>
       <c r="E23" s="3">
-        <v>-370500</v>
+        <v>-366700</v>
       </c>
       <c r="F23" s="3">
-        <v>7298600</v>
+        <v>7223900</v>
       </c>
       <c r="G23" s="3">
-        <v>1966500</v>
+        <v>1946400</v>
       </c>
       <c r="H23" s="3">
-        <v>-340900</v>
+        <v>-337400</v>
       </c>
       <c r="I23" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="J23" s="3">
-        <v>-270300</v>
+        <v>-267500</v>
       </c>
       <c r="K23" s="3">
         <v>-1079600</v>
@@ -1326,25 +1326,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>599800</v>
+        <v>593600</v>
       </c>
       <c r="E24" s="3">
-        <v>271000</v>
+        <v>268200</v>
       </c>
       <c r="F24" s="3">
-        <v>212800</v>
+        <v>210600</v>
       </c>
       <c r="G24" s="3">
-        <v>258900</v>
+        <v>256200</v>
       </c>
       <c r="H24" s="3">
-        <v>61300</v>
+        <v>60700</v>
       </c>
       <c r="I24" s="3">
-        <v>20000</v>
+        <v>19800</v>
       </c>
       <c r="J24" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="K24" s="3">
         <v>-2000</v>
@@ -1410,25 +1410,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1391800</v>
+        <v>1377600</v>
       </c>
       <c r="E26" s="3">
-        <v>-641600</v>
+        <v>-635000</v>
       </c>
       <c r="F26" s="3">
-        <v>7085800</v>
+        <v>7013300</v>
       </c>
       <c r="G26" s="3">
-        <v>1707700</v>
+        <v>1690200</v>
       </c>
       <c r="H26" s="3">
-        <v>-402200</v>
+        <v>-398100</v>
       </c>
       <c r="I26" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="J26" s="3">
-        <v>-294200</v>
+        <v>-291200</v>
       </c>
       <c r="K26" s="3">
         <v>-1077600</v>
@@ -1452,25 +1452,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1490800</v>
+        <v>1475500</v>
       </c>
       <c r="E27" s="3">
-        <v>-511300</v>
+        <v>-506100</v>
       </c>
       <c r="F27" s="3">
-        <v>7095600</v>
+        <v>7023000</v>
       </c>
       <c r="G27" s="3">
-        <v>1749900</v>
+        <v>1732000</v>
       </c>
       <c r="H27" s="3">
-        <v>-357800</v>
+        <v>-354200</v>
       </c>
       <c r="I27" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="J27" s="3">
-        <v>-287300</v>
+        <v>-284400</v>
       </c>
       <c r="K27" s="3">
         <v>-1076300</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-38600</v>
+        <v>-38200</v>
       </c>
       <c r="J29" s="3">
-        <v>-259400</v>
+        <v>-256800</v>
       </c>
       <c r="K29" s="3">
         <v>-191600</v>
@@ -1662,22 +1662,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>41100</v>
+        <v>-252600</v>
       </c>
       <c r="E32" s="3">
-        <v>728700</v>
+        <v>721300</v>
       </c>
       <c r="F32" s="3">
-        <v>-5677300</v>
+        <v>-5619200</v>
       </c>
       <c r="G32" s="3">
-        <v>-887200</v>
+        <v>-878100</v>
       </c>
       <c r="H32" s="3">
-        <v>-53600</v>
+        <v>-53000</v>
       </c>
       <c r="I32" s="3">
-        <v>-275800</v>
+        <v>-273000</v>
       </c>
       <c r="J32" s="3">
         <v>1700</v>
@@ -1704,25 +1704,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1490800</v>
+        <v>1475500</v>
       </c>
       <c r="E33" s="3">
-        <v>-511300</v>
+        <v>-506100</v>
       </c>
       <c r="F33" s="3">
-        <v>7095600</v>
+        <v>7023000</v>
       </c>
       <c r="G33" s="3">
-        <v>1749900</v>
+        <v>1732000</v>
       </c>
       <c r="H33" s="3">
-        <v>-357800</v>
+        <v>-354200</v>
       </c>
       <c r="I33" s="3">
-        <v>-21900</v>
+        <v>-21600</v>
       </c>
       <c r="J33" s="3">
-        <v>-546700</v>
+        <v>-541100</v>
       </c>
       <c r="K33" s="3">
         <v>-1267800</v>
@@ -1788,25 +1788,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1490800</v>
+        <v>1475500</v>
       </c>
       <c r="E35" s="3">
-        <v>-511300</v>
+        <v>-506100</v>
       </c>
       <c r="F35" s="3">
-        <v>7095600</v>
+        <v>7023000</v>
       </c>
       <c r="G35" s="3">
-        <v>1749900</v>
+        <v>1732000</v>
       </c>
       <c r="H35" s="3">
-        <v>-357800</v>
+        <v>-354200</v>
       </c>
       <c r="I35" s="3">
-        <v>-21900</v>
+        <v>-21600</v>
       </c>
       <c r="J35" s="3">
-        <v>-546700</v>
+        <v>-541100</v>
       </c>
       <c r="K35" s="3">
         <v>-1267800</v>
@@ -1913,25 +1913,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11326000</v>
+        <v>11210100</v>
       </c>
       <c r="E41" s="3">
-        <v>10163600</v>
+        <v>10059500</v>
       </c>
       <c r="F41" s="3">
-        <v>12363500</v>
+        <v>12237000</v>
       </c>
       <c r="G41" s="3">
-        <v>5309800</v>
+        <v>5255500</v>
       </c>
       <c r="H41" s="3">
-        <v>4920800</v>
+        <v>4870400</v>
       </c>
       <c r="I41" s="3">
-        <v>3689400</v>
+        <v>3651600</v>
       </c>
       <c r="J41" s="3">
-        <v>2235700</v>
+        <v>2212900</v>
       </c>
       <c r="K41" s="3">
         <v>2486700</v>
@@ -1955,25 +1955,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20264100</v>
+        <v>20056700</v>
       </c>
       <c r="E42" s="3">
-        <v>16453700</v>
+        <v>16285300</v>
       </c>
       <c r="F42" s="3">
-        <v>8700100</v>
+        <v>8611000</v>
       </c>
       <c r="G42" s="3">
-        <v>3533500</v>
+        <v>3497300</v>
       </c>
       <c r="H42" s="3">
-        <v>292300</v>
+        <v>289400</v>
       </c>
       <c r="I42" s="3">
-        <v>1233400</v>
+        <v>1220800</v>
       </c>
       <c r="J42" s="3">
-        <v>2590700</v>
+        <v>2564200</v>
       </c>
       <c r="K42" s="3">
         <v>405900</v>
@@ -1997,25 +1997,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3837200</v>
+        <v>3798000</v>
       </c>
       <c r="E43" s="3">
-        <v>2499000</v>
+        <v>2473400</v>
       </c>
       <c r="F43" s="3">
-        <v>2077100</v>
+        <v>2055800</v>
       </c>
       <c r="G43" s="3">
-        <v>1720000</v>
+        <v>1702400</v>
       </c>
       <c r="H43" s="3">
-        <v>2436200</v>
+        <v>2411300</v>
       </c>
       <c r="I43" s="3">
-        <v>4637300</v>
+        <v>4589800</v>
       </c>
       <c r="J43" s="3">
-        <v>6516400</v>
+        <v>6449700</v>
       </c>
       <c r="K43" s="3">
         <v>1776600</v>
@@ -2039,25 +2039,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11195000</v>
+        <v>11080500</v>
       </c>
       <c r="E44" s="3">
-        <v>10857800</v>
+        <v>10746700</v>
       </c>
       <c r="F44" s="3">
-        <v>8463900</v>
+        <v>8377300</v>
       </c>
       <c r="G44" s="3">
-        <v>8320200</v>
+        <v>8235100</v>
       </c>
       <c r="H44" s="3">
-        <v>6323600</v>
+        <v>6258900</v>
       </c>
       <c r="I44" s="3">
-        <v>5989000</v>
+        <v>5927700</v>
       </c>
       <c r="J44" s="3">
-        <v>8303900</v>
+        <v>8218900</v>
       </c>
       <c r="K44" s="3">
         <v>2859100</v>
@@ -2081,25 +2081,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3798900</v>
+        <v>3760000</v>
       </c>
       <c r="E45" s="3">
-        <v>3064900</v>
+        <v>3033500</v>
       </c>
       <c r="F45" s="3">
-        <v>2117600</v>
+        <v>2095900</v>
       </c>
       <c r="G45" s="3">
-        <v>1093200</v>
+        <v>1082100</v>
       </c>
       <c r="H45" s="3">
-        <v>1086500</v>
+        <v>1075400</v>
       </c>
       <c r="I45" s="3">
-        <v>971400</v>
+        <v>961500</v>
       </c>
       <c r="J45" s="3">
-        <v>3831200</v>
+        <v>3792000</v>
       </c>
       <c r="K45" s="3">
         <v>817500</v>
@@ -2123,25 +2123,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>50421200</v>
+        <v>49905200</v>
       </c>
       <c r="E46" s="3">
-        <v>43038900</v>
+        <v>42598400</v>
       </c>
       <c r="F46" s="3">
-        <v>33722200</v>
+        <v>33377000</v>
       </c>
       <c r="G46" s="3">
-        <v>19976800</v>
+        <v>19772300</v>
       </c>
       <c r="H46" s="3">
-        <v>15059400</v>
+        <v>14905200</v>
       </c>
       <c r="I46" s="3">
-        <v>16520400</v>
+        <v>16351300</v>
       </c>
       <c r="J46" s="3">
-        <v>15357600</v>
+        <v>15200400</v>
       </c>
       <c r="K46" s="3">
         <v>8138800</v>
@@ -2165,25 +2165,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9946000</v>
+        <v>9844200</v>
       </c>
       <c r="E47" s="3">
-        <v>11821400</v>
+        <v>11700400</v>
       </c>
       <c r="F47" s="3">
-        <v>14015400</v>
+        <v>13871900</v>
       </c>
       <c r="G47" s="3">
-        <v>8185300</v>
+        <v>8101500</v>
       </c>
       <c r="H47" s="3">
-        <v>6787200</v>
+        <v>6717800</v>
       </c>
       <c r="I47" s="3">
-        <v>4104500</v>
+        <v>4062500</v>
       </c>
       <c r="J47" s="3">
-        <v>5359100</v>
+        <v>5304300</v>
       </c>
       <c r="K47" s="3">
         <v>1352900</v>
@@ -2207,25 +2207,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12711500</v>
+        <v>12581400</v>
       </c>
       <c r="E48" s="3">
-        <v>8437400</v>
+        <v>8351000</v>
       </c>
       <c r="F48" s="3">
-        <v>6604700</v>
+        <v>6537100</v>
       </c>
       <c r="G48" s="3">
-        <v>5041600</v>
+        <v>4990000</v>
       </c>
       <c r="H48" s="3">
-        <v>3969200</v>
+        <v>3928500</v>
       </c>
       <c r="I48" s="3">
-        <v>2265000</v>
+        <v>2241800</v>
       </c>
       <c r="J48" s="3">
-        <v>2303500</v>
+        <v>2279900</v>
       </c>
       <c r="K48" s="3">
         <v>1044000</v>
@@ -2249,25 +2249,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9494700</v>
+        <v>9397500</v>
       </c>
       <c r="E49" s="3">
-        <v>4681700</v>
+        <v>4633800</v>
       </c>
       <c r="F49" s="3">
-        <v>4092100</v>
+        <v>4050200</v>
       </c>
       <c r="G49" s="3">
-        <v>3108700</v>
+        <v>3076900</v>
       </c>
       <c r="H49" s="3">
-        <v>3178500</v>
+        <v>3145900</v>
       </c>
       <c r="I49" s="3">
-        <v>2929000</v>
+        <v>2899000</v>
       </c>
       <c r="J49" s="3">
-        <v>4058800</v>
+        <v>4017300</v>
       </c>
       <c r="K49" s="3">
         <v>983400</v>
@@ -2375,25 +2375,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2916300</v>
+        <v>2886500</v>
       </c>
       <c r="E52" s="3">
-        <v>3329000</v>
+        <v>3294900</v>
       </c>
       <c r="F52" s="3">
-        <v>2214700</v>
+        <v>2192100</v>
       </c>
       <c r="G52" s="3">
-        <v>989100</v>
+        <v>979000</v>
       </c>
       <c r="H52" s="3">
-        <v>1046000</v>
+        <v>1035300</v>
       </c>
       <c r="I52" s="3">
-        <v>615000</v>
+        <v>608700</v>
       </c>
       <c r="J52" s="3">
-        <v>1644800</v>
+        <v>1627900</v>
       </c>
       <c r="K52" s="3">
         <v>293200</v>
@@ -2459,25 +2459,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>85489800</v>
+        <v>84614800</v>
       </c>
       <c r="E54" s="3">
-        <v>71308300</v>
+        <v>70578500</v>
       </c>
       <c r="F54" s="3">
-        <v>60649000</v>
+        <v>60028200</v>
       </c>
       <c r="G54" s="3">
-        <v>37301500</v>
+        <v>36919700</v>
       </c>
       <c r="H54" s="3">
-        <v>30040300</v>
+        <v>29732800</v>
       </c>
       <c r="I54" s="3">
-        <v>26434000</v>
+        <v>26163400</v>
       </c>
       <c r="J54" s="3">
-        <v>23032800</v>
+        <v>22797100</v>
       </c>
       <c r="K54" s="3">
         <v>11834100</v>
@@ -2537,25 +2537,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23136500</v>
+        <v>22899700</v>
       </c>
       <c r="E57" s="3">
-        <v>20250900</v>
+        <v>20043600</v>
       </c>
       <c r="F57" s="3">
-        <v>15425300</v>
+        <v>15267400</v>
       </c>
       <c r="G57" s="3">
-        <v>13033000</v>
+        <v>12899600</v>
       </c>
       <c r="H57" s="3">
-        <v>11518400</v>
+        <v>11400500</v>
       </c>
       <c r="I57" s="3">
-        <v>10684200</v>
+        <v>10574800</v>
       </c>
       <c r="J57" s="3">
-        <v>6633900</v>
+        <v>6566000</v>
       </c>
       <c r="K57" s="3">
         <v>4165400</v>
@@ -2579,25 +2579,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1744400</v>
+        <v>1726600</v>
       </c>
       <c r="E58" s="3">
-        <v>627300</v>
+        <v>620900</v>
       </c>
       <c r="F58" s="3">
-        <v>468200</v>
+        <v>463400</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>652700</v>
+        <v>646100</v>
       </c>
       <c r="I58" s="3">
-        <v>1850500</v>
+        <v>1831600</v>
       </c>
       <c r="J58" s="3">
-        <v>1595500</v>
+        <v>1579200</v>
       </c>
       <c r="K58" s="3">
         <v>503900</v>
@@ -2621,25 +2621,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13402600</v>
+        <v>13265400</v>
       </c>
       <c r="E59" s="3">
-        <v>10953200</v>
+        <v>10841100</v>
       </c>
       <c r="F59" s="3">
-        <v>9098800</v>
+        <v>9005600</v>
       </c>
       <c r="G59" s="3">
-        <v>7076300</v>
+        <v>7003800</v>
       </c>
       <c r="H59" s="3">
-        <v>5187000</v>
+        <v>5134000</v>
       </c>
       <c r="I59" s="3">
-        <v>4448400</v>
+        <v>4402900</v>
       </c>
       <c r="J59" s="3">
-        <v>11040300</v>
+        <v>10927300</v>
       </c>
       <c r="K59" s="3">
         <v>2149300</v>
@@ -2663,25 +2663,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38283500</v>
+        <v>37891600</v>
       </c>
       <c r="E60" s="3">
-        <v>31831400</v>
+        <v>31505600</v>
       </c>
       <c r="F60" s="3">
-        <v>24992300</v>
+        <v>24736500</v>
       </c>
       <c r="G60" s="3">
-        <v>20109200</v>
+        <v>19903400</v>
       </c>
       <c r="H60" s="3">
-        <v>17358200</v>
+        <v>17180500</v>
       </c>
       <c r="I60" s="3">
-        <v>16983200</v>
+        <v>16809300</v>
       </c>
       <c r="J60" s="3">
-        <v>15042800</v>
+        <v>14888800</v>
       </c>
       <c r="K60" s="3">
         <v>6818400</v>
@@ -2705,25 +2705,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4342100</v>
+        <v>4297600</v>
       </c>
       <c r="E61" s="3">
-        <v>1348000</v>
+        <v>1334200</v>
       </c>
       <c r="F61" s="3">
-        <v>1799700</v>
+        <v>1781200</v>
       </c>
       <c r="G61" s="3">
-        <v>1443600</v>
+        <v>1428900</v>
       </c>
       <c r="H61" s="3">
-        <v>1418200</v>
+        <v>1403700</v>
       </c>
       <c r="I61" s="3">
-        <v>1568700</v>
+        <v>1552600</v>
       </c>
       <c r="J61" s="3">
-        <v>1314000</v>
+        <v>1300600</v>
       </c>
       <c r="K61" s="3">
         <v>383300</v>
@@ -2747,25 +2747,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3494700</v>
+        <v>3458900</v>
       </c>
       <c r="E62" s="3">
-        <v>2685800</v>
+        <v>2658300</v>
       </c>
       <c r="F62" s="3">
-        <v>2028100</v>
+        <v>2007300</v>
       </c>
       <c r="G62" s="3">
-        <v>1297000</v>
+        <v>1283700</v>
       </c>
       <c r="H62" s="3">
-        <v>229800</v>
+        <v>227500</v>
       </c>
       <c r="I62" s="3">
-        <v>358100</v>
+        <v>354400</v>
       </c>
       <c r="J62" s="3">
-        <v>495800</v>
+        <v>490800</v>
       </c>
       <c r="K62" s="3">
         <v>356000</v>
@@ -2915,25 +2915,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54846200</v>
+        <v>54284800</v>
       </c>
       <c r="E66" s="3">
-        <v>41304500</v>
+        <v>40881800</v>
       </c>
       <c r="F66" s="3">
-        <v>33714000</v>
+        <v>33368900</v>
       </c>
       <c r="G66" s="3">
-        <v>25545400</v>
+        <v>25283900</v>
       </c>
       <c r="H66" s="3">
-        <v>21455900</v>
+        <v>21236300</v>
       </c>
       <c r="I66" s="3">
-        <v>18959900</v>
+        <v>18765800</v>
       </c>
       <c r="J66" s="3">
-        <v>18165100</v>
+        <v>17979200</v>
       </c>
       <c r="K66" s="3">
         <v>7576900</v>
@@ -3142,26 +3142,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
+      <c r="D72" s="3">
+        <v>4659300</v>
       </c>
       <c r="E72" s="3">
-        <v>5082900</v>
+        <v>5030800</v>
       </c>
       <c r="F72" s="3">
-        <v>5594200</v>
+        <v>5537000</v>
       </c>
       <c r="G72" s="3">
-        <v>-1501300</v>
+        <v>-1486000</v>
       </c>
       <c r="H72" s="3">
-        <v>-3251200</v>
+        <v>-3217900</v>
       </c>
       <c r="I72" s="3">
-        <v>-3102000</v>
+        <v>-3070200</v>
       </c>
       <c r="J72" s="3">
-        <v>-3120500</v>
+        <v>-3088600</v>
       </c>
       <c r="K72" s="3">
         <v>-2556400</v>
@@ -3311,25 +3311,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30643600</v>
+        <v>30330000</v>
       </c>
       <c r="E76" s="3">
-        <v>30003800</v>
+        <v>29696700</v>
       </c>
       <c r="F76" s="3">
-        <v>26935000</v>
+        <v>26659300</v>
       </c>
       <c r="G76" s="3">
-        <v>11756200</v>
+        <v>11635800</v>
       </c>
       <c r="H76" s="3">
-        <v>8584300</v>
+        <v>8496400</v>
       </c>
       <c r="I76" s="3">
-        <v>7474100</v>
+        <v>7397600</v>
       </c>
       <c r="J76" s="3">
-        <v>4867700</v>
+        <v>4817900</v>
       </c>
       <c r="K76" s="3">
         <v>4257200</v>
@@ -3442,25 +3442,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1490800</v>
+        <v>1475500</v>
       </c>
       <c r="E81" s="3">
-        <v>-511300</v>
+        <v>-506100</v>
       </c>
       <c r="F81" s="3">
-        <v>7095600</v>
+        <v>7023000</v>
       </c>
       <c r="G81" s="3">
-        <v>1749900</v>
+        <v>1732000</v>
       </c>
       <c r="H81" s="3">
-        <v>-357800</v>
+        <v>-354200</v>
       </c>
       <c r="I81" s="3">
-        <v>-21900</v>
+        <v>-21600</v>
       </c>
       <c r="J81" s="3">
-        <v>-546700</v>
+        <v>-541100</v>
       </c>
       <c r="K81" s="3">
         <v>-1267800</v>
@@ -3501,26 +3501,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>10</v>
+      <c r="D83" s="3">
+        <v>1028600</v>
       </c>
       <c r="E83" s="3">
-        <v>895000</v>
+        <v>885900</v>
       </c>
       <c r="F83" s="3">
-        <v>871400</v>
+        <v>862500</v>
       </c>
       <c r="G83" s="3">
-        <v>837000</v>
+        <v>828500</v>
       </c>
       <c r="H83" s="3">
-        <v>798500</v>
+        <v>790400</v>
       </c>
       <c r="I83" s="3">
-        <v>602200</v>
+        <v>596000</v>
       </c>
       <c r="J83" s="3">
-        <v>491200</v>
+        <v>486200</v>
       </c>
       <c r="K83" s="3">
         <v>349000</v>
@@ -3754,25 +3754,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8304000</v>
+        <v>8219000</v>
       </c>
       <c r="E89" s="3">
-        <v>6075300</v>
+        <v>6013100</v>
       </c>
       <c r="F89" s="3">
-        <v>6110200</v>
+        <v>6047700</v>
       </c>
       <c r="G89" s="3">
-        <v>3559100</v>
+        <v>3522700</v>
       </c>
       <c r="H89" s="3">
-        <v>2999000</v>
+        <v>2968300</v>
       </c>
       <c r="I89" s="3">
-        <v>3857200</v>
+        <v>3817700</v>
       </c>
       <c r="J89" s="3">
-        <v>1183500</v>
+        <v>1171400</v>
       </c>
       <c r="K89" s="3">
         <v>236100</v>
@@ -3813,26 +3813,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>-781100</v>
       </c>
       <c r="E91" s="3">
-        <v>-798800</v>
+        <v>-790600</v>
       </c>
       <c r="F91" s="3">
-        <v>-484000</v>
+        <v>-479100</v>
       </c>
       <c r="G91" s="3">
-        <v>-373000</v>
+        <v>-369200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1399400</v>
+        <v>-1385000</v>
       </c>
       <c r="I91" s="3">
-        <v>-473100</v>
+        <v>-468300</v>
       </c>
       <c r="J91" s="3">
-        <v>-307500</v>
+        <v>-304300</v>
       </c>
       <c r="K91" s="3">
         <v>-355000</v>
@@ -3940,25 +3940,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7759200</v>
+        <v>-7679800</v>
       </c>
       <c r="E94" s="3">
-        <v>-10663500</v>
+        <v>-10554400</v>
       </c>
       <c r="F94" s="3">
-        <v>-8302800</v>
+        <v>-8217800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3640700</v>
+        <v>-3603400</v>
       </c>
       <c r="H94" s="3">
-        <v>-3745500</v>
+        <v>-3707100</v>
       </c>
       <c r="I94" s="3">
-        <v>-5718300</v>
+        <v>-5659700</v>
       </c>
       <c r="J94" s="3">
-        <v>-6532000</v>
+        <v>-6465200</v>
       </c>
       <c r="K94" s="3">
         <v>-806000</v>
@@ -4000,7 +4000,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1860300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4168,25 +4168,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>169500</v>
+        <v>167700</v>
       </c>
       <c r="E100" s="3">
-        <v>2801000</v>
+        <v>2772400</v>
       </c>
       <c r="F100" s="3">
-        <v>10207300</v>
+        <v>10102800</v>
       </c>
       <c r="G100" s="3">
-        <v>369500</v>
+        <v>365700</v>
       </c>
       <c r="H100" s="3">
-        <v>1611400</v>
+        <v>1594900</v>
       </c>
       <c r="I100" s="3">
-        <v>2762500</v>
+        <v>2734300</v>
       </c>
       <c r="J100" s="3">
-        <v>5845300</v>
+        <v>5785400</v>
       </c>
       <c r="K100" s="3">
         <v>654300</v>
@@ -4210,25 +4210,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>501200</v>
+        <v>496100</v>
       </c>
       <c r="E101" s="3">
-        <v>-215100</v>
+        <v>-212900</v>
       </c>
       <c r="F101" s="3">
-        <v>-729900</v>
+        <v>-722500</v>
       </c>
       <c r="G101" s="3">
-        <v>58300</v>
+        <v>57700</v>
       </c>
       <c r="H101" s="3">
-        <v>241400</v>
+        <v>239000</v>
       </c>
       <c r="I101" s="3">
-        <v>-92100</v>
+        <v>-91200</v>
       </c>
       <c r="J101" s="3">
-        <v>104300</v>
+        <v>103300</v>
       </c>
       <c r="K101" s="3">
         <v>47800</v>
@@ -4252,25 +4252,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1215500</v>
+        <v>1203000</v>
       </c>
       <c r="E102" s="3">
-        <v>-2002400</v>
+        <v>-1981900</v>
       </c>
       <c r="F102" s="3">
-        <v>7284800</v>
+        <v>7210300</v>
       </c>
       <c r="G102" s="3">
-        <v>346200</v>
+        <v>342600</v>
       </c>
       <c r="H102" s="3">
-        <v>1106400</v>
+        <v>1095100</v>
       </c>
       <c r="I102" s="3">
-        <v>809300</v>
+        <v>801000</v>
       </c>
       <c r="J102" s="3">
-        <v>601000</v>
+        <v>594900</v>
       </c>
       <c r="K102" s="3">
         <v>132100</v>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -729,25 +729,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>148722400</v>
+        <v>144150400</v>
       </c>
       <c r="E8" s="3">
-        <v>135268800</v>
+        <v>131110300</v>
       </c>
       <c r="F8" s="3">
-        <v>106015700</v>
+        <v>102756600</v>
       </c>
       <c r="G8" s="3">
-        <v>82004700</v>
+        <v>79483700</v>
       </c>
       <c r="H8" s="3">
-        <v>65676100</v>
+        <v>63657100</v>
       </c>
       <c r="I8" s="3">
-        <v>51505500</v>
+        <v>49922100</v>
       </c>
       <c r="J8" s="3">
-        <v>36715900</v>
+        <v>35587200</v>
       </c>
       <c r="K8" s="3">
         <v>25201100</v>
@@ -771,25 +771,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>127816000</v>
+        <v>123886700</v>
       </c>
       <c r="E9" s="3">
-        <v>116922100</v>
+        <v>113327600</v>
       </c>
       <c r="F9" s="3">
-        <v>90506000</v>
+        <v>87723600</v>
       </c>
       <c r="G9" s="3">
-        <v>70004200</v>
+        <v>67852200</v>
       </c>
       <c r="H9" s="3">
-        <v>56300800</v>
+        <v>54570000</v>
       </c>
       <c r="I9" s="3">
-        <v>44282100</v>
+        <v>42920800</v>
       </c>
       <c r="J9" s="3">
-        <v>63062500</v>
+        <v>61123800</v>
       </c>
       <c r="K9" s="3">
         <v>43982800</v>
@@ -813,25 +813,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20906400</v>
+        <v>20263700</v>
       </c>
       <c r="E10" s="3">
-        <v>18346700</v>
+        <v>17782700</v>
       </c>
       <c r="F10" s="3">
-        <v>15509700</v>
+        <v>15032900</v>
       </c>
       <c r="G10" s="3">
-        <v>12000500</v>
+        <v>11631500</v>
       </c>
       <c r="H10" s="3">
-        <v>9375300</v>
+        <v>9087100</v>
       </c>
       <c r="I10" s="3">
-        <v>7223300</v>
+        <v>7001300</v>
       </c>
       <c r="J10" s="3">
-        <v>-26346600</v>
+        <v>-25536600</v>
       </c>
       <c r="K10" s="3">
         <v>-18781800</v>
@@ -873,25 +873,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2362800</v>
+        <v>2290200</v>
       </c>
       <c r="E12" s="3">
-        <v>2306800</v>
+        <v>2235900</v>
       </c>
       <c r="F12" s="3">
-        <v>2281500</v>
+        <v>2211400</v>
       </c>
       <c r="G12" s="3">
-        <v>2064000</v>
+        <v>2000500</v>
       </c>
       <c r="H12" s="3">
-        <v>1712400</v>
+        <v>1659800</v>
       </c>
       <c r="I12" s="3">
-        <v>933700</v>
+        <v>905000</v>
       </c>
       <c r="J12" s="3">
-        <v>626400</v>
+        <v>607200</v>
       </c>
       <c r="K12" s="3">
         <v>400600</v>
@@ -957,19 +957,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>589600</v>
+        <v>571500</v>
       </c>
       <c r="E14" s="3">
-        <v>-47300</v>
+        <v>-45900</v>
       </c>
       <c r="F14" s="3">
-        <v>-244500</v>
+        <v>-237000</v>
       </c>
       <c r="G14" s="3">
-        <v>-444900</v>
+        <v>-431300</v>
       </c>
       <c r="H14" s="3">
-        <v>-100200</v>
+        <v>-97100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -999,25 +999,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>240500</v>
+        <v>233100</v>
       </c>
       <c r="E15" s="3">
-        <v>211400</v>
+        <v>204900</v>
       </c>
       <c r="F15" s="3">
-        <v>183800</v>
+        <v>178100</v>
       </c>
       <c r="G15" s="3">
-        <v>171900</v>
+        <v>166600</v>
       </c>
       <c r="H15" s="3">
-        <v>256700</v>
+        <v>248800</v>
       </c>
       <c r="I15" s="3">
-        <v>252700</v>
+        <v>245000</v>
       </c>
       <c r="J15" s="3">
-        <v>228700</v>
+        <v>221700</v>
       </c>
       <c r="K15" s="3">
         <v>200300</v>
@@ -1056,25 +1056,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>146704500</v>
+        <v>142194500</v>
       </c>
       <c r="E17" s="3">
-        <v>134741900</v>
+        <v>130599600</v>
       </c>
       <c r="F17" s="3">
-        <v>104251100</v>
+        <v>101046200</v>
       </c>
       <c r="G17" s="3">
-        <v>80833300</v>
+        <v>78348400</v>
       </c>
       <c r="H17" s="3">
-        <v>65945100</v>
+        <v>63917800</v>
       </c>
       <c r="I17" s="3">
-        <v>51624200</v>
+        <v>50037200</v>
       </c>
       <c r="J17" s="3">
-        <v>36893800</v>
+        <v>35759600</v>
       </c>
       <c r="K17" s="3">
         <v>25946900</v>
@@ -1098,25 +1098,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2018000</v>
+        <v>1955900</v>
       </c>
       <c r="E18" s="3">
-        <v>527000</v>
+        <v>510800</v>
       </c>
       <c r="F18" s="3">
-        <v>1764600</v>
+        <v>1710400</v>
       </c>
       <c r="G18" s="3">
-        <v>1171400</v>
+        <v>1135300</v>
       </c>
       <c r="H18" s="3">
-        <v>-268900</v>
+        <v>-260700</v>
       </c>
       <c r="I18" s="3">
-        <v>-118800</v>
+        <v>-115100</v>
       </c>
       <c r="J18" s="3">
-        <v>-177900</v>
+        <v>-172500</v>
       </c>
       <c r="K18" s="3">
         <v>-745800</v>
@@ -1158,25 +1158,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>252600</v>
+        <v>244800</v>
       </c>
       <c r="E20" s="3">
-        <v>-721300</v>
+        <v>-699100</v>
       </c>
       <c r="F20" s="3">
-        <v>5619200</v>
+        <v>5446500</v>
       </c>
       <c r="G20" s="3">
-        <v>878100</v>
+        <v>851100</v>
       </c>
       <c r="H20" s="3">
-        <v>53000</v>
+        <v>51400</v>
       </c>
       <c r="I20" s="3">
-        <v>273000</v>
+        <v>264600</v>
       </c>
       <c r="J20" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K20" s="3">
         <v>-323700</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3304600</v>
+        <v>3197700</v>
       </c>
       <c r="E21" s="3">
-        <v>696200</v>
+        <v>670300</v>
       </c>
       <c r="F21" s="3">
-        <v>8250900</v>
+        <v>7992900</v>
       </c>
       <c r="G21" s="3">
-        <v>2882300</v>
+        <v>2789400</v>
       </c>
       <c r="H21" s="3">
-        <v>578600</v>
+        <v>556800</v>
       </c>
       <c r="I21" s="3">
-        <v>753300</v>
+        <v>727100</v>
       </c>
       <c r="J21" s="3">
-        <v>309200</v>
+        <v>297200</v>
       </c>
       <c r="K21" s="3">
         <v>-723200</v>
@@ -1242,25 +1242,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>299400</v>
+        <v>290200</v>
       </c>
       <c r="E22" s="3">
-        <v>172400</v>
+        <v>167100</v>
       </c>
       <c r="F22" s="3">
-        <v>159900</v>
+        <v>155000</v>
       </c>
       <c r="G22" s="3">
-        <v>103100</v>
+        <v>99900</v>
       </c>
       <c r="H22" s="3">
-        <v>121500</v>
+        <v>117700</v>
       </c>
       <c r="I22" s="3">
-        <v>137000</v>
+        <v>132800</v>
       </c>
       <c r="J22" s="3">
-        <v>87900</v>
+        <v>85200</v>
       </c>
       <c r="K22" s="3">
         <v>10100</v>
@@ -1284,25 +1284,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1971200</v>
+        <v>1910600</v>
       </c>
       <c r="E23" s="3">
-        <v>-366700</v>
+        <v>-355500</v>
       </c>
       <c r="F23" s="3">
-        <v>7223900</v>
+        <v>7001800</v>
       </c>
       <c r="G23" s="3">
-        <v>1946400</v>
+        <v>1886600</v>
       </c>
       <c r="H23" s="3">
-        <v>-337400</v>
+        <v>-327000</v>
       </c>
       <c r="I23" s="3">
-        <v>17200</v>
+        <v>16700</v>
       </c>
       <c r="J23" s="3">
-        <v>-267500</v>
+        <v>-259300</v>
       </c>
       <c r="K23" s="3">
         <v>-1079600</v>
@@ -1326,25 +1326,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>593600</v>
+        <v>575400</v>
       </c>
       <c r="E24" s="3">
-        <v>268200</v>
+        <v>260000</v>
       </c>
       <c r="F24" s="3">
-        <v>210600</v>
+        <v>204100</v>
       </c>
       <c r="G24" s="3">
-        <v>256200</v>
+        <v>248300</v>
       </c>
       <c r="H24" s="3">
-        <v>60700</v>
+        <v>58800</v>
       </c>
       <c r="I24" s="3">
-        <v>19800</v>
+        <v>19200</v>
       </c>
       <c r="J24" s="3">
-        <v>23700</v>
+        <v>22900</v>
       </c>
       <c r="K24" s="3">
         <v>-2000</v>
@@ -1410,25 +1410,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1377600</v>
+        <v>1335200</v>
       </c>
       <c r="E26" s="3">
-        <v>-635000</v>
+        <v>-615500</v>
       </c>
       <c r="F26" s="3">
-        <v>7013300</v>
+        <v>6797700</v>
       </c>
       <c r="G26" s="3">
-        <v>1690200</v>
+        <v>1638200</v>
       </c>
       <c r="H26" s="3">
-        <v>-398100</v>
+        <v>-385900</v>
       </c>
       <c r="I26" s="3">
         <v>-2600</v>
       </c>
       <c r="J26" s="3">
-        <v>-291200</v>
+        <v>-282200</v>
       </c>
       <c r="K26" s="3">
         <v>-1077600</v>
@@ -1452,25 +1452,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1475500</v>
+        <v>1430200</v>
       </c>
       <c r="E27" s="3">
-        <v>-506100</v>
+        <v>-490500</v>
       </c>
       <c r="F27" s="3">
-        <v>7023000</v>
+        <v>6807100</v>
       </c>
       <c r="G27" s="3">
-        <v>1732000</v>
+        <v>1678700</v>
       </c>
       <c r="H27" s="3">
-        <v>-354200</v>
+        <v>-343300</v>
       </c>
       <c r="I27" s="3">
-        <v>16600</v>
+        <v>16100</v>
       </c>
       <c r="J27" s="3">
-        <v>-284400</v>
+        <v>-275600</v>
       </c>
       <c r="K27" s="3">
         <v>-1076300</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-38200</v>
+        <v>-37100</v>
       </c>
       <c r="J29" s="3">
-        <v>-256800</v>
+        <v>-248900</v>
       </c>
       <c r="K29" s="3">
         <v>-191600</v>
@@ -1662,25 +1662,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-252600</v>
+        <v>-244800</v>
       </c>
       <c r="E32" s="3">
-        <v>721300</v>
+        <v>699100</v>
       </c>
       <c r="F32" s="3">
-        <v>-5619200</v>
+        <v>-5446500</v>
       </c>
       <c r="G32" s="3">
-        <v>-878100</v>
+        <v>-851100</v>
       </c>
       <c r="H32" s="3">
-        <v>-53000</v>
+        <v>-51400</v>
       </c>
       <c r="I32" s="3">
-        <v>-273000</v>
+        <v>-264600</v>
       </c>
       <c r="J32" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K32" s="3">
         <v>323700</v>
@@ -1704,25 +1704,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1475500</v>
+        <v>1430200</v>
       </c>
       <c r="E33" s="3">
-        <v>-506100</v>
+        <v>-490500</v>
       </c>
       <c r="F33" s="3">
-        <v>7023000</v>
+        <v>6807100</v>
       </c>
       <c r="G33" s="3">
-        <v>1732000</v>
+        <v>1678700</v>
       </c>
       <c r="H33" s="3">
-        <v>-354200</v>
+        <v>-343300</v>
       </c>
       <c r="I33" s="3">
-        <v>-21600</v>
+        <v>-21000</v>
       </c>
       <c r="J33" s="3">
-        <v>-541100</v>
+        <v>-524500</v>
       </c>
       <c r="K33" s="3">
         <v>-1267800</v>
@@ -1788,25 +1788,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1475500</v>
+        <v>1430200</v>
       </c>
       <c r="E35" s="3">
-        <v>-506100</v>
+        <v>-490500</v>
       </c>
       <c r="F35" s="3">
-        <v>7023000</v>
+        <v>6807100</v>
       </c>
       <c r="G35" s="3">
-        <v>1732000</v>
+        <v>1678700</v>
       </c>
       <c r="H35" s="3">
-        <v>-354200</v>
+        <v>-343300</v>
       </c>
       <c r="I35" s="3">
-        <v>-21600</v>
+        <v>-21000</v>
       </c>
       <c r="J35" s="3">
-        <v>-541100</v>
+        <v>-524500</v>
       </c>
       <c r="K35" s="3">
         <v>-1267800</v>
@@ -1913,25 +1913,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11210100</v>
+        <v>10865500</v>
       </c>
       <c r="E41" s="3">
-        <v>10059500</v>
+        <v>9750300</v>
       </c>
       <c r="F41" s="3">
-        <v>12237000</v>
+        <v>11860800</v>
       </c>
       <c r="G41" s="3">
-        <v>5255500</v>
+        <v>5093900</v>
       </c>
       <c r="H41" s="3">
-        <v>4870400</v>
+        <v>4720700</v>
       </c>
       <c r="I41" s="3">
-        <v>3651600</v>
+        <v>3539300</v>
       </c>
       <c r="J41" s="3">
-        <v>2212900</v>
+        <v>2144800</v>
       </c>
       <c r="K41" s="3">
         <v>2486700</v>
@@ -1955,25 +1955,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20056700</v>
+        <v>19440100</v>
       </c>
       <c r="E42" s="3">
-        <v>16285300</v>
+        <v>15784600</v>
       </c>
       <c r="F42" s="3">
-        <v>8611000</v>
+        <v>8346300</v>
       </c>
       <c r="G42" s="3">
-        <v>3497300</v>
+        <v>3389800</v>
       </c>
       <c r="H42" s="3">
-        <v>289400</v>
+        <v>280500</v>
       </c>
       <c r="I42" s="3">
-        <v>1220800</v>
+        <v>1183200</v>
       </c>
       <c r="J42" s="3">
-        <v>2564200</v>
+        <v>2485300</v>
       </c>
       <c r="K42" s="3">
         <v>405900</v>
@@ -1997,25 +1997,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3798000</v>
+        <v>3681200</v>
       </c>
       <c r="E43" s="3">
-        <v>2473400</v>
+        <v>2397400</v>
       </c>
       <c r="F43" s="3">
-        <v>2055800</v>
+        <v>1992600</v>
       </c>
       <c r="G43" s="3">
-        <v>1702400</v>
+        <v>1650100</v>
       </c>
       <c r="H43" s="3">
-        <v>2411300</v>
+        <v>2337100</v>
       </c>
       <c r="I43" s="3">
-        <v>4589800</v>
+        <v>4448700</v>
       </c>
       <c r="J43" s="3">
-        <v>6449700</v>
+        <v>6251400</v>
       </c>
       <c r="K43" s="3">
         <v>1776600</v>
@@ -2039,25 +2039,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11080500</v>
+        <v>10739800</v>
       </c>
       <c r="E44" s="3">
-        <v>10746700</v>
+        <v>10416300</v>
       </c>
       <c r="F44" s="3">
-        <v>8377300</v>
+        <v>8119700</v>
       </c>
       <c r="G44" s="3">
-        <v>8235100</v>
+        <v>7981900</v>
       </c>
       <c r="H44" s="3">
-        <v>6258900</v>
+        <v>6066500</v>
       </c>
       <c r="I44" s="3">
-        <v>5927700</v>
+        <v>5745500</v>
       </c>
       <c r="J44" s="3">
-        <v>8218900</v>
+        <v>7966300</v>
       </c>
       <c r="K44" s="3">
         <v>2859100</v>
@@ -2081,25 +2081,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3760000</v>
+        <v>3644400</v>
       </c>
       <c r="E45" s="3">
-        <v>3033500</v>
+        <v>2940200</v>
       </c>
       <c r="F45" s="3">
-        <v>2095900</v>
+        <v>2031500</v>
       </c>
       <c r="G45" s="3">
-        <v>1082100</v>
+        <v>1048800</v>
       </c>
       <c r="H45" s="3">
-        <v>1075400</v>
+        <v>1042300</v>
       </c>
       <c r="I45" s="3">
-        <v>961500</v>
+        <v>931900</v>
       </c>
       <c r="J45" s="3">
-        <v>3792000</v>
+        <v>3675400</v>
       </c>
       <c r="K45" s="3">
         <v>817500</v>
@@ -2123,25 +2123,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>49905200</v>
+        <v>48371000</v>
       </c>
       <c r="E46" s="3">
-        <v>42598400</v>
+        <v>41288800</v>
       </c>
       <c r="F46" s="3">
-        <v>33377000</v>
+        <v>32350900</v>
       </c>
       <c r="G46" s="3">
-        <v>19772300</v>
+        <v>19164400</v>
       </c>
       <c r="H46" s="3">
-        <v>14905200</v>
+        <v>14447000</v>
       </c>
       <c r="I46" s="3">
-        <v>16351300</v>
+        <v>15848600</v>
       </c>
       <c r="J46" s="3">
-        <v>15200400</v>
+        <v>14733100</v>
       </c>
       <c r="K46" s="3">
         <v>8138800</v>
@@ -2165,25 +2165,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9844200</v>
+        <v>9541500</v>
       </c>
       <c r="E47" s="3">
-        <v>11700400</v>
+        <v>11340700</v>
       </c>
       <c r="F47" s="3">
-        <v>13871900</v>
+        <v>13445500</v>
       </c>
       <c r="G47" s="3">
-        <v>8101500</v>
+        <v>7852500</v>
       </c>
       <c r="H47" s="3">
-        <v>6717800</v>
+        <v>6511200</v>
       </c>
       <c r="I47" s="3">
-        <v>4062500</v>
+        <v>3937600</v>
       </c>
       <c r="J47" s="3">
-        <v>5304300</v>
+        <v>5141200</v>
       </c>
       <c r="K47" s="3">
         <v>1352900</v>
@@ -2207,25 +2207,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12581400</v>
+        <v>12194600</v>
       </c>
       <c r="E48" s="3">
-        <v>8351000</v>
+        <v>8094300</v>
       </c>
       <c r="F48" s="3">
-        <v>6537100</v>
+        <v>6336100</v>
       </c>
       <c r="G48" s="3">
-        <v>4990000</v>
+        <v>4836600</v>
       </c>
       <c r="H48" s="3">
-        <v>3928500</v>
+        <v>3807800</v>
       </c>
       <c r="I48" s="3">
-        <v>2241800</v>
+        <v>2172900</v>
       </c>
       <c r="J48" s="3">
-        <v>2279900</v>
+        <v>2209800</v>
       </c>
       <c r="K48" s="3">
         <v>1044000</v>
@@ -2249,25 +2249,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9397500</v>
+        <v>9108600</v>
       </c>
       <c r="E49" s="3">
-        <v>4633800</v>
+        <v>4491400</v>
       </c>
       <c r="F49" s="3">
-        <v>4050200</v>
+        <v>3925700</v>
       </c>
       <c r="G49" s="3">
-        <v>3076900</v>
+        <v>2982300</v>
       </c>
       <c r="H49" s="3">
-        <v>3145900</v>
+        <v>3049200</v>
       </c>
       <c r="I49" s="3">
-        <v>2899000</v>
+        <v>2809900</v>
       </c>
       <c r="J49" s="3">
-        <v>4017300</v>
+        <v>3893800</v>
       </c>
       <c r="K49" s="3">
         <v>983400</v>
@@ -2375,25 +2375,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2886500</v>
+        <v>2797800</v>
       </c>
       <c r="E52" s="3">
-        <v>3294900</v>
+        <v>3193600</v>
       </c>
       <c r="F52" s="3">
-        <v>2192100</v>
+        <v>2124700</v>
       </c>
       <c r="G52" s="3">
-        <v>979000</v>
+        <v>948900</v>
       </c>
       <c r="H52" s="3">
-        <v>1035300</v>
+        <v>1003500</v>
       </c>
       <c r="I52" s="3">
-        <v>608700</v>
+        <v>590000</v>
       </c>
       <c r="J52" s="3">
-        <v>1627900</v>
+        <v>1577900</v>
       </c>
       <c r="K52" s="3">
         <v>293200</v>
@@ -2459,25 +2459,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>84614800</v>
+        <v>82013500</v>
       </c>
       <c r="E54" s="3">
-        <v>70578500</v>
+        <v>68408700</v>
       </c>
       <c r="F54" s="3">
-        <v>60028200</v>
+        <v>58182800</v>
       </c>
       <c r="G54" s="3">
-        <v>36919700</v>
+        <v>35784700</v>
       </c>
       <c r="H54" s="3">
-        <v>29732800</v>
+        <v>28818700</v>
       </c>
       <c r="I54" s="3">
-        <v>26163400</v>
+        <v>25359100</v>
       </c>
       <c r="J54" s="3">
-        <v>22797100</v>
+        <v>22096300</v>
       </c>
       <c r="K54" s="3">
         <v>11834100</v>
@@ -2537,25 +2537,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22899700</v>
+        <v>22195700</v>
       </c>
       <c r="E57" s="3">
-        <v>20043600</v>
+        <v>19427400</v>
       </c>
       <c r="F57" s="3">
-        <v>15267400</v>
+        <v>14798100</v>
       </c>
       <c r="G57" s="3">
-        <v>12899600</v>
+        <v>12503000</v>
       </c>
       <c r="H57" s="3">
-        <v>11400500</v>
+        <v>11050000</v>
       </c>
       <c r="I57" s="3">
-        <v>10574800</v>
+        <v>10249700</v>
       </c>
       <c r="J57" s="3">
-        <v>6566000</v>
+        <v>6364200</v>
       </c>
       <c r="K57" s="3">
         <v>4165400</v>
@@ -2579,25 +2579,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1726600</v>
+        <v>1673500</v>
       </c>
       <c r="E58" s="3">
-        <v>620900</v>
+        <v>601800</v>
       </c>
       <c r="F58" s="3">
-        <v>463400</v>
+        <v>449100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>646100</v>
+        <v>626200</v>
       </c>
       <c r="I58" s="3">
-        <v>1831600</v>
+        <v>1775300</v>
       </c>
       <c r="J58" s="3">
-        <v>1579200</v>
+        <v>1530700</v>
       </c>
       <c r="K58" s="3">
         <v>503900</v>
@@ -2621,25 +2621,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13265400</v>
+        <v>12857600</v>
       </c>
       <c r="E59" s="3">
-        <v>10841100</v>
+        <v>10507800</v>
       </c>
       <c r="F59" s="3">
-        <v>9005600</v>
+        <v>8728800</v>
       </c>
       <c r="G59" s="3">
-        <v>7003800</v>
+        <v>6788500</v>
       </c>
       <c r="H59" s="3">
-        <v>5134000</v>
+        <v>4976100</v>
       </c>
       <c r="I59" s="3">
-        <v>4402900</v>
+        <v>4267600</v>
       </c>
       <c r="J59" s="3">
-        <v>10927300</v>
+        <v>10591400</v>
       </c>
       <c r="K59" s="3">
         <v>2149300</v>
@@ -2663,25 +2663,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37891600</v>
+        <v>36726800</v>
       </c>
       <c r="E60" s="3">
-        <v>31505600</v>
+        <v>30537000</v>
       </c>
       <c r="F60" s="3">
-        <v>24736500</v>
+        <v>23976000</v>
       </c>
       <c r="G60" s="3">
-        <v>19903400</v>
+        <v>19291500</v>
       </c>
       <c r="H60" s="3">
-        <v>17180500</v>
+        <v>16652400</v>
       </c>
       <c r="I60" s="3">
-        <v>16809300</v>
+        <v>16292600</v>
       </c>
       <c r="J60" s="3">
-        <v>14888800</v>
+        <v>14431100</v>
       </c>
       <c r="K60" s="3">
         <v>6818400</v>
@@ -2705,25 +2705,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4297600</v>
+        <v>4165500</v>
       </c>
       <c r="E61" s="3">
-        <v>1334200</v>
+        <v>1293200</v>
       </c>
       <c r="F61" s="3">
-        <v>1781200</v>
+        <v>1726500</v>
       </c>
       <c r="G61" s="3">
-        <v>1428900</v>
+        <v>1384900</v>
       </c>
       <c r="H61" s="3">
-        <v>1403700</v>
+        <v>1360500</v>
       </c>
       <c r="I61" s="3">
-        <v>1552600</v>
+        <v>1504900</v>
       </c>
       <c r="J61" s="3">
-        <v>1300600</v>
+        <v>1260600</v>
       </c>
       <c r="K61" s="3">
         <v>383300</v>
@@ -2747,25 +2747,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3458900</v>
+        <v>3352600</v>
       </c>
       <c r="E62" s="3">
-        <v>2658300</v>
+        <v>2576600</v>
       </c>
       <c r="F62" s="3">
-        <v>2007300</v>
+        <v>1945600</v>
       </c>
       <c r="G62" s="3">
-        <v>1283700</v>
+        <v>1244200</v>
       </c>
       <c r="H62" s="3">
-        <v>227500</v>
+        <v>220500</v>
       </c>
       <c r="I62" s="3">
-        <v>354400</v>
+        <v>343500</v>
       </c>
       <c r="J62" s="3">
-        <v>490800</v>
+        <v>475700</v>
       </c>
       <c r="K62" s="3">
         <v>356000</v>
@@ -2915,25 +2915,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54284800</v>
+        <v>52616000</v>
       </c>
       <c r="E66" s="3">
-        <v>40881800</v>
+        <v>39625000</v>
       </c>
       <c r="F66" s="3">
-        <v>33368900</v>
+        <v>32343100</v>
       </c>
       <c r="G66" s="3">
-        <v>25283900</v>
+        <v>24506600</v>
       </c>
       <c r="H66" s="3">
-        <v>21236300</v>
+        <v>20583500</v>
       </c>
       <c r="I66" s="3">
-        <v>18765800</v>
+        <v>18188900</v>
       </c>
       <c r="J66" s="3">
-        <v>17979200</v>
+        <v>17426500</v>
       </c>
       <c r="K66" s="3">
         <v>7576900</v>
@@ -3143,25 +3143,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4659300</v>
+        <v>4516000</v>
       </c>
       <c r="E72" s="3">
-        <v>5030800</v>
+        <v>4876200</v>
       </c>
       <c r="F72" s="3">
-        <v>5537000</v>
+        <v>5366800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1486000</v>
+        <v>-1440300</v>
       </c>
       <c r="H72" s="3">
-        <v>-3217900</v>
+        <v>-3119000</v>
       </c>
       <c r="I72" s="3">
-        <v>-3070200</v>
+        <v>-2975900</v>
       </c>
       <c r="J72" s="3">
-        <v>-3088600</v>
+        <v>-2993600</v>
       </c>
       <c r="K72" s="3">
         <v>-2556400</v>
@@ -3311,25 +3311,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30330000</v>
+        <v>29397600</v>
       </c>
       <c r="E76" s="3">
-        <v>29696700</v>
+        <v>28783800</v>
       </c>
       <c r="F76" s="3">
-        <v>26659300</v>
+        <v>25839700</v>
       </c>
       <c r="G76" s="3">
-        <v>11635800</v>
+        <v>11278100</v>
       </c>
       <c r="H76" s="3">
-        <v>8496400</v>
+        <v>8235200</v>
       </c>
       <c r="I76" s="3">
-        <v>7397600</v>
+        <v>7170200</v>
       </c>
       <c r="J76" s="3">
-        <v>4817900</v>
+        <v>4669800</v>
       </c>
       <c r="K76" s="3">
         <v>4257200</v>
@@ -3442,25 +3442,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1475500</v>
+        <v>1430200</v>
       </c>
       <c r="E81" s="3">
-        <v>-506100</v>
+        <v>-490500</v>
       </c>
       <c r="F81" s="3">
-        <v>7023000</v>
+        <v>6807100</v>
       </c>
       <c r="G81" s="3">
-        <v>1732000</v>
+        <v>1678700</v>
       </c>
       <c r="H81" s="3">
-        <v>-354200</v>
+        <v>-343300</v>
       </c>
       <c r="I81" s="3">
-        <v>-21600</v>
+        <v>-21000</v>
       </c>
       <c r="J81" s="3">
-        <v>-541100</v>
+        <v>-524500</v>
       </c>
       <c r="K81" s="3">
         <v>-1267800</v>
@@ -3502,25 +3502,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1028600</v>
+        <v>997000</v>
       </c>
       <c r="E83" s="3">
-        <v>885900</v>
+        <v>858600</v>
       </c>
       <c r="F83" s="3">
-        <v>862500</v>
+        <v>836000</v>
       </c>
       <c r="G83" s="3">
-        <v>828500</v>
+        <v>803000</v>
       </c>
       <c r="H83" s="3">
-        <v>790400</v>
+        <v>766100</v>
       </c>
       <c r="I83" s="3">
-        <v>596000</v>
+        <v>577700</v>
       </c>
       <c r="J83" s="3">
-        <v>486200</v>
+        <v>471200</v>
       </c>
       <c r="K83" s="3">
         <v>349000</v>
@@ -3754,25 +3754,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8219000</v>
+        <v>7966300</v>
       </c>
       <c r="E89" s="3">
-        <v>6013100</v>
+        <v>5828200</v>
       </c>
       <c r="F89" s="3">
-        <v>6047700</v>
+        <v>5861800</v>
       </c>
       <c r="G89" s="3">
-        <v>3522700</v>
+        <v>3414400</v>
       </c>
       <c r="H89" s="3">
-        <v>2968300</v>
+        <v>2877000</v>
       </c>
       <c r="I89" s="3">
-        <v>3817700</v>
+        <v>3700300</v>
       </c>
       <c r="J89" s="3">
-        <v>1171400</v>
+        <v>1135400</v>
       </c>
       <c r="K89" s="3">
         <v>236100</v>
@@ -3814,25 +3814,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-781100</v>
+        <v>-757100</v>
       </c>
       <c r="E91" s="3">
-        <v>-790600</v>
+        <v>-766300</v>
       </c>
       <c r="F91" s="3">
-        <v>-479100</v>
+        <v>-464300</v>
       </c>
       <c r="G91" s="3">
-        <v>-369200</v>
+        <v>-357800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1385000</v>
+        <v>-1342500</v>
       </c>
       <c r="I91" s="3">
-        <v>-468300</v>
+        <v>-453900</v>
       </c>
       <c r="J91" s="3">
-        <v>-304300</v>
+        <v>-295000</v>
       </c>
       <c r="K91" s="3">
         <v>-355000</v>
@@ -3940,25 +3940,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7679800</v>
+        <v>-7443700</v>
       </c>
       <c r="E94" s="3">
-        <v>-10554400</v>
+        <v>-10229900</v>
       </c>
       <c r="F94" s="3">
-        <v>-8217800</v>
+        <v>-7965100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3603400</v>
+        <v>-3492600</v>
       </c>
       <c r="H94" s="3">
-        <v>-3707100</v>
+        <v>-3593200</v>
       </c>
       <c r="I94" s="3">
-        <v>-5659700</v>
+        <v>-5485800</v>
       </c>
       <c r="J94" s="3">
-        <v>-6465200</v>
+        <v>-6266400</v>
       </c>
       <c r="K94" s="3">
         <v>-806000</v>
@@ -4000,7 +4000,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1860300</v>
+        <v>-1803100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4168,25 +4168,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>167700</v>
+        <v>162600</v>
       </c>
       <c r="E100" s="3">
-        <v>2772400</v>
+        <v>2687100</v>
       </c>
       <c r="F100" s="3">
-        <v>10102800</v>
+        <v>9792200</v>
       </c>
       <c r="G100" s="3">
-        <v>365700</v>
+        <v>354400</v>
       </c>
       <c r="H100" s="3">
-        <v>1594900</v>
+        <v>1545900</v>
       </c>
       <c r="I100" s="3">
-        <v>2734300</v>
+        <v>2650200</v>
       </c>
       <c r="J100" s="3">
-        <v>5785400</v>
+        <v>5607600</v>
       </c>
       <c r="K100" s="3">
         <v>654300</v>
@@ -4210,25 +4210,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>496100</v>
+        <v>480900</v>
       </c>
       <c r="E101" s="3">
-        <v>-212900</v>
+        <v>-206400</v>
       </c>
       <c r="F101" s="3">
-        <v>-722500</v>
+        <v>-700300</v>
       </c>
       <c r="G101" s="3">
-        <v>57700</v>
+        <v>55900</v>
       </c>
       <c r="H101" s="3">
-        <v>239000</v>
+        <v>231600</v>
       </c>
       <c r="I101" s="3">
-        <v>-91200</v>
+        <v>-88400</v>
       </c>
       <c r="J101" s="3">
-        <v>103300</v>
+        <v>100100</v>
       </c>
       <c r="K101" s="3">
         <v>47800</v>
@@ -4252,25 +4252,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1203000</v>
+        <v>1166000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1981900</v>
+        <v>-1920900</v>
       </c>
       <c r="F102" s="3">
-        <v>7210300</v>
+        <v>6988600</v>
       </c>
       <c r="G102" s="3">
-        <v>342600</v>
+        <v>332100</v>
       </c>
       <c r="H102" s="3">
-        <v>1095100</v>
+        <v>1061400</v>
       </c>
       <c r="I102" s="3">
-        <v>801000</v>
+        <v>776400</v>
       </c>
       <c r="J102" s="3">
-        <v>594900</v>
+        <v>576600</v>
       </c>
       <c r="K102" s="3">
         <v>132100</v>

--- a/AAII_Financials/Yearly/JD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JD_YR_FIN.xlsx
@@ -729,25 +729,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>144150400</v>
+        <v>144464300</v>
       </c>
       <c r="E8" s="3">
-        <v>131110300</v>
+        <v>131395800</v>
       </c>
       <c r="F8" s="3">
-        <v>102756600</v>
+        <v>102980300</v>
       </c>
       <c r="G8" s="3">
-        <v>79483700</v>
+        <v>79656800</v>
       </c>
       <c r="H8" s="3">
-        <v>63657100</v>
+        <v>63795700</v>
       </c>
       <c r="I8" s="3">
-        <v>49922100</v>
+        <v>50030800</v>
       </c>
       <c r="J8" s="3">
-        <v>35587200</v>
+        <v>35664700</v>
       </c>
       <c r="K8" s="3">
         <v>25201100</v>
@@ -771,25 +771,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>123886700</v>
+        <v>124156400</v>
       </c>
       <c r="E9" s="3">
-        <v>113327600</v>
+        <v>113574400</v>
       </c>
       <c r="F9" s="3">
-        <v>87723600</v>
+        <v>87914600</v>
       </c>
       <c r="G9" s="3">
-        <v>67852200</v>
+        <v>67999900</v>
       </c>
       <c r="H9" s="3">
-        <v>54570000</v>
+        <v>54688800</v>
       </c>
       <c r="I9" s="3">
-        <v>42920800</v>
+        <v>43014200</v>
       </c>
       <c r="J9" s="3">
-        <v>61123800</v>
+        <v>61256900</v>
       </c>
       <c r="K9" s="3">
         <v>43982800</v>
@@ -813,25 +813,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20263700</v>
+        <v>20307800</v>
       </c>
       <c r="E10" s="3">
-        <v>17782700</v>
+        <v>17821400</v>
       </c>
       <c r="F10" s="3">
-        <v>15032900</v>
+        <v>15065700</v>
       </c>
       <c r="G10" s="3">
-        <v>11631500</v>
+        <v>11656900</v>
       </c>
       <c r="H10" s="3">
-        <v>9087100</v>
+        <v>9106900</v>
       </c>
       <c r="I10" s="3">
-        <v>7001300</v>
+        <v>7016500</v>
       </c>
       <c r="J10" s="3">
-        <v>-25536600</v>
+        <v>-25592200</v>
       </c>
       <c r="K10" s="3">
         <v>-18781800</v>
@@ -873,25 +873,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2290200</v>
+        <v>2295200</v>
       </c>
       <c r="E12" s="3">
-        <v>2235900</v>
+        <v>2240800</v>
       </c>
       <c r="F12" s="3">
-        <v>2211400</v>
+        <v>2216200</v>
       </c>
       <c r="G12" s="3">
-        <v>2000500</v>
+        <v>2004900</v>
       </c>
       <c r="H12" s="3">
-        <v>1659800</v>
+        <v>1663400</v>
       </c>
       <c r="I12" s="3">
-        <v>905000</v>
+        <v>907000</v>
       </c>
       <c r="J12" s="3">
-        <v>607200</v>
+        <v>608500</v>
       </c>
       <c r="K12" s="3">
         <v>400600</v>
@@ -957,19 +957,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>571500</v>
+        <v>572800</v>
       </c>
       <c r="E14" s="3">
-        <v>-45900</v>
+        <v>-46000</v>
       </c>
       <c r="F14" s="3">
-        <v>-237000</v>
+        <v>-237500</v>
       </c>
       <c r="G14" s="3">
-        <v>-431300</v>
+        <v>-432200</v>
       </c>
       <c r="H14" s="3">
-        <v>-97100</v>
+        <v>-97300</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -999,25 +999,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>233100</v>
+        <v>233600</v>
       </c>
       <c r="E15" s="3">
-        <v>204900</v>
+        <v>205300</v>
       </c>
       <c r="F15" s="3">
-        <v>178100</v>
+        <v>178500</v>
       </c>
       <c r="G15" s="3">
-        <v>166600</v>
+        <v>166900</v>
       </c>
       <c r="H15" s="3">
-        <v>248800</v>
+        <v>249400</v>
       </c>
       <c r="I15" s="3">
-        <v>245000</v>
+        <v>245500</v>
       </c>
       <c r="J15" s="3">
-        <v>221700</v>
+        <v>222200</v>
       </c>
       <c r="K15" s="3">
         <v>200300</v>
@@ -1056,25 +1056,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>142194500</v>
+        <v>142504100</v>
       </c>
       <c r="E17" s="3">
-        <v>130599600</v>
+        <v>130884000</v>
       </c>
       <c r="F17" s="3">
-        <v>101046200</v>
+        <v>101266200</v>
       </c>
       <c r="G17" s="3">
-        <v>78348400</v>
+        <v>78518900</v>
       </c>
       <c r="H17" s="3">
-        <v>63917800</v>
+        <v>64056900</v>
       </c>
       <c r="I17" s="3">
-        <v>50037200</v>
+        <v>50146100</v>
       </c>
       <c r="J17" s="3">
-        <v>35759600</v>
+        <v>35837500</v>
       </c>
       <c r="K17" s="3">
         <v>25946900</v>
@@ -1098,25 +1098,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1955900</v>
+        <v>1960200</v>
       </c>
       <c r="E18" s="3">
-        <v>510800</v>
+        <v>511900</v>
       </c>
       <c r="F18" s="3">
-        <v>1710400</v>
+        <v>1714100</v>
       </c>
       <c r="G18" s="3">
-        <v>1135300</v>
+        <v>1137800</v>
       </c>
       <c r="H18" s="3">
-        <v>-260700</v>
+        <v>-261200</v>
       </c>
       <c r="I18" s="3">
-        <v>-115100</v>
+        <v>-115400</v>
       </c>
       <c r="J18" s="3">
-        <v>-172500</v>
+        <v>-172800</v>
       </c>
       <c r="K18" s="3">
         <v>-745800</v>
@@ -1158,22 +1158,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>244800</v>
+        <v>245400</v>
       </c>
       <c r="E20" s="3">
-        <v>-699100</v>
+        <v>-700600</v>
       </c>
       <c r="F20" s="3">
-        <v>5446500</v>
+        <v>5458300</v>
       </c>
       <c r="G20" s="3">
-        <v>851100</v>
+        <v>853000</v>
       </c>
       <c r="H20" s="3">
-        <v>51400</v>
+        <v>51500</v>
       </c>
       <c r="I20" s="3">
-        <v>264600</v>
+        <v>265100</v>
       </c>
       <c r="J20" s="3">
         <v>-1600</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3197700</v>
+        <v>3204100</v>
       </c>
       <c r="E21" s="3">
-        <v>670300</v>
+        <v>671300</v>
       </c>
       <c r="F21" s="3">
-        <v>7992900</v>
+        <v>8009800</v>
       </c>
       <c r="G21" s="3">
-        <v>2789400</v>
+        <v>2795000</v>
       </c>
       <c r="H21" s="3">
-        <v>556800</v>
+        <v>557500</v>
       </c>
       <c r="I21" s="3">
-        <v>727100</v>
+        <v>728400</v>
       </c>
       <c r="J21" s="3">
-        <v>297200</v>
+        <v>297600</v>
       </c>
       <c r="K21" s="3">
         <v>-723200</v>
@@ -1242,25 +1242,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>290200</v>
+        <v>290800</v>
       </c>
       <c r="E22" s="3">
-        <v>167100</v>
+        <v>167500</v>
       </c>
       <c r="F22" s="3">
-        <v>155000</v>
+        <v>155400</v>
       </c>
       <c r="G22" s="3">
-        <v>99900</v>
+        <v>100100</v>
       </c>
       <c r="H22" s="3">
-        <v>117700</v>
+        <v>118000</v>
       </c>
       <c r="I22" s="3">
-        <v>132800</v>
+        <v>133100</v>
       </c>
       <c r="J22" s="3">
-        <v>85200</v>
+        <v>85400</v>
       </c>
       <c r="K22" s="3">
         <v>10100</v>
@@ -1284,25 +1284,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1910600</v>
+        <v>1914800</v>
       </c>
       <c r="E23" s="3">
-        <v>-355500</v>
+        <v>-356200</v>
       </c>
       <c r="F23" s="3">
-        <v>7001800</v>
+        <v>7017100</v>
       </c>
       <c r="G23" s="3">
-        <v>1886600</v>
+        <v>1890700</v>
       </c>
       <c r="H23" s="3">
-        <v>-327000</v>
+        <v>-327800</v>
       </c>
       <c r="I23" s="3">
         <v>16700</v>
       </c>
       <c r="J23" s="3">
-        <v>-259300</v>
+        <v>-259900</v>
       </c>
       <c r="K23" s="3">
         <v>-1079600</v>
@@ -1326,25 +1326,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>575400</v>
+        <v>576600</v>
       </c>
       <c r="E24" s="3">
-        <v>260000</v>
+        <v>260600</v>
       </c>
       <c r="F24" s="3">
-        <v>204100</v>
+        <v>204600</v>
       </c>
       <c r="G24" s="3">
-        <v>248300</v>
+        <v>248900</v>
       </c>
       <c r="H24" s="3">
-        <v>58800</v>
+        <v>58900</v>
       </c>
       <c r="I24" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="J24" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="K24" s="3">
         <v>-2000</v>
@@ -1410,25 +1410,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1335200</v>
+        <v>1338100</v>
       </c>
       <c r="E26" s="3">
-        <v>-615500</v>
+        <v>-616800</v>
       </c>
       <c r="F26" s="3">
-        <v>6797700</v>
+        <v>6812500</v>
       </c>
       <c r="G26" s="3">
-        <v>1638200</v>
+        <v>1641800</v>
       </c>
       <c r="H26" s="3">
-        <v>-385900</v>
+        <v>-386700</v>
       </c>
       <c r="I26" s="3">
         <v>-2600</v>
       </c>
       <c r="J26" s="3">
-        <v>-282200</v>
+        <v>-282800</v>
       </c>
       <c r="K26" s="3">
         <v>-1077600</v>
@@ -1452,25 +1452,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1430200</v>
+        <v>1433300</v>
       </c>
       <c r="E27" s="3">
-        <v>-490500</v>
+        <v>-491600</v>
       </c>
       <c r="F27" s="3">
-        <v>6807100</v>
+        <v>6821900</v>
       </c>
       <c r="G27" s="3">
-        <v>1678700</v>
+        <v>1682400</v>
       </c>
       <c r="H27" s="3">
-        <v>-343300</v>
+        <v>-344000</v>
       </c>
       <c r="I27" s="3">
         <v>16100</v>
       </c>
       <c r="J27" s="3">
-        <v>-275600</v>
+        <v>-276200</v>
       </c>
       <c r="K27" s="3">
         <v>-1076300</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-37100</v>
+        <v>-37200</v>
       </c>
       <c r="J29" s="3">
-        <v>-248900</v>
+        <v>-249400</v>
       </c>
       <c r="K29" s="3">
         <v>-191600</v>
@@ -1662,22 +1662,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-244800</v>
+        <v>-245400</v>
       </c>
       <c r="E32" s="3">
-        <v>699100</v>
+        <v>700600</v>
       </c>
       <c r="F32" s="3">
-        <v>-5446500</v>
+        <v>-5458300</v>
       </c>
       <c r="G32" s="3">
-        <v>-851100</v>
+        <v>-853000</v>
       </c>
       <c r="H32" s="3">
-        <v>-51400</v>
+        <v>-51500</v>
       </c>
       <c r="I32" s="3">
-        <v>-264600</v>
+        <v>-265100</v>
       </c>
       <c r="J32" s="3">
         <v>1600</v>
@@ -1704,25 +1704,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1430200</v>
+        <v>1433300</v>
       </c>
       <c r="E33" s="3">
-        <v>-490500</v>
+        <v>-491600</v>
       </c>
       <c r="F33" s="3">
-        <v>6807100</v>
+        <v>6821900</v>
       </c>
       <c r="G33" s="3">
-        <v>1678700</v>
+        <v>1682400</v>
       </c>
       <c r="H33" s="3">
-        <v>-343300</v>
+        <v>-344000</v>
       </c>
       <c r="I33" s="3">
         <v>-21000</v>
       </c>
       <c r="J33" s="3">
-        <v>-524500</v>
+        <v>-525600</v>
       </c>
       <c r="K33" s="3">
         <v>-1267800</v>
@@ -1788,25 +1788,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1430200</v>
+        <v>1433300</v>
       </c>
       <c r="E35" s="3">
-        <v>-490500</v>
+        <v>-491600</v>
       </c>
       <c r="F35" s="3">
-        <v>6807100</v>
+        <v>6821900</v>
       </c>
       <c r="G35" s="3">
-        <v>1678700</v>
+        <v>1682400</v>
       </c>
       <c r="H35" s="3">
-        <v>-343300</v>
+        <v>-344000</v>
       </c>
       <c r="I35" s="3">
         <v>-21000</v>
       </c>
       <c r="J35" s="3">
-        <v>-524500</v>
+        <v>-525600</v>
       </c>
       <c r="K35" s="3">
         <v>-1267800</v>
@@ -1913,25 +1913,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10865500</v>
+        <v>10889100</v>
       </c>
       <c r="E41" s="3">
-        <v>9750300</v>
+        <v>9771500</v>
       </c>
       <c r="F41" s="3">
-        <v>11860800</v>
+        <v>11886600</v>
       </c>
       <c r="G41" s="3">
-        <v>5093900</v>
+        <v>5105000</v>
       </c>
       <c r="H41" s="3">
-        <v>4720700</v>
+        <v>4731000</v>
       </c>
       <c r="I41" s="3">
-        <v>3539300</v>
+        <v>3547000</v>
       </c>
       <c r="J41" s="3">
-        <v>2144800</v>
+        <v>2149500</v>
       </c>
       <c r="K41" s="3">
         <v>2486700</v>
@@ -1955,25 +1955,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19440100</v>
+        <v>19482400</v>
       </c>
       <c r="E42" s="3">
-        <v>15784600</v>
+        <v>15819000</v>
       </c>
       <c r="F42" s="3">
-        <v>8346300</v>
+        <v>8364500</v>
       </c>
       <c r="G42" s="3">
-        <v>3389800</v>
+        <v>3397200</v>
       </c>
       <c r="H42" s="3">
-        <v>280500</v>
+        <v>281100</v>
       </c>
       <c r="I42" s="3">
-        <v>1183200</v>
+        <v>1185800</v>
       </c>
       <c r="J42" s="3">
-        <v>2485300</v>
+        <v>2490700</v>
       </c>
       <c r="K42" s="3">
         <v>405900</v>
@@ -1997,25 +1997,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3681200</v>
+        <v>3689200</v>
       </c>
       <c r="E43" s="3">
-        <v>2397400</v>
+        <v>2402600</v>
       </c>
       <c r="F43" s="3">
-        <v>1992600</v>
+        <v>1997000</v>
       </c>
       <c r="G43" s="3">
-        <v>1650100</v>
+        <v>1653700</v>
       </c>
       <c r="H43" s="3">
-        <v>2337100</v>
+        <v>2342200</v>
       </c>
       <c r="I43" s="3">
-        <v>4448700</v>
+        <v>4458400</v>
       </c>
       <c r="J43" s="3">
-        <v>6251400</v>
+        <v>6265100</v>
       </c>
       <c r="K43" s="3">
         <v>1776600</v>
@@ -2039,25 +2039,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10739800</v>
+        <v>10763200</v>
       </c>
       <c r="E44" s="3">
-        <v>10416300</v>
+        <v>10439000</v>
       </c>
       <c r="F44" s="3">
-        <v>8119700</v>
+        <v>8137400</v>
       </c>
       <c r="G44" s="3">
-        <v>7981900</v>
+        <v>7999300</v>
       </c>
       <c r="H44" s="3">
-        <v>6066500</v>
+        <v>6079700</v>
       </c>
       <c r="I44" s="3">
-        <v>5745500</v>
+        <v>5758000</v>
       </c>
       <c r="J44" s="3">
-        <v>7966300</v>
+        <v>7983600</v>
       </c>
       <c r="K44" s="3">
         <v>2859100</v>
@@ -2081,25 +2081,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3644400</v>
+        <v>3652400</v>
       </c>
       <c r="E45" s="3">
-        <v>2940200</v>
+        <v>2946600</v>
       </c>
       <c r="F45" s="3">
-        <v>2031500</v>
+        <v>2035900</v>
       </c>
       <c r="G45" s="3">
-        <v>1048800</v>
+        <v>1051100</v>
       </c>
       <c r="H45" s="3">
-        <v>1042300</v>
+        <v>1044600</v>
       </c>
       <c r="I45" s="3">
-        <v>931900</v>
+        <v>933900</v>
       </c>
       <c r="J45" s="3">
-        <v>3675400</v>
+        <v>3683400</v>
       </c>
       <c r="K45" s="3">
         <v>817500</v>
@@ -2123,25 +2123,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>48371000</v>
+        <v>48476300</v>
       </c>
       <c r="E46" s="3">
-        <v>41288800</v>
+        <v>41378700</v>
       </c>
       <c r="F46" s="3">
-        <v>32350900</v>
+        <v>32421400</v>
       </c>
       <c r="G46" s="3">
-        <v>19164400</v>
+        <v>19206200</v>
       </c>
       <c r="H46" s="3">
-        <v>14447000</v>
+        <v>14478500</v>
       </c>
       <c r="I46" s="3">
-        <v>15848600</v>
+        <v>15883200</v>
       </c>
       <c r="J46" s="3">
-        <v>14733100</v>
+        <v>14765200</v>
       </c>
       <c r="K46" s="3">
         <v>8138800</v>
@@ -2165,25 +2165,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9541500</v>
+        <v>9562300</v>
       </c>
       <c r="E47" s="3">
-        <v>11340700</v>
+        <v>11365400</v>
       </c>
       <c r="F47" s="3">
-        <v>13445500</v>
+        <v>13474700</v>
       </c>
       <c r="G47" s="3">
-        <v>7852500</v>
+        <v>7869600</v>
       </c>
       <c r="H47" s="3">
-        <v>6511200</v>
+        <v>6525400</v>
       </c>
       <c r="I47" s="3">
-        <v>3937600</v>
+        <v>3946200</v>
       </c>
       <c r="J47" s="3">
-        <v>5141200</v>
+        <v>5152400</v>
       </c>
       <c r="K47" s="3">
         <v>1352900</v>
@@ -2207,25 +2207,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12194600</v>
+        <v>12221200</v>
       </c>
       <c r="E48" s="3">
-        <v>8094300</v>
+        <v>8111900</v>
       </c>
       <c r="F48" s="3">
-        <v>6336100</v>
+        <v>6349900</v>
       </c>
       <c r="G48" s="3">
-        <v>4836600</v>
+        <v>4847200</v>
       </c>
       <c r="H48" s="3">
-        <v>3807800</v>
+        <v>3816100</v>
       </c>
       <c r="I48" s="3">
-        <v>2172900</v>
+        <v>2177600</v>
       </c>
       <c r="J48" s="3">
-        <v>2209800</v>
+        <v>2214700</v>
       </c>
       <c r="K48" s="3">
         <v>1044000</v>
@@ -2249,25 +2249,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9108600</v>
+        <v>9128500</v>
       </c>
       <c r="E49" s="3">
-        <v>4491400</v>
+        <v>4501100</v>
       </c>
       <c r="F49" s="3">
-        <v>3925700</v>
+        <v>3934200</v>
       </c>
       <c r="G49" s="3">
-        <v>2982300</v>
+        <v>2988800</v>
       </c>
       <c r="H49" s="3">
-        <v>3049200</v>
+        <v>3055900</v>
       </c>
       <c r="I49" s="3">
-        <v>2809900</v>
+        <v>2816000</v>
       </c>
       <c r="J49" s="3">
-        <v>3893800</v>
+        <v>3902200</v>
       </c>
       <c r="K49" s="3">
         <v>983400</v>
@@ -2375,25 +2375,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2797800</v>
+        <v>2803900</v>
       </c>
       <c r="E52" s="3">
-        <v>3193600</v>
+        <v>3200600</v>
       </c>
       <c r="F52" s="3">
-        <v>2124700</v>
+        <v>2129300</v>
       </c>
       <c r="G52" s="3">
-        <v>948900</v>
+        <v>950900</v>
       </c>
       <c r="H52" s="3">
-        <v>1003500</v>
+        <v>1005700</v>
       </c>
       <c r="I52" s="3">
-        <v>590000</v>
+        <v>591300</v>
       </c>
       <c r="J52" s="3">
-        <v>1577900</v>
+        <v>1581300</v>
       </c>
       <c r="K52" s="3">
         <v>293200</v>
@@ -2459,25 +2459,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>82013500</v>
+        <v>82192100</v>
       </c>
       <c r="E54" s="3">
-        <v>68408700</v>
+        <v>68557700</v>
       </c>
       <c r="F54" s="3">
-        <v>58182800</v>
+        <v>58309500</v>
       </c>
       <c r="G54" s="3">
-        <v>35784700</v>
+        <v>35862600</v>
       </c>
       <c r="H54" s="3">
-        <v>28818700</v>
+        <v>28881500</v>
       </c>
       <c r="I54" s="3">
-        <v>25359100</v>
+        <v>25414300</v>
       </c>
       <c r="J54" s="3">
-        <v>22096300</v>
+        <v>22144400</v>
       </c>
       <c r="K54" s="3">
         <v>11834100</v>
@@ -2537,25 +2537,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22195700</v>
+        <v>22244000</v>
       </c>
       <c r="E57" s="3">
-        <v>19427400</v>
+        <v>19469700</v>
       </c>
       <c r="F57" s="3">
-        <v>14798100</v>
+        <v>14830300</v>
       </c>
       <c r="G57" s="3">
-        <v>12503000</v>
+        <v>12530300</v>
       </c>
       <c r="H57" s="3">
-        <v>11050000</v>
+        <v>11074100</v>
       </c>
       <c r="I57" s="3">
-        <v>10249700</v>
+        <v>10272100</v>
       </c>
       <c r="J57" s="3">
-        <v>6364200</v>
+        <v>6378000</v>
       </c>
       <c r="K57" s="3">
         <v>4165400</v>
@@ -2579,25 +2579,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1673500</v>
+        <v>1677100</v>
       </c>
       <c r="E58" s="3">
-        <v>601800</v>
+        <v>603100</v>
       </c>
       <c r="F58" s="3">
-        <v>449100</v>
+        <v>450100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>626200</v>
+        <v>627600</v>
       </c>
       <c r="I58" s="3">
-        <v>1775300</v>
+        <v>1779100</v>
       </c>
       <c r="J58" s="3">
-        <v>1530700</v>
+        <v>1534000</v>
       </c>
       <c r="K58" s="3">
         <v>503900</v>
@@ -2621,25 +2621,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12857600</v>
+        <v>12885600</v>
       </c>
       <c r="E59" s="3">
-        <v>10507800</v>
+        <v>10530700</v>
       </c>
       <c r="F59" s="3">
-        <v>8728800</v>
+        <v>8747800</v>
       </c>
       <c r="G59" s="3">
-        <v>6788500</v>
+        <v>6803300</v>
       </c>
       <c r="H59" s="3">
-        <v>4976100</v>
+        <v>4987000</v>
       </c>
       <c r="I59" s="3">
-        <v>4267600</v>
+        <v>4276800</v>
       </c>
       <c r="J59" s="3">
-        <v>10591400</v>
+        <v>10614400</v>
       </c>
       <c r="K59" s="3">
         <v>2149300</v>
@@ -2663,25 +2663,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36726800</v>
+        <v>36806700</v>
       </c>
       <c r="E60" s="3">
-        <v>30537000</v>
+        <v>30603500</v>
       </c>
       <c r="F60" s="3">
-        <v>23976000</v>
+        <v>24028200</v>
       </c>
       <c r="G60" s="3">
-        <v>19291500</v>
+        <v>19333600</v>
       </c>
       <c r="H60" s="3">
-        <v>16652400</v>
+        <v>16688600</v>
       </c>
       <c r="I60" s="3">
-        <v>16292600</v>
+        <v>16328000</v>
       </c>
       <c r="J60" s="3">
-        <v>14431100</v>
+        <v>14462500</v>
       </c>
       <c r="K60" s="3">
         <v>6818400</v>
@@ -2705,25 +2705,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4165500</v>
+        <v>4174600</v>
       </c>
       <c r="E61" s="3">
-        <v>1293200</v>
+        <v>1296000</v>
       </c>
       <c r="F61" s="3">
-        <v>1726500</v>
+        <v>1730200</v>
       </c>
       <c r="G61" s="3">
-        <v>1384900</v>
+        <v>1388000</v>
       </c>
       <c r="H61" s="3">
-        <v>1360500</v>
+        <v>1363500</v>
       </c>
       <c r="I61" s="3">
-        <v>1504900</v>
+        <v>1508200</v>
       </c>
       <c r="J61" s="3">
-        <v>1260600</v>
+        <v>1263300</v>
       </c>
       <c r="K61" s="3">
         <v>383300</v>
@@ -2747,25 +2747,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3352600</v>
+        <v>3359900</v>
       </c>
       <c r="E62" s="3">
-        <v>2576600</v>
+        <v>2582200</v>
       </c>
       <c r="F62" s="3">
-        <v>1945600</v>
+        <v>1949900</v>
       </c>
       <c r="G62" s="3">
-        <v>1244200</v>
+        <v>1247000</v>
       </c>
       <c r="H62" s="3">
-        <v>220500</v>
+        <v>220900</v>
       </c>
       <c r="I62" s="3">
-        <v>343500</v>
+        <v>344200</v>
       </c>
       <c r="J62" s="3">
-        <v>475700</v>
+        <v>476700</v>
       </c>
       <c r="K62" s="3">
         <v>356000</v>
@@ -2915,25 +2915,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52616000</v>
+        <v>52730500</v>
       </c>
       <c r="E66" s="3">
-        <v>39625000</v>
+        <v>39711300</v>
       </c>
       <c r="F66" s="3">
-        <v>32343100</v>
+        <v>32413500</v>
       </c>
       <c r="G66" s="3">
-        <v>24506600</v>
+        <v>24560000</v>
       </c>
       <c r="H66" s="3">
-        <v>20583500</v>
+        <v>20628300</v>
       </c>
       <c r="I66" s="3">
-        <v>18188900</v>
+        <v>18228500</v>
       </c>
       <c r="J66" s="3">
-        <v>17426500</v>
+        <v>17464400</v>
       </c>
       <c r="K66" s="3">
         <v>7576900</v>
@@ -3143,25 +3143,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4516000</v>
+        <v>4525800</v>
       </c>
       <c r="E72" s="3">
-        <v>4876200</v>
+        <v>4886800</v>
       </c>
       <c r="F72" s="3">
-        <v>5366800</v>
+        <v>5378500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1440300</v>
+        <v>-1443400</v>
       </c>
       <c r="H72" s="3">
-        <v>-3119000</v>
+        <v>-3125800</v>
       </c>
       <c r="I72" s="3">
-        <v>-2975900</v>
+        <v>-2982300</v>
       </c>
       <c r="J72" s="3">
-        <v>-2993600</v>
+        <v>-3000100</v>
       </c>
       <c r="K72" s="3">
         <v>-2556400</v>
@@ -3311,25 +3311,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29397600</v>
+        <v>29461600</v>
       </c>
       <c r="E76" s="3">
-        <v>28783800</v>
+        <v>28846400</v>
       </c>
       <c r="F76" s="3">
-        <v>25839700</v>
+        <v>25896000</v>
       </c>
       <c r="G76" s="3">
-        <v>11278100</v>
+        <v>11302700</v>
       </c>
       <c r="H76" s="3">
-        <v>8235200</v>
+        <v>8253200</v>
       </c>
       <c r="I76" s="3">
-        <v>7170200</v>
+        <v>7185800</v>
       </c>
       <c r="J76" s="3">
-        <v>4669800</v>
+        <v>4679900</v>
       </c>
       <c r="K76" s="3">
         <v>4257200</v>
@@ -3442,25 +3442,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1430200</v>
+        <v>1433300</v>
       </c>
       <c r="E81" s="3">
-        <v>-490500</v>
+        <v>-491600</v>
       </c>
       <c r="F81" s="3">
-        <v>6807100</v>
+        <v>6821900</v>
       </c>
       <c r="G81" s="3">
-        <v>1678700</v>
+        <v>1682400</v>
       </c>
       <c r="H81" s="3">
-        <v>-343300</v>
+        <v>-344000</v>
       </c>
       <c r="I81" s="3">
         <v>-21000</v>
       </c>
       <c r="J81" s="3">
-        <v>-524500</v>
+        <v>-525600</v>
       </c>
       <c r="K81" s="3">
         <v>-1267800</v>
@@ -3502,25 +3502,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>997000</v>
+        <v>999100</v>
       </c>
       <c r="E83" s="3">
-        <v>858600</v>
+        <v>860500</v>
       </c>
       <c r="F83" s="3">
-        <v>836000</v>
+        <v>837800</v>
       </c>
       <c r="G83" s="3">
-        <v>803000</v>
+        <v>804700</v>
       </c>
       <c r="H83" s="3">
-        <v>766100</v>
+        <v>767700</v>
       </c>
       <c r="I83" s="3">
-        <v>577700</v>
+        <v>578900</v>
       </c>
       <c r="J83" s="3">
-        <v>471200</v>
+        <v>472300</v>
       </c>
       <c r="K83" s="3">
         <v>349000</v>
@@ -3754,25 +3754,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7966300</v>
+        <v>7983600</v>
       </c>
       <c r="E89" s="3">
-        <v>5828200</v>
+        <v>5840900</v>
       </c>
       <c r="F89" s="3">
-        <v>5861800</v>
+        <v>5874500</v>
       </c>
       <c r="G89" s="3">
-        <v>3414400</v>
+        <v>3421800</v>
       </c>
       <c r="H89" s="3">
-        <v>2877000</v>
+        <v>2883300</v>
       </c>
       <c r="I89" s="3">
-        <v>3700300</v>
+        <v>3708400</v>
       </c>
       <c r="J89" s="3">
-        <v>1135400</v>
+        <v>1137800</v>
       </c>
       <c r="K89" s="3">
         <v>236100</v>
@@ -3814,25 +3814,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-757100</v>
+        <v>-758700</v>
       </c>
       <c r="E91" s="3">
-        <v>-766300</v>
+        <v>-768000</v>
       </c>
       <c r="F91" s="3">
-        <v>-464300</v>
+        <v>-465400</v>
       </c>
       <c r="G91" s="3">
-        <v>-357800</v>
+        <v>-358600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1342500</v>
+        <v>-1345400</v>
       </c>
       <c r="I91" s="3">
-        <v>-453900</v>
+        <v>-454900</v>
       </c>
       <c r="J91" s="3">
-        <v>-295000</v>
+        <v>-295600</v>
       </c>
       <c r="K91" s="3">
         <v>-355000</v>
@@ -3940,25 +3940,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7443700</v>
+        <v>-7459900</v>
       </c>
       <c r="E94" s="3">
-        <v>-10229900</v>
+        <v>-10252200</v>
       </c>
       <c r="F94" s="3">
-        <v>-7965100</v>
+        <v>-7982500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3492600</v>
+        <v>-3500200</v>
       </c>
       <c r="H94" s="3">
-        <v>-3593200</v>
+        <v>-3601000</v>
       </c>
       <c r="I94" s="3">
-        <v>-5485800</v>
+        <v>-5497700</v>
       </c>
       <c r="J94" s="3">
-        <v>-6266400</v>
+        <v>-6280100</v>
       </c>
       <c r="K94" s="3">
         <v>-806000</v>
@@ -4000,7 +4000,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1803100</v>
+        <v>-1807100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4168,25 +4168,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>162600</v>
+        <v>162900</v>
       </c>
       <c r="E100" s="3">
-        <v>2687100</v>
+        <v>2693000</v>
       </c>
       <c r="F100" s="3">
-        <v>9792200</v>
+        <v>9813600</v>
       </c>
       <c r="G100" s="3">
-        <v>354400</v>
+        <v>355200</v>
       </c>
       <c r="H100" s="3">
-        <v>1545900</v>
+        <v>1549200</v>
       </c>
       <c r="I100" s="3">
-        <v>2650200</v>
+        <v>2656000</v>
       </c>
       <c r="J100" s="3">
-        <v>5607600</v>
+        <v>5619800</v>
       </c>
       <c r="K100" s="3">
         <v>654300</v>
@@ -4210,25 +4210,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>480900</v>
+        <v>481900</v>
       </c>
       <c r="E101" s="3">
-        <v>-206400</v>
+        <v>-206800</v>
       </c>
       <c r="F101" s="3">
-        <v>-700300</v>
+        <v>-701800</v>
       </c>
       <c r="G101" s="3">
-        <v>55900</v>
+        <v>56000</v>
       </c>
       <c r="H101" s="3">
-        <v>231600</v>
+        <v>232100</v>
       </c>
       <c r="I101" s="3">
-        <v>-88400</v>
+        <v>-88600</v>
       </c>
       <c r="J101" s="3">
-        <v>100100</v>
+        <v>100300</v>
       </c>
       <c r="K101" s="3">
         <v>47800</v>
@@ -4252,25 +4252,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1166000</v>
+        <v>1168600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1920900</v>
+        <v>-1925100</v>
       </c>
       <c r="F102" s="3">
-        <v>6988600</v>
+        <v>7003800</v>
       </c>
       <c r="G102" s="3">
-        <v>332100</v>
+        <v>332800</v>
       </c>
       <c r="H102" s="3">
-        <v>1061400</v>
+        <v>1063700</v>
       </c>
       <c r="I102" s="3">
-        <v>776400</v>
+        <v>778100</v>
       </c>
       <c r="J102" s="3">
-        <v>576600</v>
+        <v>577800</v>
       </c>
       <c r="K102" s="3">
         <v>132100</v>
